--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FE9A95-BAEE-4457-814D-864434878427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218CBF10-6DAE-4CE7-A12F-83E4DBED78A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -429,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,7 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,6 +575,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,7 +987,7 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>63</c:v>
@@ -2859,7 +2877,7 @@
   <dimension ref="B2:CA70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3505,19 +3523,21 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="24">
         <v>2</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="22">
+        <v>1</v>
+      </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -4109,19 +4129,21 @@
       <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="14">
         <v>1</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -5227,19 +5249,19 @@
       <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="24">
         <v>1</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="1">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="22">
         <v>0.5</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="1">
+      <c r="H26" s="23"/>
+      <c r="I26" s="22">
         <v>0.8</v>
       </c>
       <c r="J26" s="11"/>
@@ -5317,7 +5339,7 @@
       <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D27" s="14">
@@ -8852,7 +8874,7 @@
       </c>
       <c r="K69" s="7">
         <f>D69-SUM(K6:K68)</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L69" s="7">
         <f>D69-SUM(L6:L68)</f>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218CBF10-6DAE-4CE7-A12F-83E4DBED78A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C383C7B-A840-4847-83FE-983661AE42BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -278,9 +278,6 @@
     <t>Index Hoofdpagina</t>
   </si>
   <si>
-    <t>Eenvoudig Formulier</t>
-  </si>
-  <si>
     <t>MySQL Database</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>PDO DB Connectie</t>
+  </si>
+  <si>
+    <t>OOP Code</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,18 +472,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -512,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,6 +546,9 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -573,21 +564,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -597,6 +573,7 @@
   <colors>
     <mruColors>
       <color rgb="FF99FF99"/>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FF66FF66"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FF9999FF"/>
@@ -604,7 +581,6 @@
       <color rgb="FFCCCCFF"/>
       <color rgb="FF3333CC"/>
       <color rgb="FF6666FF"/>
-      <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -978,7 +954,7 @@
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>62.2</c:v>
@@ -990,7 +966,7 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63</c:v>
+                  <c:v>61.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>63</c:v>
@@ -2877,7 +2853,7 @@
   <dimension ref="B2:CA70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2890,176 +2866,176 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:79" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="17"/>
-      <c r="BF2" s="17"/>
-      <c r="BG2" s="17"/>
-      <c r="BH2" s="17"/>
-      <c r="BI2" s="17"/>
-      <c r="BJ2" s="17"/>
-      <c r="BK2" s="17"/>
-      <c r="BL2" s="17"/>
-      <c r="BM2" s="17"/>
-      <c r="BN2" s="17"/>
-      <c r="BO2" s="17"/>
-      <c r="BP2" s="17"/>
-      <c r="BQ2" s="17"/>
-      <c r="BR2" s="17"/>
-      <c r="BS2" s="17"/>
-      <c r="BT2" s="17"/>
-      <c r="BU2" s="17"/>
-      <c r="BV2" s="17"/>
-      <c r="BW2" s="17"/>
-      <c r="BX2" s="17"/>
-      <c r="BY2" s="17"/>
-      <c r="BZ2" s="17"/>
-      <c r="CA2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="18"/>
+      <c r="BW2" s="18"/>
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+      <c r="BZ2" s="18"/>
+      <c r="CA2" s="18"/>
     </row>
     <row r="3" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="17"/>
-      <c r="BC3" s="17"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="17"/>
-      <c r="BF3" s="17"/>
-      <c r="BG3" s="17"/>
-      <c r="BH3" s="17"/>
-      <c r="BI3" s="17"/>
-      <c r="BJ3" s="17"/>
-      <c r="BK3" s="17"/>
-      <c r="BL3" s="17"/>
-      <c r="BM3" s="17"/>
-      <c r="BN3" s="17"/>
-      <c r="BO3" s="17"/>
-      <c r="BP3" s="17"/>
-      <c r="BQ3" s="17"/>
-      <c r="BR3" s="17"/>
-      <c r="BS3" s="17"/>
-      <c r="BT3" s="17"/>
-      <c r="BU3" s="17"/>
-      <c r="BV3" s="17"/>
-      <c r="BW3" s="17"/>
-      <c r="BX3" s="17"/>
-      <c r="BY3" s="17"/>
-      <c r="BZ3" s="17"/>
-      <c r="CA3" s="17"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="18"/>
+      <c r="BJ3" s="18"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="18"/>
+      <c r="BM3" s="18"/>
+      <c r="BN3" s="18"/>
+      <c r="BO3" s="18"/>
+      <c r="BP3" s="18"/>
+      <c r="BQ3" s="18"/>
+      <c r="BR3" s="18"/>
+      <c r="BS3" s="18"/>
+      <c r="BT3" s="18"/>
+      <c r="BU3" s="18"/>
+      <c r="BV3" s="18"/>
+      <c r="BW3" s="18"/>
+      <c r="BX3" s="18"/>
+      <c r="BY3" s="18"/>
+      <c r="BZ3" s="18"/>
+      <c r="CA3" s="18"/>
     </row>
     <row r="4" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="9">
         <v>45243</v>
@@ -3288,8 +3264,8 @@
       </c>
     </row>
     <row r="5" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -3523,22 +3499,24 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="14">
         <v>2</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="22">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="11"/>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -3612,7 +3590,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="12">
         <v>2</v>
@@ -3698,7 +3676,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -3786,7 +3764,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="12">
         <v>1</v>
@@ -3871,16 +3849,18 @@
       <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="14">
         <v>0.5</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -3957,20 +3937,22 @@
       <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="C11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="14">
         <v>0.5</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>0.5</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -4044,7 +4026,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="12">
         <v>4</v>
@@ -4129,8 +4111,8 @@
       <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>85</v>
+      <c r="C13" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
@@ -4218,7 +4200,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -4304,7 +4286,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="12">
         <v>2</v>
@@ -4390,7 +4372,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="12">
         <v>2</v>
@@ -4476,7 +4458,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="12">
         <v>2</v>
@@ -4562,7 +4544,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="12">
         <v>2</v>
@@ -4648,7 +4630,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="12">
         <v>2</v>
@@ -4734,7 +4716,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="12">
         <v>1</v>
@@ -4820,7 +4802,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="12">
         <v>2</v>
@@ -4906,7 +4888,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="12">
         <v>2</v>
@@ -4992,7 +4974,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="12">
         <v>2</v>
@@ -5078,7 +5060,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="12">
         <v>2</v>
@@ -5164,7 +5146,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="12">
         <v>2</v>
@@ -5249,24 +5231,26 @@
       <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="24">
+      <c r="C26" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="14">
         <v>1</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
         <v>0.5</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="22">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1">
         <v>0.8</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
+        <v>0.2</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
@@ -5340,7 +5324,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
@@ -8840,10 +8824,10 @@
       <c r="CA68" s="11"/>
     </row>
     <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C69" s="19"/>
+      <c r="B69" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="20"/>
       <c r="D69" s="6">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -8862,7 +8846,7 @@
       </c>
       <c r="H69" s="7">
         <f>D69-SUM(H6:H68)</f>
-        <v>61</v>
+        <v>60.5</v>
       </c>
       <c r="I69" s="7">
         <f>D69-SUM(I6:I68)</f>
@@ -8878,7 +8862,7 @@
       </c>
       <c r="L69" s="7">
         <f>D69-SUM(L6:L68)</f>
-        <v>63</v>
+        <v>61.3</v>
       </c>
       <c r="M69" s="7">
         <f>D69-SUM(M6:M68)</f>
@@ -9150,10 +9134,10 @@
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="18"/>
+      <c r="B70" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="19"/>
       <c r="D70" s="3">
         <f>SUM(D6:D68)</f>
         <v>63</v>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C383C7B-A840-4847-83FE-983661AE42BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADA593F-00F7-4B34-A836-7E69FA819C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>OOP Code</t>
+  </si>
+  <si>
+    <t>Favicon</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +475,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -500,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -563,6 +572,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,220 +972,220 @@
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.2</c:v>
+                  <c:v>59.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>59.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61</c:v>
+                  <c:v>57.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.3</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2518,14 +2536,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2853,7 +2871,7 @@
   <dimension ref="B2:CA70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3763,20 +3781,22 @@
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="14">
         <v>1</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -4025,20 +4045,22 @@
       <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="24">
         <v>4</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25">
+        <v>1</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -4285,20 +4307,20 @@
       <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="24">
         <v>2</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -4371,20 +4393,20 @@
       <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="24">
         <v>2</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -4629,20 +4651,20 @@
       <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="24">
         <v>2</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -4715,20 +4737,22 @@
       <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="14">
         <v>1</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -5244,7 +5268,7 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -5411,18 +5435,20 @@
       <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12">
+      <c r="C28" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="24">
         <v>1</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
@@ -8833,304 +8859,304 @@
         <v>63</v>
       </c>
       <c r="E69" s="7">
-        <f>D69-SUM(E6:E68)</f>
+        <f t="shared" ref="E69:P69" si="0">D69-SUM(E6:E68)</f>
         <v>63</v>
       </c>
       <c r="F69" s="7">
-        <f>D69-SUM(F6:F68)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="G69" s="7">
-        <f>D69-SUM(G6:G68)</f>
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
       <c r="H69" s="7">
-        <f>D69-SUM(H6:H68)</f>
-        <v>60.5</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="I69" s="7">
-        <f>D69-SUM(I6:I68)</f>
-        <v>62.2</v>
+        <f t="shared" si="0"/>
+        <v>59.7</v>
       </c>
       <c r="J69" s="7">
-        <f>D69-SUM(J6:J68)</f>
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>59.7</v>
       </c>
       <c r="K69" s="7">
-        <f>D69-SUM(K6:K68)</f>
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>57.7</v>
       </c>
       <c r="L69" s="7">
-        <f>D69-SUM(L6:L68)</f>
-        <v>61.3</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="M69" s="7">
-        <f>D69-SUM(M6:M68)</f>
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="N69" s="7">
-        <f>D69-SUM(N6:N68)</f>
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="O69" s="7">
-        <f>D69-SUM(O6:O68)</f>
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="P69" s="7">
-        <f>D69-SUM(P6:P68)</f>
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="Q69" s="7">
-        <f>D69-SUM(Q6:Q68)</f>
-        <v>63</v>
+        <f>P69-SUM(Q6:Q68)</f>
+        <v>53</v>
       </c>
       <c r="R69" s="7">
-        <f>D69-SUM(R6:R68)</f>
-        <v>63</v>
+        <f>Q69-SUM(R6:R68)</f>
+        <v>53</v>
       </c>
       <c r="S69" s="7">
-        <f>D69-SUM(S6:S68)</f>
-        <v>63</v>
+        <f>R69-SUM(S6:S68)</f>
+        <v>53</v>
       </c>
       <c r="T69" s="7">
-        <f>D69-SUM(T6:T68)</f>
-        <v>63</v>
+        <f>S69-SUM(T6:T68)</f>
+        <v>53</v>
       </c>
       <c r="U69" s="7">
-        <f>D69-SUM(U6:U68)</f>
-        <v>63</v>
+        <f>T69-SUM(U6:U68)</f>
+        <v>53</v>
       </c>
       <c r="V69" s="7">
-        <f>D69-SUM(V6:V68)</f>
-        <v>63</v>
+        <f>U69-SUM(V6:V68)</f>
+        <v>53</v>
       </c>
       <c r="W69" s="7">
-        <f>D69-SUM(W6:W68)</f>
-        <v>63</v>
+        <f>V69-SUM(W6:W68)</f>
+        <v>53</v>
       </c>
       <c r="X69" s="7">
-        <f>D69-SUM(X6:X68)</f>
-        <v>63</v>
+        <f>W69-SUM(X6:X68)</f>
+        <v>53</v>
       </c>
       <c r="Y69" s="7">
-        <f>D69-SUM(Y6:Y68)</f>
-        <v>63</v>
+        <f>X69-SUM(Y6:Y68)</f>
+        <v>53</v>
       </c>
       <c r="Z69" s="7">
-        <f>D69-SUM(Z6:Z68)</f>
-        <v>63</v>
+        <f>Y69-SUM(Z6:Z68)</f>
+        <v>53</v>
       </c>
       <c r="AA69" s="7">
-        <f>D69-SUM(AA6:AA68)</f>
-        <v>63</v>
+        <f>Z69-SUM(AA6:AA68)</f>
+        <v>53</v>
       </c>
       <c r="AB69" s="7">
-        <f>D69-SUM(AB6:AB68)</f>
-        <v>63</v>
+        <f>AA69-SUM(AB6:AB68)</f>
+        <v>53</v>
       </c>
       <c r="AC69" s="7">
-        <f>D69-SUM(AC6:AC68)</f>
-        <v>63</v>
+        <f>AB69-SUM(AC6:AC68)</f>
+        <v>53</v>
       </c>
       <c r="AD69" s="7">
-        <f>D69-SUM(AD6:AD68)</f>
-        <v>63</v>
+        <f>AC69-SUM(AD6:AD68)</f>
+        <v>53</v>
       </c>
       <c r="AE69" s="7">
-        <f>D69-SUM(AE6:AE68)</f>
-        <v>63</v>
+        <f>AD69-SUM(AE6:AE68)</f>
+        <v>53</v>
       </c>
       <c r="AF69" s="7">
-        <f>D69-SUM(AF6:AF68)</f>
-        <v>63</v>
+        <f>AE69-SUM(AF6:AF68)</f>
+        <v>53</v>
       </c>
       <c r="AG69" s="7">
-        <f>D69-SUM(AG6:AG68)</f>
-        <v>63</v>
+        <f>AF69-SUM(AG6:AG68)</f>
+        <v>53</v>
       </c>
       <c r="AH69" s="7">
-        <f>D69-SUM(AH6:AH68)</f>
-        <v>63</v>
+        <f>AG69-SUM(AH6:AH68)</f>
+        <v>53</v>
       </c>
       <c r="AI69" s="7">
-        <f>D69-SUM(AI6:AI68)</f>
-        <v>63</v>
+        <f>AH69-SUM(AI6:AI68)</f>
+        <v>53</v>
       </c>
       <c r="AJ69" s="7">
-        <f>D69-SUM(AJ6:AJ68)</f>
-        <v>63</v>
+        <f>AI69-SUM(AJ6:AJ68)</f>
+        <v>53</v>
       </c>
       <c r="AK69" s="7">
-        <f>D69-SUM(AK6:AK68)</f>
-        <v>63</v>
+        <f>AJ69-SUM(AK6:AK68)</f>
+        <v>53</v>
       </c>
       <c r="AL69" s="7">
-        <f>D69-SUM(AL6:AL68)</f>
-        <v>63</v>
+        <f>AK69-SUM(AL6:AL68)</f>
+        <v>53</v>
       </c>
       <c r="AM69" s="7">
-        <f>D69-SUM(AM6:AM68)</f>
-        <v>63</v>
+        <f>AL69-SUM(AM6:AM68)</f>
+        <v>53</v>
       </c>
       <c r="AN69" s="7">
-        <f>D69-SUM(AN6:AN68)</f>
-        <v>63</v>
+        <f>AM69-SUM(AN6:AN68)</f>
+        <v>53</v>
       </c>
       <c r="AO69" s="7">
-        <f>D69-SUM(AO6:AO68)</f>
-        <v>63</v>
+        <f>AN69-SUM(AO6:AO68)</f>
+        <v>53</v>
       </c>
       <c r="AP69" s="7">
-        <f>D69-SUM(AP6:AP68)</f>
-        <v>63</v>
+        <f>AO69-SUM(AP6:AP68)</f>
+        <v>53</v>
       </c>
       <c r="AQ69" s="7">
-        <f>D69-SUM(AQ6:AQ68)</f>
-        <v>63</v>
+        <f>AP69-SUM(AQ6:AQ68)</f>
+        <v>53</v>
       </c>
       <c r="AR69" s="7">
-        <f>D69-SUM(AR6:AR68)</f>
-        <v>63</v>
+        <f>AQ69-SUM(AR6:AR68)</f>
+        <v>53</v>
       </c>
       <c r="AS69" s="7">
-        <f>D69-SUM(AS6:AS68)</f>
-        <v>63</v>
+        <f>AR69-SUM(AS6:AS68)</f>
+        <v>53</v>
       </c>
       <c r="AT69" s="7">
-        <f>D69-SUM(AT6:AT68)</f>
-        <v>63</v>
+        <f>AS69-SUM(AT6:AT68)</f>
+        <v>53</v>
       </c>
       <c r="AU69" s="7">
-        <f>D69-SUM(AU6:AU68)</f>
-        <v>63</v>
+        <f>AT69-SUM(AU6:AU68)</f>
+        <v>53</v>
       </c>
       <c r="AV69" s="7">
-        <f>D69-SUM(AV6:AV68)</f>
-        <v>63</v>
+        <f>AU69-SUM(AV6:AV68)</f>
+        <v>53</v>
       </c>
       <c r="AW69" s="7">
-        <f>D69-SUM(AW6:AW68)</f>
-        <v>63</v>
+        <f>AV69-SUM(AW6:AW68)</f>
+        <v>53</v>
       </c>
       <c r="AX69" s="7">
-        <f>D69-SUM(AX6:AX68)</f>
-        <v>63</v>
+        <f>AW69-SUM(AX6:AX68)</f>
+        <v>53</v>
       </c>
       <c r="AY69" s="7">
-        <f>D69-SUM(AY6:AY68)</f>
-        <v>63</v>
+        <f>AX69-SUM(AY6:AY68)</f>
+        <v>53</v>
       </c>
       <c r="AZ69" s="7">
-        <f>D69-SUM(AZ6:AZ68)</f>
-        <v>63</v>
+        <f>AY69-SUM(AZ6:AZ68)</f>
+        <v>53</v>
       </c>
       <c r="BA69" s="7">
-        <f>D69-SUM(BA6:BA68)</f>
-        <v>63</v>
+        <f>AZ69-SUM(BA6:BA68)</f>
+        <v>53</v>
       </c>
       <c r="BB69" s="7">
-        <f>D69-SUM(BB6:BB68)</f>
-        <v>63</v>
+        <f>BA69-SUM(BB6:BB68)</f>
+        <v>53</v>
       </c>
       <c r="BC69" s="7">
-        <f>D69-SUM(BC6:BC68)</f>
-        <v>63</v>
+        <f>BB69-SUM(BC6:BC68)</f>
+        <v>53</v>
       </c>
       <c r="BD69" s="7">
-        <f>D69-SUM(BD6:BD68)</f>
-        <v>63</v>
+        <f>BC69-SUM(BD6:BD68)</f>
+        <v>53</v>
       </c>
       <c r="BE69" s="7">
-        <f>D69-SUM(BE6:BE68)</f>
-        <v>63</v>
+        <f>BD69-SUM(BE6:BE68)</f>
+        <v>53</v>
       </c>
       <c r="BF69" s="7">
-        <f>D69-SUM(BF6:BF68)</f>
-        <v>63</v>
+        <f>BE69-SUM(BF6:BF68)</f>
+        <v>53</v>
       </c>
       <c r="BG69" s="7">
-        <f>D69-SUM(BG6:BG68)</f>
-        <v>63</v>
+        <f>BF69-SUM(BG6:BG68)</f>
+        <v>53</v>
       </c>
       <c r="BH69" s="7">
-        <f>D69-SUM(BH6:BH68)</f>
-        <v>63</v>
+        <f>BG69-SUM(BH6:BH68)</f>
+        <v>53</v>
       </c>
       <c r="BI69" s="7">
-        <f>D69-SUM(BI6:BI68)</f>
-        <v>63</v>
+        <f>BH69-SUM(BI6:BI68)</f>
+        <v>53</v>
       </c>
       <c r="BJ69" s="7">
-        <f>D69-SUM(BJ6:BJ68)</f>
-        <v>63</v>
+        <f>BI69-SUM(BJ6:BJ68)</f>
+        <v>53</v>
       </c>
       <c r="BK69" s="7">
-        <f>D69-SUM(BK6:BK68)</f>
-        <v>63</v>
+        <f>BJ69-SUM(BK6:BK68)</f>
+        <v>53</v>
       </c>
       <c r="BL69" s="7">
-        <f>D69-SUM(BL6:BL68)</f>
-        <v>63</v>
+        <f>BK69-SUM(BL6:BL68)</f>
+        <v>53</v>
       </c>
       <c r="BM69" s="7">
-        <f>D69-SUM(BM6:BM68)</f>
-        <v>63</v>
+        <f>BL69-SUM(BM6:BM68)</f>
+        <v>53</v>
       </c>
       <c r="BN69" s="7">
-        <f>D69-SUM(BN6:BN68)</f>
-        <v>63</v>
+        <f>BM69-SUM(BN6:BN68)</f>
+        <v>53</v>
       </c>
       <c r="BO69" s="7">
-        <f>D69-SUM(BO6:BO68)</f>
-        <v>63</v>
+        <f>BN69-SUM(BO6:BO68)</f>
+        <v>53</v>
       </c>
       <c r="BP69" s="7">
-        <f>D69-SUM(BP6:BP68)</f>
-        <v>63</v>
+        <f>BO69-SUM(BP6:BP68)</f>
+        <v>53</v>
       </c>
       <c r="BQ69" s="7">
-        <f>D69-SUM(BQ6:BQ68)</f>
-        <v>63</v>
+        <f>BP69-SUM(BQ6:BQ68)</f>
+        <v>53</v>
       </c>
       <c r="BR69" s="7">
-        <f>D69-SUM(BR6:BR68)</f>
-        <v>63</v>
+        <f>BQ69-SUM(BR6:BR68)</f>
+        <v>53</v>
       </c>
       <c r="BS69" s="7">
-        <f>D69-SUM(BS6:BS68)</f>
-        <v>63</v>
+        <f>BR69-SUM(BS6:BS68)</f>
+        <v>53</v>
       </c>
       <c r="BT69" s="7">
-        <f>D69-SUM(BT6:BT68)</f>
-        <v>63</v>
+        <f>BS69-SUM(BT6:BT68)</f>
+        <v>53</v>
       </c>
       <c r="BU69" s="7">
-        <f>D69-SUM(BU6:BU68)</f>
-        <v>63</v>
+        <f>BT69-SUM(BU6:BU68)</f>
+        <v>53</v>
       </c>
       <c r="BV69" s="7">
-        <f>D69-SUM(BV6:BV68)</f>
-        <v>63</v>
+        <f>BU69-SUM(BV6:BV68)</f>
+        <v>53</v>
       </c>
       <c r="BW69" s="7">
-        <f>D69-SUM(BW6:BW68)</f>
-        <v>63</v>
+        <f>BV69-SUM(BW6:BW68)</f>
+        <v>53</v>
       </c>
       <c r="BX69" s="7">
-        <f>D69-SUM(BX6:BX68)</f>
-        <v>63</v>
+        <f>BW69-SUM(BX6:BX68)</f>
+        <v>53</v>
       </c>
       <c r="BY69" s="7">
-        <f>D69-SUM(BY6:BY68)</f>
-        <v>63</v>
+        <f>BX69-SUM(BY6:BY68)</f>
+        <v>53</v>
       </c>
       <c r="BZ69" s="7">
-        <f>D69-SUM(BZ6:BZ68)</f>
-        <v>63</v>
+        <f>BY69-SUM(BZ6:BZ68)</f>
+        <v>53</v>
       </c>
       <c r="CA69" s="7">
-        <f>D69-SUM(CA6:CA68)</f>
-        <v>63</v>
+        <f>BZ69-SUM(CA6:CA68)</f>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
@@ -9391,55 +9417,55 @@
         <v>1</v>
       </c>
       <c r="BO70" s="4">
-        <f t="shared" ref="BO70:CA70" si="0">$D$70-($D$70/63*63)</f>
+        <f t="shared" ref="BO70:CA70" si="1">$D$70-($D$70/63*63)</f>
         <v>0</v>
       </c>
       <c r="BP70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BQ70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BR70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BS70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BT70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BU70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BV70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BW70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BX70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BY70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BZ70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="CA70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADA593F-00F7-4B34-A836-7E69FA819C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C1323C-D87B-4AD0-A796-061D55CF6504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -558,6 +558,15 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -572,15 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2871,185 +2871,185 @@
   <dimension ref="B2:CA70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:79" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:79" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="18"/>
-      <c r="BW2" s="18"/>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21"/>
+      <c r="BM2" s="21"/>
+      <c r="BN2" s="21"/>
+      <c r="BO2" s="21"/>
+      <c r="BP2" s="21"/>
+      <c r="BQ2" s="21"/>
+      <c r="BR2" s="21"/>
+      <c r="BS2" s="21"/>
+      <c r="BT2" s="21"/>
+      <c r="BU2" s="21"/>
+      <c r="BV2" s="21"/>
+      <c r="BW2" s="21"/>
+      <c r="BX2" s="21"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
     </row>
-    <row r="3" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="18"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="18"/>
-      <c r="BD3" s="18"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="18"/>
-      <c r="BG3" s="18"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="18"/>
-      <c r="BJ3" s="18"/>
-      <c r="BK3" s="18"/>
-      <c r="BL3" s="18"/>
-      <c r="BM3" s="18"/>
-      <c r="BN3" s="18"/>
-      <c r="BO3" s="18"/>
-      <c r="BP3" s="18"/>
-      <c r="BQ3" s="18"/>
-      <c r="BR3" s="18"/>
-      <c r="BS3" s="18"/>
-      <c r="BT3" s="18"/>
-      <c r="BU3" s="18"/>
-      <c r="BV3" s="18"/>
-      <c r="BW3" s="18"/>
-      <c r="BX3" s="18"/>
-      <c r="BY3" s="18"/>
-      <c r="BZ3" s="18"/>
-      <c r="CA3" s="18"/>
+    <row r="3" spans="2:79" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="21"/>
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="21"/>
+      <c r="BA3" s="21"/>
+      <c r="BB3" s="21"/>
+      <c r="BC3" s="21"/>
+      <c r="BD3" s="21"/>
+      <c r="BE3" s="21"/>
+      <c r="BF3" s="21"/>
+      <c r="BG3" s="21"/>
+      <c r="BH3" s="21"/>
+      <c r="BI3" s="21"/>
+      <c r="BJ3" s="21"/>
+      <c r="BK3" s="21"/>
+      <c r="BL3" s="21"/>
+      <c r="BM3" s="21"/>
+      <c r="BN3" s="21"/>
+      <c r="BO3" s="21"/>
+      <c r="BP3" s="21"/>
+      <c r="BQ3" s="21"/>
+      <c r="BR3" s="21"/>
+      <c r="BS3" s="21"/>
+      <c r="BT3" s="21"/>
+      <c r="BU3" s="21"/>
+      <c r="BV3" s="21"/>
+      <c r="BW3" s="21"/>
+      <c r="BX3" s="21"/>
+      <c r="BY3" s="21"/>
+      <c r="BZ3" s="21"/>
+      <c r="CA3" s="21"/>
     </row>
-    <row r="4" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="2:79" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -3281,9 +3281,9 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="5" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+    <row r="5" spans="2:79" x14ac:dyDescent="0.3">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -3603,7 +3603,7 @@
       <c r="BZ6" s="11"/>
       <c r="CA6" s="11"/>
     </row>
-    <row r="7" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="BZ7" s="11"/>
       <c r="CA7" s="11"/>
     </row>
-    <row r="8" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -3777,7 +3777,7 @@
       <c r="BZ8" s="11"/>
       <c r="CA8" s="11"/>
     </row>
-    <row r="9" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -3865,7 +3865,7 @@
       <c r="BZ9" s="11"/>
       <c r="CA9" s="11"/>
     </row>
-    <row r="10" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -3953,7 +3953,7 @@
       <c r="BZ10" s="11"/>
       <c r="CA10" s="11"/>
     </row>
-    <row r="11" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>6</v>
       </c>
@@ -4041,24 +4041,24 @@
       <c r="BZ11" s="11"/>
       <c r="CA11" s="11"/>
     </row>
-    <row r="12" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="19">
         <v>4</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20">
         <v>1</v>
       </c>
       <c r="M12" s="11"/>
@@ -4129,7 +4129,7 @@
       <c r="BZ12" s="11"/>
       <c r="CA12" s="11"/>
     </row>
-    <row r="13" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>8</v>
       </c>
@@ -4217,7 +4217,7 @@
       <c r="BZ13" s="11"/>
       <c r="CA13" s="11"/>
     </row>
-    <row r="14" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>9</v>
       </c>
@@ -4303,24 +4303,24 @@
       <c r="BZ14" s="11"/>
       <c r="CA14" s="11"/>
     </row>
-    <row r="15" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="19">
         <v>2</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -4389,24 +4389,24 @@
       <c r="BZ15" s="11"/>
       <c r="CA15" s="11"/>
     </row>
-    <row r="16" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="19">
         <v>2</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -4475,7 +4475,7 @@
       <c r="BZ16" s="11"/>
       <c r="CA16" s="11"/>
     </row>
-    <row r="17" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>12</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="BZ17" s="11"/>
       <c r="CA17" s="11"/>
     </row>
-    <row r="18" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>13</v>
       </c>
@@ -4647,24 +4647,24 @@
       <c r="BZ18" s="11"/>
       <c r="CA18" s="11"/>
     </row>
-    <row r="19" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="19">
         <v>2</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -4733,7 +4733,7 @@
       <c r="BZ19" s="11"/>
       <c r="CA19" s="11"/>
     </row>
-    <row r="20" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>15</v>
       </c>
@@ -4821,11 +4821,11 @@
       <c r="BZ20" s="11"/>
       <c r="CA20" s="11"/>
     </row>
-    <row r="21" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="18" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="12">
@@ -4907,7 +4907,7 @@
       <c r="BZ21" s="11"/>
       <c r="CA21" s="11"/>
     </row>
-    <row r="22" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>17</v>
       </c>
@@ -4993,7 +4993,7 @@
       <c r="BZ22" s="11"/>
       <c r="CA22" s="11"/>
     </row>
-    <row r="23" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>18</v>
       </c>
@@ -5079,7 +5079,7 @@
       <c r="BZ23" s="11"/>
       <c r="CA23" s="11"/>
     </row>
-    <row r="24" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>19</v>
       </c>
@@ -5165,7 +5165,7 @@
       <c r="BZ24" s="11"/>
       <c r="CA24" s="11"/>
     </row>
-    <row r="25" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>20</v>
       </c>
@@ -5251,7 +5251,7 @@
       <c r="BZ25" s="11"/>
       <c r="CA25" s="11"/>
     </row>
-    <row r="26" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>21</v>
       </c>
@@ -5343,7 +5343,7 @@
       <c r="BZ26" s="11"/>
       <c r="CA26" s="11"/>
     </row>
-    <row r="27" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>22</v>
       </c>
@@ -5431,24 +5431,24 @@
       <c r="BZ27" s="11"/>
       <c r="CA27" s="11"/>
     </row>
-    <row r="28" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="19">
         <v>1</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
@@ -5517,7 +5517,7 @@
       <c r="BZ28" s="11"/>
       <c r="CA28" s="11"/>
     </row>
-    <row r="29" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>24</v>
       </c>
@@ -5601,7 +5601,7 @@
       <c r="BZ29" s="11"/>
       <c r="CA29" s="11"/>
     </row>
-    <row r="30" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>25</v>
       </c>
@@ -5685,7 +5685,7 @@
       <c r="BZ30" s="11"/>
       <c r="CA30" s="11"/>
     </row>
-    <row r="31" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>26</v>
       </c>
@@ -5769,7 +5769,7 @@
       <c r="BZ31" s="11"/>
       <c r="CA31" s="11"/>
     </row>
-    <row r="32" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>27</v>
       </c>
@@ -5853,7 +5853,7 @@
       <c r="BZ32" s="11"/>
       <c r="CA32" s="11"/>
     </row>
-    <row r="33" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>28</v>
       </c>
@@ -5937,7 +5937,7 @@
       <c r="BZ33" s="11"/>
       <c r="CA33" s="11"/>
     </row>
-    <row r="34" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>29</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="BZ34" s="11"/>
       <c r="CA34" s="11"/>
     </row>
-    <row r="35" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>30</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="BZ35" s="11"/>
       <c r="CA35" s="11"/>
     </row>
-    <row r="36" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>31</v>
       </c>
@@ -6189,7 +6189,7 @@
       <c r="BZ36" s="11"/>
       <c r="CA36" s="11"/>
     </row>
-    <row r="37" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>32</v>
       </c>
@@ -6273,7 +6273,7 @@
       <c r="BZ37" s="11"/>
       <c r="CA37" s="11"/>
     </row>
-    <row r="38" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>33</v>
       </c>
@@ -6357,7 +6357,7 @@
       <c r="BZ38" s="11"/>
       <c r="CA38" s="11"/>
     </row>
-    <row r="39" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>34</v>
       </c>
@@ -6441,7 +6441,7 @@
       <c r="BZ39" s="11"/>
       <c r="CA39" s="11"/>
     </row>
-    <row r="40" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>35</v>
       </c>
@@ -6525,7 +6525,7 @@
       <c r="BZ40" s="11"/>
       <c r="CA40" s="11"/>
     </row>
-    <row r="41" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>36</v>
       </c>
@@ -6609,7 +6609,7 @@
       <c r="BZ41" s="11"/>
       <c r="CA41" s="11"/>
     </row>
-    <row r="42" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>37</v>
       </c>
@@ -6693,7 +6693,7 @@
       <c r="BZ42" s="11"/>
       <c r="CA42" s="11"/>
     </row>
-    <row r="43" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>38</v>
       </c>
@@ -6777,7 +6777,7 @@
       <c r="BZ43" s="11"/>
       <c r="CA43" s="11"/>
     </row>
-    <row r="44" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>39</v>
       </c>
@@ -6861,7 +6861,7 @@
       <c r="BZ44" s="11"/>
       <c r="CA44" s="11"/>
     </row>
-    <row r="45" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>40</v>
       </c>
@@ -6945,7 +6945,7 @@
       <c r="BZ45" s="11"/>
       <c r="CA45" s="11"/>
     </row>
-    <row r="46" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>41</v>
       </c>
@@ -7029,7 +7029,7 @@
       <c r="BZ46" s="11"/>
       <c r="CA46" s="11"/>
     </row>
-    <row r="47" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>42</v>
       </c>
@@ -7113,7 +7113,7 @@
       <c r="BZ47" s="11"/>
       <c r="CA47" s="11"/>
     </row>
-    <row r="48" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
         <v>43</v>
       </c>
@@ -7197,7 +7197,7 @@
       <c r="BZ48" s="11"/>
       <c r="CA48" s="11"/>
     </row>
-    <row r="49" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B49" s="5">
         <v>44</v>
       </c>
@@ -7281,7 +7281,7 @@
       <c r="BZ49" s="11"/>
       <c r="CA49" s="11"/>
     </row>
-    <row r="50" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>45</v>
       </c>
@@ -7365,7 +7365,7 @@
       <c r="BZ50" s="11"/>
       <c r="CA50" s="11"/>
     </row>
-    <row r="51" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>46</v>
       </c>
@@ -7449,7 +7449,7 @@
       <c r="BZ51" s="11"/>
       <c r="CA51" s="11"/>
     </row>
-    <row r="52" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B52" s="5">
         <v>47</v>
       </c>
@@ -7533,7 +7533,7 @@
       <c r="BZ52" s="11"/>
       <c r="CA52" s="11"/>
     </row>
-    <row r="53" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B53" s="5">
         <v>48</v>
       </c>
@@ -7617,7 +7617,7 @@
       <c r="BZ53" s="11"/>
       <c r="CA53" s="11"/>
     </row>
-    <row r="54" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B54" s="5">
         <v>49</v>
       </c>
@@ -7701,7 +7701,7 @@
       <c r="BZ54" s="11"/>
       <c r="CA54" s="11"/>
     </row>
-    <row r="55" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B55" s="5">
         <v>50</v>
       </c>
@@ -7783,7 +7783,7 @@
       <c r="BZ55" s="11"/>
       <c r="CA55" s="11"/>
     </row>
-    <row r="56" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B56" s="5">
         <v>51</v>
       </c>
@@ -7865,7 +7865,7 @@
       <c r="BZ56" s="11"/>
       <c r="CA56" s="11"/>
     </row>
-    <row r="57" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B57" s="5">
         <v>52</v>
       </c>
@@ -7947,7 +7947,7 @@
       <c r="BZ57" s="11"/>
       <c r="CA57" s="11"/>
     </row>
-    <row r="58" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B58" s="5">
         <v>53</v>
       </c>
@@ -8029,7 +8029,7 @@
       <c r="BZ58" s="11"/>
       <c r="CA58" s="11"/>
     </row>
-    <row r="59" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B59" s="5">
         <v>54</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="BZ59" s="11"/>
       <c r="CA59" s="11"/>
     </row>
-    <row r="60" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B60" s="5">
         <v>55</v>
       </c>
@@ -8193,7 +8193,7 @@
       <c r="BZ60" s="11"/>
       <c r="CA60" s="11"/>
     </row>
-    <row r="61" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B61" s="5">
         <v>56</v>
       </c>
@@ -8275,7 +8275,7 @@
       <c r="BZ61" s="11"/>
       <c r="CA61" s="11"/>
     </row>
-    <row r="62" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B62" s="5">
         <v>57</v>
       </c>
@@ -8357,7 +8357,7 @@
       <c r="BZ62" s="11"/>
       <c r="CA62" s="11"/>
     </row>
-    <row r="63" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B63" s="5">
         <v>58</v>
       </c>
@@ -8439,7 +8439,7 @@
       <c r="BZ63" s="11"/>
       <c r="CA63" s="11"/>
     </row>
-    <row r="64" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B64" s="5">
         <v>59</v>
       </c>
@@ -8521,7 +8521,7 @@
       <c r="BZ64" s="11"/>
       <c r="CA64" s="11"/>
     </row>
-    <row r="65" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B65" s="5">
         <v>60</v>
       </c>
@@ -8603,7 +8603,7 @@
       <c r="BZ65" s="11"/>
       <c r="CA65" s="11"/>
     </row>
-    <row r="66" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B66" s="5">
         <v>61</v>
       </c>
@@ -8685,7 +8685,7 @@
       <c r="BZ66" s="11"/>
       <c r="CA66" s="11"/>
     </row>
-    <row r="67" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B67" s="5">
         <v>62</v>
       </c>
@@ -8767,7 +8767,7 @@
       <c r="BZ67" s="11"/>
       <c r="CA67" s="11"/>
     </row>
-    <row r="68" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B68" s="5">
         <v>63</v>
       </c>
@@ -8849,11 +8849,11 @@
       <c r="BZ68" s="11"/>
       <c r="CA68" s="11"/>
     </row>
-    <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="20" t="s">
+    <row r="69" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="20"/>
+      <c r="C69" s="23"/>
       <c r="D69" s="6">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -8907,263 +8907,263 @@
         <v>53</v>
       </c>
       <c r="Q69" s="7">
-        <f>P69-SUM(Q6:Q68)</f>
+        <f t="shared" ref="Q69:AV69" si="1">P69-SUM(Q6:Q68)</f>
         <v>53</v>
       </c>
       <c r="R69" s="7">
-        <f>Q69-SUM(R6:R68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="S69" s="7">
-        <f>R69-SUM(S6:S68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="T69" s="7">
-        <f>S69-SUM(T6:T68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="U69" s="7">
-        <f>T69-SUM(U6:U68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="V69" s="7">
-        <f>U69-SUM(V6:V68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="W69" s="7">
-        <f>V69-SUM(W6:W68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="X69" s="7">
-        <f>W69-SUM(X6:X68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="Y69" s="7">
-        <f>X69-SUM(Y6:Y68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="Z69" s="7">
-        <f>Y69-SUM(Z6:Z68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AA69" s="7">
-        <f>Z69-SUM(AA6:AA68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AB69" s="7">
-        <f>AA69-SUM(AB6:AB68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AC69" s="7">
-        <f>AB69-SUM(AC6:AC68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AD69" s="7">
-        <f>AC69-SUM(AD6:AD68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AE69" s="7">
-        <f>AD69-SUM(AE6:AE68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AF69" s="7">
-        <f>AE69-SUM(AF6:AF68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AG69" s="7">
-        <f>AF69-SUM(AG6:AG68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AH69" s="7">
-        <f>AG69-SUM(AH6:AH68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AI69" s="7">
-        <f>AH69-SUM(AI6:AI68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AJ69" s="7">
-        <f>AI69-SUM(AJ6:AJ68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AK69" s="7">
-        <f>AJ69-SUM(AK6:AK68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AL69" s="7">
-        <f>AK69-SUM(AL6:AL68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AM69" s="7">
-        <f>AL69-SUM(AM6:AM68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AN69" s="7">
-        <f>AM69-SUM(AN6:AN68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AO69" s="7">
-        <f>AN69-SUM(AO6:AO68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AP69" s="7">
-        <f>AO69-SUM(AP6:AP68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AQ69" s="7">
-        <f>AP69-SUM(AQ6:AQ68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AR69" s="7">
-        <f>AQ69-SUM(AR6:AR68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AS69" s="7">
-        <f>AR69-SUM(AS6:AS68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AT69" s="7">
-        <f>AS69-SUM(AT6:AT68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AU69" s="7">
-        <f>AT69-SUM(AU6:AU68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AV69" s="7">
-        <f>AU69-SUM(AV6:AV68)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="AW69" s="7">
-        <f>AV69-SUM(AW6:AW68)</f>
+        <f t="shared" ref="AW69:CB69" si="2">AV69-SUM(AW6:AW68)</f>
         <v>53</v>
       </c>
       <c r="AX69" s="7">
-        <f>AW69-SUM(AX6:AX68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="AY69" s="7">
-        <f>AX69-SUM(AY6:AY68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="AZ69" s="7">
-        <f>AY69-SUM(AZ6:AZ68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BA69" s="7">
-        <f>AZ69-SUM(BA6:BA68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BB69" s="7">
-        <f>BA69-SUM(BB6:BB68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BC69" s="7">
-        <f>BB69-SUM(BC6:BC68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BD69" s="7">
-        <f>BC69-SUM(BD6:BD68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BE69" s="7">
-        <f>BD69-SUM(BE6:BE68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BF69" s="7">
-        <f>BE69-SUM(BF6:BF68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BG69" s="7">
-        <f>BF69-SUM(BG6:BG68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BH69" s="7">
-        <f>BG69-SUM(BH6:BH68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BI69" s="7">
-        <f>BH69-SUM(BI6:BI68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BJ69" s="7">
-        <f>BI69-SUM(BJ6:BJ68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BK69" s="7">
-        <f>BJ69-SUM(BK6:BK68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BL69" s="7">
-        <f>BK69-SUM(BL6:BL68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BM69" s="7">
-        <f>BL69-SUM(BM6:BM68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BN69" s="7">
-        <f>BM69-SUM(BN6:BN68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BO69" s="7">
-        <f>BN69-SUM(BO6:BO68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BP69" s="7">
-        <f>BO69-SUM(BP6:BP68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BQ69" s="7">
-        <f>BP69-SUM(BQ6:BQ68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BR69" s="7">
-        <f>BQ69-SUM(BR6:BR68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BS69" s="7">
-        <f>BR69-SUM(BS6:BS68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BT69" s="7">
-        <f>BS69-SUM(BT6:BT68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BU69" s="7">
-        <f>BT69-SUM(BU6:BU68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BV69" s="7">
-        <f>BU69-SUM(BV6:BV68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BW69" s="7">
-        <f>BV69-SUM(BW6:BW68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BX69" s="7">
-        <f>BW69-SUM(BX6:BX68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BY69" s="7">
-        <f>BX69-SUM(BY6:BY68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="BZ69" s="7">
-        <f>BY69-SUM(BZ6:BZ68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="CA69" s="7">
-        <f>BZ69-SUM(CA6:CA68)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="19" t="s">
+    <row r="70" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="19"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="3">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -9417,55 +9417,55 @@
         <v>1</v>
       </c>
       <c r="BO70" s="4">
-        <f t="shared" ref="BO70:CA70" si="1">$D$70-($D$70/63*63)</f>
+        <f t="shared" ref="BO70:CA70" si="3">$D$70-($D$70/63*63)</f>
         <v>0</v>
       </c>
       <c r="BP70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BQ70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BR70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BS70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BT70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BV70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BW70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BX70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BY70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BZ70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CA70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C1323C-D87B-4AD0-A796-061D55CF6504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29380B0-D458-4033-9778-1D0AFA85F4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
+    <workbookView xWindow="1170" yWindow="870" windowWidth="14400" windowHeight="7810" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -993,199 +993,199 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2871,19 +2871,19 @@
   <dimension ref="B2:CA70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:79" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:79" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="BZ2" s="21"/>
       <c r="CA2" s="21"/>
     </row>
-    <row r="3" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -3045,7 +3045,7 @@
       <c r="BZ3" s="21"/>
       <c r="CA3" s="21"/>
     </row>
-    <row r="4" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="5" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="8" t="s">
@@ -3513,7 +3513,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -3603,7 +3603,7 @@
       <c r="BZ6" s="11"/>
       <c r="CA6" s="11"/>
     </row>
-    <row r="7" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="BZ7" s="11"/>
       <c r="CA7" s="11"/>
     </row>
-    <row r="8" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -3777,7 +3777,7 @@
       <c r="BZ8" s="11"/>
       <c r="CA8" s="11"/>
     </row>
-    <row r="9" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -3865,7 +3865,7 @@
       <c r="BZ9" s="11"/>
       <c r="CA9" s="11"/>
     </row>
-    <row r="10" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -3953,7 +3953,7 @@
       <c r="BZ10" s="11"/>
       <c r="CA10" s="11"/>
     </row>
-    <row r="11" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>6</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="BZ11" s="11"/>
       <c r="CA11" s="11"/>
     </row>
-    <row r="12" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>7</v>
       </c>
@@ -4061,9 +4061,9 @@
       <c r="L12" s="20">
         <v>1</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -4129,7 +4129,7 @@
       <c r="BZ12" s="11"/>
       <c r="CA12" s="11"/>
     </row>
-    <row r="13" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>8</v>
       </c>
@@ -4217,7 +4217,7 @@
       <c r="BZ13" s="11"/>
       <c r="CA13" s="11"/>
     </row>
-    <row r="14" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>9</v>
       </c>
@@ -4303,27 +4303,29 @@
       <c r="BZ14" s="11"/>
       <c r="CA14" s="11"/>
     </row>
-    <row r="15" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="14">
         <v>2</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
+        <v>2</v>
+      </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -4389,7 +4391,7 @@
       <c r="BZ15" s="11"/>
       <c r="CA15" s="11"/>
     </row>
-    <row r="16" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B16" s="5">
         <v>11</v>
       </c>
@@ -4407,9 +4409,9 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -4475,7 +4477,7 @@
       <c r="BZ16" s="11"/>
       <c r="CA16" s="11"/>
     </row>
-    <row r="17" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
         <v>12</v>
       </c>
@@ -4561,7 +4563,7 @@
       <c r="BZ17" s="11"/>
       <c r="CA17" s="11"/>
     </row>
-    <row r="18" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B18" s="5">
         <v>13</v>
       </c>
@@ -4647,7 +4649,7 @@
       <c r="BZ18" s="11"/>
       <c r="CA18" s="11"/>
     </row>
-    <row r="19" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
         <v>14</v>
       </c>
@@ -4665,9 +4667,9 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
@@ -4733,7 +4735,7 @@
       <c r="BZ19" s="11"/>
       <c r="CA19" s="11"/>
     </row>
-    <row r="20" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
         <v>15</v>
       </c>
@@ -4821,27 +4823,27 @@
       <c r="BZ20" s="11"/>
       <c r="CA20" s="11"/>
     </row>
-    <row r="21" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
         <v>16</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="19">
         <v>2</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -4907,27 +4909,27 @@
       <c r="BZ21" s="11"/>
       <c r="CA21" s="11"/>
     </row>
-    <row r="22" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="19">
         <v>2</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
@@ -4993,27 +4995,27 @@
       <c r="BZ22" s="11"/>
       <c r="CA22" s="11"/>
     </row>
-    <row r="23" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="19">
         <v>2</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
@@ -5079,27 +5081,27 @@
       <c r="BZ23" s="11"/>
       <c r="CA23" s="11"/>
     </row>
-    <row r="24" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="19">
         <v>2</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
@@ -5165,7 +5167,7 @@
       <c r="BZ24" s="11"/>
       <c r="CA24" s="11"/>
     </row>
-    <row r="25" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
         <v>20</v>
       </c>
@@ -5251,7 +5253,7 @@
       <c r="BZ25" s="11"/>
       <c r="CA25" s="11"/>
     </row>
-    <row r="26" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B26" s="5">
         <v>21</v>
       </c>
@@ -5343,7 +5345,7 @@
       <c r="BZ26" s="11"/>
       <c r="CA26" s="11"/>
     </row>
-    <row r="27" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
         <v>22</v>
       </c>
@@ -5431,7 +5433,7 @@
       <c r="BZ27" s="11"/>
       <c r="CA27" s="11"/>
     </row>
-    <row r="28" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B28" s="5">
         <v>23</v>
       </c>
@@ -5449,9 +5451,9 @@
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
@@ -5517,7 +5519,7 @@
       <c r="BZ28" s="11"/>
       <c r="CA28" s="11"/>
     </row>
-    <row r="29" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
         <v>24</v>
       </c>
@@ -5601,7 +5603,7 @@
       <c r="BZ29" s="11"/>
       <c r="CA29" s="11"/>
     </row>
-    <row r="30" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B30" s="5">
         <v>25</v>
       </c>
@@ -5685,7 +5687,7 @@
       <c r="BZ30" s="11"/>
       <c r="CA30" s="11"/>
     </row>
-    <row r="31" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
         <v>26</v>
       </c>
@@ -5769,7 +5771,7 @@
       <c r="BZ31" s="11"/>
       <c r="CA31" s="11"/>
     </row>
-    <row r="32" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B32" s="5">
         <v>27</v>
       </c>
@@ -5853,7 +5855,7 @@
       <c r="BZ32" s="11"/>
       <c r="CA32" s="11"/>
     </row>
-    <row r="33" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B33" s="5">
         <v>28</v>
       </c>
@@ -5937,7 +5939,7 @@
       <c r="BZ33" s="11"/>
       <c r="CA33" s="11"/>
     </row>
-    <row r="34" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B34" s="5">
         <v>29</v>
       </c>
@@ -6021,7 +6023,7 @@
       <c r="BZ34" s="11"/>
       <c r="CA34" s="11"/>
     </row>
-    <row r="35" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B35" s="5">
         <v>30</v>
       </c>
@@ -6105,7 +6107,7 @@
       <c r="BZ35" s="11"/>
       <c r="CA35" s="11"/>
     </row>
-    <row r="36" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B36" s="5">
         <v>31</v>
       </c>
@@ -6189,7 +6191,7 @@
       <c r="BZ36" s="11"/>
       <c r="CA36" s="11"/>
     </row>
-    <row r="37" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
         <v>32</v>
       </c>
@@ -6273,7 +6275,7 @@
       <c r="BZ37" s="11"/>
       <c r="CA37" s="11"/>
     </row>
-    <row r="38" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B38" s="5">
         <v>33</v>
       </c>
@@ -6357,7 +6359,7 @@
       <c r="BZ38" s="11"/>
       <c r="CA38" s="11"/>
     </row>
-    <row r="39" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B39" s="5">
         <v>34</v>
       </c>
@@ -6441,7 +6443,7 @@
       <c r="BZ39" s="11"/>
       <c r="CA39" s="11"/>
     </row>
-    <row r="40" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B40" s="5">
         <v>35</v>
       </c>
@@ -6525,7 +6527,7 @@
       <c r="BZ40" s="11"/>
       <c r="CA40" s="11"/>
     </row>
-    <row r="41" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B41" s="5">
         <v>36</v>
       </c>
@@ -6609,7 +6611,7 @@
       <c r="BZ41" s="11"/>
       <c r="CA41" s="11"/>
     </row>
-    <row r="42" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B42" s="5">
         <v>37</v>
       </c>
@@ -6693,7 +6695,7 @@
       <c r="BZ42" s="11"/>
       <c r="CA42" s="11"/>
     </row>
-    <row r="43" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
         <v>38</v>
       </c>
@@ -6777,7 +6779,7 @@
       <c r="BZ43" s="11"/>
       <c r="CA43" s="11"/>
     </row>
-    <row r="44" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B44" s="5">
         <v>39</v>
       </c>
@@ -6861,7 +6863,7 @@
       <c r="BZ44" s="11"/>
       <c r="CA44" s="11"/>
     </row>
-    <row r="45" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B45" s="5">
         <v>40</v>
       </c>
@@ -6945,7 +6947,7 @@
       <c r="BZ45" s="11"/>
       <c r="CA45" s="11"/>
     </row>
-    <row r="46" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B46" s="5">
         <v>41</v>
       </c>
@@ -7029,7 +7031,7 @@
       <c r="BZ46" s="11"/>
       <c r="CA46" s="11"/>
     </row>
-    <row r="47" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B47" s="5">
         <v>42</v>
       </c>
@@ -7113,7 +7115,7 @@
       <c r="BZ47" s="11"/>
       <c r="CA47" s="11"/>
     </row>
-    <row r="48" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B48" s="5">
         <v>43</v>
       </c>
@@ -7197,7 +7199,7 @@
       <c r="BZ48" s="11"/>
       <c r="CA48" s="11"/>
     </row>
-    <row r="49" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B49" s="5">
         <v>44</v>
       </c>
@@ -7281,7 +7283,7 @@
       <c r="BZ49" s="11"/>
       <c r="CA49" s="11"/>
     </row>
-    <row r="50" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B50" s="5">
         <v>45</v>
       </c>
@@ -7365,7 +7367,7 @@
       <c r="BZ50" s="11"/>
       <c r="CA50" s="11"/>
     </row>
-    <row r="51" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B51" s="5">
         <v>46</v>
       </c>
@@ -7449,7 +7451,7 @@
       <c r="BZ51" s="11"/>
       <c r="CA51" s="11"/>
     </row>
-    <row r="52" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B52" s="5">
         <v>47</v>
       </c>
@@ -7533,7 +7535,7 @@
       <c r="BZ52" s="11"/>
       <c r="CA52" s="11"/>
     </row>
-    <row r="53" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B53" s="5">
         <v>48</v>
       </c>
@@ -7617,7 +7619,7 @@
       <c r="BZ53" s="11"/>
       <c r="CA53" s="11"/>
     </row>
-    <row r="54" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B54" s="5">
         <v>49</v>
       </c>
@@ -7701,7 +7703,7 @@
       <c r="BZ54" s="11"/>
       <c r="CA54" s="11"/>
     </row>
-    <row r="55" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B55" s="5">
         <v>50</v>
       </c>
@@ -7783,7 +7785,7 @@
       <c r="BZ55" s="11"/>
       <c r="CA55" s="11"/>
     </row>
-    <row r="56" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B56" s="5">
         <v>51</v>
       </c>
@@ -7865,7 +7867,7 @@
       <c r="BZ56" s="11"/>
       <c r="CA56" s="11"/>
     </row>
-    <row r="57" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B57" s="5">
         <v>52</v>
       </c>
@@ -7947,7 +7949,7 @@
       <c r="BZ57" s="11"/>
       <c r="CA57" s="11"/>
     </row>
-    <row r="58" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B58" s="5">
         <v>53</v>
       </c>
@@ -8029,7 +8031,7 @@
       <c r="BZ58" s="11"/>
       <c r="CA58" s="11"/>
     </row>
-    <row r="59" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B59" s="5">
         <v>54</v>
       </c>
@@ -8111,7 +8113,7 @@
       <c r="BZ59" s="11"/>
       <c r="CA59" s="11"/>
     </row>
-    <row r="60" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B60" s="5">
         <v>55</v>
       </c>
@@ -8193,7 +8195,7 @@
       <c r="BZ60" s="11"/>
       <c r="CA60" s="11"/>
     </row>
-    <row r="61" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B61" s="5">
         <v>56</v>
       </c>
@@ -8275,7 +8277,7 @@
       <c r="BZ61" s="11"/>
       <c r="CA61" s="11"/>
     </row>
-    <row r="62" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B62" s="5">
         <v>57</v>
       </c>
@@ -8357,7 +8359,7 @@
       <c r="BZ62" s="11"/>
       <c r="CA62" s="11"/>
     </row>
-    <row r="63" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B63" s="5">
         <v>58</v>
       </c>
@@ -8439,7 +8441,7 @@
       <c r="BZ63" s="11"/>
       <c r="CA63" s="11"/>
     </row>
-    <row r="64" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B64" s="5">
         <v>59</v>
       </c>
@@ -8521,7 +8523,7 @@
       <c r="BZ64" s="11"/>
       <c r="CA64" s="11"/>
     </row>
-    <row r="65" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B65" s="5">
         <v>60</v>
       </c>
@@ -8603,7 +8605,7 @@
       <c r="BZ65" s="11"/>
       <c r="CA65" s="11"/>
     </row>
-    <row r="66" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B66" s="5">
         <v>61</v>
       </c>
@@ -8685,7 +8687,7 @@
       <c r="BZ66" s="11"/>
       <c r="CA66" s="11"/>
     </row>
-    <row r="67" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B67" s="5">
         <v>62</v>
       </c>
@@ -8767,7 +8769,7 @@
       <c r="BZ67" s="11"/>
       <c r="CA67" s="11"/>
     </row>
-    <row r="68" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B68" s="5">
         <v>63</v>
       </c>
@@ -8849,7 +8851,7 @@
       <c r="BZ68" s="11"/>
       <c r="CA68" s="11"/>
     </row>
-    <row r="69" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B69" s="23" t="s">
         <v>100</v>
       </c>
@@ -8900,266 +8902,266 @@
       </c>
       <c r="O69" s="7">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P69" s="7">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q69" s="7">
         <f t="shared" ref="Q69:AV69" si="1">P69-SUM(Q6:Q68)</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AW69" s="7">
-        <f t="shared" ref="AW69:CB69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>53</v>
+        <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
+        <v>51</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="70" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B70" s="22" t="s">
         <v>99</v>
       </c>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29380B0-D458-4033-9778-1D0AFA85F4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE33BD08-66E5-4960-8DB1-E9C083377BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="870" windowWidth="14400" windowHeight="7810" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -542,9 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -993,199 +990,199 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>51</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2870,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2884,172 +2881,172 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:79" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21"/>
-      <c r="BK2" s="21"/>
-      <c r="BL2" s="21"/>
-      <c r="BM2" s="21"/>
-      <c r="BN2" s="21"/>
-      <c r="BO2" s="21"/>
-      <c r="BP2" s="21"/>
-      <c r="BQ2" s="21"/>
-      <c r="BR2" s="21"/>
-      <c r="BS2" s="21"/>
-      <c r="BT2" s="21"/>
-      <c r="BU2" s="21"/>
-      <c r="BV2" s="21"/>
-      <c r="BW2" s="21"/>
-      <c r="BX2" s="21"/>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
     </row>
     <row r="3" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="21"/>
-      <c r="AU3" s="21"/>
-      <c r="AV3" s="21"/>
-      <c r="AW3" s="21"/>
-      <c r="AX3" s="21"/>
-      <c r="AY3" s="21"/>
-      <c r="AZ3" s="21"/>
-      <c r="BA3" s="21"/>
-      <c r="BB3" s="21"/>
-      <c r="BC3" s="21"/>
-      <c r="BD3" s="21"/>
-      <c r="BE3" s="21"/>
-      <c r="BF3" s="21"/>
-      <c r="BG3" s="21"/>
-      <c r="BH3" s="21"/>
-      <c r="BI3" s="21"/>
-      <c r="BJ3" s="21"/>
-      <c r="BK3" s="21"/>
-      <c r="BL3" s="21"/>
-      <c r="BM3" s="21"/>
-      <c r="BN3" s="21"/>
-      <c r="BO3" s="21"/>
-      <c r="BP3" s="21"/>
-      <c r="BQ3" s="21"/>
-      <c r="BR3" s="21"/>
-      <c r="BS3" s="21"/>
-      <c r="BT3" s="21"/>
-      <c r="BU3" s="21"/>
-      <c r="BV3" s="21"/>
-      <c r="BW3" s="21"/>
-      <c r="BX3" s="21"/>
-      <c r="BY3" s="21"/>
-      <c r="BZ3" s="21"/>
-      <c r="CA3" s="21"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20"/>
+      <c r="BV3" s="20"/>
+      <c r="BW3" s="20"/>
+      <c r="BX3" s="20"/>
+      <c r="BY3" s="20"/>
+      <c r="BZ3" s="20"/>
+      <c r="CA3" s="20"/>
     </row>
     <row r="4" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -3282,8 +3279,8 @@
       </c>
     </row>
     <row r="5" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -3517,10 +3514,10 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>2</v>
       </c>
       <c r="E6" s="1"/>
@@ -3607,23 +3604,25 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19">
+        <v>0.5</v>
+      </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -3781,10 +3780,10 @@
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>1</v>
       </c>
       <c r="E9" s="1"/>
@@ -3869,10 +3868,10 @@
       <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>0.5</v>
       </c>
       <c r="E10" s="1"/>
@@ -3957,10 +3956,10 @@
       <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>0.5</v>
       </c>
       <c r="E11" s="1"/>
@@ -4045,25 +4044,25 @@
       <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>4</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19">
         <v>1</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -4133,10 +4132,10 @@
       <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>1</v>
       </c>
       <c r="E13" s="1"/>
@@ -4221,23 +4220,25 @@
       <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="13">
         <v>1</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -4307,10 +4308,10 @@
       <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>2</v>
       </c>
       <c r="E15" s="1"/>
@@ -4395,23 +4396,23 @@
       <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>2</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -4481,7 +4482,7 @@
       <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D17" s="12">
@@ -4567,7 +4568,7 @@
       <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D18" s="12">
@@ -4653,23 +4654,23 @@
       <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>2</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
@@ -4739,10 +4740,10 @@
       <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>1</v>
       </c>
       <c r="E20" s="1"/>
@@ -4827,23 +4828,23 @@
       <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>2</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -4913,23 +4914,23 @@
       <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>2</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
@@ -4999,23 +5000,23 @@
       <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <v>2</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
@@ -5085,23 +5086,23 @@
       <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>2</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
@@ -5171,7 +5172,7 @@
       <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D25" s="12">
@@ -5257,10 +5258,10 @@
       <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>1</v>
       </c>
       <c r="E26" s="1"/>
@@ -5352,7 +5353,7 @@
       <c r="C27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>1</v>
       </c>
       <c r="E27" s="1"/>
@@ -5437,23 +5438,25 @@
       <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="13">
         <v>1</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
@@ -8852,10 +8855,10 @@
       <c r="CA68" s="11"/>
     </row>
     <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="23"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="6">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -8902,270 +8905,270 @@
       </c>
       <c r="O69" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="P69" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="Q69" s="7">
         <f t="shared" ref="Q69:AV69" si="1">P69-SUM(Q6:Q68)</f>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="R69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="S69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="T69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="U69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="V69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="W69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="X69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="Y69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="Z69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AA69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AB69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="22"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="3">
         <f>SUM(D6:D68)</f>
         <v>63</v>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE33BD08-66E5-4960-8DB1-E9C083377BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA797C9-F0DA-4C6A-95F8-03DF546BF727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -2867,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3623,7 +3623,7 @@
       <c r="O7" s="19">
         <v>0.5</v>
       </c>
-      <c r="P7" s="11"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -4063,7 +4063,7 @@
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
-      <c r="P12" s="11"/>
+      <c r="P12" s="19"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -4413,7 +4413,7 @@
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
-      <c r="P16" s="11"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -4671,7 +4671,7 @@
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
-      <c r="P19" s="11"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
@@ -4845,7 +4845,7 @@
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
-      <c r="P21" s="11"/>
+      <c r="P21" s="19"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
@@ -4931,7 +4931,7 @@
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
-      <c r="P22" s="11"/>
+      <c r="P22" s="19"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
@@ -5017,7 +5017,7 @@
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="11"/>
+      <c r="P23" s="19"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
@@ -5103,7 +5103,7 @@
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="11"/>
+      <c r="P24" s="19"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA797C9-F0DA-4C6A-95F8-03DF546BF727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF7020C-BBDB-4859-AC73-FE58A38AF6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -281,9 +281,6 @@
     <t>MySQL Database</t>
   </si>
   <si>
-    <t>Formulier Velden</t>
-  </si>
-  <si>
     <t>GPS-Locatie Map</t>
   </si>
   <si>
@@ -351,6 +348,21 @@
   </si>
   <si>
     <t>Favicon</t>
+  </si>
+  <si>
+    <t>Makkelijk Ontwerp</t>
+  </si>
+  <si>
+    <t>Gebruikersnaam</t>
+  </si>
+  <si>
+    <t>Inlog Formulier</t>
+  </si>
+  <si>
+    <t>Registreer Formulier</t>
+  </si>
+  <si>
+    <t>Klachten Formulier</t>
   </si>
 </sst>
 </file>
@@ -978,211 +990,211 @@
                   <c:v>59.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.7</c:v>
+                  <c:v>56.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.5</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>48.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,16 +2543,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32384</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2867,20 +2879,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:79" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:79" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2962,7 +2974,7 @@
       <c r="BZ2" s="20"/>
       <c r="CA2" s="20"/>
     </row>
-    <row r="3" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -3042,7 +3054,7 @@
       <c r="BZ3" s="20"/>
       <c r="CA3" s="20"/>
     </row>
-    <row r="4" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
@@ -3050,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="9">
         <v>45243</v>
@@ -3278,7 +3290,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="5" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="8" t="s">
@@ -3510,7 +3522,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -3600,30 +3612,32 @@
       <c r="BZ6" s="11"/>
       <c r="CA6" s="11"/>
     </row>
-    <row r="7" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="C7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="13">
         <v>2</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
         <v>0.5</v>
       </c>
-      <c r="P7" s="19"/>
+      <c r="P7" s="1">
+        <v>1.5</v>
+      </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -3688,7 +3702,7 @@
       <c r="BZ7" s="11"/>
       <c r="CA7" s="11"/>
     </row>
-    <row r="8" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -3776,12 +3790,12 @@
       <c r="BZ8" s="11"/>
       <c r="CA8" s="11"/>
     </row>
-    <row r="9" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>4</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -3864,12 +3878,12 @@
       <c r="BZ9" s="11"/>
       <c r="CA9" s="11"/>
     </row>
-    <row r="10" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>5</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="13">
         <v>0.5</v>
@@ -3952,12 +3966,12 @@
       <c r="BZ10" s="11"/>
       <c r="CA10" s="11"/>
     </row>
-    <row r="11" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>6</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D11" s="13">
         <v>0.5</v>
@@ -3969,13 +3983,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
         <v>0.5</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -4040,12 +4054,12 @@
       <c r="BZ11" s="11"/>
       <c r="CA11" s="11"/>
     </row>
-    <row r="12" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>7</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="18">
         <v>4</v>
@@ -4128,15 +4142,15 @@
       <c r="BZ12" s="11"/>
       <c r="CA12" s="11"/>
     </row>
-    <row r="13" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>8</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -4145,7 +4159,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
@@ -4216,15 +4230,15 @@
       <c r="BZ13" s="11"/>
       <c r="CA13" s="11"/>
     </row>
-    <row r="14" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>9</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -4237,7 +4251,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -4304,12 +4318,12 @@
       <c r="BZ14" s="11"/>
       <c r="CA14" s="11"/>
     </row>
-    <row r="15" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>10</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="13">
         <v>2</v>
@@ -4392,28 +4406,30 @@
       <c r="BZ15" s="11"/>
       <c r="CA15" s="11"/>
     </row>
-    <row r="16" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="18">
+      <c r="C16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="13">
         <v>2</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
+        <v>2</v>
+      </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -4478,12 +4494,12 @@
       <c r="BZ16" s="11"/>
       <c r="CA16" s="11"/>
     </row>
-    <row r="17" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>12</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="12">
         <v>2</v>
@@ -4564,12 +4580,12 @@
       <c r="BZ17" s="11"/>
       <c r="CA17" s="11"/>
     </row>
-    <row r="18" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>13</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="12">
         <v>2</v>
@@ -4650,28 +4666,30 @@
       <c r="BZ18" s="11"/>
       <c r="CA18" s="11"/>
     </row>
-    <row r="19" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="18">
+      <c r="C19" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="13">
         <v>2</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
@@ -4736,12 +4754,12 @@
       <c r="BZ19" s="11"/>
       <c r="CA19" s="11"/>
     </row>
-    <row r="20" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>15</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -4824,12 +4842,12 @@
       <c r="BZ20" s="11"/>
       <c r="CA20" s="11"/>
     </row>
-    <row r="21" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>16</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="18">
         <v>2</v>
@@ -4910,12 +4928,12 @@
       <c r="BZ21" s="11"/>
       <c r="CA21" s="11"/>
     </row>
-    <row r="22" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>17</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -4996,12 +5014,12 @@
       <c r="BZ22" s="11"/>
       <c r="CA22" s="11"/>
     </row>
-    <row r="23" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>18</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="18">
         <v>2</v>
@@ -5082,12 +5100,12 @@
       <c r="BZ23" s="11"/>
       <c r="CA23" s="11"/>
     </row>
-    <row r="24" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>19</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="18">
         <v>2</v>
@@ -5168,12 +5186,12 @@
       <c r="BZ24" s="11"/>
       <c r="CA24" s="11"/>
     </row>
-    <row r="25" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>20</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="12">
         <v>2</v>
@@ -5254,12 +5272,12 @@
       <c r="BZ25" s="11"/>
       <c r="CA25" s="11"/>
     </row>
-    <row r="26" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>21</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -5346,12 +5364,12 @@
       <c r="BZ26" s="11"/>
       <c r="CA26" s="11"/>
     </row>
-    <row r="27" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -5434,12 +5452,12 @@
       <c r="BZ27" s="11"/>
       <c r="CA27" s="11"/>
     </row>
-    <row r="28" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>23</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -5522,26 +5540,30 @@
       <c r="BZ28" s="11"/>
       <c r="CA28" s="11"/>
     </row>
-    <row r="29" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12">
+      <c r="C29" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="13">
         <v>1</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
@@ -5606,26 +5628,30 @@
       <c r="BZ29" s="11"/>
       <c r="CA29" s="11"/>
     </row>
-    <row r="30" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>25</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12">
+      <c r="C30" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="13">
         <v>1</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13">
+        <v>1</v>
+      </c>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
@@ -5690,26 +5716,30 @@
       <c r="BZ30" s="11"/>
       <c r="CA30" s="11"/>
     </row>
-    <row r="31" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>26</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12">
+      <c r="C31" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="13">
         <v>1</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13">
+        <v>1</v>
+      </c>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
@@ -5774,26 +5804,30 @@
       <c r="BZ31" s="11"/>
       <c r="CA31" s="11"/>
     </row>
-    <row r="32" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>27</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12">
+      <c r="C32" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="13">
         <v>1</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13">
+        <v>1</v>
+      </c>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
@@ -5858,7 +5892,7 @@
       <c r="BZ32" s="11"/>
       <c r="CA32" s="11"/>
     </row>
-    <row r="33" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>28</v>
       </c>
@@ -5942,7 +5976,7 @@
       <c r="BZ33" s="11"/>
       <c r="CA33" s="11"/>
     </row>
-    <row r="34" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>29</v>
       </c>
@@ -6026,7 +6060,7 @@
       <c r="BZ34" s="11"/>
       <c r="CA34" s="11"/>
     </row>
-    <row r="35" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>30</v>
       </c>
@@ -6110,7 +6144,7 @@
       <c r="BZ35" s="11"/>
       <c r="CA35" s="11"/>
     </row>
-    <row r="36" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>31</v>
       </c>
@@ -6194,7 +6228,7 @@
       <c r="BZ36" s="11"/>
       <c r="CA36" s="11"/>
     </row>
-    <row r="37" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>32</v>
       </c>
@@ -6278,7 +6312,7 @@
       <c r="BZ37" s="11"/>
       <c r="CA37" s="11"/>
     </row>
-    <row r="38" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>33</v>
       </c>
@@ -6362,7 +6396,7 @@
       <c r="BZ38" s="11"/>
       <c r="CA38" s="11"/>
     </row>
-    <row r="39" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>34</v>
       </c>
@@ -6446,7 +6480,7 @@
       <c r="BZ39" s="11"/>
       <c r="CA39" s="11"/>
     </row>
-    <row r="40" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>35</v>
       </c>
@@ -6530,7 +6564,7 @@
       <c r="BZ40" s="11"/>
       <c r="CA40" s="11"/>
     </row>
-    <row r="41" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>36</v>
       </c>
@@ -6614,7 +6648,7 @@
       <c r="BZ41" s="11"/>
       <c r="CA41" s="11"/>
     </row>
-    <row r="42" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>37</v>
       </c>
@@ -6698,7 +6732,7 @@
       <c r="BZ42" s="11"/>
       <c r="CA42" s="11"/>
     </row>
-    <row r="43" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>38</v>
       </c>
@@ -6782,7 +6816,7 @@
       <c r="BZ43" s="11"/>
       <c r="CA43" s="11"/>
     </row>
-    <row r="44" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>39</v>
       </c>
@@ -6866,7 +6900,7 @@
       <c r="BZ44" s="11"/>
       <c r="CA44" s="11"/>
     </row>
-    <row r="45" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>40</v>
       </c>
@@ -6950,7 +6984,7 @@
       <c r="BZ45" s="11"/>
       <c r="CA45" s="11"/>
     </row>
-    <row r="46" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>41</v>
       </c>
@@ -7034,7 +7068,7 @@
       <c r="BZ46" s="11"/>
       <c r="CA46" s="11"/>
     </row>
-    <row r="47" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>42</v>
       </c>
@@ -7118,7 +7152,7 @@
       <c r="BZ47" s="11"/>
       <c r="CA47" s="11"/>
     </row>
-    <row r="48" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
         <v>43</v>
       </c>
@@ -7202,7 +7236,7 @@
       <c r="BZ48" s="11"/>
       <c r="CA48" s="11"/>
     </row>
-    <row r="49" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B49" s="5">
         <v>44</v>
       </c>
@@ -7286,7 +7320,7 @@
       <c r="BZ49" s="11"/>
       <c r="CA49" s="11"/>
     </row>
-    <row r="50" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>45</v>
       </c>
@@ -7370,14 +7404,12 @@
       <c r="BZ50" s="11"/>
       <c r="CA50" s="11"/>
     </row>
-    <row r="51" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>46</v>
       </c>
       <c r="C51" s="11"/>
-      <c r="D51" s="12">
-        <v>1</v>
-      </c>
+      <c r="D51" s="12"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -7454,14 +7486,12 @@
       <c r="BZ51" s="11"/>
       <c r="CA51" s="11"/>
     </row>
-    <row r="52" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B52" s="5">
         <v>47</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="12">
-        <v>1</v>
-      </c>
+      <c r="D52" s="12"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -7538,14 +7568,12 @@
       <c r="BZ52" s="11"/>
       <c r="CA52" s="11"/>
     </row>
-    <row r="53" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B53" s="5">
         <v>48</v>
       </c>
       <c r="C53" s="11"/>
-      <c r="D53" s="12">
-        <v>1</v>
-      </c>
+      <c r="D53" s="12"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -7622,14 +7650,12 @@
       <c r="BZ53" s="11"/>
       <c r="CA53" s="11"/>
     </row>
-    <row r="54" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B54" s="5">
         <v>49</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="12">
-        <v>1</v>
-      </c>
+      <c r="D54" s="12"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -7706,7 +7732,7 @@
       <c r="BZ54" s="11"/>
       <c r="CA54" s="11"/>
     </row>
-    <row r="55" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B55" s="5">
         <v>50</v>
       </c>
@@ -7788,7 +7814,7 @@
       <c r="BZ55" s="11"/>
       <c r="CA55" s="11"/>
     </row>
-    <row r="56" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B56" s="5">
         <v>51</v>
       </c>
@@ -7870,7 +7896,7 @@
       <c r="BZ56" s="11"/>
       <c r="CA56" s="11"/>
     </row>
-    <row r="57" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B57" s="5">
         <v>52</v>
       </c>
@@ -7952,7 +7978,7 @@
       <c r="BZ57" s="11"/>
       <c r="CA57" s="11"/>
     </row>
-    <row r="58" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B58" s="5">
         <v>53</v>
       </c>
@@ -8034,7 +8060,7 @@
       <c r="BZ58" s="11"/>
       <c r="CA58" s="11"/>
     </row>
-    <row r="59" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B59" s="5">
         <v>54</v>
       </c>
@@ -8116,7 +8142,7 @@
       <c r="BZ59" s="11"/>
       <c r="CA59" s="11"/>
     </row>
-    <row r="60" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B60" s="5">
         <v>55</v>
       </c>
@@ -8198,7 +8224,7 @@
       <c r="BZ60" s="11"/>
       <c r="CA60" s="11"/>
     </row>
-    <row r="61" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B61" s="5">
         <v>56</v>
       </c>
@@ -8280,7 +8306,7 @@
       <c r="BZ61" s="11"/>
       <c r="CA61" s="11"/>
     </row>
-    <row r="62" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B62" s="5">
         <v>57</v>
       </c>
@@ -8362,7 +8388,7 @@
       <c r="BZ62" s="11"/>
       <c r="CA62" s="11"/>
     </row>
-    <row r="63" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B63" s="5">
         <v>58</v>
       </c>
@@ -8444,7 +8470,7 @@
       <c r="BZ63" s="11"/>
       <c r="CA63" s="11"/>
     </row>
-    <row r="64" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B64" s="5">
         <v>59</v>
       </c>
@@ -8526,7 +8552,7 @@
       <c r="BZ64" s="11"/>
       <c r="CA64" s="11"/>
     </row>
-    <row r="65" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B65" s="5">
         <v>60</v>
       </c>
@@ -8608,7 +8634,7 @@
       <c r="BZ65" s="11"/>
       <c r="CA65" s="11"/>
     </row>
-    <row r="66" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B66" s="5">
         <v>61</v>
       </c>
@@ -8690,7 +8716,7 @@
       <c r="BZ66" s="11"/>
       <c r="CA66" s="11"/>
     </row>
-    <row r="67" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B67" s="5">
         <v>62</v>
       </c>
@@ -8772,7 +8798,7 @@
       <c r="BZ67" s="11"/>
       <c r="CA67" s="11"/>
     </row>
-    <row r="68" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B68" s="5">
         <v>63</v>
       </c>
@@ -8854,9 +8880,9 @@
       <c r="BZ68" s="11"/>
       <c r="CA68" s="11"/>
     </row>
-    <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="6">
@@ -8889,284 +8915,284 @@
       </c>
       <c r="K69" s="7">
         <f t="shared" si="0"/>
-        <v>57.7</v>
+        <v>56.7</v>
       </c>
       <c r="L69" s="7">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>52.5</v>
       </c>
       <c r="M69" s="7">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>52.5</v>
       </c>
       <c r="N69" s="7">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>52.5</v>
       </c>
       <c r="O69" s="7">
         <f t="shared" si="0"/>
-        <v>48.5</v>
+        <v>45</v>
       </c>
       <c r="P69" s="7">
         <f t="shared" si="0"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="Q69" s="7">
         <f t="shared" ref="Q69:AV69" si="1">P69-SUM(Q6:Q68)</f>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="R69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="S69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="T69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="U69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="V69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="W69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="X69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="Y69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="Z69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AA69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AB69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="3">

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF7020C-BBDB-4859-AC73-FE58A38AF6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6220C0C-EE8C-4DD2-AEA0-FB445C53C13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>Klachten Formulier</t>
+  </si>
+  <si>
+    <t>Gegevens meesturen</t>
+  </si>
+  <si>
+    <t>Admin Interface</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,12 +489,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -521,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,19 +561,16 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,208 +990,208 @@
                   <c:v>56.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2879,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2893,172 +2890,172 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:79" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="20"/>
-      <c r="BY2" s="20"/>
-      <c r="BZ2" s="20"/>
-      <c r="CA2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="19"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="19"/>
+      <c r="BJ2" s="19"/>
+      <c r="BK2" s="19"/>
+      <c r="BL2" s="19"/>
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="19"/>
+      <c r="BQ2" s="19"/>
+      <c r="BR2" s="19"/>
+      <c r="BS2" s="19"/>
+      <c r="BT2" s="19"/>
+      <c r="BU2" s="19"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="19"/>
+      <c r="BX2" s="19"/>
+      <c r="BY2" s="19"/>
+      <c r="BZ2" s="19"/>
+      <c r="CA2" s="19"/>
     </row>
     <row r="3" spans="2:79" x14ac:dyDescent="0.3">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="20"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="20"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="20"/>
-      <c r="BL3" s="20"/>
-      <c r="BM3" s="20"/>
-      <c r="BN3" s="20"/>
-      <c r="BO3" s="20"/>
-      <c r="BP3" s="20"/>
-      <c r="BQ3" s="20"/>
-      <c r="BR3" s="20"/>
-      <c r="BS3" s="20"/>
-      <c r="BT3" s="20"/>
-      <c r="BU3" s="20"/>
-      <c r="BV3" s="20"/>
-      <c r="BW3" s="20"/>
-      <c r="BX3" s="20"/>
-      <c r="BY3" s="20"/>
-      <c r="BZ3" s="20"/>
-      <c r="CA3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="19"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="19"/>
+      <c r="BK3" s="19"/>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="19"/>
+      <c r="BN3" s="19"/>
+      <c r="BO3" s="19"/>
+      <c r="BP3" s="19"/>
+      <c r="BQ3" s="19"/>
+      <c r="BR3" s="19"/>
+      <c r="BS3" s="19"/>
+      <c r="BT3" s="19"/>
+      <c r="BU3" s="19"/>
+      <c r="BV3" s="19"/>
+      <c r="BW3" s="19"/>
+      <c r="BX3" s="19"/>
+      <c r="BY3" s="19"/>
+      <c r="BZ3" s="19"/>
+      <c r="CA3" s="19"/>
     </row>
     <row r="4" spans="2:79" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -3291,8 +3288,8 @@
       </c>
     </row>
     <row r="5" spans="2:79" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -3526,7 +3523,7 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="13">
@@ -3616,7 +3613,7 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="13">
@@ -3794,7 +3791,7 @@
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="13">
@@ -3882,7 +3879,7 @@
       <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D10" s="13">
@@ -3970,7 +3967,7 @@
       <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="13">
@@ -4058,27 +4055,29 @@
       <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>4</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18">
         <v>1</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="11"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18">
+        <v>3</v>
+      </c>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
@@ -4146,7 +4145,7 @@
       <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="13">
@@ -4234,7 +4233,7 @@
       <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D14" s="13">
@@ -4322,7 +4321,7 @@
       <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="13">
@@ -4410,7 +4409,7 @@
       <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D16" s="13">
@@ -4670,7 +4669,7 @@
       <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D19" s="13">
@@ -4758,7 +4757,7 @@
       <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D20" s="13">
@@ -4846,25 +4845,27 @@
       <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="13">
         <v>2</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="1">
+        <v>2</v>
+      </c>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
@@ -4932,25 +4933,27 @@
       <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="13">
         <v>2</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="1">
+        <v>2</v>
+      </c>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
@@ -5018,25 +5021,27 @@
       <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="13">
         <v>2</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="1">
+        <v>2</v>
+      </c>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
@@ -5104,25 +5109,27 @@
       <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="13">
         <v>2</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="1">
+        <v>2</v>
+      </c>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
@@ -5193,7 +5200,7 @@
       <c r="C25" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="13">
         <v>2</v>
       </c>
       <c r="E25" s="11"/>
@@ -5208,7 +5215,9 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
+      <c r="Q25" s="1">
+        <v>2</v>
+      </c>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
@@ -5276,7 +5285,7 @@
       <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D26" s="13">
@@ -5456,7 +5465,7 @@
       <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>103</v>
       </c>
       <c r="D28" s="13">
@@ -5544,7 +5553,7 @@
       <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D29" s="13">
@@ -5632,7 +5641,7 @@
       <c r="B30" s="5">
         <v>25</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>106</v>
       </c>
       <c r="D30" s="13">
@@ -5720,7 +5729,7 @@
       <c r="B31" s="5">
         <v>26</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>107</v>
       </c>
       <c r="D31" s="13">
@@ -5808,7 +5817,7 @@
       <c r="B32" s="5">
         <v>27</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>108</v>
       </c>
       <c r="D32" s="13">
@@ -5896,18 +5905,22 @@
       <c r="B33" s="5">
         <v>28</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12">
+      <c r="C33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="13">
         <v>1</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
@@ -5980,23 +5993,27 @@
       <c r="B34" s="5">
         <v>29</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12">
+      <c r="C34" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="17">
+        <v>2</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18">
         <v>1</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
@@ -7325,9 +7342,7 @@
         <v>45</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="12">
-        <v>1</v>
-      </c>
+      <c r="D50" s="12"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -8881,10 +8896,10 @@
       <c r="CA68" s="11"/>
     </row>
     <row r="69" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="22"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="6">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -8919,282 +8934,282 @@
       </c>
       <c r="L69" s="7">
         <f t="shared" si="0"/>
-        <v>52.5</v>
+        <v>50.5</v>
       </c>
       <c r="M69" s="7">
         <f t="shared" si="0"/>
-        <v>52.5</v>
+        <v>50.5</v>
       </c>
       <c r="N69" s="7">
         <f t="shared" si="0"/>
-        <v>52.5</v>
+        <v>50.5</v>
       </c>
       <c r="O69" s="7">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P69" s="7">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q69" s="7">
         <f t="shared" ref="Q69:AV69" si="1">P69-SUM(Q6:Q68)</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="R69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="S69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="T69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="U69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="V69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="W69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Z69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AA69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AB69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="21"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="3">
         <f>SUM(D6:D68)</f>
         <v>63</v>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6220C0C-EE8C-4DD2-AEA0-FB445C53C13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B099C93-077B-4C90-8AA7-1CDA054B8E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -369,6 +369,18 @@
   </si>
   <si>
     <t>Admin Interface</t>
+  </si>
+  <si>
+    <t>GDPR Wetgeving</t>
+  </si>
+  <si>
+    <t>Data Bewaar Limiet</t>
+  </si>
+  <si>
+    <t>Foto Uploaden</t>
+  </si>
+  <si>
+    <t>Zoekfilters</t>
   </si>
 </sst>
 </file>
@@ -450,7 +462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +505,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -521,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -588,6 +606,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -596,11 +617,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9999FF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF66FF66"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FF9999FF"/>
       <color rgb="FF333399"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FF3333CC"/>
@@ -1005,193 +1026,193 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4076,7 +4097,7 @@
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -6081,9 +6102,11 @@
       <c r="B35" s="5">
         <v>30</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="D35" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -6165,9 +6188,11 @@
       <c r="B36" s="5">
         <v>31</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="D36" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -6249,9 +6274,11 @@
       <c r="B37" s="5">
         <v>32</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="24" t="s">
+        <v>113</v>
+      </c>
       <c r="D37" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -6333,9 +6360,11 @@
       <c r="B38" s="5">
         <v>33</v>
       </c>
-      <c r="C38" s="11"/>
+      <c r="C38" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="D38" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -6670,9 +6699,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="12">
-        <v>1</v>
-      </c>
+      <c r="D42" s="12"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -6754,9 +6781,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="12">
-        <v>1</v>
-      </c>
+      <c r="D43" s="12"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -6838,9 +6863,7 @@
         <v>39</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="12">
-        <v>1</v>
-      </c>
+      <c r="D44" s="12"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -6922,9 +6945,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="12">
-        <v>1</v>
-      </c>
+      <c r="D45" s="12"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -7006,9 +7027,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="12">
-        <v>1</v>
-      </c>
+      <c r="D46" s="12"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -7090,9 +7109,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="11"/>
-      <c r="D47" s="12">
-        <v>1</v>
-      </c>
+      <c r="D47" s="12"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -7174,9 +7191,7 @@
         <v>43</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="12">
-        <v>1</v>
-      </c>
+      <c r="D48" s="12"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -7258,9 +7273,7 @@
         <v>44</v>
       </c>
       <c r="C49" s="11"/>
-      <c r="D49" s="12">
-        <v>1</v>
-      </c>
+      <c r="D49" s="12"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -8954,255 +8967,255 @@
       </c>
       <c r="Q69" s="7">
         <f t="shared" ref="Q69:AV69" si="1">P69-SUM(Q6:Q68)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B099C93-077B-4C90-8AA7-1CDA054B8E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD8C383-E34B-484B-988C-19069A34C69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -591,6 +591,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -605,9 +608,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2897,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2911,172 +2911,172 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:79" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="19"/>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="19"/>
-      <c r="BK2" s="19"/>
-      <c r="BL2" s="19"/>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="19"/>
-      <c r="BQ2" s="19"/>
-      <c r="BR2" s="19"/>
-      <c r="BS2" s="19"/>
-      <c r="BT2" s="19"/>
-      <c r="BU2" s="19"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="19"/>
-      <c r="BX2" s="19"/>
-      <c r="BY2" s="19"/>
-      <c r="BZ2" s="19"/>
-      <c r="CA2" s="19"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
     </row>
     <row r="3" spans="2:79" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="19"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="19"/>
-      <c r="BH3" s="19"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="19"/>
-      <c r="BO3" s="19"/>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="19"/>
-      <c r="BV3" s="19"/>
-      <c r="BW3" s="19"/>
-      <c r="BX3" s="19"/>
-      <c r="BY3" s="19"/>
-      <c r="BZ3" s="19"/>
-      <c r="CA3" s="19"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20"/>
+      <c r="BV3" s="20"/>
+      <c r="BW3" s="20"/>
+      <c r="BX3" s="20"/>
+      <c r="BY3" s="20"/>
+      <c r="BZ3" s="20"/>
+      <c r="CA3" s="20"/>
     </row>
     <row r="4" spans="2:79" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -3309,8 +3309,8 @@
       </c>
     </row>
     <row r="5" spans="2:79" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -4099,8 +4099,8 @@
       <c r="Q12" s="18">
         <v>2</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
@@ -6035,8 +6035,8 @@
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
@@ -6102,7 +6102,7 @@
       <c r="B35" s="5">
         <v>30</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="19" t="s">
         <v>111</v>
       </c>
       <c r="D35" s="12">
@@ -6188,7 +6188,7 @@
       <c r="B36" s="5">
         <v>31</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="19" t="s">
         <v>112</v>
       </c>
       <c r="D36" s="12">
@@ -6274,7 +6274,7 @@
       <c r="B37" s="5">
         <v>32</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="19" t="s">
         <v>113</v>
       </c>
       <c r="D37" s="12">
@@ -6360,7 +6360,7 @@
       <c r="B38" s="5">
         <v>33</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D38" s="12">
@@ -8909,10 +8909,10 @@
       <c r="CA68" s="11"/>
     </row>
     <row r="69" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="21"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="6">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -9219,10 +9219,10 @@
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="20"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="3">
         <f>SUM(D6:D68)</f>
         <v>63</v>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD8C383-E34B-484B-988C-19069A34C69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45980925-B9AB-4E72-862A-9AAA8EDFB6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1032,187 +1032,187 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2897,20 +2897,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="J18" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:79" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:79" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="BZ2" s="20"/>
       <c r="CA2" s="20"/>
     </row>
-    <row r="3" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -3072,7 +3072,7 @@
       <c r="BZ3" s="20"/>
       <c r="CA3" s="20"/>
     </row>
-    <row r="4" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="5" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="8" t="s">
@@ -3540,7 +3540,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="BZ6" s="11"/>
       <c r="CA6" s="11"/>
     </row>
-    <row r="7" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="BZ7" s="11"/>
       <c r="CA7" s="11"/>
     </row>
-    <row r="8" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="BZ8" s="11"/>
       <c r="CA8" s="11"/>
     </row>
-    <row r="9" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="BZ9" s="11"/>
       <c r="CA9" s="11"/>
     </row>
-    <row r="10" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -3984,7 +3984,7 @@
       <c r="BZ10" s="11"/>
       <c r="CA10" s="11"/>
     </row>
-    <row r="11" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>6</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="BZ11" s="11"/>
       <c r="CA11" s="11"/>
     </row>
-    <row r="12" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>7</v>
       </c>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="11"/>
+      <c r="T12" s="18"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
@@ -4162,7 +4162,7 @@
       <c r="BZ12" s="11"/>
       <c r="CA12" s="11"/>
     </row>
-    <row r="13" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>8</v>
       </c>
@@ -4250,7 +4250,7 @@
       <c r="BZ13" s="11"/>
       <c r="CA13" s="11"/>
     </row>
-    <row r="14" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>9</v>
       </c>
@@ -4338,7 +4338,7 @@
       <c r="BZ14" s="11"/>
       <c r="CA14" s="11"/>
     </row>
-    <row r="15" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>10</v>
       </c>
@@ -4426,7 +4426,7 @@
       <c r="BZ15" s="11"/>
       <c r="CA15" s="11"/>
     </row>
-    <row r="16" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B16" s="5">
         <v>11</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="BZ16" s="11"/>
       <c r="CA16" s="11"/>
     </row>
-    <row r="17" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
         <v>12</v>
       </c>
@@ -4600,7 +4600,7 @@
       <c r="BZ17" s="11"/>
       <c r="CA17" s="11"/>
     </row>
-    <row r="18" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B18" s="5">
         <v>13</v>
       </c>
@@ -4686,7 +4686,7 @@
       <c r="BZ18" s="11"/>
       <c r="CA18" s="11"/>
     </row>
-    <row r="19" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
         <v>14</v>
       </c>
@@ -4774,7 +4774,7 @@
       <c r="BZ19" s="11"/>
       <c r="CA19" s="11"/>
     </row>
-    <row r="20" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
         <v>15</v>
       </c>
@@ -4862,7 +4862,7 @@
       <c r="BZ20" s="11"/>
       <c r="CA20" s="11"/>
     </row>
-    <row r="21" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
         <v>16</v>
       </c>
@@ -4950,7 +4950,7 @@
       <c r="BZ21" s="11"/>
       <c r="CA21" s="11"/>
     </row>
-    <row r="22" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
         <v>17</v>
       </c>
@@ -5038,7 +5038,7 @@
       <c r="BZ22" s="11"/>
       <c r="CA22" s="11"/>
     </row>
-    <row r="23" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
         <v>18</v>
       </c>
@@ -5126,7 +5126,7 @@
       <c r="BZ23" s="11"/>
       <c r="CA23" s="11"/>
     </row>
-    <row r="24" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
         <v>19</v>
       </c>
@@ -5214,7 +5214,7 @@
       <c r="BZ24" s="11"/>
       <c r="CA24" s="11"/>
     </row>
-    <row r="25" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
         <v>20</v>
       </c>
@@ -5302,7 +5302,7 @@
       <c r="BZ25" s="11"/>
       <c r="CA25" s="11"/>
     </row>
-    <row r="26" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B26" s="5">
         <v>21</v>
       </c>
@@ -5394,7 +5394,7 @@
       <c r="BZ26" s="11"/>
       <c r="CA26" s="11"/>
     </row>
-    <row r="27" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
         <v>22</v>
       </c>
@@ -5482,7 +5482,7 @@
       <c r="BZ27" s="11"/>
       <c r="CA27" s="11"/>
     </row>
-    <row r="28" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B28" s="5">
         <v>23</v>
       </c>
@@ -5570,7 +5570,7 @@
       <c r="BZ28" s="11"/>
       <c r="CA28" s="11"/>
     </row>
-    <row r="29" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
         <v>24</v>
       </c>
@@ -5658,7 +5658,7 @@
       <c r="BZ29" s="11"/>
       <c r="CA29" s="11"/>
     </row>
-    <row r="30" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B30" s="5">
         <v>25</v>
       </c>
@@ -5746,7 +5746,7 @@
       <c r="BZ30" s="11"/>
       <c r="CA30" s="11"/>
     </row>
-    <row r="31" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
         <v>26</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="BZ31" s="11"/>
       <c r="CA31" s="11"/>
     </row>
-    <row r="32" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B32" s="5">
         <v>27</v>
       </c>
@@ -5922,7 +5922,7 @@
       <c r="BZ32" s="11"/>
       <c r="CA32" s="11"/>
     </row>
-    <row r="33" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B33" s="5">
         <v>28</v>
       </c>
@@ -6010,7 +6010,7 @@
       <c r="BZ33" s="11"/>
       <c r="CA33" s="11"/>
     </row>
-    <row r="34" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B34" s="5">
         <v>29</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>110</v>
       </c>
       <c r="D34" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
@@ -6036,8 +6036,10 @@
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="11"/>
+      <c r="S34" s="18">
+        <v>1</v>
+      </c>
+      <c r="T34" s="18"/>
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
@@ -6098,7 +6100,7 @@
       <c r="BZ34" s="11"/>
       <c r="CA34" s="11"/>
     </row>
-    <row r="35" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B35" s="5">
         <v>30</v>
       </c>
@@ -6184,7 +6186,7 @@
       <c r="BZ35" s="11"/>
       <c r="CA35" s="11"/>
     </row>
-    <row r="36" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B36" s="5">
         <v>31</v>
       </c>
@@ -6270,7 +6272,7 @@
       <c r="BZ36" s="11"/>
       <c r="CA36" s="11"/>
     </row>
-    <row r="37" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
         <v>32</v>
       </c>
@@ -6356,7 +6358,7 @@
       <c r="BZ37" s="11"/>
       <c r="CA37" s="11"/>
     </row>
-    <row r="38" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B38" s="5">
         <v>33</v>
       </c>
@@ -6442,7 +6444,7 @@
       <c r="BZ38" s="11"/>
       <c r="CA38" s="11"/>
     </row>
-    <row r="39" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B39" s="5">
         <v>34</v>
       </c>
@@ -6526,7 +6528,7 @@
       <c r="BZ39" s="11"/>
       <c r="CA39" s="11"/>
     </row>
-    <row r="40" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B40" s="5">
         <v>35</v>
       </c>
@@ -6610,14 +6612,12 @@
       <c r="BZ40" s="11"/>
       <c r="CA40" s="11"/>
     </row>
-    <row r="41" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B41" s="5">
         <v>36</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="12">
-        <v>1</v>
-      </c>
+      <c r="D41" s="12"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -6694,7 +6694,7 @@
       <c r="BZ41" s="11"/>
       <c r="CA41" s="11"/>
     </row>
-    <row r="42" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B42" s="5">
         <v>37</v>
       </c>
@@ -6776,7 +6776,7 @@
       <c r="BZ42" s="11"/>
       <c r="CA42" s="11"/>
     </row>
-    <row r="43" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
         <v>38</v>
       </c>
@@ -6858,7 +6858,7 @@
       <c r="BZ43" s="11"/>
       <c r="CA43" s="11"/>
     </row>
-    <row r="44" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B44" s="5">
         <v>39</v>
       </c>
@@ -6940,7 +6940,7 @@
       <c r="BZ44" s="11"/>
       <c r="CA44" s="11"/>
     </row>
-    <row r="45" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B45" s="5">
         <v>40</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="BZ45" s="11"/>
       <c r="CA45" s="11"/>
     </row>
-    <row r="46" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B46" s="5">
         <v>41</v>
       </c>
@@ -7104,7 +7104,7 @@
       <c r="BZ46" s="11"/>
       <c r="CA46" s="11"/>
     </row>
-    <row r="47" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B47" s="5">
         <v>42</v>
       </c>
@@ -7186,7 +7186,7 @@
       <c r="BZ47" s="11"/>
       <c r="CA47" s="11"/>
     </row>
-    <row r="48" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B48" s="5">
         <v>43</v>
       </c>
@@ -7268,7 +7268,7 @@
       <c r="BZ48" s="11"/>
       <c r="CA48" s="11"/>
     </row>
-    <row r="49" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B49" s="5">
         <v>44</v>
       </c>
@@ -7350,7 +7350,7 @@
       <c r="BZ49" s="11"/>
       <c r="CA49" s="11"/>
     </row>
-    <row r="50" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B50" s="5">
         <v>45</v>
       </c>
@@ -7432,7 +7432,7 @@
       <c r="BZ50" s="11"/>
       <c r="CA50" s="11"/>
     </row>
-    <row r="51" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B51" s="5">
         <v>46</v>
       </c>
@@ -7514,7 +7514,7 @@
       <c r="BZ51" s="11"/>
       <c r="CA51" s="11"/>
     </row>
-    <row r="52" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B52" s="5">
         <v>47</v>
       </c>
@@ -7596,7 +7596,7 @@
       <c r="BZ52" s="11"/>
       <c r="CA52" s="11"/>
     </row>
-    <row r="53" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B53" s="5">
         <v>48</v>
       </c>
@@ -7678,7 +7678,7 @@
       <c r="BZ53" s="11"/>
       <c r="CA53" s="11"/>
     </row>
-    <row r="54" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B54" s="5">
         <v>49</v>
       </c>
@@ -7760,7 +7760,7 @@
       <c r="BZ54" s="11"/>
       <c r="CA54" s="11"/>
     </row>
-    <row r="55" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B55" s="5">
         <v>50</v>
       </c>
@@ -7842,7 +7842,7 @@
       <c r="BZ55" s="11"/>
       <c r="CA55" s="11"/>
     </row>
-    <row r="56" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B56" s="5">
         <v>51</v>
       </c>
@@ -7924,7 +7924,7 @@
       <c r="BZ56" s="11"/>
       <c r="CA56" s="11"/>
     </row>
-    <row r="57" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B57" s="5">
         <v>52</v>
       </c>
@@ -8006,7 +8006,7 @@
       <c r="BZ57" s="11"/>
       <c r="CA57" s="11"/>
     </row>
-    <row r="58" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B58" s="5">
         <v>53</v>
       </c>
@@ -8088,7 +8088,7 @@
       <c r="BZ58" s="11"/>
       <c r="CA58" s="11"/>
     </row>
-    <row r="59" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B59" s="5">
         <v>54</v>
       </c>
@@ -8170,7 +8170,7 @@
       <c r="BZ59" s="11"/>
       <c r="CA59" s="11"/>
     </row>
-    <row r="60" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B60" s="5">
         <v>55</v>
       </c>
@@ -8252,7 +8252,7 @@
       <c r="BZ60" s="11"/>
       <c r="CA60" s="11"/>
     </row>
-    <row r="61" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B61" s="5">
         <v>56</v>
       </c>
@@ -8334,7 +8334,7 @@
       <c r="BZ61" s="11"/>
       <c r="CA61" s="11"/>
     </row>
-    <row r="62" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B62" s="5">
         <v>57</v>
       </c>
@@ -8416,7 +8416,7 @@
       <c r="BZ62" s="11"/>
       <c r="CA62" s="11"/>
     </row>
-    <row r="63" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B63" s="5">
         <v>58</v>
       </c>
@@ -8498,7 +8498,7 @@
       <c r="BZ63" s="11"/>
       <c r="CA63" s="11"/>
     </row>
-    <row r="64" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B64" s="5">
         <v>59</v>
       </c>
@@ -8580,7 +8580,7 @@
       <c r="BZ64" s="11"/>
       <c r="CA64" s="11"/>
     </row>
-    <row r="65" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B65" s="5">
         <v>60</v>
       </c>
@@ -8662,7 +8662,7 @@
       <c r="BZ65" s="11"/>
       <c r="CA65" s="11"/>
     </row>
-    <row r="66" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B66" s="5">
         <v>61</v>
       </c>
@@ -8744,7 +8744,7 @@
       <c r="BZ66" s="11"/>
       <c r="CA66" s="11"/>
     </row>
-    <row r="67" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B67" s="5">
         <v>62</v>
       </c>
@@ -8826,7 +8826,7 @@
       <c r="BZ67" s="11"/>
       <c r="CA67" s="11"/>
     </row>
-    <row r="68" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B68" s="5">
         <v>63</v>
       </c>
@@ -8908,7 +8908,7 @@
       <c r="BZ68" s="11"/>
       <c r="CA68" s="11"/>
     </row>
-    <row r="69" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B69" s="22" t="s">
         <v>99</v>
       </c>
@@ -8975,250 +8975,250 @@
       </c>
       <c r="S69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="70" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B70" s="21" t="s">
         <v>98</v>
       </c>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45980925-B9AB-4E72-862A-9AAA8EDFB6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516F57EF-2746-4219-A1B9-F5C0808D2740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -617,8 +617,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
       <color rgb="FF9999FF"/>
-      <color rgb="FF99FF99"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF66FF66"/>
       <color rgb="FFFFFF99"/>
@@ -1035,7 +1035,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>20</c:v>
@@ -2897,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J18" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4101,8 +4101,12 @@
       </c>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="11"/>
+      <c r="T12" s="18">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="18">
+        <v>1</v>
+      </c>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -4889,8 +4893,12 @@
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
+      <c r="T21" s="18">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
@@ -5065,8 +5073,12 @@
       </c>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
+      <c r="T23" s="18">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1</v>
+      </c>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
@@ -8979,7 +8991,7 @@
       </c>
       <c r="T69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="U69" s="7">
         <f t="shared" si="1"/>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516F57EF-2746-4219-A1B9-F5C0808D2740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD343DA1-F24D-4CE7-8E5E-7CF6993764E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -365,9 +365,6 @@
     <t>Klachten Formulier</t>
   </si>
   <si>
-    <t>Gegevens meesturen</t>
-  </si>
-  <si>
     <t>Admin Interface</t>
   </si>
   <si>
@@ -381,6 +378,21 @@
   </si>
   <si>
     <t>Zoekfilters</t>
+  </si>
+  <si>
+    <t>Gegevens sturen PHP</t>
+  </si>
+  <si>
+    <t>Use Case Diagram</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Wireframes</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
   </si>
 </sst>
 </file>
@@ -462,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +520,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,9 +601,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,6 +623,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,178 +1059,178 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2898,185 +2916,185 @@
   <dimension ref="B2:CA70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:79" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:79" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="20"/>
-      <c r="BY2" s="20"/>
-      <c r="BZ2" s="20"/>
-      <c r="CA2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="19"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="19"/>
+      <c r="BJ2" s="19"/>
+      <c r="BK2" s="19"/>
+      <c r="BL2" s="19"/>
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="19"/>
+      <c r="BQ2" s="19"/>
+      <c r="BR2" s="19"/>
+      <c r="BS2" s="19"/>
+      <c r="BT2" s="19"/>
+      <c r="BU2" s="19"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="19"/>
+      <c r="BX2" s="19"/>
+      <c r="BY2" s="19"/>
+      <c r="BZ2" s="19"/>
+      <c r="CA2" s="19"/>
     </row>
-    <row r="3" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="20"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="20"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="20"/>
-      <c r="BL3" s="20"/>
-      <c r="BM3" s="20"/>
-      <c r="BN3" s="20"/>
-      <c r="BO3" s="20"/>
-      <c r="BP3" s="20"/>
-      <c r="BQ3" s="20"/>
-      <c r="BR3" s="20"/>
-      <c r="BS3" s="20"/>
-      <c r="BT3" s="20"/>
-      <c r="BU3" s="20"/>
-      <c r="BV3" s="20"/>
-      <c r="BW3" s="20"/>
-      <c r="BX3" s="20"/>
-      <c r="BY3" s="20"/>
-      <c r="BZ3" s="20"/>
-      <c r="CA3" s="20"/>
+    <row r="3" spans="2:79" x14ac:dyDescent="0.3">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="19"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="19"/>
+      <c r="BK3" s="19"/>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="19"/>
+      <c r="BN3" s="19"/>
+      <c r="BO3" s="19"/>
+      <c r="BP3" s="19"/>
+      <c r="BQ3" s="19"/>
+      <c r="BR3" s="19"/>
+      <c r="BS3" s="19"/>
+      <c r="BT3" s="19"/>
+      <c r="BU3" s="19"/>
+      <c r="BV3" s="19"/>
+      <c r="BW3" s="19"/>
+      <c r="BX3" s="19"/>
+      <c r="BY3" s="19"/>
+      <c r="BZ3" s="19"/>
+      <c r="CA3" s="19"/>
     </row>
-    <row r="4" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="2:79" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -3308,9 +3326,9 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="5" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+    <row r="5" spans="2:79" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -3540,7 +3558,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -3630,7 +3648,7 @@
       <c r="BZ6" s="11"/>
       <c r="CA6" s="11"/>
     </row>
-    <row r="7" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -3720,7 +3738,7 @@
       <c r="BZ7" s="11"/>
       <c r="CA7" s="11"/>
     </row>
-    <row r="8" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -3808,7 +3826,7 @@
       <c r="BZ8" s="11"/>
       <c r="CA8" s="11"/>
     </row>
-    <row r="9" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -3896,7 +3914,7 @@
       <c r="BZ9" s="11"/>
       <c r="CA9" s="11"/>
     </row>
-    <row r="10" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -3984,7 +4002,7 @@
       <c r="BZ10" s="11"/>
       <c r="CA10" s="11"/>
     </row>
-    <row r="11" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>6</v>
       </c>
@@ -4072,42 +4090,44 @@
       <c r="BZ11" s="11"/>
       <c r="CA11" s="11"/>
     </row>
-    <row r="12" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="13">
         <v>4</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
         <v>1</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
         <v>2</v>
       </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1">
         <v>-1</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="1">
         <v>1</v>
       </c>
-      <c r="V12" s="11"/>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
@@ -4166,7 +4186,7 @@
       <c r="BZ12" s="11"/>
       <c r="CA12" s="11"/>
     </row>
-    <row r="13" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>8</v>
       </c>
@@ -4254,7 +4274,7 @@
       <c r="BZ13" s="11"/>
       <c r="CA13" s="11"/>
     </row>
-    <row r="14" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>9</v>
       </c>
@@ -4342,7 +4362,7 @@
       <c r="BZ14" s="11"/>
       <c r="CA14" s="11"/>
     </row>
-    <row r="15" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>10</v>
       </c>
@@ -4430,7 +4450,7 @@
       <c r="BZ15" s="11"/>
       <c r="CA15" s="11"/>
     </row>
-    <row r="16" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>11</v>
       </c>
@@ -4518,7 +4538,7 @@
       <c r="BZ16" s="11"/>
       <c r="CA16" s="11"/>
     </row>
-    <row r="17" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>12</v>
       </c>
@@ -4604,7 +4624,7 @@
       <c r="BZ17" s="11"/>
       <c r="CA17" s="11"/>
     </row>
-    <row r="18" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>13</v>
       </c>
@@ -4690,7 +4710,7 @@
       <c r="BZ18" s="11"/>
       <c r="CA18" s="11"/>
     </row>
-    <row r="19" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>14</v>
       </c>
@@ -4778,7 +4798,7 @@
       <c r="BZ19" s="11"/>
       <c r="CA19" s="11"/>
     </row>
-    <row r="20" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>15</v>
       </c>
@@ -4866,7 +4886,7 @@
       <c r="BZ20" s="11"/>
       <c r="CA20" s="11"/>
     </row>
-    <row r="21" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>16</v>
       </c>
@@ -4893,7 +4913,7 @@
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
-      <c r="T21" s="18">
+      <c r="T21" s="17">
         <v>-1</v>
       </c>
       <c r="U21" s="1">
@@ -4958,7 +4978,7 @@
       <c r="BZ21" s="11"/>
       <c r="CA21" s="11"/>
     </row>
-    <row r="22" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>17</v>
       </c>
@@ -5046,7 +5066,7 @@
       <c r="BZ22" s="11"/>
       <c r="CA22" s="11"/>
     </row>
-    <row r="23" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>18</v>
       </c>
@@ -5073,7 +5093,7 @@
       </c>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
-      <c r="T23" s="18">
+      <c r="T23" s="17">
         <v>-1</v>
       </c>
       <c r="U23" s="1">
@@ -5138,7 +5158,7 @@
       <c r="BZ23" s="11"/>
       <c r="CA23" s="11"/>
     </row>
-    <row r="24" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>19</v>
       </c>
@@ -5226,7 +5246,7 @@
       <c r="BZ24" s="11"/>
       <c r="CA24" s="11"/>
     </row>
-    <row r="25" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>20</v>
       </c>
@@ -5314,7 +5334,7 @@
       <c r="BZ25" s="11"/>
       <c r="CA25" s="11"/>
     </row>
-    <row r="26" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>21</v>
       </c>
@@ -5406,7 +5426,7 @@
       <c r="BZ26" s="11"/>
       <c r="CA26" s="11"/>
     </row>
-    <row r="27" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>22</v>
       </c>
@@ -5494,7 +5514,7 @@
       <c r="BZ27" s="11"/>
       <c r="CA27" s="11"/>
     </row>
-    <row r="28" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>23</v>
       </c>
@@ -5582,7 +5602,7 @@
       <c r="BZ28" s="11"/>
       <c r="CA28" s="11"/>
     </row>
-    <row r="29" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>24</v>
       </c>
@@ -5670,7 +5690,7 @@
       <c r="BZ29" s="11"/>
       <c r="CA29" s="11"/>
     </row>
-    <row r="30" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>25</v>
       </c>
@@ -5758,7 +5778,7 @@
       <c r="BZ30" s="11"/>
       <c r="CA30" s="11"/>
     </row>
-    <row r="31" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>26</v>
       </c>
@@ -5846,7 +5866,7 @@
       <c r="BZ31" s="11"/>
       <c r="CA31" s="11"/>
     </row>
-    <row r="32" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>27</v>
       </c>
@@ -5934,12 +5954,12 @@
       <c r="BZ32" s="11"/>
       <c r="CA32" s="11"/>
     </row>
-    <row r="33" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>28</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>109</v>
+      <c r="C33" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D33" s="13">
         <v>1</v>
@@ -6022,38 +6042,40 @@
       <c r="BZ33" s="11"/>
       <c r="CA33" s="11"/>
     </row>
-    <row r="34" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>29</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="17">
-        <v>3</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18">
+      <c r="C34" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="16">
+        <v>4</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17">
         <v>1</v>
       </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18">
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17">
         <v>1</v>
       </c>
-      <c r="T34" s="18"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17">
+        <v>1</v>
+      </c>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
@@ -6112,12 +6134,12 @@
       <c r="BZ34" s="11"/>
       <c r="CA34" s="11"/>
     </row>
-    <row r="35" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>30</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>111</v>
+      <c r="C35" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="D35" s="12">
         <v>4</v>
@@ -6198,12 +6220,12 @@
       <c r="BZ35" s="11"/>
       <c r="CA35" s="11"/>
     </row>
-    <row r="36" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>31</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>112</v>
+      <c r="C36" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="D36" s="12">
         <v>2</v>
@@ -6284,15 +6306,15 @@
       <c r="BZ36" s="11"/>
       <c r="CA36" s="11"/>
     </row>
-    <row r="37" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>32</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>113</v>
+      <c r="C37" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="D37" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -6370,15 +6392,15 @@
       <c r="BZ37" s="11"/>
       <c r="CA37" s="11"/>
     </row>
-    <row r="38" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>33</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>114</v>
+      <c r="C38" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="D38" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -6456,11 +6478,13 @@
       <c r="BZ38" s="11"/>
       <c r="CA38" s="11"/>
     </row>
-    <row r="39" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>34</v>
       </c>
-      <c r="C39" s="11"/>
+      <c r="C39" s="24" t="s">
+        <v>115</v>
+      </c>
       <c r="D39" s="12">
         <v>1</v>
       </c>
@@ -6540,11 +6564,13 @@
       <c r="BZ39" s="11"/>
       <c r="CA39" s="11"/>
     </row>
-    <row r="40" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>35</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="D40" s="12">
         <v>1</v>
       </c>
@@ -6624,12 +6650,16 @@
       <c r="BZ40" s="11"/>
       <c r="CA40" s="11"/>
     </row>
-    <row r="41" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>36</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
+      <c r="C41" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -6706,12 +6736,16 @@
       <c r="BZ41" s="11"/>
       <c r="CA41" s="11"/>
     </row>
-    <row r="42" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>37</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
+      <c r="C42" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -6788,7 +6822,7 @@
       <c r="BZ42" s="11"/>
       <c r="CA42" s="11"/>
     </row>
-    <row r="43" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>38</v>
       </c>
@@ -6870,7 +6904,7 @@
       <c r="BZ43" s="11"/>
       <c r="CA43" s="11"/>
     </row>
-    <row r="44" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>39</v>
       </c>
@@ -6952,7 +6986,7 @@
       <c r="BZ44" s="11"/>
       <c r="CA44" s="11"/>
     </row>
-    <row r="45" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>40</v>
       </c>
@@ -7034,7 +7068,7 @@
       <c r="BZ45" s="11"/>
       <c r="CA45" s="11"/>
     </row>
-    <row r="46" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>41</v>
       </c>
@@ -7116,7 +7150,7 @@
       <c r="BZ46" s="11"/>
       <c r="CA46" s="11"/>
     </row>
-    <row r="47" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>42</v>
       </c>
@@ -7198,7 +7232,7 @@
       <c r="BZ47" s="11"/>
       <c r="CA47" s="11"/>
     </row>
-    <row r="48" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
         <v>43</v>
       </c>
@@ -7280,7 +7314,7 @@
       <c r="BZ48" s="11"/>
       <c r="CA48" s="11"/>
     </row>
-    <row r="49" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B49" s="5">
         <v>44</v>
       </c>
@@ -7362,7 +7396,7 @@
       <c r="BZ49" s="11"/>
       <c r="CA49" s="11"/>
     </row>
-    <row r="50" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>45</v>
       </c>
@@ -7444,7 +7478,7 @@
       <c r="BZ50" s="11"/>
       <c r="CA50" s="11"/>
     </row>
-    <row r="51" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>46</v>
       </c>
@@ -7526,7 +7560,7 @@
       <c r="BZ51" s="11"/>
       <c r="CA51" s="11"/>
     </row>
-    <row r="52" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B52" s="5">
         <v>47</v>
       </c>
@@ -7608,7 +7642,7 @@
       <c r="BZ52" s="11"/>
       <c r="CA52" s="11"/>
     </row>
-    <row r="53" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B53" s="5">
         <v>48</v>
       </c>
@@ -7690,7 +7724,7 @@
       <c r="BZ53" s="11"/>
       <c r="CA53" s="11"/>
     </row>
-    <row r="54" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B54" s="5">
         <v>49</v>
       </c>
@@ -7772,7 +7806,7 @@
       <c r="BZ54" s="11"/>
       <c r="CA54" s="11"/>
     </row>
-    <row r="55" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B55" s="5">
         <v>50</v>
       </c>
@@ -7854,7 +7888,7 @@
       <c r="BZ55" s="11"/>
       <c r="CA55" s="11"/>
     </row>
-    <row r="56" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B56" s="5">
         <v>51</v>
       </c>
@@ -7936,7 +7970,7 @@
       <c r="BZ56" s="11"/>
       <c r="CA56" s="11"/>
     </row>
-    <row r="57" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B57" s="5">
         <v>52</v>
       </c>
@@ -8018,7 +8052,7 @@
       <c r="BZ57" s="11"/>
       <c r="CA57" s="11"/>
     </row>
-    <row r="58" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B58" s="5">
         <v>53</v>
       </c>
@@ -8100,7 +8134,7 @@
       <c r="BZ58" s="11"/>
       <c r="CA58" s="11"/>
     </row>
-    <row r="59" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B59" s="5">
         <v>54</v>
       </c>
@@ -8182,7 +8216,7 @@
       <c r="BZ59" s="11"/>
       <c r="CA59" s="11"/>
     </row>
-    <row r="60" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B60" s="5">
         <v>55</v>
       </c>
@@ -8264,7 +8298,7 @@
       <c r="BZ60" s="11"/>
       <c r="CA60" s="11"/>
     </row>
-    <row r="61" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B61" s="5">
         <v>56</v>
       </c>
@@ -8346,7 +8380,7 @@
       <c r="BZ61" s="11"/>
       <c r="CA61" s="11"/>
     </row>
-    <row r="62" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B62" s="5">
         <v>57</v>
       </c>
@@ -8428,7 +8462,7 @@
       <c r="BZ62" s="11"/>
       <c r="CA62" s="11"/>
     </row>
-    <row r="63" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B63" s="5">
         <v>58</v>
       </c>
@@ -8510,7 +8544,7 @@
       <c r="BZ63" s="11"/>
       <c r="CA63" s="11"/>
     </row>
-    <row r="64" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B64" s="5">
         <v>59</v>
       </c>
@@ -8592,7 +8626,7 @@
       <c r="BZ64" s="11"/>
       <c r="CA64" s="11"/>
     </row>
-    <row r="65" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B65" s="5">
         <v>60</v>
       </c>
@@ -8674,7 +8708,7 @@
       <c r="BZ65" s="11"/>
       <c r="CA65" s="11"/>
     </row>
-    <row r="66" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B66" s="5">
         <v>61</v>
       </c>
@@ -8756,7 +8790,7 @@
       <c r="BZ66" s="11"/>
       <c r="CA66" s="11"/>
     </row>
-    <row r="67" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B67" s="5">
         <v>62</v>
       </c>
@@ -8838,7 +8872,7 @@
       <c r="BZ67" s="11"/>
       <c r="CA67" s="11"/>
     </row>
-    <row r="68" spans="2:79" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:79" x14ac:dyDescent="0.3">
       <c r="B68" s="5">
         <v>63</v>
       </c>
@@ -8920,11 +8954,11 @@
       <c r="BZ68" s="11"/>
       <c r="CA68" s="11"/>
     </row>
-    <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="22" t="s">
+    <row r="69" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="22"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="6">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -8999,242 +9033,242 @@
       </c>
       <c r="V69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="W69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="X69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="21" t="s">
+    <row r="70" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="21"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="3">
         <f>SUM(D6:D68)</f>
         <v>63</v>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD343DA1-F24D-4CE7-8E5E-7CF6993764E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDCCA7D-727A-40E4-80A6-F622FEA143A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>Data Bewaar Limiet</t>
-  </si>
-  <si>
-    <t>Foto Uploaden</t>
   </si>
   <si>
     <t>Zoekfilters</t>
@@ -474,7 +471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,12 +499,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,13 +585,13 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,8 +615,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1050,187 +1041,187 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2915,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3562,7 +3553,7 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="13">
@@ -3652,7 +3643,7 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="13">
@@ -3830,7 +3821,7 @@
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="13">
@@ -3918,7 +3909,7 @@
       <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D10" s="13">
@@ -4006,7 +3997,7 @@
       <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="13">
@@ -4094,7 +4085,7 @@
       <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="13">
@@ -4190,7 +4181,7 @@
       <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="13">
@@ -4278,7 +4269,7 @@
       <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>84</v>
       </c>
       <c r="D14" s="13">
@@ -4366,7 +4357,7 @@
       <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="13">
@@ -4454,7 +4445,7 @@
       <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>86</v>
       </c>
       <c r="D16" s="13">
@@ -4542,10 +4533,10 @@
       <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="15">
         <v>2</v>
       </c>
       <c r="E17" s="11"/>
@@ -4566,7 +4557,9 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="W17" s="16">
+        <v>1</v>
+      </c>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
@@ -4628,10 +4621,10 @@
       <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="15">
         <v>2</v>
       </c>
       <c r="E18" s="11"/>
@@ -4652,7 +4645,9 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
+      <c r="W18" s="16">
+        <v>1</v>
+      </c>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
@@ -4714,7 +4709,7 @@
       <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D19" s="13">
@@ -4802,7 +4797,7 @@
       <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D20" s="13">
@@ -4890,7 +4885,7 @@
       <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="13">
@@ -4913,7 +4908,7 @@
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
-      <c r="T21" s="17">
+      <c r="T21" s="16">
         <v>-1</v>
       </c>
       <c r="U21" s="1">
@@ -4982,7 +4977,7 @@
       <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D22" s="13">
@@ -5070,7 +5065,7 @@
       <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="13">
@@ -5093,7 +5088,7 @@
       </c>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
-      <c r="T23" s="17">
+      <c r="T23" s="16">
         <v>-1</v>
       </c>
       <c r="U23" s="1">
@@ -5162,7 +5157,7 @@
       <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="13">
@@ -5250,7 +5245,7 @@
       <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="13">
@@ -5338,7 +5333,7 @@
       <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>96</v>
       </c>
       <c r="D26" s="13">
@@ -5518,7 +5513,7 @@
       <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>103</v>
       </c>
       <c r="D28" s="13">
@@ -5606,7 +5601,7 @@
       <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D29" s="13">
@@ -5694,7 +5689,7 @@
       <c r="B30" s="5">
         <v>25</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D30" s="13">
@@ -5782,7 +5777,7 @@
       <c r="B31" s="5">
         <v>26</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D31" s="13">
@@ -5870,7 +5865,7 @@
       <c r="B32" s="5">
         <v>27</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D32" s="13">
@@ -5959,7 +5954,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33" s="13">
         <v>1</v>
@@ -6046,34 +6041,34 @@
       <c r="B34" s="5">
         <v>29</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <v>4</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16">
         <v>1</v>
       </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17">
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16">
         <v>1</v>
       </c>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17">
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16">
         <v>1</v>
       </c>
       <c r="W34" s="11"/>
@@ -6138,7 +6133,7 @@
       <c r="B35" s="5">
         <v>30</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D35" s="12">
@@ -6224,7 +6219,7 @@
       <c r="B36" s="5">
         <v>31</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D36" s="12">
@@ -6310,8 +6305,8 @@
       <c r="B37" s="5">
         <v>32</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>112</v>
+      <c r="C37" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
@@ -6396,11 +6391,11 @@
       <c r="B38" s="5">
         <v>33</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>113</v>
+      <c r="C38" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="D38" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -6482,10 +6477,10 @@
       <c r="B39" s="5">
         <v>34</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="12">
+      <c r="C39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="13">
         <v>1</v>
       </c>
       <c r="E39" s="11"/>
@@ -6502,11 +6497,17 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
+      <c r="S39" s="1">
+        <v>1</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="16">
+        <v>-1</v>
+      </c>
+      <c r="W39" s="1">
+        <v>1</v>
+      </c>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
@@ -6568,8 +6569,8 @@
       <c r="B40" s="5">
         <v>35</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>118</v>
+      <c r="C40" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="D40" s="12">
         <v>1</v>
@@ -6654,8 +6655,8 @@
       <c r="B41" s="5">
         <v>36</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>116</v>
+      <c r="C41" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="D41" s="12">
         <v>1</v>
@@ -6740,12 +6741,8 @@
       <c r="B42" s="5">
         <v>37</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="12">
-        <v>1</v>
-      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -9021,15 +9018,15 @@
       </c>
       <c r="S69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T69" s="7">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U69" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V69" s="7">
         <f t="shared" si="1"/>
@@ -9037,231 +9034,231 @@
       </c>
       <c r="W69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="X69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDCCA7D-727A-40E4-80A6-F622FEA143A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140C212C-5564-43E7-980B-59E2D840F062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -600,6 +600,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -614,9 +617,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,196 +1032,196 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>15</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2920,172 +2920,172 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:79" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="19"/>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="19"/>
-      <c r="BK2" s="19"/>
-      <c r="BL2" s="19"/>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="19"/>
-      <c r="BQ2" s="19"/>
-      <c r="BR2" s="19"/>
-      <c r="BS2" s="19"/>
-      <c r="BT2" s="19"/>
-      <c r="BU2" s="19"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="19"/>
-      <c r="BX2" s="19"/>
-      <c r="BY2" s="19"/>
-      <c r="BZ2" s="19"/>
-      <c r="CA2" s="19"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
     </row>
     <row r="3" spans="2:79" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="19"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="19"/>
-      <c r="BH3" s="19"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="19"/>
-      <c r="BO3" s="19"/>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="19"/>
-      <c r="BV3" s="19"/>
-      <c r="BW3" s="19"/>
-      <c r="BX3" s="19"/>
-      <c r="BY3" s="19"/>
-      <c r="BZ3" s="19"/>
-      <c r="CA3" s="19"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20"/>
+      <c r="BV3" s="20"/>
+      <c r="BW3" s="20"/>
+      <c r="BX3" s="20"/>
+      <c r="BY3" s="20"/>
+      <c r="BZ3" s="20"/>
+      <c r="CA3" s="20"/>
     </row>
     <row r="4" spans="2:79" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -3318,8 +3318,8 @@
       </c>
     </row>
     <row r="5" spans="2:79" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -3663,15 +3663,17 @@
         <v>0.5</v>
       </c>
       <c r="P7" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1">
+        <v>0.5</v>
+      </c>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
@@ -4533,7 +4535,7 @@
       <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="19" t="s">
         <v>87</v>
       </c>
       <c r="D17" s="15">
@@ -4621,7 +4623,7 @@
       <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="15">
@@ -6069,7 +6071,7 @@
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
       <c r="V34" s="16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
@@ -6391,10 +6393,10 @@
       <c r="B38" s="5">
         <v>33</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="15">
         <v>3</v>
       </c>
       <c r="E38" s="11"/>
@@ -6414,7 +6416,9 @@
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
+      <c r="V38" s="16">
+        <v>2</v>
+      </c>
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
@@ -8952,10 +8956,10 @@
       <c r="CA68" s="11"/>
     </row>
     <row r="69" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="21"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="6">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -9006,266 +9010,266 @@
       </c>
       <c r="P69" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>33.5</v>
       </c>
       <c r="Q69" s="7">
         <f t="shared" ref="Q69:AV69" si="1">P69-SUM(Q6:Q68)</f>
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="R69" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="S69" s="7">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="T69" s="7">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="U69" s="7">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="V69" s="7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="X69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AA69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AB69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="20"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="3">
         <f>SUM(D6:D68)</f>
         <v>63</v>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140C212C-5564-43E7-980B-59E2D840F062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF05B98A-C1C0-408E-9AA9-00C7F7D683D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1059,169 +1059,169 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,20 +2906,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:79" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:79" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="BZ2" s="20"/>
       <c r="CA2" s="20"/>
     </row>
-    <row r="3" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -3081,7 +3081,7 @@
       <c r="BZ3" s="20"/>
       <c r="CA3" s="20"/>
     </row>
-    <row r="4" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="5" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="8" t="s">
@@ -3549,7 +3549,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -3639,7 +3639,7 @@
       <c r="BZ6" s="11"/>
       <c r="CA6" s="11"/>
     </row>
-    <row r="7" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="BZ7" s="11"/>
       <c r="CA7" s="11"/>
     </row>
-    <row r="8" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="BZ8" s="11"/>
       <c r="CA8" s="11"/>
     </row>
-    <row r="9" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -3907,7 +3907,7 @@
       <c r="BZ9" s="11"/>
       <c r="CA9" s="11"/>
     </row>
-    <row r="10" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -3995,7 +3995,7 @@
       <c r="BZ10" s="11"/>
       <c r="CA10" s="11"/>
     </row>
-    <row r="11" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>6</v>
       </c>
@@ -4083,7 +4083,7 @@
       <c r="BZ11" s="11"/>
       <c r="CA11" s="11"/>
     </row>
-    <row r="12" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>7</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="BZ12" s="11"/>
       <c r="CA12" s="11"/>
     </row>
-    <row r="13" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>8</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="BZ13" s="11"/>
       <c r="CA13" s="11"/>
     </row>
-    <row r="14" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>9</v>
       </c>
@@ -4355,7 +4355,7 @@
       <c r="BZ14" s="11"/>
       <c r="CA14" s="11"/>
     </row>
-    <row r="15" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>10</v>
       </c>
@@ -4443,7 +4443,7 @@
       <c r="BZ15" s="11"/>
       <c r="CA15" s="11"/>
     </row>
-    <row r="16" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B16" s="5">
         <v>11</v>
       </c>
@@ -4531,7 +4531,7 @@
       <c r="BZ16" s="11"/>
       <c r="CA16" s="11"/>
     </row>
-    <row r="17" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
         <v>12</v>
       </c>
@@ -4619,7 +4619,7 @@
       <c r="BZ17" s="11"/>
       <c r="CA17" s="11"/>
     </row>
-    <row r="18" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B18" s="5">
         <v>13</v>
       </c>
@@ -4707,7 +4707,7 @@
       <c r="BZ18" s="11"/>
       <c r="CA18" s="11"/>
     </row>
-    <row r="19" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
         <v>14</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="BZ19" s="11"/>
       <c r="CA19" s="11"/>
     </row>
-    <row r="20" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
         <v>15</v>
       </c>
@@ -4883,7 +4883,7 @@
       <c r="BZ20" s="11"/>
       <c r="CA20" s="11"/>
     </row>
-    <row r="21" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
         <v>16</v>
       </c>
@@ -4975,7 +4975,7 @@
       <c r="BZ21" s="11"/>
       <c r="CA21" s="11"/>
     </row>
-    <row r="22" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
         <v>17</v>
       </c>
@@ -5063,7 +5063,7 @@
       <c r="BZ22" s="11"/>
       <c r="CA22" s="11"/>
     </row>
-    <row r="23" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
         <v>18</v>
       </c>
@@ -5155,7 +5155,7 @@
       <c r="BZ23" s="11"/>
       <c r="CA23" s="11"/>
     </row>
-    <row r="24" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
         <v>19</v>
       </c>
@@ -5243,7 +5243,7 @@
       <c r="BZ24" s="11"/>
       <c r="CA24" s="11"/>
     </row>
-    <row r="25" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
         <v>20</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="BZ25" s="11"/>
       <c r="CA25" s="11"/>
     </row>
-    <row r="26" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B26" s="5">
         <v>21</v>
       </c>
@@ -5423,7 +5423,7 @@
       <c r="BZ26" s="11"/>
       <c r="CA26" s="11"/>
     </row>
-    <row r="27" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
         <v>22</v>
       </c>
@@ -5511,7 +5511,7 @@
       <c r="BZ27" s="11"/>
       <c r="CA27" s="11"/>
     </row>
-    <row r="28" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B28" s="5">
         <v>23</v>
       </c>
@@ -5599,7 +5599,7 @@
       <c r="BZ28" s="11"/>
       <c r="CA28" s="11"/>
     </row>
-    <row r="29" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
         <v>24</v>
       </c>
@@ -5687,7 +5687,7 @@
       <c r="BZ29" s="11"/>
       <c r="CA29" s="11"/>
     </row>
-    <row r="30" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B30" s="5">
         <v>25</v>
       </c>
@@ -5775,7 +5775,7 @@
       <c r="BZ30" s="11"/>
       <c r="CA30" s="11"/>
     </row>
-    <row r="31" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
         <v>26</v>
       </c>
@@ -5863,7 +5863,7 @@
       <c r="BZ31" s="11"/>
       <c r="CA31" s="11"/>
     </row>
-    <row r="32" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B32" s="5">
         <v>27</v>
       </c>
@@ -5951,7 +5951,7 @@
       <c r="BZ32" s="11"/>
       <c r="CA32" s="11"/>
     </row>
-    <row r="33" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B33" s="5">
         <v>28</v>
       </c>
@@ -6039,7 +6039,7 @@
       <c r="BZ33" s="11"/>
       <c r="CA33" s="11"/>
     </row>
-    <row r="34" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B34" s="5">
         <v>29</v>
       </c>
@@ -6131,7 +6131,7 @@
       <c r="BZ34" s="11"/>
       <c r="CA34" s="11"/>
     </row>
-    <row r="35" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B35" s="5">
         <v>30</v>
       </c>
@@ -6217,7 +6217,7 @@
       <c r="BZ35" s="11"/>
       <c r="CA35" s="11"/>
     </row>
-    <row r="36" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B36" s="5">
         <v>31</v>
       </c>
@@ -6303,7 +6303,7 @@
       <c r="BZ36" s="11"/>
       <c r="CA36" s="11"/>
     </row>
-    <row r="37" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
         <v>32</v>
       </c>
@@ -6389,14 +6389,14 @@
       <c r="BZ37" s="11"/>
       <c r="CA37" s="11"/>
     </row>
-    <row r="38" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B38" s="5">
         <v>33</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="13">
         <v>3</v>
       </c>
       <c r="E38" s="11"/>
@@ -6416,12 +6416,14 @@
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
-      <c r="V38" s="16">
+      <c r="V38" s="1">
         <v>2</v>
       </c>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1">
+        <v>1</v>
+      </c>
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
       <c r="AB38" s="11"/>
@@ -6477,7 +6479,7 @@
       <c r="BZ38" s="11"/>
       <c r="CA38" s="11"/>
     </row>
-    <row r="39" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B39" s="5">
         <v>34</v>
       </c>
@@ -6569,7 +6571,7 @@
       <c r="BZ39" s="11"/>
       <c r="CA39" s="11"/>
     </row>
-    <row r="40" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B40" s="5">
         <v>35</v>
       </c>
@@ -6655,7 +6657,7 @@
       <c r="BZ40" s="11"/>
       <c r="CA40" s="11"/>
     </row>
-    <row r="41" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B41" s="5">
         <v>36</v>
       </c>
@@ -6741,7 +6743,7 @@
       <c r="BZ41" s="11"/>
       <c r="CA41" s="11"/>
     </row>
-    <row r="42" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B42" s="5">
         <v>37</v>
       </c>
@@ -6823,7 +6825,7 @@
       <c r="BZ42" s="11"/>
       <c r="CA42" s="11"/>
     </row>
-    <row r="43" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
         <v>38</v>
       </c>
@@ -6905,7 +6907,7 @@
       <c r="BZ43" s="11"/>
       <c r="CA43" s="11"/>
     </row>
-    <row r="44" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B44" s="5">
         <v>39</v>
       </c>
@@ -6987,7 +6989,7 @@
       <c r="BZ44" s="11"/>
       <c r="CA44" s="11"/>
     </row>
-    <row r="45" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B45" s="5">
         <v>40</v>
       </c>
@@ -7069,7 +7071,7 @@
       <c r="BZ45" s="11"/>
       <c r="CA45" s="11"/>
     </row>
-    <row r="46" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B46" s="5">
         <v>41</v>
       </c>
@@ -7151,7 +7153,7 @@
       <c r="BZ46" s="11"/>
       <c r="CA46" s="11"/>
     </row>
-    <row r="47" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B47" s="5">
         <v>42</v>
       </c>
@@ -7233,7 +7235,7 @@
       <c r="BZ47" s="11"/>
       <c r="CA47" s="11"/>
     </row>
-    <row r="48" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B48" s="5">
         <v>43</v>
       </c>
@@ -7315,7 +7317,7 @@
       <c r="BZ48" s="11"/>
       <c r="CA48" s="11"/>
     </row>
-    <row r="49" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B49" s="5">
         <v>44</v>
       </c>
@@ -7397,7 +7399,7 @@
       <c r="BZ49" s="11"/>
       <c r="CA49" s="11"/>
     </row>
-    <row r="50" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B50" s="5">
         <v>45</v>
       </c>
@@ -7479,7 +7481,7 @@
       <c r="BZ50" s="11"/>
       <c r="CA50" s="11"/>
     </row>
-    <row r="51" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B51" s="5">
         <v>46</v>
       </c>
@@ -7561,7 +7563,7 @@
       <c r="BZ51" s="11"/>
       <c r="CA51" s="11"/>
     </row>
-    <row r="52" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B52" s="5">
         <v>47</v>
       </c>
@@ -7643,7 +7645,7 @@
       <c r="BZ52" s="11"/>
       <c r="CA52" s="11"/>
     </row>
-    <row r="53" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B53" s="5">
         <v>48</v>
       </c>
@@ -7725,7 +7727,7 @@
       <c r="BZ53" s="11"/>
       <c r="CA53" s="11"/>
     </row>
-    <row r="54" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B54" s="5">
         <v>49</v>
       </c>
@@ -7807,7 +7809,7 @@
       <c r="BZ54" s="11"/>
       <c r="CA54" s="11"/>
     </row>
-    <row r="55" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B55" s="5">
         <v>50</v>
       </c>
@@ -7889,7 +7891,7 @@
       <c r="BZ55" s="11"/>
       <c r="CA55" s="11"/>
     </row>
-    <row r="56" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B56" s="5">
         <v>51</v>
       </c>
@@ -7971,7 +7973,7 @@
       <c r="BZ56" s="11"/>
       <c r="CA56" s="11"/>
     </row>
-    <row r="57" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B57" s="5">
         <v>52</v>
       </c>
@@ -8053,7 +8055,7 @@
       <c r="BZ57" s="11"/>
       <c r="CA57" s="11"/>
     </row>
-    <row r="58" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B58" s="5">
         <v>53</v>
       </c>
@@ -8135,7 +8137,7 @@
       <c r="BZ58" s="11"/>
       <c r="CA58" s="11"/>
     </row>
-    <row r="59" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B59" s="5">
         <v>54</v>
       </c>
@@ -8217,7 +8219,7 @@
       <c r="BZ59" s="11"/>
       <c r="CA59" s="11"/>
     </row>
-    <row r="60" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B60" s="5">
         <v>55</v>
       </c>
@@ -8299,7 +8301,7 @@
       <c r="BZ60" s="11"/>
       <c r="CA60" s="11"/>
     </row>
-    <row r="61" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B61" s="5">
         <v>56</v>
       </c>
@@ -8381,7 +8383,7 @@
       <c r="BZ61" s="11"/>
       <c r="CA61" s="11"/>
     </row>
-    <row r="62" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B62" s="5">
         <v>57</v>
       </c>
@@ -8463,7 +8465,7 @@
       <c r="BZ62" s="11"/>
       <c r="CA62" s="11"/>
     </row>
-    <row r="63" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B63" s="5">
         <v>58</v>
       </c>
@@ -8545,7 +8547,7 @@
       <c r="BZ63" s="11"/>
       <c r="CA63" s="11"/>
     </row>
-    <row r="64" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B64" s="5">
         <v>59</v>
       </c>
@@ -8627,7 +8629,7 @@
       <c r="BZ64" s="11"/>
       <c r="CA64" s="11"/>
     </row>
-    <row r="65" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B65" s="5">
         <v>60</v>
       </c>
@@ -8709,7 +8711,7 @@
       <c r="BZ65" s="11"/>
       <c r="CA65" s="11"/>
     </row>
-    <row r="66" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B66" s="5">
         <v>61</v>
       </c>
@@ -8791,7 +8793,7 @@
       <c r="BZ66" s="11"/>
       <c r="CA66" s="11"/>
     </row>
-    <row r="67" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B67" s="5">
         <v>62</v>
       </c>
@@ -8873,7 +8875,7 @@
       <c r="BZ67" s="11"/>
       <c r="CA67" s="11"/>
     </row>
-    <row r="68" spans="2:79" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B68" s="5">
         <v>63</v>
       </c>
@@ -8955,7 +8957,7 @@
       <c r="BZ68" s="11"/>
       <c r="CA68" s="11"/>
     </row>
-    <row r="69" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B69" s="22" t="s">
         <v>99</v>
       </c>
@@ -9046,226 +9048,226 @@
       </c>
       <c r="Y69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AB69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
     </row>
-    <row r="70" spans="2:79" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B70" s="21" t="s">
         <v>98</v>
       </c>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF05B98A-C1C0-408E-9AA9-00C7F7D683D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C70C873-7FC6-489B-8DE3-FBDB30EAB3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>Definition of Done</t>
+  </si>
+  <si>
+    <t>Definition of Fun</t>
   </si>
 </sst>
 </file>
@@ -1062,166 +1068,166 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="O33" workbookViewId="0">
+      <selection activeCell="Z47" sqref="Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4562,9 +4568,9 @@
       <c r="W17" s="16">
         <v>1</v>
       </c>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="11"/>
@@ -4650,9 +4656,9 @@
       <c r="W18" s="16">
         <v>1</v>
       </c>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
@@ -6139,7 +6145,7 @@
         <v>110</v>
       </c>
       <c r="D35" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -6747,8 +6753,12 @@
       <c r="B42" s="5">
         <v>37</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
+      <c r="C42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -6770,7 +6780,9 @@
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
+      <c r="Z42" s="1">
+        <v>1</v>
+      </c>
       <c r="AA42" s="11"/>
       <c r="AB42" s="11"/>
       <c r="AC42" s="11"/>
@@ -6829,8 +6841,12 @@
       <c r="B43" s="5">
         <v>38</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
+      <c r="C43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -6852,7 +6868,9 @@
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
+      <c r="Z43" s="1">
+        <v>1</v>
+      </c>
       <c r="AA43" s="11"/>
       <c r="AB43" s="11"/>
       <c r="AC43" s="11"/>
@@ -9052,219 +9070,219 @@
       </c>
       <c r="Z69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C70C873-7FC6-489B-8DE3-FBDB30EAB3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ECD91D-8D81-40B4-9B4F-9617D2C351CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -717,7 +717,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1041,193 +1041,193 @@
                   <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.5</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.5</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.5</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>12.5</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.5</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,7 +1822,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1750577888"/>
@@ -1891,7 +1891,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1495853808"/>
@@ -1932,7 +1932,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1972,7 +1972,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2912,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O33" workbookViewId="0">
-      <selection activeCell="Z47" sqref="Z47"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="AC25" sqref="R25:AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5272,21 +5272,23 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="1">
-        <v>2</v>
-      </c>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1">
+        <v>1</v>
+      </c>
       <c r="AE25" s="11"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="11"/>
@@ -6049,44 +6051,46 @@
       <c r="B34" s="5">
         <v>29</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="13">
         <v>4</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="16">
         <v>1</v>
       </c>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
       <c r="S34" s="16">
         <v>1</v>
       </c>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
       <c r="V34" s="16">
         <v>1.5</v>
       </c>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
       <c r="AG34" s="11"/>
@@ -9034,255 +9038,255 @@
       </c>
       <c r="Q69" s="7">
         <f t="shared" ref="Q69:AV69" si="1">P69-SUM(Q6:Q68)</f>
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
       <c r="R69" s="7">
         <f t="shared" si="1"/>
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
       <c r="S69" s="7">
         <f t="shared" si="1"/>
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="T69" s="7">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
       <c r="U69" s="7">
         <f t="shared" si="1"/>
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="V69" s="7">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="X69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y69" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AB69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ECD91D-8D81-40B4-9B4F-9617D2C351CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C51DD2-1254-4C00-8C75-35D62EEBEC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -1080,154 +1080,154 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2912,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="AC25" sqref="R25:AC25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="AD41" sqref="AD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6671,10 +6671,10 @@
       <c r="B41" s="5">
         <v>36</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="13">
         <v>1</v>
       </c>
       <c r="E41" s="11"/>
@@ -6702,7 +6702,9 @@
       <c r="AA41" s="11"/>
       <c r="AB41" s="11"/>
       <c r="AC41" s="11"/>
-      <c r="AD41" s="11"/>
+      <c r="AD41" s="1">
+        <v>1</v>
+      </c>
       <c r="AE41" s="11"/>
       <c r="AF41" s="11"/>
       <c r="AG41" s="11"/>
@@ -9090,203 +9092,203 @@
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C51DD2-1254-4C00-8C75-35D62EEBEC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838FD4B9-A497-4B7F-9129-0815CA403ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -477,7 +477,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,12 +520,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -554,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,9 +595,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1089,145 +1080,145 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2912,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AD41" sqref="AD41"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2926,172 +2917,172 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:79" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="20"/>
-      <c r="BY2" s="20"/>
-      <c r="BZ2" s="20"/>
-      <c r="CA2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="19"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="19"/>
+      <c r="BJ2" s="19"/>
+      <c r="BK2" s="19"/>
+      <c r="BL2" s="19"/>
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="19"/>
+      <c r="BQ2" s="19"/>
+      <c r="BR2" s="19"/>
+      <c r="BS2" s="19"/>
+      <c r="BT2" s="19"/>
+      <c r="BU2" s="19"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="19"/>
+      <c r="BX2" s="19"/>
+      <c r="BY2" s="19"/>
+      <c r="BZ2" s="19"/>
+      <c r="CA2" s="19"/>
     </row>
     <row r="3" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="20"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="20"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="20"/>
-      <c r="BL3" s="20"/>
-      <c r="BM3" s="20"/>
-      <c r="BN3" s="20"/>
-      <c r="BO3" s="20"/>
-      <c r="BP3" s="20"/>
-      <c r="BQ3" s="20"/>
-      <c r="BR3" s="20"/>
-      <c r="BS3" s="20"/>
-      <c r="BT3" s="20"/>
-      <c r="BU3" s="20"/>
-      <c r="BV3" s="20"/>
-      <c r="BW3" s="20"/>
-      <c r="BX3" s="20"/>
-      <c r="BY3" s="20"/>
-      <c r="BZ3" s="20"/>
-      <c r="CA3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="19"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="19"/>
+      <c r="BK3" s="19"/>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="19"/>
+      <c r="BN3" s="19"/>
+      <c r="BO3" s="19"/>
+      <c r="BP3" s="19"/>
+      <c r="BQ3" s="19"/>
+      <c r="BR3" s="19"/>
+      <c r="BS3" s="19"/>
+      <c r="BT3" s="19"/>
+      <c r="BU3" s="19"/>
+      <c r="BV3" s="19"/>
+      <c r="BW3" s="19"/>
+      <c r="BX3" s="19"/>
+      <c r="BY3" s="19"/>
+      <c r="BZ3" s="19"/>
+      <c r="CA3" s="19"/>
     </row>
     <row r="4" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -3324,8 +3315,8 @@
       </c>
     </row>
     <row r="5" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -4541,7 +4532,7 @@
       <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>87</v>
       </c>
       <c r="D17" s="15">
@@ -4629,7 +4620,7 @@
       <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="15">
@@ -6585,10 +6576,10 @@
       <c r="B40" s="5">
         <v>35</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="13">
         <v>1</v>
       </c>
       <c r="E40" s="11"/>
@@ -6619,7 +6610,9 @@
       <c r="AD40" s="11"/>
       <c r="AE40" s="11"/>
       <c r="AF40" s="11"/>
-      <c r="AG40" s="11"/>
+      <c r="AG40" s="1">
+        <v>1</v>
+      </c>
       <c r="AH40" s="11"/>
       <c r="AI40" s="11"/>
       <c r="AJ40" s="11"/>
@@ -8982,10 +8975,10 @@
       <c r="CA68" s="11"/>
     </row>
     <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="22"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="6">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -9104,198 +9097,198 @@
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="21"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="3">
         <f>SUM(D6:D68)</f>
         <v>63</v>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838FD4B9-A497-4B7F-9129-0815CA403ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7A3691-16A4-4021-A37B-34B9100709B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -2903,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4562,13 +4562,13 @@
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
@@ -4650,13 +4650,13 @@
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
       <c r="AJ18" s="11"/>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7A3691-16A4-4021-A37B-34B9100709B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF541BA2-BFBD-4223-9331-6A5E5D44D583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -1080,145 +1080,145 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6484,10 +6484,10 @@
       <c r="B39" s="5">
         <v>34</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="15">
         <v>1</v>
       </c>
       <c r="E39" s="11"/>
@@ -6525,7 +6525,9 @@
       <c r="AE39" s="11"/>
       <c r="AF39" s="11"/>
       <c r="AG39" s="11"/>
-      <c r="AH39" s="11"/>
+      <c r="AH39" s="16">
+        <v>-1</v>
+      </c>
       <c r="AI39" s="11"/>
       <c r="AJ39" s="11"/>
       <c r="AK39" s="11"/>
@@ -6576,10 +6578,10 @@
       <c r="B40" s="5">
         <v>35</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="15">
         <v>1</v>
       </c>
       <c r="E40" s="11"/>
@@ -6610,10 +6612,10 @@
       <c r="AD40" s="11"/>
       <c r="AE40" s="11"/>
       <c r="AF40" s="11"/>
-      <c r="AG40" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH40" s="11"/>
+      <c r="AG40" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AH40" s="16"/>
       <c r="AI40" s="11"/>
       <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
@@ -9097,191 +9099,191 @@
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF541BA2-BFBD-4223-9331-6A5E5D44D583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666A47AA-C024-4D37-AB4E-7478734A52BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -1089,136 +1089,136 @@
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4569,10 +4569,10 @@
       <c r="AE17" s="16"/>
       <c r="AF17" s="16"/>
       <c r="AG17" s="16"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
@@ -4657,10 +4657,10 @@
       <c r="AE18" s="16"/>
       <c r="AF18" s="16"/>
       <c r="AG18" s="16"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
@@ -6528,9 +6528,9 @@
       <c r="AH39" s="16">
         <v>-1</v>
       </c>
-      <c r="AI39" s="11"/>
-      <c r="AJ39" s="11"/>
-      <c r="AK39" s="11"/>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
       <c r="AL39" s="11"/>
       <c r="AM39" s="11"/>
       <c r="AN39" s="11"/>
@@ -6578,10 +6578,10 @@
       <c r="B40" s="5">
         <v>35</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="13">
         <v>1</v>
       </c>
       <c r="E40" s="11"/>
@@ -6615,9 +6615,11 @@
       <c r="AG40" s="16">
         <v>0.5</v>
       </c>
-      <c r="AH40" s="16"/>
-      <c r="AI40" s="11"/>
-      <c r="AJ40" s="11"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AK40" s="11"/>
       <c r="AL40" s="11"/>
       <c r="AM40" s="11"/>
@@ -9111,179 +9113,179 @@
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666A47AA-C024-4D37-AB4E-7478734A52BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0413FAB-8512-4D5A-B425-8AD5CDEB7CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -1101,124 +1101,124 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="AO39" sqref="AO39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4573,9 +4573,9 @@
       <c r="AI17" s="16"/>
       <c r="AJ17" s="16"/>
       <c r="AK17" s="16"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
       <c r="AO17" s="11"/>
       <c r="AP17" s="11"/>
       <c r="AQ17" s="11"/>
@@ -4661,9 +4661,9 @@
       <c r="AI18" s="16"/>
       <c r="AJ18" s="16"/>
       <c r="AK18" s="16"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
       <c r="AO18" s="11"/>
       <c r="AP18" s="11"/>
       <c r="AQ18" s="11"/>
@@ -6308,48 +6308,50 @@
       <c r="B37" s="5">
         <v>32</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="13">
         <v>1</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="11"/>
-      <c r="AI37" s="11"/>
-      <c r="AJ37" s="11"/>
-      <c r="AK37" s="11"/>
-      <c r="AL37" s="11"/>
-      <c r="AM37" s="11"/>
-      <c r="AN37" s="11"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1">
+        <v>1</v>
+      </c>
       <c r="AO37" s="11"/>
       <c r="AP37" s="11"/>
       <c r="AQ37" s="11"/>
@@ -6531,9 +6533,9 @@
       <c r="AI39" s="16"/>
       <c r="AJ39" s="16"/>
       <c r="AK39" s="16"/>
-      <c r="AL39" s="11"/>
-      <c r="AM39" s="11"/>
-      <c r="AN39" s="11"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="16"/>
       <c r="AO39" s="11"/>
       <c r="AP39" s="11"/>
       <c r="AQ39" s="11"/>
@@ -9129,163 +9131,163 @@
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0413FAB-8512-4D5A-B425-8AD5CDEB7CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBEE33B-7EF5-45CC-8620-78D4D05E4BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -287,9 +287,6 @@
     <t>Resp. Design &amp; CSS</t>
   </si>
   <si>
-    <t>Navigatie Bar</t>
-  </si>
-  <si>
     <t>Gemeentelijk Logo</t>
   </si>
   <si>
@@ -353,15 +350,9 @@
     <t>Makkelijk Ontwerp</t>
   </si>
   <si>
-    <t>Gebruikersnaam</t>
-  </si>
-  <si>
     <t>Inlog Formulier</t>
   </si>
   <si>
-    <t>Registreer Formulier</t>
-  </si>
-  <si>
     <t>Klachten Formulier</t>
   </si>
   <si>
@@ -377,9 +368,6 @@
     <t>Zoekfilters</t>
   </si>
   <si>
-    <t>Gegevens sturen PHP</t>
-  </si>
-  <si>
     <t>Use Case Diagram</t>
   </si>
   <si>
@@ -396,6 +384,24 @@
   </si>
   <si>
     <t>Definition of Fun</t>
+  </si>
+  <si>
+    <t>Display Gebruiker</t>
+  </si>
+  <si>
+    <t>Navigatie Balk</t>
+  </si>
+  <si>
+    <t>Registratie Formulier</t>
+  </si>
+  <si>
+    <t>Afgerond</t>
+  </si>
+  <si>
+    <t>Bezig…</t>
+  </si>
+  <si>
+    <t>Veiligheidstaken</t>
   </si>
 </sst>
 </file>
@@ -516,7 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFFCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -594,9 +600,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -615,6 +618,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -624,6 +633,7 @@
   <colors>
     <mruColors>
       <color rgb="FF99FF99"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF9999FF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF66FF66"/>
@@ -708,7 +718,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1017,88 +1027,88 @@
                   <c:v>56.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.5</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.5</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.5</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.5</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>22.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>22.5</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.5</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>17</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>10.5</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="31">
                   <c:v>10.5</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.5</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>7</c:v>
@@ -1107,118 +1117,118 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,7 +1823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1750577888"/>
@@ -1882,7 +1892,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1495853808"/>
@@ -1923,7 +1933,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1963,7 +1973,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2903,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AO39" sqref="AO39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2917,176 +2927,176 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:79" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="19"/>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="19"/>
-      <c r="BK2" s="19"/>
-      <c r="BL2" s="19"/>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="19"/>
-      <c r="BQ2" s="19"/>
-      <c r="BR2" s="19"/>
-      <c r="BS2" s="19"/>
-      <c r="BT2" s="19"/>
-      <c r="BU2" s="19"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="19"/>
-      <c r="BX2" s="19"/>
-      <c r="BY2" s="19"/>
-      <c r="BZ2" s="19"/>
-      <c r="CA2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="18"/>
+      <c r="BW2" s="18"/>
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+      <c r="BZ2" s="18"/>
+      <c r="CA2" s="18"/>
     </row>
     <row r="3" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="19"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="19"/>
-      <c r="BH3" s="19"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="19"/>
-      <c r="BO3" s="19"/>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="19"/>
-      <c r="BV3" s="19"/>
-      <c r="BW3" s="19"/>
-      <c r="BX3" s="19"/>
-      <c r="BY3" s="19"/>
-      <c r="BZ3" s="19"/>
-      <c r="CA3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="18"/>
+      <c r="BJ3" s="18"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="18"/>
+      <c r="BM3" s="18"/>
+      <c r="BN3" s="18"/>
+      <c r="BO3" s="18"/>
+      <c r="BP3" s="18"/>
+      <c r="BQ3" s="18"/>
+      <c r="BR3" s="18"/>
+      <c r="BS3" s="18"/>
+      <c r="BT3" s="18"/>
+      <c r="BU3" s="18"/>
+      <c r="BV3" s="18"/>
+      <c r="BW3" s="18"/>
+      <c r="BX3" s="18"/>
+      <c r="BY3" s="18"/>
+      <c r="BZ3" s="18"/>
+      <c r="CA3" s="18"/>
     </row>
     <row r="4" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="9">
         <v>45243</v>
@@ -3315,8 +3325,8 @@
       </c>
     </row>
     <row r="5" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -3821,7 +3831,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -3909,7 +3919,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="13">
         <v>0.5</v>
@@ -3997,7 +4007,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D11" s="13">
         <v>0.5</v>
@@ -4181,7 +4191,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D13" s="13">
         <v>2</v>
@@ -4269,10 +4279,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -4285,7 +4295,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -4357,7 +4367,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="13">
         <v>2</v>
@@ -4445,7 +4455,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="13">
         <v>2</v>
@@ -4532,10 +4542,10 @@
       <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="C17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="13">
         <v>2</v>
       </c>
       <c r="E17" s="11"/>
@@ -4574,8 +4584,10 @@
       <c r="AJ17" s="16"/>
       <c r="AK17" s="16"/>
       <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="1">
+        <v>1</v>
+      </c>
       <c r="AO17" s="11"/>
       <c r="AP17" s="11"/>
       <c r="AQ17" s="11"/>
@@ -4620,8 +4632,8 @@
       <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>88</v>
+      <c r="C18" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="D18" s="15">
         <v>2</v>
@@ -4664,8 +4676,8 @@
       <c r="AL18" s="16"/>
       <c r="AM18" s="16"/>
       <c r="AN18" s="16"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16"/>
       <c r="AQ18" s="11"/>
       <c r="AR18" s="11"/>
       <c r="AS18" s="11"/>
@@ -4709,7 +4721,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="13">
         <v>2</v>
@@ -4796,11 +4808,11 @@
       <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>95</v>
+      <c r="C20" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D20" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -4810,7 +4822,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -4885,7 +4897,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="13">
         <v>2</v>
@@ -4977,7 +4989,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="13">
         <v>2</v>
@@ -5065,7 +5077,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="13">
         <v>2</v>
@@ -5157,7 +5169,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="13">
         <v>2</v>
@@ -5245,7 +5257,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="13">
         <v>2</v>
@@ -5335,7 +5347,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -5427,7 +5439,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -5515,7 +5527,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -5603,7 +5615,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
@@ -5691,7 +5703,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5779,7 +5791,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -5867,7 +5879,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5954,11 +5966,11 @@
       <c r="B33" s="5">
         <v>28</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>113</v>
+      <c r="C33" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D33" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -5967,33 +5979,41 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1">
+      <c r="L33" s="16">
         <v>1</v>
       </c>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="11"/>
-      <c r="AI33" s="11"/>
-      <c r="AJ33" s="11"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="16">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="16">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1">
+        <v>1</v>
+      </c>
       <c r="AK33" s="11"/>
       <c r="AL33" s="11"/>
       <c r="AM33" s="11"/>
@@ -6042,46 +6062,38 @@
       <c r="B34" s="5">
         <v>29</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>109</v>
+      <c r="C34" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="D34" s="13">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="16">
-        <v>1</v>
-      </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="16">
-        <v>1</v>
-      </c>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1">
-        <v>0.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
       <c r="AG34" s="11"/>
@@ -6093,7 +6105,9 @@
       <c r="AM34" s="11"/>
       <c r="AN34" s="11"/>
       <c r="AO34" s="11"/>
-      <c r="AP34" s="11"/>
+      <c r="AP34" s="1">
+        <v>3</v>
+      </c>
       <c r="AQ34" s="11"/>
       <c r="AR34" s="11"/>
       <c r="AS34" s="11"/>
@@ -6136,10 +6150,10 @@
       <c r="B35" s="5">
         <v>30</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="12">
+      <c r="C35" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="13">
         <v>2</v>
       </c>
       <c r="E35" s="11"/>
@@ -6179,7 +6193,9 @@
       <c r="AM35" s="11"/>
       <c r="AN35" s="11"/>
       <c r="AO35" s="11"/>
-      <c r="AP35" s="11"/>
+      <c r="AP35" s="1">
+        <v>2</v>
+      </c>
       <c r="AQ35" s="11"/>
       <c r="AR35" s="11"/>
       <c r="AS35" s="11"/>
@@ -6222,48 +6238,50 @@
       <c r="B36" s="5">
         <v>31</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="12">
-        <v>2</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="11"/>
-      <c r="AI36" s="11"/>
-      <c r="AJ36" s="11"/>
-      <c r="AK36" s="11"/>
-      <c r="AL36" s="11"/>
-      <c r="AM36" s="11"/>
-      <c r="AN36" s="11"/>
+      <c r="C36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1">
+        <v>1</v>
+      </c>
       <c r="AO36" s="11"/>
       <c r="AP36" s="11"/>
       <c r="AQ36" s="11"/>
@@ -6309,49 +6327,51 @@
         <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D37" s="13">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="1">
+        <v>2</v>
+      </c>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1">
+      <c r="Y37" s="1">
         <v>1</v>
       </c>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
       <c r="AO37" s="11"/>
       <c r="AP37" s="11"/>
       <c r="AQ37" s="11"/>
@@ -6396,11 +6416,11 @@
       <c r="B38" s="5">
         <v>33</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="13">
-        <v>3</v>
+      <c r="C38" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="15">
+        <v>1</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -6416,17 +6436,19 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="1">
-        <v>2</v>
-      </c>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1">
+      <c r="S38" s="1">
         <v>1</v>
       </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="16">
+        <v>-1</v>
+      </c>
+      <c r="W38" s="1">
+        <v>1</v>
+      </c>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
       <c r="AB38" s="11"/>
@@ -6435,15 +6457,17 @@
       <c r="AE38" s="11"/>
       <c r="AF38" s="11"/>
       <c r="AG38" s="11"/>
-      <c r="AH38" s="11"/>
-      <c r="AI38" s="11"/>
-      <c r="AJ38" s="11"/>
-      <c r="AK38" s="11"/>
-      <c r="AL38" s="11"/>
-      <c r="AM38" s="11"/>
-      <c r="AN38" s="11"/>
-      <c r="AO38" s="11"/>
-      <c r="AP38" s="11"/>
+      <c r="AH38" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AI38" s="16"/>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="16"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="16"/>
+      <c r="AN38" s="16"/>
+      <c r="AO38" s="16"/>
+      <c r="AP38" s="16"/>
       <c r="AQ38" s="11"/>
       <c r="AR38" s="11"/>
       <c r="AS38" s="11"/>
@@ -6486,10 +6510,10 @@
       <c r="B39" s="5">
         <v>34</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="15">
+      <c r="C39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="13">
         <v>1</v>
       </c>
       <c r="E39" s="11"/>
@@ -6506,17 +6530,11 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
-      <c r="S39" s="1">
-        <v>1</v>
-      </c>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="16">
-        <v>-1</v>
-      </c>
-      <c r="W39" s="1">
-        <v>1</v>
-      </c>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
@@ -6526,16 +6544,18 @@
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
       <c r="AF39" s="11"/>
-      <c r="AG39" s="11"/>
-      <c r="AH39" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AI39" s="16"/>
-      <c r="AJ39" s="16"/>
-      <c r="AK39" s="16"/>
-      <c r="AL39" s="16"/>
-      <c r="AM39" s="16"/>
-      <c r="AN39" s="16"/>
+      <c r="AG39" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
       <c r="AO39" s="11"/>
       <c r="AP39" s="11"/>
       <c r="AQ39" s="11"/>
@@ -6581,7 +6601,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
@@ -6611,17 +6631,15 @@
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
       <c r="AC40" s="11"/>
-      <c r="AD40" s="11"/>
+      <c r="AD40" s="1">
+        <v>1</v>
+      </c>
       <c r="AE40" s="11"/>
       <c r="AF40" s="11"/>
-      <c r="AG40" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
       <c r="AL40" s="11"/>
       <c r="AM40" s="11"/>
@@ -6671,7 +6689,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
@@ -6697,13 +6715,13 @@
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
+      <c r="Z41" s="1">
+        <v>1</v>
+      </c>
       <c r="AA41" s="11"/>
       <c r="AB41" s="11"/>
       <c r="AC41" s="11"/>
-      <c r="AD41" s="1">
-        <v>1</v>
-      </c>
+      <c r="AD41" s="11"/>
       <c r="AE41" s="11"/>
       <c r="AF41" s="11"/>
       <c r="AG41" s="11"/>
@@ -6759,7 +6777,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D42" s="13">
         <v>1</v>
@@ -6846,12 +6864,8 @@
       <c r="B43" s="5">
         <v>38</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -6873,9 +6887,7 @@
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
-      <c r="Z43" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z43" s="11"/>
       <c r="AA43" s="11"/>
       <c r="AB43" s="11"/>
       <c r="AC43" s="11"/>
@@ -6934,7 +6946,9 @@
       <c r="B44" s="5">
         <v>39</v>
       </c>
-      <c r="C44" s="11"/>
+      <c r="C44" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="D44" s="12"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -7016,7 +7030,9 @@
       <c r="B45" s="5">
         <v>40</v>
       </c>
-      <c r="C45" s="11"/>
+      <c r="C45" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="D45" s="12"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -7098,7 +7114,9 @@
       <c r="B46" s="5">
         <v>41</v>
       </c>
-      <c r="C46" s="11"/>
+      <c r="C46" s="23" t="s">
+        <v>121</v>
+      </c>
       <c r="D46" s="12"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -8981,10 +8999,10 @@
       <c r="CA68" s="11"/>
     </row>
     <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="21"/>
+      <c r="B69" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="20"/>
       <c r="D69" s="6">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -9019,115 +9037,115 @@
       </c>
       <c r="L69" s="7">
         <f t="shared" si="0"/>
-        <v>50.5</v>
+        <v>49.5</v>
       </c>
       <c r="M69" s="7">
         <f t="shared" si="0"/>
-        <v>50.5</v>
+        <v>49.5</v>
       </c>
       <c r="N69" s="7">
         <f t="shared" si="0"/>
-        <v>50.5</v>
+        <v>49.5</v>
       </c>
       <c r="O69" s="7">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P69" s="7">
         <f t="shared" si="0"/>
-        <v>33.5</v>
+        <v>35.5</v>
       </c>
       <c r="Q69" s="7">
         <f t="shared" ref="Q69:AV69" si="1">P69-SUM(Q6:Q68)</f>
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="R69" s="7">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="S69" s="7">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="T69" s="7">
         <f t="shared" si="1"/>
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="U69" s="7">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="V69" s="7">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="W69" s="7">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="X69" s="7">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y69" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Z69" s="7">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AA69" s="7">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AB69" s="7">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
@@ -9139,162 +9157,162 @@
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="20"/>
+      <c r="B70" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="19"/>
       <c r="D70" s="3">
         <f>SUM(D6:D68)</f>
         <v>63</v>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBEE33B-7EF5-45CC-8620-78D4D05E4BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7400420D-979F-4643-9340-4A3C0B6709CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -603,6 +603,12 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -617,12 +623,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1114,121 +1114,121 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2913,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2927,172 +2927,172 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:79" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="18"/>
-      <c r="BW2" s="18"/>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
     </row>
     <row r="3" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="18"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="18"/>
-      <c r="BD3" s="18"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="18"/>
-      <c r="BG3" s="18"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="18"/>
-      <c r="BJ3" s="18"/>
-      <c r="BK3" s="18"/>
-      <c r="BL3" s="18"/>
-      <c r="BM3" s="18"/>
-      <c r="BN3" s="18"/>
-      <c r="BO3" s="18"/>
-      <c r="BP3" s="18"/>
-      <c r="BQ3" s="18"/>
-      <c r="BR3" s="18"/>
-      <c r="BS3" s="18"/>
-      <c r="BT3" s="18"/>
-      <c r="BU3" s="18"/>
-      <c r="BV3" s="18"/>
-      <c r="BW3" s="18"/>
-      <c r="BX3" s="18"/>
-      <c r="BY3" s="18"/>
-      <c r="BZ3" s="18"/>
-      <c r="CA3" s="18"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20"/>
+      <c r="BV3" s="20"/>
+      <c r="BW3" s="20"/>
+      <c r="BX3" s="20"/>
+      <c r="BY3" s="20"/>
+      <c r="BZ3" s="20"/>
+      <c r="CA3" s="20"/>
     </row>
     <row r="4" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -3325,8 +3325,8 @@
       </c>
     </row>
     <row r="5" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -4542,10 +4542,10 @@
       <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="15">
         <v>2</v>
       </c>
       <c r="E17" s="11"/>
@@ -4588,9 +4588,11 @@
       <c r="AN17" s="1">
         <v>1</v>
       </c>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
+      <c r="AO17" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="16"/>
       <c r="AR17" s="11"/>
       <c r="AS17" s="11"/>
       <c r="AT17" s="11"/>
@@ -4678,7 +4680,7 @@
       <c r="AN18" s="16"/>
       <c r="AO18" s="16"/>
       <c r="AP18" s="16"/>
-      <c r="AQ18" s="11"/>
+      <c r="AQ18" s="16"/>
       <c r="AR18" s="11"/>
       <c r="AS18" s="11"/>
       <c r="AT18" s="11"/>
@@ -4808,7 +4810,7 @@
       <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="19" t="s">
         <v>94</v>
       </c>
       <c r="D20" s="13">
@@ -6062,7 +6064,7 @@
       <c r="B34" s="5">
         <v>29</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="18" t="s">
         <v>107</v>
       </c>
       <c r="D34" s="13">
@@ -6150,7 +6152,7 @@
       <c r="B35" s="5">
         <v>30</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="18" t="s">
         <v>108</v>
       </c>
       <c r="D35" s="13">
@@ -7114,7 +7116,7 @@
       <c r="B46" s="5">
         <v>41</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D46" s="12"/>
@@ -8999,10 +9001,10 @@
       <c r="CA68" s="11"/>
     </row>
     <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="20"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="6">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -9153,166 +9155,166 @@
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="19"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="3">
         <f>SUM(D6:D68)</f>
         <v>63</v>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7400420D-979F-4643-9340-4A3C0B6709CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233C4E09-D46D-4337-8581-A2D841569DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -1111,16 +1111,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3</c:v>
@@ -2913,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="AP18" sqref="AP18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AR18" sqref="AR18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="AO17" s="16">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP17" s="16"/>
       <c r="AQ17" s="16"/>
@@ -4634,10 +4634,10 @@
       <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>2</v>
       </c>
       <c r="E18" s="11"/>
@@ -4676,12 +4676,18 @@
       <c r="AJ18" s="16"/>
       <c r="AK18" s="16"/>
       <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="16"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="16">
+        <v>-2</v>
+      </c>
       <c r="AP18" s="16"/>
       <c r="AQ18" s="16"/>
-      <c r="AR18" s="11"/>
+      <c r="AR18" s="1">
+        <v>2</v>
+      </c>
       <c r="AS18" s="11"/>
       <c r="AT18" s="11"/>
       <c r="AU18" s="11"/>
@@ -9151,19 +9157,19 @@
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233C4E09-D46D-4337-8581-A2D841569DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF43FA8C-6F94-4365-B13A-6C5571F393B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -1036,199 +1036,199 @@
                   <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>45.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.5</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.5</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.5</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2914,7 +2914,7 @@
   <dimension ref="B2:CA70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR18" sqref="AR18"/>
+      <selection activeCell="BK38" sqref="BK38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3650,76 +3650,72 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="1">
         <v>1</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="11"/>
-      <c r="BJ7" s="11"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="16"/>
+      <c r="BJ7" s="16"/>
       <c r="BK7" s="11"/>
       <c r="BL7" s="11"/>
       <c r="BM7" s="11"/>
@@ -4542,10 +4538,10 @@
       <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>2</v>
       </c>
       <c r="E17" s="11"/>
@@ -4593,7 +4589,9 @@
       </c>
       <c r="AP17" s="16"/>
       <c r="AQ17" s="16"/>
-      <c r="AR17" s="11"/>
+      <c r="AR17" s="1">
+        <v>2</v>
+      </c>
       <c r="AS17" s="11"/>
       <c r="AT17" s="11"/>
       <c r="AU17" s="11"/>
@@ -6476,26 +6474,26 @@
       <c r="AN38" s="16"/>
       <c r="AO38" s="16"/>
       <c r="AP38" s="16"/>
-      <c r="AQ38" s="11"/>
-      <c r="AR38" s="11"/>
-      <c r="AS38" s="11"/>
-      <c r="AT38" s="11"/>
-      <c r="AU38" s="11"/>
-      <c r="AV38" s="11"/>
-      <c r="AW38" s="11"/>
-      <c r="AX38" s="11"/>
-      <c r="AY38" s="11"/>
-      <c r="AZ38" s="11"/>
-      <c r="BA38" s="11"/>
-      <c r="BB38" s="11"/>
-      <c r="BC38" s="11"/>
-      <c r="BD38" s="11"/>
-      <c r="BE38" s="11"/>
-      <c r="BF38" s="11"/>
-      <c r="BG38" s="11"/>
-      <c r="BH38" s="11"/>
-      <c r="BI38" s="11"/>
-      <c r="BJ38" s="11"/>
+      <c r="AQ38" s="16"/>
+      <c r="AR38" s="16"/>
+      <c r="AS38" s="16"/>
+      <c r="AT38" s="16"/>
+      <c r="AU38" s="16"/>
+      <c r="AV38" s="16"/>
+      <c r="AW38" s="16"/>
+      <c r="AX38" s="16"/>
+      <c r="AY38" s="16"/>
+      <c r="AZ38" s="16"/>
+      <c r="BA38" s="16"/>
+      <c r="BB38" s="16"/>
+      <c r="BC38" s="16"/>
+      <c r="BD38" s="16"/>
+      <c r="BE38" s="16"/>
+      <c r="BF38" s="16"/>
+      <c r="BG38" s="16"/>
+      <c r="BH38" s="16"/>
+      <c r="BI38" s="16"/>
+      <c r="BJ38" s="16"/>
       <c r="BK38" s="11"/>
       <c r="BL38" s="11"/>
       <c r="BM38" s="11"/>
@@ -9057,263 +9055,263 @@
       </c>
       <c r="O69" s="7">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>45.5</v>
       </c>
       <c r="P69" s="7">
         <f t="shared" si="0"/>
-        <v>35.5</v>
+        <v>37</v>
       </c>
       <c r="Q69" s="7">
         <f t="shared" ref="Q69:AV69" si="1">P69-SUM(Q6:Q68)</f>
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="R69" s="7">
         <f t="shared" si="1"/>
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="S69" s="7">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="T69" s="7">
         <f t="shared" si="1"/>
-        <v>25.5</v>
+        <v>27</v>
       </c>
       <c r="U69" s="7">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="V69" s="7">
         <f t="shared" si="1"/>
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="W69" s="7">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X69" s="7">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y69" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z69" s="7">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA69" s="7">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB69" s="7">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD69" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE69" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF69" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AI69" s="7">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM69" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN69" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO69" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP69" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ69" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV69" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW69" s="7">
         <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF43FA8C-6F94-4365-B13A-6C5571F393B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261960FA-057A-4800-BCBE-033719A3C701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -599,9 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1180,55 +1177,55 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2913,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BK38" sqref="BK38"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7:BJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2927,172 +2924,172 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:79" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="20"/>
-      <c r="BY2" s="20"/>
-      <c r="BZ2" s="20"/>
-      <c r="CA2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="19"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="19"/>
+      <c r="BJ2" s="19"/>
+      <c r="BK2" s="19"/>
+      <c r="BL2" s="19"/>
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="19"/>
+      <c r="BQ2" s="19"/>
+      <c r="BR2" s="19"/>
+      <c r="BS2" s="19"/>
+      <c r="BT2" s="19"/>
+      <c r="BU2" s="19"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="19"/>
+      <c r="BX2" s="19"/>
+      <c r="BY2" s="19"/>
+      <c r="BZ2" s="19"/>
+      <c r="CA2" s="19"/>
     </row>
     <row r="3" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="20"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="20"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="20"/>
-      <c r="BL3" s="20"/>
-      <c r="BM3" s="20"/>
-      <c r="BN3" s="20"/>
-      <c r="BO3" s="20"/>
-      <c r="BP3" s="20"/>
-      <c r="BQ3" s="20"/>
-      <c r="BR3" s="20"/>
-      <c r="BS3" s="20"/>
-      <c r="BT3" s="20"/>
-      <c r="BU3" s="20"/>
-      <c r="BV3" s="20"/>
-      <c r="BW3" s="20"/>
-      <c r="BX3" s="20"/>
-      <c r="BY3" s="20"/>
-      <c r="BZ3" s="20"/>
-      <c r="CA3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="19"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="19"/>
+      <c r="BK3" s="19"/>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="19"/>
+      <c r="BN3" s="19"/>
+      <c r="BO3" s="19"/>
+      <c r="BP3" s="19"/>
+      <c r="BQ3" s="19"/>
+      <c r="BR3" s="19"/>
+      <c r="BS3" s="19"/>
+      <c r="BT3" s="19"/>
+      <c r="BU3" s="19"/>
+      <c r="BV3" s="19"/>
+      <c r="BW3" s="19"/>
+      <c r="BX3" s="19"/>
+      <c r="BY3" s="19"/>
+      <c r="BZ3" s="19"/>
+      <c r="CA3" s="19"/>
     </row>
     <row r="4" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -3325,8 +3322,8 @@
       </c>
     </row>
     <row r="5" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -3650,73 +3647,75 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>2</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
       <c r="W7" s="1">
         <v>1</v>
       </c>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="16"/>
-      <c r="AN7" s="16"/>
-      <c r="AO7" s="16"/>
-      <c r="AP7" s="16"/>
-      <c r="AQ7" s="16"/>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="16"/>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="16"/>
-      <c r="AX7" s="16"/>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="16"/>
-      <c r="BD7" s="16"/>
-      <c r="BE7" s="16"/>
-      <c r="BF7" s="16"/>
-      <c r="BG7" s="16"/>
-      <c r="BH7" s="16"/>
-      <c r="BI7" s="16"/>
-      <c r="BJ7" s="16"/>
-      <c r="BK7" s="11"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1">
+        <v>1</v>
+      </c>
       <c r="BL7" s="11"/>
       <c r="BM7" s="11"/>
       <c r="BN7" s="11"/>
@@ -4814,7 +4813,7 @@
       <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>94</v>
       </c>
       <c r="D20" s="13">
@@ -6068,7 +6067,7 @@
       <c r="B34" s="5">
         <v>29</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>107</v>
       </c>
       <c r="D34" s="13">
@@ -6156,7 +6155,7 @@
       <c r="B35" s="5">
         <v>30</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>108</v>
       </c>
       <c r="D35" s="13">
@@ -7120,7 +7119,7 @@
       <c r="B46" s="5">
         <v>41</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>121</v>
       </c>
       <c r="D46" s="12"/>
@@ -9005,10 +9004,10 @@
       <c r="CA68" s="11"/>
     </row>
     <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="22"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="6">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -9247,78 +9246,78 @@
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BX69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CA69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="21"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="3">
         <f>SUM(D6:D68)</f>
         <v>63</v>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261960FA-057A-4800-BCBE-033719A3C701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00D0CB-AB5C-4EFF-8525-434DDF51E441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -1177,10 +1177,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1</c:v>
@@ -2910,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B2:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7:BJ7"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BK7" sqref="BK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3713,11 +3713,11 @@
       <c r="BH7" s="1"/>
       <c r="BI7" s="1"/>
       <c r="BJ7" s="1"/>
-      <c r="BK7" s="1">
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1">
         <v>1</v>
       </c>
-      <c r="BL7" s="11"/>
-      <c r="BM7" s="11"/>
       <c r="BN7" s="11"/>
       <c r="BO7" s="11"/>
       <c r="BP7" s="11"/>
@@ -6493,12 +6493,12 @@
       <c r="BH38" s="16"/>
       <c r="BI38" s="16"/>
       <c r="BJ38" s="16"/>
-      <c r="BK38" s="11"/>
-      <c r="BL38" s="11"/>
-      <c r="BM38" s="11"/>
-      <c r="BN38" s="11"/>
-      <c r="BO38" s="11"/>
-      <c r="BP38" s="11"/>
+      <c r="BK38" s="16"/>
+      <c r="BL38" s="16"/>
+      <c r="BM38" s="16"/>
+      <c r="BN38" s="16"/>
+      <c r="BO38" s="16"/>
+      <c r="BP38" s="16"/>
       <c r="BQ38" s="11"/>
       <c r="BR38" s="11"/>
       <c r="BS38" s="11"/>
@@ -9246,11 +9246,11 @@
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00D0CB-AB5C-4EFF-8525-434DDF51E441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07928558-B5C5-4B65-9E31-3C4EA642E7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -252,27 +252,6 @@
   </si>
   <si>
     <t>Dag 68</t>
-  </si>
-  <si>
-    <t>Dag 69</t>
-  </si>
-  <si>
-    <t>Dag 70</t>
-  </si>
-  <si>
-    <t>Dag 71</t>
-  </si>
-  <si>
-    <t>Dag 72</t>
-  </si>
-  <si>
-    <t>Dag 73</t>
-  </si>
-  <si>
-    <t>Dag 74</t>
-  </si>
-  <si>
-    <t>Dag 75</t>
   </si>
   <si>
     <t>Index Hoofdpagina</t>
@@ -408,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,8 +461,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD86666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,8 +520,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED5151"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -550,11 +556,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,6 +640,38 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -629,16 +680,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFED5151"/>
+      <color rgb="FFD86666"/>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFFF9966"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF9933"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF9999FF"/>
-      <color rgb="FFCCFFCC"/>
-      <color rgb="FF66FF66"/>
-      <color rgb="FFFFFF99"/>
-      <color rgb="FF333399"/>
-      <color rgb="FFCCCCFF"/>
-      <color rgb="FF3333CC"/>
-      <color rgb="FF6666FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -761,7 +812,7 @@
             <c:strRef>
               <c:f>Blad1!$D$5:$CA$5</c:f>
               <c:strCache>
-                <c:ptCount val="76"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>Dag 0</c:v>
                 </c:pt>
@@ -968,27 +1019,6 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>Dag 68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>Dag 69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Dag 70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>Dag 71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>Dag 72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>Dag 73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>Dag 74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>Dag 75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1204,27 +1234,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1273,7 +1282,7 @@
             <c:strRef>
               <c:f>Blad1!$D$5:$CA$5</c:f>
               <c:strCache>
-                <c:ptCount val="76"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>Dag 0</c:v>
                 </c:pt>
@@ -1480,27 +1489,6 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>Dag 68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>Dag 69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Dag 70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>Dag 71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>Dag 72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>Dag 73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>Dag 74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>Dag 75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1716,27 +1704,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2908,10 +2875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
-  <dimension ref="B2:CA70"/>
+  <dimension ref="B2:CA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BK7" sqref="BK7"/>
+    <sheetView tabSelected="1" topLeftCell="D42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BP68" sqref="BP39:BP68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2996,14 +2963,14 @@
       <c r="BQ2" s="19"/>
       <c r="BR2" s="19"/>
       <c r="BS2" s="19"/>
-      <c r="BT2" s="19"/>
-      <c r="BU2" s="19"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="19"/>
-      <c r="BX2" s="19"/>
-      <c r="BY2" s="19"/>
-      <c r="BZ2" s="19"/>
-      <c r="CA2" s="19"/>
+      <c r="BT2" s="24"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="28"/>
+      <c r="BW2" s="28"/>
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28"/>
+      <c r="CA2" s="28"/>
     </row>
     <row r="3" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B3" s="23"/>
@@ -3076,14 +3043,14 @@
       <c r="BQ3" s="19"/>
       <c r="BR3" s="19"/>
       <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="19"/>
-      <c r="BV3" s="19"/>
-      <c r="BW3" s="19"/>
-      <c r="BX3" s="19"/>
-      <c r="BY3" s="19"/>
-      <c r="BZ3" s="19"/>
-      <c r="CA3" s="19"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="28"/>
+      <c r="BV3" s="28"/>
+      <c r="BW3" s="28"/>
+      <c r="BX3" s="28"/>
+      <c r="BY3" s="28"/>
+      <c r="BZ3" s="28"/>
+      <c r="CA3" s="28"/>
     </row>
     <row r="4" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
@@ -3093,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E4" s="9">
         <v>45243</v>
@@ -3296,30 +3263,16 @@
       <c r="BS4" s="9">
         <v>45309</v>
       </c>
-      <c r="BT4" s="9">
+      <c r="BT4" s="35">
         <v>45310</v>
       </c>
-      <c r="BU4" s="9">
-        <v>45311</v>
-      </c>
-      <c r="BV4" s="9">
-        <v>45312</v>
-      </c>
-      <c r="BW4" s="9">
-        <v>45313</v>
-      </c>
-      <c r="BX4" s="9">
-        <v>45314</v>
-      </c>
-      <c r="BY4" s="9">
-        <v>45315</v>
-      </c>
-      <c r="BZ4" s="9">
-        <v>45316</v>
-      </c>
-      <c r="CA4" s="9">
-        <v>45317</v>
-      </c>
+      <c r="BU4" s="29"/>
+      <c r="BV4" s="29"/>
+      <c r="BW4" s="29"/>
+      <c r="BX4" s="29"/>
+      <c r="BY4" s="29"/>
+      <c r="BZ4" s="29"/>
+      <c r="CA4" s="29"/>
     </row>
     <row r="5" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B5" s="22"/>
@@ -3528,37 +3481,23 @@
       <c r="BS5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BT5" s="8" t="s">
+      <c r="BT5" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BU5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA5" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="BU5" s="30"/>
+      <c r="BV5" s="30"/>
+      <c r="BW5" s="30"/>
+      <c r="BX5" s="30"/>
+      <c r="BY5" s="30"/>
+      <c r="BZ5" s="30"/>
+      <c r="CA5" s="30"/>
     </row>
     <row r="6" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D6" s="13">
         <v>2</v>
@@ -3630,25 +3569,25 @@
       <c r="BM6" s="11"/>
       <c r="BN6" s="11"/>
       <c r="BO6" s="11"/>
-      <c r="BP6" s="11"/>
-      <c r="BQ6" s="11"/>
-      <c r="BR6" s="11"/>
-      <c r="BS6" s="11"/>
-      <c r="BT6" s="11"/>
-      <c r="BU6" s="11"/>
-      <c r="BV6" s="11"/>
-      <c r="BW6" s="11"/>
-      <c r="BX6" s="11"/>
-      <c r="BY6" s="11"/>
-      <c r="BZ6" s="11"/>
-      <c r="CA6" s="11"/>
+      <c r="BP6" s="37"/>
+      <c r="BQ6" s="37"/>
+      <c r="BR6" s="37"/>
+      <c r="BS6" s="37"/>
+      <c r="BT6" s="36"/>
+      <c r="BU6" s="31"/>
+      <c r="BV6" s="31"/>
+      <c r="BW6" s="31"/>
+      <c r="BX6" s="31"/>
+      <c r="BY6" s="31"/>
+      <c r="BZ6" s="31"/>
+      <c r="CA6" s="31"/>
     </row>
     <row r="7" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D7" s="13">
         <v>2</v>
@@ -3720,25 +3659,25 @@
       </c>
       <c r="BN7" s="11"/>
       <c r="BO7" s="11"/>
-      <c r="BP7" s="11"/>
-      <c r="BQ7" s="11"/>
-      <c r="BR7" s="11"/>
-      <c r="BS7" s="11"/>
-      <c r="BT7" s="11"/>
-      <c r="BU7" s="11"/>
-      <c r="BV7" s="11"/>
-      <c r="BW7" s="11"/>
-      <c r="BX7" s="11"/>
-      <c r="BY7" s="11"/>
-      <c r="BZ7" s="11"/>
-      <c r="CA7" s="11"/>
+      <c r="BP7" s="37"/>
+      <c r="BQ7" s="37"/>
+      <c r="BR7" s="37"/>
+      <c r="BS7" s="37"/>
+      <c r="BT7" s="36"/>
+      <c r="BU7" s="31"/>
+      <c r="BV7" s="31"/>
+      <c r="BW7" s="31"/>
+      <c r="BX7" s="31"/>
+      <c r="BY7" s="31"/>
+      <c r="BZ7" s="31"/>
+      <c r="CA7" s="31"/>
     </row>
     <row r="8" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -3808,25 +3747,25 @@
       <c r="BM8" s="11"/>
       <c r="BN8" s="11"/>
       <c r="BO8" s="11"/>
-      <c r="BP8" s="11"/>
-      <c r="BQ8" s="11"/>
-      <c r="BR8" s="11"/>
-      <c r="BS8" s="11"/>
-      <c r="BT8" s="11"/>
-      <c r="BU8" s="11"/>
-      <c r="BV8" s="11"/>
-      <c r="BW8" s="11"/>
-      <c r="BX8" s="11"/>
-      <c r="BY8" s="11"/>
-      <c r="BZ8" s="11"/>
-      <c r="CA8" s="11"/>
+      <c r="BP8" s="37"/>
+      <c r="BQ8" s="37"/>
+      <c r="BR8" s="37"/>
+      <c r="BS8" s="37"/>
+      <c r="BT8" s="36"/>
+      <c r="BU8" s="31"/>
+      <c r="BV8" s="31"/>
+      <c r="BW8" s="31"/>
+      <c r="BX8" s="31"/>
+      <c r="BY8" s="31"/>
+      <c r="BZ8" s="31"/>
+      <c r="CA8" s="31"/>
     </row>
     <row r="9" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
         <v>4</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -3896,25 +3835,25 @@
       <c r="BM9" s="11"/>
       <c r="BN9" s="11"/>
       <c r="BO9" s="11"/>
-      <c r="BP9" s="11"/>
-      <c r="BQ9" s="11"/>
-      <c r="BR9" s="11"/>
-      <c r="BS9" s="11"/>
-      <c r="BT9" s="11"/>
-      <c r="BU9" s="11"/>
-      <c r="BV9" s="11"/>
-      <c r="BW9" s="11"/>
-      <c r="BX9" s="11"/>
-      <c r="BY9" s="11"/>
-      <c r="BZ9" s="11"/>
-      <c r="CA9" s="11"/>
+      <c r="BP9" s="37"/>
+      <c r="BQ9" s="37"/>
+      <c r="BR9" s="37"/>
+      <c r="BS9" s="37"/>
+      <c r="BT9" s="36"/>
+      <c r="BU9" s="31"/>
+      <c r="BV9" s="31"/>
+      <c r="BW9" s="31"/>
+      <c r="BX9" s="31"/>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="31"/>
+      <c r="CA9" s="31"/>
     </row>
     <row r="10" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
         <v>5</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D10" s="13">
         <v>0.5</v>
@@ -3984,25 +3923,25 @@
       <c r="BM10" s="11"/>
       <c r="BN10" s="11"/>
       <c r="BO10" s="11"/>
-      <c r="BP10" s="11"/>
-      <c r="BQ10" s="11"/>
-      <c r="BR10" s="11"/>
-      <c r="BS10" s="11"/>
-      <c r="BT10" s="11"/>
-      <c r="BU10" s="11"/>
-      <c r="BV10" s="11"/>
-      <c r="BW10" s="11"/>
-      <c r="BX10" s="11"/>
-      <c r="BY10" s="11"/>
-      <c r="BZ10" s="11"/>
-      <c r="CA10" s="11"/>
+      <c r="BP10" s="37"/>
+      <c r="BQ10" s="37"/>
+      <c r="BR10" s="37"/>
+      <c r="BS10" s="37"/>
+      <c r="BT10" s="36"/>
+      <c r="BU10" s="31"/>
+      <c r="BV10" s="31"/>
+      <c r="BW10" s="31"/>
+      <c r="BX10" s="31"/>
+      <c r="BY10" s="31"/>
+      <c r="BZ10" s="31"/>
+      <c r="CA10" s="31"/>
     </row>
     <row r="11" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>6</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D11" s="13">
         <v>0.5</v>
@@ -4072,25 +4011,25 @@
       <c r="BM11" s="11"/>
       <c r="BN11" s="11"/>
       <c r="BO11" s="11"/>
-      <c r="BP11" s="11"/>
-      <c r="BQ11" s="11"/>
-      <c r="BR11" s="11"/>
-      <c r="BS11" s="11"/>
-      <c r="BT11" s="11"/>
-      <c r="BU11" s="11"/>
-      <c r="BV11" s="11"/>
-      <c r="BW11" s="11"/>
-      <c r="BX11" s="11"/>
-      <c r="BY11" s="11"/>
-      <c r="BZ11" s="11"/>
-      <c r="CA11" s="11"/>
+      <c r="BP11" s="37"/>
+      <c r="BQ11" s="37"/>
+      <c r="BR11" s="37"/>
+      <c r="BS11" s="37"/>
+      <c r="BT11" s="36"/>
+      <c r="BU11" s="31"/>
+      <c r="BV11" s="31"/>
+      <c r="BW11" s="31"/>
+      <c r="BX11" s="31"/>
+      <c r="BY11" s="31"/>
+      <c r="BZ11" s="31"/>
+      <c r="CA11" s="31"/>
     </row>
     <row r="12" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>7</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D12" s="13">
         <v>4</v>
@@ -4168,25 +4107,25 @@
       <c r="BM12" s="11"/>
       <c r="BN12" s="11"/>
       <c r="BO12" s="11"/>
-      <c r="BP12" s="11"/>
-      <c r="BQ12" s="11"/>
-      <c r="BR12" s="11"/>
-      <c r="BS12" s="11"/>
-      <c r="BT12" s="11"/>
-      <c r="BU12" s="11"/>
-      <c r="BV12" s="11"/>
-      <c r="BW12" s="11"/>
-      <c r="BX12" s="11"/>
-      <c r="BY12" s="11"/>
-      <c r="BZ12" s="11"/>
-      <c r="CA12" s="11"/>
+      <c r="BP12" s="37"/>
+      <c r="BQ12" s="37"/>
+      <c r="BR12" s="37"/>
+      <c r="BS12" s="37"/>
+      <c r="BT12" s="36"/>
+      <c r="BU12" s="31"/>
+      <c r="BV12" s="31"/>
+      <c r="BW12" s="31"/>
+      <c r="BX12" s="31"/>
+      <c r="BY12" s="31"/>
+      <c r="BZ12" s="31"/>
+      <c r="CA12" s="31"/>
     </row>
     <row r="13" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>8</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D13" s="13">
         <v>2</v>
@@ -4256,25 +4195,25 @@
       <c r="BM13" s="11"/>
       <c r="BN13" s="11"/>
       <c r="BO13" s="11"/>
-      <c r="BP13" s="11"/>
-      <c r="BQ13" s="11"/>
-      <c r="BR13" s="11"/>
-      <c r="BS13" s="11"/>
-      <c r="BT13" s="11"/>
-      <c r="BU13" s="11"/>
-      <c r="BV13" s="11"/>
-      <c r="BW13" s="11"/>
-      <c r="BX13" s="11"/>
-      <c r="BY13" s="11"/>
-      <c r="BZ13" s="11"/>
-      <c r="CA13" s="11"/>
+      <c r="BP13" s="37"/>
+      <c r="BQ13" s="37"/>
+      <c r="BR13" s="37"/>
+      <c r="BS13" s="37"/>
+      <c r="BT13" s="36"/>
+      <c r="BU13" s="31"/>
+      <c r="BV13" s="31"/>
+      <c r="BW13" s="31"/>
+      <c r="BX13" s="31"/>
+      <c r="BY13" s="31"/>
+      <c r="BZ13" s="31"/>
+      <c r="CA13" s="31"/>
     </row>
     <row r="14" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>9</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -4344,25 +4283,25 @@
       <c r="BM14" s="11"/>
       <c r="BN14" s="11"/>
       <c r="BO14" s="11"/>
-      <c r="BP14" s="11"/>
-      <c r="BQ14" s="11"/>
-      <c r="BR14" s="11"/>
-      <c r="BS14" s="11"/>
-      <c r="BT14" s="11"/>
-      <c r="BU14" s="11"/>
-      <c r="BV14" s="11"/>
-      <c r="BW14" s="11"/>
-      <c r="BX14" s="11"/>
-      <c r="BY14" s="11"/>
-      <c r="BZ14" s="11"/>
-      <c r="CA14" s="11"/>
+      <c r="BP14" s="37"/>
+      <c r="BQ14" s="37"/>
+      <c r="BR14" s="37"/>
+      <c r="BS14" s="37"/>
+      <c r="BT14" s="36"/>
+      <c r="BU14" s="31"/>
+      <c r="BV14" s="31"/>
+      <c r="BW14" s="31"/>
+      <c r="BX14" s="31"/>
+      <c r="BY14" s="31"/>
+      <c r="BZ14" s="31"/>
+      <c r="CA14" s="31"/>
     </row>
     <row r="15" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>10</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D15" s="13">
         <v>2</v>
@@ -4432,25 +4371,25 @@
       <c r="BM15" s="11"/>
       <c r="BN15" s="11"/>
       <c r="BO15" s="11"/>
-      <c r="BP15" s="11"/>
-      <c r="BQ15" s="11"/>
-      <c r="BR15" s="11"/>
-      <c r="BS15" s="11"/>
-      <c r="BT15" s="11"/>
-      <c r="BU15" s="11"/>
-      <c r="BV15" s="11"/>
-      <c r="BW15" s="11"/>
-      <c r="BX15" s="11"/>
-      <c r="BY15" s="11"/>
-      <c r="BZ15" s="11"/>
-      <c r="CA15" s="11"/>
+      <c r="BP15" s="37"/>
+      <c r="BQ15" s="37"/>
+      <c r="BR15" s="37"/>
+      <c r="BS15" s="37"/>
+      <c r="BT15" s="36"/>
+      <c r="BU15" s="31"/>
+      <c r="BV15" s="31"/>
+      <c r="BW15" s="31"/>
+      <c r="BX15" s="31"/>
+      <c r="BY15" s="31"/>
+      <c r="BZ15" s="31"/>
+      <c r="CA15" s="31"/>
     </row>
     <row r="16" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B16" s="5">
         <v>11</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D16" s="13">
         <v>2</v>
@@ -4520,25 +4459,25 @@
       <c r="BM16" s="11"/>
       <c r="BN16" s="11"/>
       <c r="BO16" s="11"/>
-      <c r="BP16" s="11"/>
-      <c r="BQ16" s="11"/>
-      <c r="BR16" s="11"/>
-      <c r="BS16" s="11"/>
-      <c r="BT16" s="11"/>
-      <c r="BU16" s="11"/>
-      <c r="BV16" s="11"/>
-      <c r="BW16" s="11"/>
-      <c r="BX16" s="11"/>
-      <c r="BY16" s="11"/>
-      <c r="BZ16" s="11"/>
-      <c r="CA16" s="11"/>
+      <c r="BP16" s="37"/>
+      <c r="BQ16" s="37"/>
+      <c r="BR16" s="37"/>
+      <c r="BS16" s="37"/>
+      <c r="BT16" s="36"/>
+      <c r="BU16" s="31"/>
+      <c r="BV16" s="31"/>
+      <c r="BW16" s="31"/>
+      <c r="BX16" s="31"/>
+      <c r="BY16" s="31"/>
+      <c r="BZ16" s="31"/>
+      <c r="CA16" s="31"/>
     </row>
     <row r="17" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
         <v>12</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D17" s="13">
         <v>2</v>
@@ -4614,25 +4553,25 @@
       <c r="BM17" s="11"/>
       <c r="BN17" s="11"/>
       <c r="BO17" s="11"/>
-      <c r="BP17" s="11"/>
-      <c r="BQ17" s="11"/>
-      <c r="BR17" s="11"/>
-      <c r="BS17" s="11"/>
-      <c r="BT17" s="11"/>
-      <c r="BU17" s="11"/>
-      <c r="BV17" s="11"/>
-      <c r="BW17" s="11"/>
-      <c r="BX17" s="11"/>
-      <c r="BY17" s="11"/>
-      <c r="BZ17" s="11"/>
-      <c r="CA17" s="11"/>
+      <c r="BP17" s="37"/>
+      <c r="BQ17" s="37"/>
+      <c r="BR17" s="37"/>
+      <c r="BS17" s="37"/>
+      <c r="BT17" s="36"/>
+      <c r="BU17" s="31"/>
+      <c r="BV17" s="31"/>
+      <c r="BW17" s="31"/>
+      <c r="BX17" s="31"/>
+      <c r="BY17" s="31"/>
+      <c r="BZ17" s="31"/>
+      <c r="CA17" s="31"/>
     </row>
     <row r="18" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B18" s="5">
         <v>13</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D18" s="13">
         <v>2</v>
@@ -4708,25 +4647,25 @@
       <c r="BM18" s="11"/>
       <c r="BN18" s="11"/>
       <c r="BO18" s="11"/>
-      <c r="BP18" s="11"/>
-      <c r="BQ18" s="11"/>
-      <c r="BR18" s="11"/>
-      <c r="BS18" s="11"/>
-      <c r="BT18" s="11"/>
-      <c r="BU18" s="11"/>
-      <c r="BV18" s="11"/>
-      <c r="BW18" s="11"/>
-      <c r="BX18" s="11"/>
-      <c r="BY18" s="11"/>
-      <c r="BZ18" s="11"/>
-      <c r="CA18" s="11"/>
+      <c r="BP18" s="37"/>
+      <c r="BQ18" s="37"/>
+      <c r="BR18" s="37"/>
+      <c r="BS18" s="37"/>
+      <c r="BT18" s="36"/>
+      <c r="BU18" s="31"/>
+      <c r="BV18" s="31"/>
+      <c r="BW18" s="31"/>
+      <c r="BX18" s="31"/>
+      <c r="BY18" s="31"/>
+      <c r="BZ18" s="31"/>
+      <c r="CA18" s="31"/>
     </row>
     <row r="19" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
         <v>14</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D19" s="13">
         <v>2</v>
@@ -4796,25 +4735,25 @@
       <c r="BM19" s="11"/>
       <c r="BN19" s="11"/>
       <c r="BO19" s="11"/>
-      <c r="BP19" s="11"/>
-      <c r="BQ19" s="11"/>
-      <c r="BR19" s="11"/>
-      <c r="BS19" s="11"/>
-      <c r="BT19" s="11"/>
-      <c r="BU19" s="11"/>
-      <c r="BV19" s="11"/>
-      <c r="BW19" s="11"/>
-      <c r="BX19" s="11"/>
-      <c r="BY19" s="11"/>
-      <c r="BZ19" s="11"/>
-      <c r="CA19" s="11"/>
+      <c r="BP19" s="37"/>
+      <c r="BQ19" s="37"/>
+      <c r="BR19" s="37"/>
+      <c r="BS19" s="37"/>
+      <c r="BT19" s="36"/>
+      <c r="BU19" s="31"/>
+      <c r="BV19" s="31"/>
+      <c r="BW19" s="31"/>
+      <c r="BX19" s="31"/>
+      <c r="BY19" s="31"/>
+      <c r="BZ19" s="31"/>
+      <c r="CA19" s="31"/>
     </row>
     <row r="20" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
         <v>15</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D20" s="13">
         <v>3</v>
@@ -4884,25 +4823,25 @@
       <c r="BM20" s="11"/>
       <c r="BN20" s="11"/>
       <c r="BO20" s="11"/>
-      <c r="BP20" s="11"/>
-      <c r="BQ20" s="11"/>
-      <c r="BR20" s="11"/>
-      <c r="BS20" s="11"/>
-      <c r="BT20" s="11"/>
-      <c r="BU20" s="11"/>
-      <c r="BV20" s="11"/>
-      <c r="BW20" s="11"/>
-      <c r="BX20" s="11"/>
-      <c r="BY20" s="11"/>
-      <c r="BZ20" s="11"/>
-      <c r="CA20" s="11"/>
+      <c r="BP20" s="37"/>
+      <c r="BQ20" s="37"/>
+      <c r="BR20" s="37"/>
+      <c r="BS20" s="37"/>
+      <c r="BT20" s="36"/>
+      <c r="BU20" s="31"/>
+      <c r="BV20" s="31"/>
+      <c r="BW20" s="31"/>
+      <c r="BX20" s="31"/>
+      <c r="BY20" s="31"/>
+      <c r="BZ20" s="31"/>
+      <c r="CA20" s="31"/>
     </row>
     <row r="21" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
         <v>16</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D21" s="13">
         <v>2</v>
@@ -4976,25 +4915,25 @@
       <c r="BM21" s="11"/>
       <c r="BN21" s="11"/>
       <c r="BO21" s="11"/>
-      <c r="BP21" s="11"/>
-      <c r="BQ21" s="11"/>
-      <c r="BR21" s="11"/>
-      <c r="BS21" s="11"/>
-      <c r="BT21" s="11"/>
-      <c r="BU21" s="11"/>
-      <c r="BV21" s="11"/>
-      <c r="BW21" s="11"/>
-      <c r="BX21" s="11"/>
-      <c r="BY21" s="11"/>
-      <c r="BZ21" s="11"/>
-      <c r="CA21" s="11"/>
+      <c r="BP21" s="37"/>
+      <c r="BQ21" s="37"/>
+      <c r="BR21" s="37"/>
+      <c r="BS21" s="37"/>
+      <c r="BT21" s="36"/>
+      <c r="BU21" s="31"/>
+      <c r="BV21" s="31"/>
+      <c r="BW21" s="31"/>
+      <c r="BX21" s="31"/>
+      <c r="BY21" s="31"/>
+      <c r="BZ21" s="31"/>
+      <c r="CA21" s="31"/>
     </row>
     <row r="22" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
         <v>17</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D22" s="13">
         <v>2</v>
@@ -5064,25 +5003,25 @@
       <c r="BM22" s="11"/>
       <c r="BN22" s="11"/>
       <c r="BO22" s="11"/>
-      <c r="BP22" s="11"/>
-      <c r="BQ22" s="11"/>
-      <c r="BR22" s="11"/>
-      <c r="BS22" s="11"/>
-      <c r="BT22" s="11"/>
-      <c r="BU22" s="11"/>
-      <c r="BV22" s="11"/>
-      <c r="BW22" s="11"/>
-      <c r="BX22" s="11"/>
-      <c r="BY22" s="11"/>
-      <c r="BZ22" s="11"/>
-      <c r="CA22" s="11"/>
+      <c r="BP22" s="37"/>
+      <c r="BQ22" s="37"/>
+      <c r="BR22" s="37"/>
+      <c r="BS22" s="37"/>
+      <c r="BT22" s="36"/>
+      <c r="BU22" s="31"/>
+      <c r="BV22" s="31"/>
+      <c r="BW22" s="31"/>
+      <c r="BX22" s="31"/>
+      <c r="BY22" s="31"/>
+      <c r="BZ22" s="31"/>
+      <c r="CA22" s="31"/>
     </row>
     <row r="23" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
         <v>18</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D23" s="13">
         <v>2</v>
@@ -5156,25 +5095,25 @@
       <c r="BM23" s="11"/>
       <c r="BN23" s="11"/>
       <c r="BO23" s="11"/>
-      <c r="BP23" s="11"/>
-      <c r="BQ23" s="11"/>
-      <c r="BR23" s="11"/>
-      <c r="BS23" s="11"/>
-      <c r="BT23" s="11"/>
-      <c r="BU23" s="11"/>
-      <c r="BV23" s="11"/>
-      <c r="BW23" s="11"/>
-      <c r="BX23" s="11"/>
-      <c r="BY23" s="11"/>
-      <c r="BZ23" s="11"/>
-      <c r="CA23" s="11"/>
+      <c r="BP23" s="37"/>
+      <c r="BQ23" s="37"/>
+      <c r="BR23" s="37"/>
+      <c r="BS23" s="37"/>
+      <c r="BT23" s="36"/>
+      <c r="BU23" s="31"/>
+      <c r="BV23" s="31"/>
+      <c r="BW23" s="31"/>
+      <c r="BX23" s="31"/>
+      <c r="BY23" s="31"/>
+      <c r="BZ23" s="31"/>
+      <c r="CA23" s="31"/>
     </row>
     <row r="24" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
         <v>19</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D24" s="13">
         <v>2</v>
@@ -5244,25 +5183,25 @@
       <c r="BM24" s="11"/>
       <c r="BN24" s="11"/>
       <c r="BO24" s="11"/>
-      <c r="BP24" s="11"/>
-      <c r="BQ24" s="11"/>
-      <c r="BR24" s="11"/>
-      <c r="BS24" s="11"/>
-      <c r="BT24" s="11"/>
-      <c r="BU24" s="11"/>
-      <c r="BV24" s="11"/>
-      <c r="BW24" s="11"/>
-      <c r="BX24" s="11"/>
-      <c r="BY24" s="11"/>
-      <c r="BZ24" s="11"/>
-      <c r="CA24" s="11"/>
+      <c r="BP24" s="37"/>
+      <c r="BQ24" s="37"/>
+      <c r="BR24" s="37"/>
+      <c r="BS24" s="37"/>
+      <c r="BT24" s="36"/>
+      <c r="BU24" s="31"/>
+      <c r="BV24" s="31"/>
+      <c r="BW24" s="31"/>
+      <c r="BX24" s="31"/>
+      <c r="BY24" s="31"/>
+      <c r="BZ24" s="31"/>
+      <c r="CA24" s="31"/>
     </row>
     <row r="25" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
         <v>20</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D25" s="13">
         <v>2</v>
@@ -5334,25 +5273,25 @@
       <c r="BM25" s="11"/>
       <c r="BN25" s="11"/>
       <c r="BO25" s="11"/>
-      <c r="BP25" s="11"/>
-      <c r="BQ25" s="11"/>
-      <c r="BR25" s="11"/>
-      <c r="BS25" s="11"/>
-      <c r="BT25" s="11"/>
-      <c r="BU25" s="11"/>
-      <c r="BV25" s="11"/>
-      <c r="BW25" s="11"/>
-      <c r="BX25" s="11"/>
-      <c r="BY25" s="11"/>
-      <c r="BZ25" s="11"/>
-      <c r="CA25" s="11"/>
+      <c r="BP25" s="37"/>
+      <c r="BQ25" s="37"/>
+      <c r="BR25" s="37"/>
+      <c r="BS25" s="37"/>
+      <c r="BT25" s="36"/>
+      <c r="BU25" s="31"/>
+      <c r="BV25" s="31"/>
+      <c r="BW25" s="31"/>
+      <c r="BX25" s="31"/>
+      <c r="BY25" s="31"/>
+      <c r="BZ25" s="31"/>
+      <c r="CA25" s="31"/>
     </row>
     <row r="26" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B26" s="5">
         <v>21</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -5426,25 +5365,25 @@
       <c r="BM26" s="11"/>
       <c r="BN26" s="11"/>
       <c r="BO26" s="11"/>
-      <c r="BP26" s="11"/>
-      <c r="BQ26" s="11"/>
-      <c r="BR26" s="11"/>
-      <c r="BS26" s="11"/>
-      <c r="BT26" s="11"/>
-      <c r="BU26" s="11"/>
-      <c r="BV26" s="11"/>
-      <c r="BW26" s="11"/>
-      <c r="BX26" s="11"/>
-      <c r="BY26" s="11"/>
-      <c r="BZ26" s="11"/>
-      <c r="CA26" s="11"/>
+      <c r="BP26" s="37"/>
+      <c r="BQ26" s="37"/>
+      <c r="BR26" s="37"/>
+      <c r="BS26" s="37"/>
+      <c r="BT26" s="36"/>
+      <c r="BU26" s="31"/>
+      <c r="BV26" s="31"/>
+      <c r="BW26" s="31"/>
+      <c r="BX26" s="31"/>
+      <c r="BY26" s="31"/>
+      <c r="BZ26" s="31"/>
+      <c r="CA26" s="31"/>
     </row>
     <row r="27" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -5514,25 +5453,25 @@
       <c r="BM27" s="11"/>
       <c r="BN27" s="11"/>
       <c r="BO27" s="11"/>
-      <c r="BP27" s="11"/>
-      <c r="BQ27" s="11"/>
-      <c r="BR27" s="11"/>
-      <c r="BS27" s="11"/>
-      <c r="BT27" s="11"/>
-      <c r="BU27" s="11"/>
-      <c r="BV27" s="11"/>
-      <c r="BW27" s="11"/>
-      <c r="BX27" s="11"/>
-      <c r="BY27" s="11"/>
-      <c r="BZ27" s="11"/>
-      <c r="CA27" s="11"/>
+      <c r="BP27" s="37"/>
+      <c r="BQ27" s="37"/>
+      <c r="BR27" s="37"/>
+      <c r="BS27" s="37"/>
+      <c r="BT27" s="36"/>
+      <c r="BU27" s="31"/>
+      <c r="BV27" s="31"/>
+      <c r="BW27" s="31"/>
+      <c r="BX27" s="31"/>
+      <c r="BY27" s="31"/>
+      <c r="BZ27" s="31"/>
+      <c r="CA27" s="31"/>
     </row>
     <row r="28" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B28" s="5">
         <v>23</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -5602,25 +5541,25 @@
       <c r="BM28" s="11"/>
       <c r="BN28" s="11"/>
       <c r="BO28" s="11"/>
-      <c r="BP28" s="11"/>
-      <c r="BQ28" s="11"/>
-      <c r="BR28" s="11"/>
-      <c r="BS28" s="11"/>
-      <c r="BT28" s="11"/>
-      <c r="BU28" s="11"/>
-      <c r="BV28" s="11"/>
-      <c r="BW28" s="11"/>
-      <c r="BX28" s="11"/>
-      <c r="BY28" s="11"/>
-      <c r="BZ28" s="11"/>
-      <c r="CA28" s="11"/>
+      <c r="BP28" s="37"/>
+      <c r="BQ28" s="37"/>
+      <c r="BR28" s="37"/>
+      <c r="BS28" s="37"/>
+      <c r="BT28" s="36"/>
+      <c r="BU28" s="31"/>
+      <c r="BV28" s="31"/>
+      <c r="BW28" s="31"/>
+      <c r="BX28" s="31"/>
+      <c r="BY28" s="31"/>
+      <c r="BZ28" s="31"/>
+      <c r="CA28" s="31"/>
     </row>
     <row r="29" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
         <v>24</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
@@ -5690,25 +5629,25 @@
       <c r="BM29" s="11"/>
       <c r="BN29" s="11"/>
       <c r="BO29" s="11"/>
-      <c r="BP29" s="11"/>
-      <c r="BQ29" s="11"/>
-      <c r="BR29" s="11"/>
-      <c r="BS29" s="11"/>
-      <c r="BT29" s="11"/>
-      <c r="BU29" s="11"/>
-      <c r="BV29" s="11"/>
-      <c r="BW29" s="11"/>
-      <c r="BX29" s="11"/>
-      <c r="BY29" s="11"/>
-      <c r="BZ29" s="11"/>
-      <c r="CA29" s="11"/>
+      <c r="BP29" s="37"/>
+      <c r="BQ29" s="37"/>
+      <c r="BR29" s="37"/>
+      <c r="BS29" s="37"/>
+      <c r="BT29" s="36"/>
+      <c r="BU29" s="31"/>
+      <c r="BV29" s="31"/>
+      <c r="BW29" s="31"/>
+      <c r="BX29" s="31"/>
+      <c r="BY29" s="31"/>
+      <c r="BZ29" s="31"/>
+      <c r="CA29" s="31"/>
     </row>
     <row r="30" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B30" s="5">
         <v>25</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5778,25 +5717,25 @@
       <c r="BM30" s="11"/>
       <c r="BN30" s="11"/>
       <c r="BO30" s="11"/>
-      <c r="BP30" s="11"/>
-      <c r="BQ30" s="11"/>
-      <c r="BR30" s="11"/>
-      <c r="BS30" s="11"/>
-      <c r="BT30" s="11"/>
-      <c r="BU30" s="11"/>
-      <c r="BV30" s="11"/>
-      <c r="BW30" s="11"/>
-      <c r="BX30" s="11"/>
-      <c r="BY30" s="11"/>
-      <c r="BZ30" s="11"/>
-      <c r="CA30" s="11"/>
+      <c r="BP30" s="37"/>
+      <c r="BQ30" s="37"/>
+      <c r="BR30" s="37"/>
+      <c r="BS30" s="37"/>
+      <c r="BT30" s="36"/>
+      <c r="BU30" s="31"/>
+      <c r="BV30" s="31"/>
+      <c r="BW30" s="31"/>
+      <c r="BX30" s="31"/>
+      <c r="BY30" s="31"/>
+      <c r="BZ30" s="31"/>
+      <c r="CA30" s="31"/>
     </row>
     <row r="31" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
         <v>26</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -5866,25 +5805,25 @@
       <c r="BM31" s="11"/>
       <c r="BN31" s="11"/>
       <c r="BO31" s="11"/>
-      <c r="BP31" s="11"/>
-      <c r="BQ31" s="11"/>
-      <c r="BR31" s="11"/>
-      <c r="BS31" s="11"/>
-      <c r="BT31" s="11"/>
-      <c r="BU31" s="11"/>
-      <c r="BV31" s="11"/>
-      <c r="BW31" s="11"/>
-      <c r="BX31" s="11"/>
-      <c r="BY31" s="11"/>
-      <c r="BZ31" s="11"/>
-      <c r="CA31" s="11"/>
+      <c r="BP31" s="37"/>
+      <c r="BQ31" s="37"/>
+      <c r="BR31" s="37"/>
+      <c r="BS31" s="37"/>
+      <c r="BT31" s="36"/>
+      <c r="BU31" s="31"/>
+      <c r="BV31" s="31"/>
+      <c r="BW31" s="31"/>
+      <c r="BX31" s="31"/>
+      <c r="BY31" s="31"/>
+      <c r="BZ31" s="31"/>
+      <c r="CA31" s="31"/>
     </row>
     <row r="32" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B32" s="5">
         <v>27</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -5954,25 +5893,25 @@
       <c r="BM32" s="11"/>
       <c r="BN32" s="11"/>
       <c r="BO32" s="11"/>
-      <c r="BP32" s="11"/>
-      <c r="BQ32" s="11"/>
-      <c r="BR32" s="11"/>
-      <c r="BS32" s="11"/>
-      <c r="BT32" s="11"/>
-      <c r="BU32" s="11"/>
-      <c r="BV32" s="11"/>
-      <c r="BW32" s="11"/>
-      <c r="BX32" s="11"/>
-      <c r="BY32" s="11"/>
-      <c r="BZ32" s="11"/>
-      <c r="CA32" s="11"/>
+      <c r="BP32" s="37"/>
+      <c r="BQ32" s="37"/>
+      <c r="BR32" s="37"/>
+      <c r="BS32" s="37"/>
+      <c r="BT32" s="36"/>
+      <c r="BU32" s="31"/>
+      <c r="BV32" s="31"/>
+      <c r="BW32" s="31"/>
+      <c r="BX32" s="31"/>
+      <c r="BY32" s="31"/>
+      <c r="BZ32" s="31"/>
+      <c r="CA32" s="31"/>
     </row>
     <row r="33" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B33" s="5">
         <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D33" s="13">
         <v>5</v>
@@ -6050,25 +5989,25 @@
       <c r="BM33" s="11"/>
       <c r="BN33" s="11"/>
       <c r="BO33" s="11"/>
-      <c r="BP33" s="11"/>
-      <c r="BQ33" s="11"/>
-      <c r="BR33" s="11"/>
-      <c r="BS33" s="11"/>
-      <c r="BT33" s="11"/>
-      <c r="BU33" s="11"/>
-      <c r="BV33" s="11"/>
-      <c r="BW33" s="11"/>
-      <c r="BX33" s="11"/>
-      <c r="BY33" s="11"/>
-      <c r="BZ33" s="11"/>
-      <c r="CA33" s="11"/>
+      <c r="BP33" s="37"/>
+      <c r="BQ33" s="37"/>
+      <c r="BR33" s="37"/>
+      <c r="BS33" s="37"/>
+      <c r="BT33" s="36"/>
+      <c r="BU33" s="31"/>
+      <c r="BV33" s="31"/>
+      <c r="BW33" s="31"/>
+      <c r="BX33" s="31"/>
+      <c r="BY33" s="31"/>
+      <c r="BZ33" s="31"/>
+      <c r="CA33" s="31"/>
     </row>
     <row r="34" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B34" s="5">
         <v>29</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D34" s="13">
         <v>3</v>
@@ -6138,25 +6077,25 @@
       <c r="BM34" s="11"/>
       <c r="BN34" s="11"/>
       <c r="BO34" s="11"/>
-      <c r="BP34" s="11"/>
-      <c r="BQ34" s="11"/>
-      <c r="BR34" s="11"/>
-      <c r="BS34" s="11"/>
-      <c r="BT34" s="11"/>
-      <c r="BU34" s="11"/>
-      <c r="BV34" s="11"/>
-      <c r="BW34" s="11"/>
-      <c r="BX34" s="11"/>
-      <c r="BY34" s="11"/>
-      <c r="BZ34" s="11"/>
-      <c r="CA34" s="11"/>
+      <c r="BP34" s="37"/>
+      <c r="BQ34" s="37"/>
+      <c r="BR34" s="37"/>
+      <c r="BS34" s="37"/>
+      <c r="BT34" s="36"/>
+      <c r="BU34" s="31"/>
+      <c r="BV34" s="31"/>
+      <c r="BW34" s="31"/>
+      <c r="BX34" s="31"/>
+      <c r="BY34" s="31"/>
+      <c r="BZ34" s="31"/>
+      <c r="CA34" s="31"/>
     </row>
     <row r="35" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B35" s="5">
         <v>30</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D35" s="13">
         <v>2</v>
@@ -6226,25 +6165,25 @@
       <c r="BM35" s="11"/>
       <c r="BN35" s="11"/>
       <c r="BO35" s="11"/>
-      <c r="BP35" s="11"/>
-      <c r="BQ35" s="11"/>
-      <c r="BR35" s="11"/>
-      <c r="BS35" s="11"/>
-      <c r="BT35" s="11"/>
-      <c r="BU35" s="11"/>
-      <c r="BV35" s="11"/>
-      <c r="BW35" s="11"/>
-      <c r="BX35" s="11"/>
-      <c r="BY35" s="11"/>
-      <c r="BZ35" s="11"/>
-      <c r="CA35" s="11"/>
+      <c r="BP35" s="37"/>
+      <c r="BQ35" s="37"/>
+      <c r="BR35" s="37"/>
+      <c r="BS35" s="37"/>
+      <c r="BT35" s="36"/>
+      <c r="BU35" s="31"/>
+      <c r="BV35" s="31"/>
+      <c r="BW35" s="31"/>
+      <c r="BX35" s="31"/>
+      <c r="BY35" s="31"/>
+      <c r="BZ35" s="31"/>
+      <c r="CA35" s="31"/>
     </row>
     <row r="36" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B36" s="5">
         <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D36" s="13">
         <v>1</v>
@@ -6314,25 +6253,25 @@
       <c r="BM36" s="11"/>
       <c r="BN36" s="11"/>
       <c r="BO36" s="11"/>
-      <c r="BP36" s="11"/>
-      <c r="BQ36" s="11"/>
-      <c r="BR36" s="11"/>
-      <c r="BS36" s="11"/>
-      <c r="BT36" s="11"/>
-      <c r="BU36" s="11"/>
-      <c r="BV36" s="11"/>
-      <c r="BW36" s="11"/>
-      <c r="BX36" s="11"/>
-      <c r="BY36" s="11"/>
-      <c r="BZ36" s="11"/>
-      <c r="CA36" s="11"/>
+      <c r="BP36" s="37"/>
+      <c r="BQ36" s="37"/>
+      <c r="BR36" s="37"/>
+      <c r="BS36" s="37"/>
+      <c r="BT36" s="36"/>
+      <c r="BU36" s="31"/>
+      <c r="BV36" s="31"/>
+      <c r="BW36" s="31"/>
+      <c r="BX36" s="31"/>
+      <c r="BY36" s="31"/>
+      <c r="BZ36" s="31"/>
+      <c r="CA36" s="31"/>
     </row>
     <row r="37" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
         <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D37" s="13">
         <v>3</v>
@@ -6404,25 +6343,25 @@
       <c r="BM37" s="11"/>
       <c r="BN37" s="11"/>
       <c r="BO37" s="11"/>
-      <c r="BP37" s="11"/>
-      <c r="BQ37" s="11"/>
-      <c r="BR37" s="11"/>
-      <c r="BS37" s="11"/>
-      <c r="BT37" s="11"/>
-      <c r="BU37" s="11"/>
-      <c r="BV37" s="11"/>
-      <c r="BW37" s="11"/>
-      <c r="BX37" s="11"/>
-      <c r="BY37" s="11"/>
-      <c r="BZ37" s="11"/>
-      <c r="CA37" s="11"/>
+      <c r="BP37" s="37"/>
+      <c r="BQ37" s="37"/>
+      <c r="BR37" s="37"/>
+      <c r="BS37" s="37"/>
+      <c r="BT37" s="36"/>
+      <c r="BU37" s="31"/>
+      <c r="BV37" s="31"/>
+      <c r="BW37" s="31"/>
+      <c r="BX37" s="31"/>
+      <c r="BY37" s="31"/>
+      <c r="BZ37" s="31"/>
+      <c r="CA37" s="31"/>
     </row>
     <row r="38" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B38" s="5">
         <v>33</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D38" s="15">
         <v>1</v>
@@ -6499,24 +6438,24 @@
       <c r="BN38" s="16"/>
       <c r="BO38" s="16"/>
       <c r="BP38" s="16"/>
-      <c r="BQ38" s="11"/>
-      <c r="BR38" s="11"/>
-      <c r="BS38" s="11"/>
-      <c r="BT38" s="11"/>
-      <c r="BU38" s="11"/>
-      <c r="BV38" s="11"/>
-      <c r="BW38" s="11"/>
-      <c r="BX38" s="11"/>
-      <c r="BY38" s="11"/>
-      <c r="BZ38" s="11"/>
-      <c r="CA38" s="11"/>
+      <c r="BQ38" s="37"/>
+      <c r="BR38" s="37"/>
+      <c r="BS38" s="37"/>
+      <c r="BT38" s="36"/>
+      <c r="BU38" s="31"/>
+      <c r="BV38" s="31"/>
+      <c r="BW38" s="31"/>
+      <c r="BX38" s="31"/>
+      <c r="BY38" s="31"/>
+      <c r="BZ38" s="31"/>
+      <c r="CA38" s="31"/>
     </row>
     <row r="39" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B39" s="5">
         <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
@@ -6588,25 +6527,25 @@
       <c r="BM39" s="11"/>
       <c r="BN39" s="11"/>
       <c r="BO39" s="11"/>
-      <c r="BP39" s="11"/>
-      <c r="BQ39" s="11"/>
-      <c r="BR39" s="11"/>
-      <c r="BS39" s="11"/>
-      <c r="BT39" s="11"/>
-      <c r="BU39" s="11"/>
-      <c r="BV39" s="11"/>
-      <c r="BW39" s="11"/>
-      <c r="BX39" s="11"/>
-      <c r="BY39" s="11"/>
-      <c r="BZ39" s="11"/>
-      <c r="CA39" s="11"/>
+      <c r="BP39" s="37"/>
+      <c r="BQ39" s="37"/>
+      <c r="BR39" s="37"/>
+      <c r="BS39" s="37"/>
+      <c r="BT39" s="36"/>
+      <c r="BU39" s="31"/>
+      <c r="BV39" s="31"/>
+      <c r="BW39" s="31"/>
+      <c r="BX39" s="31"/>
+      <c r="BY39" s="31"/>
+      <c r="BZ39" s="31"/>
+      <c r="CA39" s="31"/>
     </row>
     <row r="40" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B40" s="5">
         <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
@@ -6676,25 +6615,25 @@
       <c r="BM40" s="11"/>
       <c r="BN40" s="11"/>
       <c r="BO40" s="11"/>
-      <c r="BP40" s="11"/>
-      <c r="BQ40" s="11"/>
-      <c r="BR40" s="11"/>
-      <c r="BS40" s="11"/>
-      <c r="BT40" s="11"/>
-      <c r="BU40" s="11"/>
-      <c r="BV40" s="11"/>
-      <c r="BW40" s="11"/>
-      <c r="BX40" s="11"/>
-      <c r="BY40" s="11"/>
-      <c r="BZ40" s="11"/>
-      <c r="CA40" s="11"/>
+      <c r="BP40" s="37"/>
+      <c r="BQ40" s="37"/>
+      <c r="BR40" s="37"/>
+      <c r="BS40" s="37"/>
+      <c r="BT40" s="36"/>
+      <c r="BU40" s="31"/>
+      <c r="BV40" s="31"/>
+      <c r="BW40" s="31"/>
+      <c r="BX40" s="31"/>
+      <c r="BY40" s="31"/>
+      <c r="BZ40" s="31"/>
+      <c r="CA40" s="31"/>
     </row>
     <row r="41" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B41" s="5">
         <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
@@ -6764,25 +6703,25 @@
       <c r="BM41" s="11"/>
       <c r="BN41" s="11"/>
       <c r="BO41" s="11"/>
-      <c r="BP41" s="11"/>
-      <c r="BQ41" s="11"/>
-      <c r="BR41" s="11"/>
-      <c r="BS41" s="11"/>
-      <c r="BT41" s="11"/>
-      <c r="BU41" s="11"/>
-      <c r="BV41" s="11"/>
-      <c r="BW41" s="11"/>
-      <c r="BX41" s="11"/>
-      <c r="BY41" s="11"/>
-      <c r="BZ41" s="11"/>
-      <c r="CA41" s="11"/>
+      <c r="BP41" s="37"/>
+      <c r="BQ41" s="37"/>
+      <c r="BR41" s="37"/>
+      <c r="BS41" s="37"/>
+      <c r="BT41" s="36"/>
+      <c r="BU41" s="31"/>
+      <c r="BV41" s="31"/>
+      <c r="BW41" s="31"/>
+      <c r="BX41" s="31"/>
+      <c r="BY41" s="31"/>
+      <c r="BZ41" s="31"/>
+      <c r="CA41" s="31"/>
     </row>
     <row r="42" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B42" s="5">
         <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D42" s="13">
         <v>1</v>
@@ -6852,18 +6791,18 @@
       <c r="BM42" s="11"/>
       <c r="BN42" s="11"/>
       <c r="BO42" s="11"/>
-      <c r="BP42" s="11"/>
-      <c r="BQ42" s="11"/>
-      <c r="BR42" s="11"/>
-      <c r="BS42" s="11"/>
-      <c r="BT42" s="11"/>
-      <c r="BU42" s="11"/>
-      <c r="BV42" s="11"/>
-      <c r="BW42" s="11"/>
-      <c r="BX42" s="11"/>
-      <c r="BY42" s="11"/>
-      <c r="BZ42" s="11"/>
-      <c r="CA42" s="11"/>
+      <c r="BP42" s="37"/>
+      <c r="BQ42" s="37"/>
+      <c r="BR42" s="37"/>
+      <c r="BS42" s="37"/>
+      <c r="BT42" s="36"/>
+      <c r="BU42" s="31"/>
+      <c r="BV42" s="31"/>
+      <c r="BW42" s="31"/>
+      <c r="BX42" s="31"/>
+      <c r="BY42" s="31"/>
+      <c r="BZ42" s="31"/>
+      <c r="CA42" s="31"/>
     </row>
     <row r="43" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
@@ -6934,25 +6873,25 @@
       <c r="BM43" s="11"/>
       <c r="BN43" s="11"/>
       <c r="BO43" s="11"/>
-      <c r="BP43" s="11"/>
-      <c r="BQ43" s="11"/>
-      <c r="BR43" s="11"/>
-      <c r="BS43" s="11"/>
-      <c r="BT43" s="11"/>
-      <c r="BU43" s="11"/>
-      <c r="BV43" s="11"/>
-      <c r="BW43" s="11"/>
-      <c r="BX43" s="11"/>
-      <c r="BY43" s="11"/>
-      <c r="BZ43" s="11"/>
-      <c r="CA43" s="11"/>
+      <c r="BP43" s="37"/>
+      <c r="BQ43" s="37"/>
+      <c r="BR43" s="37"/>
+      <c r="BS43" s="37"/>
+      <c r="BT43" s="36"/>
+      <c r="BU43" s="31"/>
+      <c r="BV43" s="31"/>
+      <c r="BW43" s="31"/>
+      <c r="BX43" s="31"/>
+      <c r="BY43" s="31"/>
+      <c r="BZ43" s="31"/>
+      <c r="CA43" s="31"/>
     </row>
     <row r="44" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B44" s="5">
         <v>39</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="11"/>
@@ -7018,25 +6957,25 @@
       <c r="BM44" s="11"/>
       <c r="BN44" s="11"/>
       <c r="BO44" s="11"/>
-      <c r="BP44" s="11"/>
-      <c r="BQ44" s="11"/>
-      <c r="BR44" s="11"/>
-      <c r="BS44" s="11"/>
-      <c r="BT44" s="11"/>
-      <c r="BU44" s="11"/>
-      <c r="BV44" s="11"/>
-      <c r="BW44" s="11"/>
-      <c r="BX44" s="11"/>
-      <c r="BY44" s="11"/>
-      <c r="BZ44" s="11"/>
-      <c r="CA44" s="11"/>
+      <c r="BP44" s="37"/>
+      <c r="BQ44" s="37"/>
+      <c r="BR44" s="37"/>
+      <c r="BS44" s="37"/>
+      <c r="BT44" s="36"/>
+      <c r="BU44" s="31"/>
+      <c r="BV44" s="31"/>
+      <c r="BW44" s="31"/>
+      <c r="BX44" s="31"/>
+      <c r="BY44" s="31"/>
+      <c r="BZ44" s="31"/>
+      <c r="CA44" s="31"/>
     </row>
     <row r="45" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B45" s="5">
         <v>40</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="11"/>
@@ -7102,25 +7041,25 @@
       <c r="BM45" s="11"/>
       <c r="BN45" s="11"/>
       <c r="BO45" s="11"/>
-      <c r="BP45" s="11"/>
-      <c r="BQ45" s="11"/>
-      <c r="BR45" s="11"/>
-      <c r="BS45" s="11"/>
-      <c r="BT45" s="11"/>
-      <c r="BU45" s="11"/>
-      <c r="BV45" s="11"/>
-      <c r="BW45" s="11"/>
-      <c r="BX45" s="11"/>
-      <c r="BY45" s="11"/>
-      <c r="BZ45" s="11"/>
-      <c r="CA45" s="11"/>
+      <c r="BP45" s="37"/>
+      <c r="BQ45" s="37"/>
+      <c r="BR45" s="37"/>
+      <c r="BS45" s="37"/>
+      <c r="BT45" s="36"/>
+      <c r="BU45" s="31"/>
+      <c r="BV45" s="31"/>
+      <c r="BW45" s="31"/>
+      <c r="BX45" s="31"/>
+      <c r="BY45" s="31"/>
+      <c r="BZ45" s="31"/>
+      <c r="CA45" s="31"/>
     </row>
     <row r="46" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B46" s="5">
         <v>41</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="11"/>
@@ -7186,18 +7125,18 @@
       <c r="BM46" s="11"/>
       <c r="BN46" s="11"/>
       <c r="BO46" s="11"/>
-      <c r="BP46" s="11"/>
-      <c r="BQ46" s="11"/>
-      <c r="BR46" s="11"/>
-      <c r="BS46" s="11"/>
-      <c r="BT46" s="11"/>
-      <c r="BU46" s="11"/>
-      <c r="BV46" s="11"/>
-      <c r="BW46" s="11"/>
-      <c r="BX46" s="11"/>
-      <c r="BY46" s="11"/>
-      <c r="BZ46" s="11"/>
-      <c r="CA46" s="11"/>
+      <c r="BP46" s="37"/>
+      <c r="BQ46" s="37"/>
+      <c r="BR46" s="37"/>
+      <c r="BS46" s="37"/>
+      <c r="BT46" s="36"/>
+      <c r="BU46" s="31"/>
+      <c r="BV46" s="31"/>
+      <c r="BW46" s="31"/>
+      <c r="BX46" s="31"/>
+      <c r="BY46" s="31"/>
+      <c r="BZ46" s="31"/>
+      <c r="CA46" s="31"/>
     </row>
     <row r="47" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B47" s="5">
@@ -7268,18 +7207,18 @@
       <c r="BM47" s="11"/>
       <c r="BN47" s="11"/>
       <c r="BO47" s="11"/>
-      <c r="BP47" s="11"/>
-      <c r="BQ47" s="11"/>
-      <c r="BR47" s="11"/>
-      <c r="BS47" s="11"/>
-      <c r="BT47" s="11"/>
-      <c r="BU47" s="11"/>
-      <c r="BV47" s="11"/>
-      <c r="BW47" s="11"/>
-      <c r="BX47" s="11"/>
-      <c r="BY47" s="11"/>
-      <c r="BZ47" s="11"/>
-      <c r="CA47" s="11"/>
+      <c r="BP47" s="37"/>
+      <c r="BQ47" s="37"/>
+      <c r="BR47" s="37"/>
+      <c r="BS47" s="37"/>
+      <c r="BT47" s="36"/>
+      <c r="BU47" s="31"/>
+      <c r="BV47" s="31"/>
+      <c r="BW47" s="31"/>
+      <c r="BX47" s="31"/>
+      <c r="BY47" s="31"/>
+      <c r="BZ47" s="31"/>
+      <c r="CA47" s="31"/>
     </row>
     <row r="48" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B48" s="5">
@@ -7350,18 +7289,18 @@
       <c r="BM48" s="11"/>
       <c r="BN48" s="11"/>
       <c r="BO48" s="11"/>
-      <c r="BP48" s="11"/>
-      <c r="BQ48" s="11"/>
-      <c r="BR48" s="11"/>
-      <c r="BS48" s="11"/>
-      <c r="BT48" s="11"/>
-      <c r="BU48" s="11"/>
-      <c r="BV48" s="11"/>
-      <c r="BW48" s="11"/>
-      <c r="BX48" s="11"/>
-      <c r="BY48" s="11"/>
-      <c r="BZ48" s="11"/>
-      <c r="CA48" s="11"/>
+      <c r="BP48" s="37"/>
+      <c r="BQ48" s="37"/>
+      <c r="BR48" s="37"/>
+      <c r="BS48" s="37"/>
+      <c r="BT48" s="36"/>
+      <c r="BU48" s="31"/>
+      <c r="BV48" s="31"/>
+      <c r="BW48" s="31"/>
+      <c r="BX48" s="31"/>
+      <c r="BY48" s="31"/>
+      <c r="BZ48" s="31"/>
+      <c r="CA48" s="31"/>
     </row>
     <row r="49" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B49" s="5">
@@ -7432,18 +7371,18 @@
       <c r="BM49" s="11"/>
       <c r="BN49" s="11"/>
       <c r="BO49" s="11"/>
-      <c r="BP49" s="11"/>
-      <c r="BQ49" s="11"/>
-      <c r="BR49" s="11"/>
-      <c r="BS49" s="11"/>
-      <c r="BT49" s="11"/>
-      <c r="BU49" s="11"/>
-      <c r="BV49" s="11"/>
-      <c r="BW49" s="11"/>
-      <c r="BX49" s="11"/>
-      <c r="BY49" s="11"/>
-      <c r="BZ49" s="11"/>
-      <c r="CA49" s="11"/>
+      <c r="BP49" s="37"/>
+      <c r="BQ49" s="37"/>
+      <c r="BR49" s="37"/>
+      <c r="BS49" s="37"/>
+      <c r="BT49" s="36"/>
+      <c r="BU49" s="31"/>
+      <c r="BV49" s="31"/>
+      <c r="BW49" s="31"/>
+      <c r="BX49" s="31"/>
+      <c r="BY49" s="31"/>
+      <c r="BZ49" s="31"/>
+      <c r="CA49" s="31"/>
     </row>
     <row r="50" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B50" s="5">
@@ -7514,18 +7453,18 @@
       <c r="BM50" s="11"/>
       <c r="BN50" s="11"/>
       <c r="BO50" s="11"/>
-      <c r="BP50" s="11"/>
-      <c r="BQ50" s="11"/>
-      <c r="BR50" s="11"/>
-      <c r="BS50" s="11"/>
-      <c r="BT50" s="11"/>
-      <c r="BU50" s="11"/>
-      <c r="BV50" s="11"/>
-      <c r="BW50" s="11"/>
-      <c r="BX50" s="11"/>
-      <c r="BY50" s="11"/>
-      <c r="BZ50" s="11"/>
-      <c r="CA50" s="11"/>
+      <c r="BP50" s="37"/>
+      <c r="BQ50" s="37"/>
+      <c r="BR50" s="37"/>
+      <c r="BS50" s="37"/>
+      <c r="BT50" s="36"/>
+      <c r="BU50" s="31"/>
+      <c r="BV50" s="31"/>
+      <c r="BW50" s="31"/>
+      <c r="BX50" s="31"/>
+      <c r="BY50" s="31"/>
+      <c r="BZ50" s="31"/>
+      <c r="CA50" s="31"/>
     </row>
     <row r="51" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B51" s="5">
@@ -7596,18 +7535,18 @@
       <c r="BM51" s="11"/>
       <c r="BN51" s="11"/>
       <c r="BO51" s="11"/>
-      <c r="BP51" s="11"/>
-      <c r="BQ51" s="11"/>
-      <c r="BR51" s="11"/>
-      <c r="BS51" s="11"/>
-      <c r="BT51" s="11"/>
-      <c r="BU51" s="11"/>
-      <c r="BV51" s="11"/>
-      <c r="BW51" s="11"/>
-      <c r="BX51" s="11"/>
-      <c r="BY51" s="11"/>
-      <c r="BZ51" s="11"/>
-      <c r="CA51" s="11"/>
+      <c r="BP51" s="37"/>
+      <c r="BQ51" s="37"/>
+      <c r="BR51" s="37"/>
+      <c r="BS51" s="37"/>
+      <c r="BT51" s="36"/>
+      <c r="BU51" s="31"/>
+      <c r="BV51" s="31"/>
+      <c r="BW51" s="31"/>
+      <c r="BX51" s="31"/>
+      <c r="BY51" s="31"/>
+      <c r="BZ51" s="31"/>
+      <c r="CA51" s="31"/>
     </row>
     <row r="52" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B52" s="5">
@@ -7678,18 +7617,18 @@
       <c r="BM52" s="11"/>
       <c r="BN52" s="11"/>
       <c r="BO52" s="11"/>
-      <c r="BP52" s="11"/>
-      <c r="BQ52" s="11"/>
-      <c r="BR52" s="11"/>
-      <c r="BS52" s="11"/>
-      <c r="BT52" s="11"/>
-      <c r="BU52" s="11"/>
-      <c r="BV52" s="11"/>
-      <c r="BW52" s="11"/>
-      <c r="BX52" s="11"/>
-      <c r="BY52" s="11"/>
-      <c r="BZ52" s="11"/>
-      <c r="CA52" s="11"/>
+      <c r="BP52" s="37"/>
+      <c r="BQ52" s="37"/>
+      <c r="BR52" s="37"/>
+      <c r="BS52" s="37"/>
+      <c r="BT52" s="36"/>
+      <c r="BU52" s="31"/>
+      <c r="BV52" s="31"/>
+      <c r="BW52" s="31"/>
+      <c r="BX52" s="31"/>
+      <c r="BY52" s="31"/>
+      <c r="BZ52" s="31"/>
+      <c r="CA52" s="31"/>
     </row>
     <row r="53" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B53" s="5">
@@ -7760,18 +7699,18 @@
       <c r="BM53" s="11"/>
       <c r="BN53" s="11"/>
       <c r="BO53" s="11"/>
-      <c r="BP53" s="11"/>
-      <c r="BQ53" s="11"/>
-      <c r="BR53" s="11"/>
-      <c r="BS53" s="11"/>
-      <c r="BT53" s="11"/>
-      <c r="BU53" s="11"/>
-      <c r="BV53" s="11"/>
-      <c r="BW53" s="11"/>
-      <c r="BX53" s="11"/>
-      <c r="BY53" s="11"/>
-      <c r="BZ53" s="11"/>
-      <c r="CA53" s="11"/>
+      <c r="BP53" s="37"/>
+      <c r="BQ53" s="37"/>
+      <c r="BR53" s="37"/>
+      <c r="BS53" s="37"/>
+      <c r="BT53" s="36"/>
+      <c r="BU53" s="31"/>
+      <c r="BV53" s="31"/>
+      <c r="BW53" s="31"/>
+      <c r="BX53" s="31"/>
+      <c r="BY53" s="31"/>
+      <c r="BZ53" s="31"/>
+      <c r="CA53" s="31"/>
     </row>
     <row r="54" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B54" s="5">
@@ -7842,18 +7781,18 @@
       <c r="BM54" s="11"/>
       <c r="BN54" s="11"/>
       <c r="BO54" s="11"/>
-      <c r="BP54" s="11"/>
-      <c r="BQ54" s="11"/>
-      <c r="BR54" s="11"/>
-      <c r="BS54" s="11"/>
-      <c r="BT54" s="11"/>
-      <c r="BU54" s="11"/>
-      <c r="BV54" s="11"/>
-      <c r="BW54" s="11"/>
-      <c r="BX54" s="11"/>
-      <c r="BY54" s="11"/>
-      <c r="BZ54" s="11"/>
-      <c r="CA54" s="11"/>
+      <c r="BP54" s="37"/>
+      <c r="BQ54" s="37"/>
+      <c r="BR54" s="37"/>
+      <c r="BS54" s="37"/>
+      <c r="BT54" s="36"/>
+      <c r="BU54" s="31"/>
+      <c r="BV54" s="31"/>
+      <c r="BW54" s="31"/>
+      <c r="BX54" s="31"/>
+      <c r="BY54" s="31"/>
+      <c r="BZ54" s="31"/>
+      <c r="CA54" s="31"/>
     </row>
     <row r="55" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B55" s="5">
@@ -7924,18 +7863,18 @@
       <c r="BM55" s="11"/>
       <c r="BN55" s="11"/>
       <c r="BO55" s="11"/>
-      <c r="BP55" s="11"/>
-      <c r="BQ55" s="11"/>
-      <c r="BR55" s="11"/>
-      <c r="BS55" s="11"/>
-      <c r="BT55" s="11"/>
-      <c r="BU55" s="11"/>
-      <c r="BV55" s="11"/>
-      <c r="BW55" s="11"/>
-      <c r="BX55" s="11"/>
-      <c r="BY55" s="11"/>
-      <c r="BZ55" s="11"/>
-      <c r="CA55" s="11"/>
+      <c r="BP55" s="37"/>
+      <c r="BQ55" s="37"/>
+      <c r="BR55" s="37"/>
+      <c r="BS55" s="37"/>
+      <c r="BT55" s="36"/>
+      <c r="BU55" s="31"/>
+      <c r="BV55" s="31"/>
+      <c r="BW55" s="31"/>
+      <c r="BX55" s="31"/>
+      <c r="BY55" s="31"/>
+      <c r="BZ55" s="31"/>
+      <c r="CA55" s="31"/>
     </row>
     <row r="56" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B56" s="5">
@@ -8006,18 +7945,18 @@
       <c r="BM56" s="11"/>
       <c r="BN56" s="11"/>
       <c r="BO56" s="11"/>
-      <c r="BP56" s="11"/>
-      <c r="BQ56" s="11"/>
-      <c r="BR56" s="11"/>
-      <c r="BS56" s="11"/>
-      <c r="BT56" s="11"/>
-      <c r="BU56" s="11"/>
-      <c r="BV56" s="11"/>
-      <c r="BW56" s="11"/>
-      <c r="BX56" s="11"/>
-      <c r="BY56" s="11"/>
-      <c r="BZ56" s="11"/>
-      <c r="CA56" s="11"/>
+      <c r="BP56" s="37"/>
+      <c r="BQ56" s="37"/>
+      <c r="BR56" s="37"/>
+      <c r="BS56" s="37"/>
+      <c r="BT56" s="36"/>
+      <c r="BU56" s="31"/>
+      <c r="BV56" s="31"/>
+      <c r="BW56" s="31"/>
+      <c r="BX56" s="31"/>
+      <c r="BY56" s="31"/>
+      <c r="BZ56" s="31"/>
+      <c r="CA56" s="31"/>
     </row>
     <row r="57" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B57" s="5">
@@ -8088,18 +8027,18 @@
       <c r="BM57" s="11"/>
       <c r="BN57" s="11"/>
       <c r="BO57" s="11"/>
-      <c r="BP57" s="11"/>
-      <c r="BQ57" s="11"/>
-      <c r="BR57" s="11"/>
-      <c r="BS57" s="11"/>
-      <c r="BT57" s="11"/>
-      <c r="BU57" s="11"/>
-      <c r="BV57" s="11"/>
-      <c r="BW57" s="11"/>
-      <c r="BX57" s="11"/>
-      <c r="BY57" s="11"/>
-      <c r="BZ57" s="11"/>
-      <c r="CA57" s="11"/>
+      <c r="BP57" s="37"/>
+      <c r="BQ57" s="37"/>
+      <c r="BR57" s="37"/>
+      <c r="BS57" s="37"/>
+      <c r="BT57" s="36"/>
+      <c r="BU57" s="31"/>
+      <c r="BV57" s="31"/>
+      <c r="BW57" s="31"/>
+      <c r="BX57" s="31"/>
+      <c r="BY57" s="31"/>
+      <c r="BZ57" s="31"/>
+      <c r="CA57" s="31"/>
     </row>
     <row r="58" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B58" s="5">
@@ -8170,18 +8109,18 @@
       <c r="BM58" s="11"/>
       <c r="BN58" s="11"/>
       <c r="BO58" s="11"/>
-      <c r="BP58" s="11"/>
-      <c r="BQ58" s="11"/>
-      <c r="BR58" s="11"/>
-      <c r="BS58" s="11"/>
-      <c r="BT58" s="11"/>
-      <c r="BU58" s="11"/>
-      <c r="BV58" s="11"/>
-      <c r="BW58" s="11"/>
-      <c r="BX58" s="11"/>
-      <c r="BY58" s="11"/>
-      <c r="BZ58" s="11"/>
-      <c r="CA58" s="11"/>
+      <c r="BP58" s="37"/>
+      <c r="BQ58" s="37"/>
+      <c r="BR58" s="37"/>
+      <c r="BS58" s="37"/>
+      <c r="BT58" s="36"/>
+      <c r="BU58" s="31"/>
+      <c r="BV58" s="31"/>
+      <c r="BW58" s="31"/>
+      <c r="BX58" s="31"/>
+      <c r="BY58" s="31"/>
+      <c r="BZ58" s="31"/>
+      <c r="CA58" s="31"/>
     </row>
     <row r="59" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B59" s="5">
@@ -8252,18 +8191,18 @@
       <c r="BM59" s="11"/>
       <c r="BN59" s="11"/>
       <c r="BO59" s="11"/>
-      <c r="BP59" s="11"/>
-      <c r="BQ59" s="11"/>
-      <c r="BR59" s="11"/>
-      <c r="BS59" s="11"/>
-      <c r="BT59" s="11"/>
-      <c r="BU59" s="11"/>
-      <c r="BV59" s="11"/>
-      <c r="BW59" s="11"/>
-      <c r="BX59" s="11"/>
-      <c r="BY59" s="11"/>
-      <c r="BZ59" s="11"/>
-      <c r="CA59" s="11"/>
+      <c r="BP59" s="37"/>
+      <c r="BQ59" s="37"/>
+      <c r="BR59" s="37"/>
+      <c r="BS59" s="37"/>
+      <c r="BT59" s="36"/>
+      <c r="BU59" s="31"/>
+      <c r="BV59" s="31"/>
+      <c r="BW59" s="31"/>
+      <c r="BX59" s="31"/>
+      <c r="BY59" s="31"/>
+      <c r="BZ59" s="31"/>
+      <c r="CA59" s="31"/>
     </row>
     <row r="60" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B60" s="5">
@@ -8334,18 +8273,18 @@
       <c r="BM60" s="11"/>
       <c r="BN60" s="11"/>
       <c r="BO60" s="11"/>
-      <c r="BP60" s="11"/>
-      <c r="BQ60" s="11"/>
-      <c r="BR60" s="11"/>
-      <c r="BS60" s="11"/>
-      <c r="BT60" s="11"/>
-      <c r="BU60" s="11"/>
-      <c r="BV60" s="11"/>
-      <c r="BW60" s="11"/>
-      <c r="BX60" s="11"/>
-      <c r="BY60" s="11"/>
-      <c r="BZ60" s="11"/>
-      <c r="CA60" s="11"/>
+      <c r="BP60" s="37"/>
+      <c r="BQ60" s="37"/>
+      <c r="BR60" s="37"/>
+      <c r="BS60" s="37"/>
+      <c r="BT60" s="36"/>
+      <c r="BU60" s="31"/>
+      <c r="BV60" s="31"/>
+      <c r="BW60" s="31"/>
+      <c r="BX60" s="31"/>
+      <c r="BY60" s="31"/>
+      <c r="BZ60" s="31"/>
+      <c r="CA60" s="31"/>
     </row>
     <row r="61" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B61" s="5">
@@ -8416,18 +8355,18 @@
       <c r="BM61" s="11"/>
       <c r="BN61" s="11"/>
       <c r="BO61" s="11"/>
-      <c r="BP61" s="11"/>
-      <c r="BQ61" s="11"/>
-      <c r="BR61" s="11"/>
-      <c r="BS61" s="11"/>
-      <c r="BT61" s="11"/>
-      <c r="BU61" s="11"/>
-      <c r="BV61" s="11"/>
-      <c r="BW61" s="11"/>
-      <c r="BX61" s="11"/>
-      <c r="BY61" s="11"/>
-      <c r="BZ61" s="11"/>
-      <c r="CA61" s="11"/>
+      <c r="BP61" s="37"/>
+      <c r="BQ61" s="37"/>
+      <c r="BR61" s="37"/>
+      <c r="BS61" s="37"/>
+      <c r="BT61" s="36"/>
+      <c r="BU61" s="31"/>
+      <c r="BV61" s="31"/>
+      <c r="BW61" s="31"/>
+      <c r="BX61" s="31"/>
+      <c r="BY61" s="31"/>
+      <c r="BZ61" s="31"/>
+      <c r="CA61" s="31"/>
     </row>
     <row r="62" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B62" s="5">
@@ -8498,18 +8437,18 @@
       <c r="BM62" s="11"/>
       <c r="BN62" s="11"/>
       <c r="BO62" s="11"/>
-      <c r="BP62" s="11"/>
-      <c r="BQ62" s="11"/>
-      <c r="BR62" s="11"/>
-      <c r="BS62" s="11"/>
-      <c r="BT62" s="11"/>
-      <c r="BU62" s="11"/>
-      <c r="BV62" s="11"/>
-      <c r="BW62" s="11"/>
-      <c r="BX62" s="11"/>
-      <c r="BY62" s="11"/>
-      <c r="BZ62" s="11"/>
-      <c r="CA62" s="11"/>
+      <c r="BP62" s="37"/>
+      <c r="BQ62" s="37"/>
+      <c r="BR62" s="37"/>
+      <c r="BS62" s="37"/>
+      <c r="BT62" s="36"/>
+      <c r="BU62" s="31"/>
+      <c r="BV62" s="31"/>
+      <c r="BW62" s="31"/>
+      <c r="BX62" s="31"/>
+      <c r="BY62" s="31"/>
+      <c r="BZ62" s="31"/>
+      <c r="CA62" s="31"/>
     </row>
     <row r="63" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B63" s="5">
@@ -8580,18 +8519,18 @@
       <c r="BM63" s="11"/>
       <c r="BN63" s="11"/>
       <c r="BO63" s="11"/>
-      <c r="BP63" s="11"/>
-      <c r="BQ63" s="11"/>
-      <c r="BR63" s="11"/>
-      <c r="BS63" s="11"/>
-      <c r="BT63" s="11"/>
-      <c r="BU63" s="11"/>
-      <c r="BV63" s="11"/>
-      <c r="BW63" s="11"/>
-      <c r="BX63" s="11"/>
-      <c r="BY63" s="11"/>
-      <c r="BZ63" s="11"/>
-      <c r="CA63" s="11"/>
+      <c r="BP63" s="37"/>
+      <c r="BQ63" s="37"/>
+      <c r="BR63" s="37"/>
+      <c r="BS63" s="37"/>
+      <c r="BT63" s="36"/>
+      <c r="BU63" s="31"/>
+      <c r="BV63" s="31"/>
+      <c r="BW63" s="31"/>
+      <c r="BX63" s="31"/>
+      <c r="BY63" s="31"/>
+      <c r="BZ63" s="31"/>
+      <c r="CA63" s="31"/>
     </row>
     <row r="64" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B64" s="5">
@@ -8662,18 +8601,18 @@
       <c r="BM64" s="11"/>
       <c r="BN64" s="11"/>
       <c r="BO64" s="11"/>
-      <c r="BP64" s="11"/>
-      <c r="BQ64" s="11"/>
-      <c r="BR64" s="11"/>
-      <c r="BS64" s="11"/>
-      <c r="BT64" s="11"/>
-      <c r="BU64" s="11"/>
-      <c r="BV64" s="11"/>
-      <c r="BW64" s="11"/>
-      <c r="BX64" s="11"/>
-      <c r="BY64" s="11"/>
-      <c r="BZ64" s="11"/>
-      <c r="CA64" s="11"/>
+      <c r="BP64" s="37"/>
+      <c r="BQ64" s="37"/>
+      <c r="BR64" s="37"/>
+      <c r="BS64" s="37"/>
+      <c r="BT64" s="36"/>
+      <c r="BU64" s="31"/>
+      <c r="BV64" s="31"/>
+      <c r="BW64" s="31"/>
+      <c r="BX64" s="31"/>
+      <c r="BY64" s="31"/>
+      <c r="BZ64" s="31"/>
+      <c r="CA64" s="31"/>
     </row>
     <row r="65" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B65" s="5">
@@ -8744,18 +8683,18 @@
       <c r="BM65" s="11"/>
       <c r="BN65" s="11"/>
       <c r="BO65" s="11"/>
-      <c r="BP65" s="11"/>
-      <c r="BQ65" s="11"/>
-      <c r="BR65" s="11"/>
-      <c r="BS65" s="11"/>
-      <c r="BT65" s="11"/>
-      <c r="BU65" s="11"/>
-      <c r="BV65" s="11"/>
-      <c r="BW65" s="11"/>
-      <c r="BX65" s="11"/>
-      <c r="BY65" s="11"/>
-      <c r="BZ65" s="11"/>
-      <c r="CA65" s="11"/>
+      <c r="BP65" s="37"/>
+      <c r="BQ65" s="37"/>
+      <c r="BR65" s="37"/>
+      <c r="BS65" s="37"/>
+      <c r="BT65" s="36"/>
+      <c r="BU65" s="31"/>
+      <c r="BV65" s="31"/>
+      <c r="BW65" s="31"/>
+      <c r="BX65" s="31"/>
+      <c r="BY65" s="31"/>
+      <c r="BZ65" s="31"/>
+      <c r="CA65" s="31"/>
     </row>
     <row r="66" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B66" s="5">
@@ -8826,18 +8765,18 @@
       <c r="BM66" s="11"/>
       <c r="BN66" s="11"/>
       <c r="BO66" s="11"/>
-      <c r="BP66" s="11"/>
-      <c r="BQ66" s="11"/>
-      <c r="BR66" s="11"/>
-      <c r="BS66" s="11"/>
-      <c r="BT66" s="11"/>
-      <c r="BU66" s="11"/>
-      <c r="BV66" s="11"/>
-      <c r="BW66" s="11"/>
-      <c r="BX66" s="11"/>
-      <c r="BY66" s="11"/>
-      <c r="BZ66" s="11"/>
-      <c r="CA66" s="11"/>
+      <c r="BP66" s="37"/>
+      <c r="BQ66" s="37"/>
+      <c r="BR66" s="37"/>
+      <c r="BS66" s="37"/>
+      <c r="BT66" s="36"/>
+      <c r="BU66" s="31"/>
+      <c r="BV66" s="31"/>
+      <c r="BW66" s="31"/>
+      <c r="BX66" s="31"/>
+      <c r="BY66" s="31"/>
+      <c r="BZ66" s="31"/>
+      <c r="CA66" s="31"/>
     </row>
     <row r="67" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B67" s="5">
@@ -8908,18 +8847,18 @@
       <c r="BM67" s="11"/>
       <c r="BN67" s="11"/>
       <c r="BO67" s="11"/>
-      <c r="BP67" s="11"/>
-      <c r="BQ67" s="11"/>
-      <c r="BR67" s="11"/>
-      <c r="BS67" s="11"/>
-      <c r="BT67" s="11"/>
-      <c r="BU67" s="11"/>
-      <c r="BV67" s="11"/>
-      <c r="BW67" s="11"/>
-      <c r="BX67" s="11"/>
-      <c r="BY67" s="11"/>
-      <c r="BZ67" s="11"/>
-      <c r="CA67" s="11"/>
+      <c r="BP67" s="37"/>
+      <c r="BQ67" s="37"/>
+      <c r="BR67" s="37"/>
+      <c r="BS67" s="37"/>
+      <c r="BT67" s="36"/>
+      <c r="BU67" s="31"/>
+      <c r="BV67" s="31"/>
+      <c r="BW67" s="31"/>
+      <c r="BX67" s="31"/>
+      <c r="BY67" s="31"/>
+      <c r="BZ67" s="31"/>
+      <c r="CA67" s="31"/>
     </row>
     <row r="68" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B68" s="5">
@@ -8990,22 +8929,22 @@
       <c r="BM68" s="11"/>
       <c r="BN68" s="11"/>
       <c r="BO68" s="11"/>
-      <c r="BP68" s="11"/>
-      <c r="BQ68" s="11"/>
-      <c r="BR68" s="11"/>
-      <c r="BS68" s="11"/>
-      <c r="BT68" s="11"/>
-      <c r="BU68" s="11"/>
-      <c r="BV68" s="11"/>
-      <c r="BW68" s="11"/>
-      <c r="BX68" s="11"/>
-      <c r="BY68" s="11"/>
-      <c r="BZ68" s="11"/>
-      <c r="CA68" s="11"/>
+      <c r="BP68" s="37"/>
+      <c r="BQ68" s="37"/>
+      <c r="BR68" s="37"/>
+      <c r="BS68" s="37"/>
+      <c r="BT68" s="36"/>
+      <c r="BU68" s="31"/>
+      <c r="BV68" s="31"/>
+      <c r="BW68" s="31"/>
+      <c r="BX68" s="31"/>
+      <c r="BY68" s="31"/>
+      <c r="BZ68" s="31"/>
+      <c r="CA68" s="31"/>
     </row>
     <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B69" s="21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C69" s="21"/>
       <c r="D69" s="6">
@@ -9280,42 +9219,21 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BT69" s="7">
+      <c r="BT69" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BU69" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="BV69" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="BW69" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="BX69" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="BY69" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="BZ69" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="CA69" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="BU69" s="32"/>
+      <c r="BV69" s="32"/>
+      <c r="BW69" s="32"/>
+      <c r="BX69" s="32"/>
+      <c r="BY69" s="32"/>
+      <c r="BZ69" s="32"/>
+      <c r="CA69" s="32"/>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B70" s="20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="3">
@@ -9590,42 +9508,29 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BT70" s="4">
+      <c r="BT70" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BU70" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BV70" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BW70" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BX70" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BY70" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BZ70" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="CA70" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="BU70" s="33"/>
+      <c r="BV70" s="33"/>
+      <c r="BW70" s="33"/>
+      <c r="BX70" s="33"/>
+      <c r="BY70" s="33"/>
+      <c r="BZ70" s="33"/>
+      <c r="CA70" s="33"/>
+    </row>
+    <row r="71" spans="2:79" x14ac:dyDescent="0.35">
+      <c r="BU71" s="34"/>
+      <c r="BV71" s="34"/>
+      <c r="BW71" s="34"/>
+      <c r="BX71" s="34"/>
+      <c r="BY71" s="34"/>
+      <c r="BZ71" s="34"/>
+      <c r="CA71" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="P2:CA3"/>
+  <mergeCells count="5">
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="C4:C5"/>

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07928558-B5C5-4B65-9E31-3C4EA642E7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8335B928-0325-437E-91D2-E492AE09A5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Veiligheidstaken</t>
+  </si>
+  <si>
+    <t>Allen Pieter</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -628,6 +631,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,38 +673,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2875,10 +2877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
-  <dimension ref="B2:CA71"/>
+  <dimension ref="B1:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BP68" sqref="BP39:BP68"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2890,23 +2892,28 @@
     <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:79" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="2" spans="2:79" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="19"/>
@@ -2963,30 +2970,30 @@
       <c r="BQ2" s="19"/>
       <c r="BR2" s="19"/>
       <c r="BS2" s="19"/>
-      <c r="BT2" s="24"/>
-      <c r="BU2" s="28"/>
-      <c r="BV2" s="28"/>
-      <c r="BW2" s="28"/>
-      <c r="BX2" s="28"/>
-      <c r="BY2" s="28"/>
-      <c r="BZ2" s="28"/>
-      <c r="CA2" s="28"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="24"/>
+      <c r="BV2" s="24"/>
+      <c r="BW2" s="24"/>
+      <c r="BX2" s="24"/>
+      <c r="BY2" s="24"/>
+      <c r="BZ2" s="24"/>
+      <c r="CA2" s="24"/>
     </row>
     <row r="3" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
       <c r="R3" s="19"/>
@@ -3043,20 +3050,20 @@
       <c r="BQ3" s="19"/>
       <c r="BR3" s="19"/>
       <c r="BS3" s="19"/>
-      <c r="BT3" s="24"/>
-      <c r="BU3" s="28"/>
-      <c r="BV3" s="28"/>
-      <c r="BW3" s="28"/>
-      <c r="BX3" s="28"/>
-      <c r="BY3" s="28"/>
-      <c r="BZ3" s="28"/>
-      <c r="CA3" s="28"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="24"/>
+      <c r="BW3" s="24"/>
+      <c r="BX3" s="24"/>
+      <c r="BY3" s="24"/>
+      <c r="BZ3" s="24"/>
+      <c r="CA3" s="24"/>
     </row>
     <row r="4" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -3263,20 +3270,20 @@
       <c r="BS4" s="9">
         <v>45309</v>
       </c>
-      <c r="BT4" s="35">
+      <c r="BT4" s="30">
         <v>45310</v>
       </c>
-      <c r="BU4" s="29"/>
-      <c r="BV4" s="29"/>
-      <c r="BW4" s="29"/>
-      <c r="BX4" s="29"/>
-      <c r="BY4" s="29"/>
-      <c r="BZ4" s="29"/>
-      <c r="CA4" s="29"/>
+      <c r="BU4" s="25"/>
+      <c r="BV4" s="25"/>
+      <c r="BW4" s="25"/>
+      <c r="BX4" s="25"/>
+      <c r="BY4" s="25"/>
+      <c r="BZ4" s="25"/>
+      <c r="CA4" s="25"/>
     </row>
     <row r="5" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -3481,16 +3488,16 @@
       <c r="BS5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BT5" s="25" t="s">
+      <c r="BT5" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BU5" s="30"/>
-      <c r="BV5" s="30"/>
-      <c r="BW5" s="30"/>
-      <c r="BX5" s="30"/>
-      <c r="BY5" s="30"/>
-      <c r="BZ5" s="30"/>
-      <c r="CA5" s="30"/>
+      <c r="BU5" s="26"/>
+      <c r="BV5" s="26"/>
+      <c r="BW5" s="26"/>
+      <c r="BX5" s="26"/>
+      <c r="BY5" s="26"/>
+      <c r="BZ5" s="26"/>
+      <c r="CA5" s="26"/>
     </row>
     <row r="6" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
@@ -3569,18 +3576,18 @@
       <c r="BM6" s="11"/>
       <c r="BN6" s="11"/>
       <c r="BO6" s="11"/>
-      <c r="BP6" s="37"/>
-      <c r="BQ6" s="37"/>
-      <c r="BR6" s="37"/>
-      <c r="BS6" s="37"/>
-      <c r="BT6" s="36"/>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="31"/>
-      <c r="BW6" s="31"/>
-      <c r="BX6" s="31"/>
-      <c r="BY6" s="31"/>
-      <c r="BZ6" s="31"/>
-      <c r="CA6" s="31"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="32"/>
+      <c r="BS6" s="32"/>
+      <c r="BT6" s="31"/>
+      <c r="BU6" s="27"/>
+      <c r="BV6" s="27"/>
+      <c r="BW6" s="27"/>
+      <c r="BX6" s="27"/>
+      <c r="BY6" s="27"/>
+      <c r="BZ6" s="27"/>
+      <c r="CA6" s="27"/>
     </row>
     <row r="7" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
@@ -3659,18 +3666,18 @@
       </c>
       <c r="BN7" s="11"/>
       <c r="BO7" s="11"/>
-      <c r="BP7" s="37"/>
-      <c r="BQ7" s="37"/>
-      <c r="BR7" s="37"/>
-      <c r="BS7" s="37"/>
-      <c r="BT7" s="36"/>
-      <c r="BU7" s="31"/>
-      <c r="BV7" s="31"/>
-      <c r="BW7" s="31"/>
-      <c r="BX7" s="31"/>
-      <c r="BY7" s="31"/>
-      <c r="BZ7" s="31"/>
-      <c r="CA7" s="31"/>
+      <c r="BP7" s="32"/>
+      <c r="BQ7" s="32"/>
+      <c r="BR7" s="32"/>
+      <c r="BS7" s="32"/>
+      <c r="BT7" s="31"/>
+      <c r="BU7" s="27"/>
+      <c r="BV7" s="27"/>
+      <c r="BW7" s="27"/>
+      <c r="BX7" s="27"/>
+      <c r="BY7" s="27"/>
+      <c r="BZ7" s="27"/>
+      <c r="CA7" s="27"/>
     </row>
     <row r="8" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
@@ -3747,18 +3754,18 @@
       <c r="BM8" s="11"/>
       <c r="BN8" s="11"/>
       <c r="BO8" s="11"/>
-      <c r="BP8" s="37"/>
-      <c r="BQ8" s="37"/>
-      <c r="BR8" s="37"/>
-      <c r="BS8" s="37"/>
-      <c r="BT8" s="36"/>
-      <c r="BU8" s="31"/>
-      <c r="BV8" s="31"/>
-      <c r="BW8" s="31"/>
-      <c r="BX8" s="31"/>
-      <c r="BY8" s="31"/>
-      <c r="BZ8" s="31"/>
-      <c r="CA8" s="31"/>
+      <c r="BP8" s="32"/>
+      <c r="BQ8" s="32"/>
+      <c r="BR8" s="32"/>
+      <c r="BS8" s="32"/>
+      <c r="BT8" s="31"/>
+      <c r="BU8" s="27"/>
+      <c r="BV8" s="27"/>
+      <c r="BW8" s="27"/>
+      <c r="BX8" s="27"/>
+      <c r="BY8" s="27"/>
+      <c r="BZ8" s="27"/>
+      <c r="CA8" s="27"/>
     </row>
     <row r="9" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
@@ -3835,18 +3842,18 @@
       <c r="BM9" s="11"/>
       <c r="BN9" s="11"/>
       <c r="BO9" s="11"/>
-      <c r="BP9" s="37"/>
-      <c r="BQ9" s="37"/>
-      <c r="BR9" s="37"/>
-      <c r="BS9" s="37"/>
-      <c r="BT9" s="36"/>
-      <c r="BU9" s="31"/>
-      <c r="BV9" s="31"/>
-      <c r="BW9" s="31"/>
-      <c r="BX9" s="31"/>
-      <c r="BY9" s="31"/>
-      <c r="BZ9" s="31"/>
-      <c r="CA9" s="31"/>
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="32"/>
+      <c r="BS9" s="32"/>
+      <c r="BT9" s="31"/>
+      <c r="BU9" s="27"/>
+      <c r="BV9" s="27"/>
+      <c r="BW9" s="27"/>
+      <c r="BX9" s="27"/>
+      <c r="BY9" s="27"/>
+      <c r="BZ9" s="27"/>
+      <c r="CA9" s="27"/>
     </row>
     <row r="10" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
@@ -3923,18 +3930,18 @@
       <c r="BM10" s="11"/>
       <c r="BN10" s="11"/>
       <c r="BO10" s="11"/>
-      <c r="BP10" s="37"/>
-      <c r="BQ10" s="37"/>
-      <c r="BR10" s="37"/>
-      <c r="BS10" s="37"/>
-      <c r="BT10" s="36"/>
-      <c r="BU10" s="31"/>
-      <c r="BV10" s="31"/>
-      <c r="BW10" s="31"/>
-      <c r="BX10" s="31"/>
-      <c r="BY10" s="31"/>
-      <c r="BZ10" s="31"/>
-      <c r="CA10" s="31"/>
+      <c r="BP10" s="32"/>
+      <c r="BQ10" s="32"/>
+      <c r="BR10" s="32"/>
+      <c r="BS10" s="32"/>
+      <c r="BT10" s="31"/>
+      <c r="BU10" s="27"/>
+      <c r="BV10" s="27"/>
+      <c r="BW10" s="27"/>
+      <c r="BX10" s="27"/>
+      <c r="BY10" s="27"/>
+      <c r="BZ10" s="27"/>
+      <c r="CA10" s="27"/>
     </row>
     <row r="11" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
@@ -4011,18 +4018,18 @@
       <c r="BM11" s="11"/>
       <c r="BN11" s="11"/>
       <c r="BO11" s="11"/>
-      <c r="BP11" s="37"/>
-      <c r="BQ11" s="37"/>
-      <c r="BR11" s="37"/>
-      <c r="BS11" s="37"/>
-      <c r="BT11" s="36"/>
-      <c r="BU11" s="31"/>
-      <c r="BV11" s="31"/>
-      <c r="BW11" s="31"/>
-      <c r="BX11" s="31"/>
-      <c r="BY11" s="31"/>
-      <c r="BZ11" s="31"/>
-      <c r="CA11" s="31"/>
+      <c r="BP11" s="32"/>
+      <c r="BQ11" s="32"/>
+      <c r="BR11" s="32"/>
+      <c r="BS11" s="32"/>
+      <c r="BT11" s="31"/>
+      <c r="BU11" s="27"/>
+      <c r="BV11" s="27"/>
+      <c r="BW11" s="27"/>
+      <c r="BX11" s="27"/>
+      <c r="BY11" s="27"/>
+      <c r="BZ11" s="27"/>
+      <c r="CA11" s="27"/>
     </row>
     <row r="12" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
@@ -4107,18 +4114,18 @@
       <c r="BM12" s="11"/>
       <c r="BN12" s="11"/>
       <c r="BO12" s="11"/>
-      <c r="BP12" s="37"/>
-      <c r="BQ12" s="37"/>
-      <c r="BR12" s="37"/>
-      <c r="BS12" s="37"/>
-      <c r="BT12" s="36"/>
-      <c r="BU12" s="31"/>
-      <c r="BV12" s="31"/>
-      <c r="BW12" s="31"/>
-      <c r="BX12" s="31"/>
-      <c r="BY12" s="31"/>
-      <c r="BZ12" s="31"/>
-      <c r="CA12" s="31"/>
+      <c r="BP12" s="32"/>
+      <c r="BQ12" s="32"/>
+      <c r="BR12" s="32"/>
+      <c r="BS12" s="32"/>
+      <c r="BT12" s="31"/>
+      <c r="BU12" s="27"/>
+      <c r="BV12" s="27"/>
+      <c r="BW12" s="27"/>
+      <c r="BX12" s="27"/>
+      <c r="BY12" s="27"/>
+      <c r="BZ12" s="27"/>
+      <c r="CA12" s="27"/>
     </row>
     <row r="13" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
@@ -4195,18 +4202,18 @@
       <c r="BM13" s="11"/>
       <c r="BN13" s="11"/>
       <c r="BO13" s="11"/>
-      <c r="BP13" s="37"/>
-      <c r="BQ13" s="37"/>
-      <c r="BR13" s="37"/>
-      <c r="BS13" s="37"/>
-      <c r="BT13" s="36"/>
-      <c r="BU13" s="31"/>
-      <c r="BV13" s="31"/>
-      <c r="BW13" s="31"/>
-      <c r="BX13" s="31"/>
-      <c r="BY13" s="31"/>
-      <c r="BZ13" s="31"/>
-      <c r="CA13" s="31"/>
+      <c r="BP13" s="32"/>
+      <c r="BQ13" s="32"/>
+      <c r="BR13" s="32"/>
+      <c r="BS13" s="32"/>
+      <c r="BT13" s="31"/>
+      <c r="BU13" s="27"/>
+      <c r="BV13" s="27"/>
+      <c r="BW13" s="27"/>
+      <c r="BX13" s="27"/>
+      <c r="BY13" s="27"/>
+      <c r="BZ13" s="27"/>
+      <c r="CA13" s="27"/>
     </row>
     <row r="14" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
@@ -4283,18 +4290,18 @@
       <c r="BM14" s="11"/>
       <c r="BN14" s="11"/>
       <c r="BO14" s="11"/>
-      <c r="BP14" s="37"/>
-      <c r="BQ14" s="37"/>
-      <c r="BR14" s="37"/>
-      <c r="BS14" s="37"/>
-      <c r="BT14" s="36"/>
-      <c r="BU14" s="31"/>
-      <c r="BV14" s="31"/>
-      <c r="BW14" s="31"/>
-      <c r="BX14" s="31"/>
-      <c r="BY14" s="31"/>
-      <c r="BZ14" s="31"/>
-      <c r="CA14" s="31"/>
+      <c r="BP14" s="32"/>
+      <c r="BQ14" s="32"/>
+      <c r="BR14" s="32"/>
+      <c r="BS14" s="32"/>
+      <c r="BT14" s="31"/>
+      <c r="BU14" s="27"/>
+      <c r="BV14" s="27"/>
+      <c r="BW14" s="27"/>
+      <c r="BX14" s="27"/>
+      <c r="BY14" s="27"/>
+      <c r="BZ14" s="27"/>
+      <c r="CA14" s="27"/>
     </row>
     <row r="15" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
@@ -4371,18 +4378,18 @@
       <c r="BM15" s="11"/>
       <c r="BN15" s="11"/>
       <c r="BO15" s="11"/>
-      <c r="BP15" s="37"/>
-      <c r="BQ15" s="37"/>
-      <c r="BR15" s="37"/>
-      <c r="BS15" s="37"/>
-      <c r="BT15" s="36"/>
-      <c r="BU15" s="31"/>
-      <c r="BV15" s="31"/>
-      <c r="BW15" s="31"/>
-      <c r="BX15" s="31"/>
-      <c r="BY15" s="31"/>
-      <c r="BZ15" s="31"/>
-      <c r="CA15" s="31"/>
+      <c r="BP15" s="32"/>
+      <c r="BQ15" s="32"/>
+      <c r="BR15" s="32"/>
+      <c r="BS15" s="32"/>
+      <c r="BT15" s="31"/>
+      <c r="BU15" s="27"/>
+      <c r="BV15" s="27"/>
+      <c r="BW15" s="27"/>
+      <c r="BX15" s="27"/>
+      <c r="BY15" s="27"/>
+      <c r="BZ15" s="27"/>
+      <c r="CA15" s="27"/>
     </row>
     <row r="16" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B16" s="5">
@@ -4459,18 +4466,18 @@
       <c r="BM16" s="11"/>
       <c r="BN16" s="11"/>
       <c r="BO16" s="11"/>
-      <c r="BP16" s="37"/>
-      <c r="BQ16" s="37"/>
-      <c r="BR16" s="37"/>
-      <c r="BS16" s="37"/>
-      <c r="BT16" s="36"/>
-      <c r="BU16" s="31"/>
-      <c r="BV16" s="31"/>
-      <c r="BW16" s="31"/>
-      <c r="BX16" s="31"/>
-      <c r="BY16" s="31"/>
-      <c r="BZ16" s="31"/>
-      <c r="CA16" s="31"/>
+      <c r="BP16" s="32"/>
+      <c r="BQ16" s="32"/>
+      <c r="BR16" s="32"/>
+      <c r="BS16" s="32"/>
+      <c r="BT16" s="31"/>
+      <c r="BU16" s="27"/>
+      <c r="BV16" s="27"/>
+      <c r="BW16" s="27"/>
+      <c r="BX16" s="27"/>
+      <c r="BY16" s="27"/>
+      <c r="BZ16" s="27"/>
+      <c r="CA16" s="27"/>
     </row>
     <row r="17" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
@@ -4553,18 +4560,18 @@
       <c r="BM17" s="11"/>
       <c r="BN17" s="11"/>
       <c r="BO17" s="11"/>
-      <c r="BP17" s="37"/>
-      <c r="BQ17" s="37"/>
-      <c r="BR17" s="37"/>
-      <c r="BS17" s="37"/>
-      <c r="BT17" s="36"/>
-      <c r="BU17" s="31"/>
-      <c r="BV17" s="31"/>
-      <c r="BW17" s="31"/>
-      <c r="BX17" s="31"/>
-      <c r="BY17" s="31"/>
-      <c r="BZ17" s="31"/>
-      <c r="CA17" s="31"/>
+      <c r="BP17" s="32"/>
+      <c r="BQ17" s="32"/>
+      <c r="BR17" s="32"/>
+      <c r="BS17" s="32"/>
+      <c r="BT17" s="31"/>
+      <c r="BU17" s="27"/>
+      <c r="BV17" s="27"/>
+      <c r="BW17" s="27"/>
+      <c r="BX17" s="27"/>
+      <c r="BY17" s="27"/>
+      <c r="BZ17" s="27"/>
+      <c r="CA17" s="27"/>
     </row>
     <row r="18" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B18" s="5">
@@ -4647,18 +4654,18 @@
       <c r="BM18" s="11"/>
       <c r="BN18" s="11"/>
       <c r="BO18" s="11"/>
-      <c r="BP18" s="37"/>
-      <c r="BQ18" s="37"/>
-      <c r="BR18" s="37"/>
-      <c r="BS18" s="37"/>
-      <c r="BT18" s="36"/>
-      <c r="BU18" s="31"/>
-      <c r="BV18" s="31"/>
-      <c r="BW18" s="31"/>
-      <c r="BX18" s="31"/>
-      <c r="BY18" s="31"/>
-      <c r="BZ18" s="31"/>
-      <c r="CA18" s="31"/>
+      <c r="BP18" s="32"/>
+      <c r="BQ18" s="32"/>
+      <c r="BR18" s="32"/>
+      <c r="BS18" s="32"/>
+      <c r="BT18" s="31"/>
+      <c r="BU18" s="27"/>
+      <c r="BV18" s="27"/>
+      <c r="BW18" s="27"/>
+      <c r="BX18" s="27"/>
+      <c r="BY18" s="27"/>
+      <c r="BZ18" s="27"/>
+      <c r="CA18" s="27"/>
     </row>
     <row r="19" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
@@ -4735,18 +4742,18 @@
       <c r="BM19" s="11"/>
       <c r="BN19" s="11"/>
       <c r="BO19" s="11"/>
-      <c r="BP19" s="37"/>
-      <c r="BQ19" s="37"/>
-      <c r="BR19" s="37"/>
-      <c r="BS19" s="37"/>
-      <c r="BT19" s="36"/>
-      <c r="BU19" s="31"/>
-      <c r="BV19" s="31"/>
-      <c r="BW19" s="31"/>
-      <c r="BX19" s="31"/>
-      <c r="BY19" s="31"/>
-      <c r="BZ19" s="31"/>
-      <c r="CA19" s="31"/>
+      <c r="BP19" s="32"/>
+      <c r="BQ19" s="32"/>
+      <c r="BR19" s="32"/>
+      <c r="BS19" s="32"/>
+      <c r="BT19" s="31"/>
+      <c r="BU19" s="27"/>
+      <c r="BV19" s="27"/>
+      <c r="BW19" s="27"/>
+      <c r="BX19" s="27"/>
+      <c r="BY19" s="27"/>
+      <c r="BZ19" s="27"/>
+      <c r="CA19" s="27"/>
     </row>
     <row r="20" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
@@ -4823,18 +4830,18 @@
       <c r="BM20" s="11"/>
       <c r="BN20" s="11"/>
       <c r="BO20" s="11"/>
-      <c r="BP20" s="37"/>
-      <c r="BQ20" s="37"/>
-      <c r="BR20" s="37"/>
-      <c r="BS20" s="37"/>
-      <c r="BT20" s="36"/>
-      <c r="BU20" s="31"/>
-      <c r="BV20" s="31"/>
-      <c r="BW20" s="31"/>
-      <c r="BX20" s="31"/>
-      <c r="BY20" s="31"/>
-      <c r="BZ20" s="31"/>
-      <c r="CA20" s="31"/>
+      <c r="BP20" s="32"/>
+      <c r="BQ20" s="32"/>
+      <c r="BR20" s="32"/>
+      <c r="BS20" s="32"/>
+      <c r="BT20" s="31"/>
+      <c r="BU20" s="27"/>
+      <c r="BV20" s="27"/>
+      <c r="BW20" s="27"/>
+      <c r="BX20" s="27"/>
+      <c r="BY20" s="27"/>
+      <c r="BZ20" s="27"/>
+      <c r="CA20" s="27"/>
     </row>
     <row r="21" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
@@ -4915,18 +4922,18 @@
       <c r="BM21" s="11"/>
       <c r="BN21" s="11"/>
       <c r="BO21" s="11"/>
-      <c r="BP21" s="37"/>
-      <c r="BQ21" s="37"/>
-      <c r="BR21" s="37"/>
-      <c r="BS21" s="37"/>
-      <c r="BT21" s="36"/>
-      <c r="BU21" s="31"/>
-      <c r="BV21" s="31"/>
-      <c r="BW21" s="31"/>
-      <c r="BX21" s="31"/>
-      <c r="BY21" s="31"/>
-      <c r="BZ21" s="31"/>
-      <c r="CA21" s="31"/>
+      <c r="BP21" s="32"/>
+      <c r="BQ21" s="32"/>
+      <c r="BR21" s="32"/>
+      <c r="BS21" s="32"/>
+      <c r="BT21" s="31"/>
+      <c r="BU21" s="27"/>
+      <c r="BV21" s="27"/>
+      <c r="BW21" s="27"/>
+      <c r="BX21" s="27"/>
+      <c r="BY21" s="27"/>
+      <c r="BZ21" s="27"/>
+      <c r="CA21" s="27"/>
     </row>
     <row r="22" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
@@ -5003,18 +5010,18 @@
       <c r="BM22" s="11"/>
       <c r="BN22" s="11"/>
       <c r="BO22" s="11"/>
-      <c r="BP22" s="37"/>
-      <c r="BQ22" s="37"/>
-      <c r="BR22" s="37"/>
-      <c r="BS22" s="37"/>
-      <c r="BT22" s="36"/>
-      <c r="BU22" s="31"/>
-      <c r="BV22" s="31"/>
-      <c r="BW22" s="31"/>
-      <c r="BX22" s="31"/>
-      <c r="BY22" s="31"/>
-      <c r="BZ22" s="31"/>
-      <c r="CA22" s="31"/>
+      <c r="BP22" s="32"/>
+      <c r="BQ22" s="32"/>
+      <c r="BR22" s="32"/>
+      <c r="BS22" s="32"/>
+      <c r="BT22" s="31"/>
+      <c r="BU22" s="27"/>
+      <c r="BV22" s="27"/>
+      <c r="BW22" s="27"/>
+      <c r="BX22" s="27"/>
+      <c r="BY22" s="27"/>
+      <c r="BZ22" s="27"/>
+      <c r="CA22" s="27"/>
     </row>
     <row r="23" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
@@ -5095,18 +5102,18 @@
       <c r="BM23" s="11"/>
       <c r="BN23" s="11"/>
       <c r="BO23" s="11"/>
-      <c r="BP23" s="37"/>
-      <c r="BQ23" s="37"/>
-      <c r="BR23" s="37"/>
-      <c r="BS23" s="37"/>
-      <c r="BT23" s="36"/>
-      <c r="BU23" s="31"/>
-      <c r="BV23" s="31"/>
-      <c r="BW23" s="31"/>
-      <c r="BX23" s="31"/>
-      <c r="BY23" s="31"/>
-      <c r="BZ23" s="31"/>
-      <c r="CA23" s="31"/>
+      <c r="BP23" s="32"/>
+      <c r="BQ23" s="32"/>
+      <c r="BR23" s="32"/>
+      <c r="BS23" s="32"/>
+      <c r="BT23" s="31"/>
+      <c r="BU23" s="27"/>
+      <c r="BV23" s="27"/>
+      <c r="BW23" s="27"/>
+      <c r="BX23" s="27"/>
+      <c r="BY23" s="27"/>
+      <c r="BZ23" s="27"/>
+      <c r="CA23" s="27"/>
     </row>
     <row r="24" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
@@ -5183,18 +5190,18 @@
       <c r="BM24" s="11"/>
       <c r="BN24" s="11"/>
       <c r="BO24" s="11"/>
-      <c r="BP24" s="37"/>
-      <c r="BQ24" s="37"/>
-      <c r="BR24" s="37"/>
-      <c r="BS24" s="37"/>
-      <c r="BT24" s="36"/>
-      <c r="BU24" s="31"/>
-      <c r="BV24" s="31"/>
-      <c r="BW24" s="31"/>
-      <c r="BX24" s="31"/>
-      <c r="BY24" s="31"/>
-      <c r="BZ24" s="31"/>
-      <c r="CA24" s="31"/>
+      <c r="BP24" s="32"/>
+      <c r="BQ24" s="32"/>
+      <c r="BR24" s="32"/>
+      <c r="BS24" s="32"/>
+      <c r="BT24" s="31"/>
+      <c r="BU24" s="27"/>
+      <c r="BV24" s="27"/>
+      <c r="BW24" s="27"/>
+      <c r="BX24" s="27"/>
+      <c r="BY24" s="27"/>
+      <c r="BZ24" s="27"/>
+      <c r="CA24" s="27"/>
     </row>
     <row r="25" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
@@ -5273,18 +5280,18 @@
       <c r="BM25" s="11"/>
       <c r="BN25" s="11"/>
       <c r="BO25" s="11"/>
-      <c r="BP25" s="37"/>
-      <c r="BQ25" s="37"/>
-      <c r="BR25" s="37"/>
-      <c r="BS25" s="37"/>
-      <c r="BT25" s="36"/>
-      <c r="BU25" s="31"/>
-      <c r="BV25" s="31"/>
-      <c r="BW25" s="31"/>
-      <c r="BX25" s="31"/>
-      <c r="BY25" s="31"/>
-      <c r="BZ25" s="31"/>
-      <c r="CA25" s="31"/>
+      <c r="BP25" s="32"/>
+      <c r="BQ25" s="32"/>
+      <c r="BR25" s="32"/>
+      <c r="BS25" s="32"/>
+      <c r="BT25" s="31"/>
+      <c r="BU25" s="27"/>
+      <c r="BV25" s="27"/>
+      <c r="BW25" s="27"/>
+      <c r="BX25" s="27"/>
+      <c r="BY25" s="27"/>
+      <c r="BZ25" s="27"/>
+      <c r="CA25" s="27"/>
     </row>
     <row r="26" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B26" s="5">
@@ -5365,18 +5372,18 @@
       <c r="BM26" s="11"/>
       <c r="BN26" s="11"/>
       <c r="BO26" s="11"/>
-      <c r="BP26" s="37"/>
-      <c r="BQ26" s="37"/>
-      <c r="BR26" s="37"/>
-      <c r="BS26" s="37"/>
-      <c r="BT26" s="36"/>
-      <c r="BU26" s="31"/>
-      <c r="BV26" s="31"/>
-      <c r="BW26" s="31"/>
-      <c r="BX26" s="31"/>
-      <c r="BY26" s="31"/>
-      <c r="BZ26" s="31"/>
-      <c r="CA26" s="31"/>
+      <c r="BP26" s="32"/>
+      <c r="BQ26" s="32"/>
+      <c r="BR26" s="32"/>
+      <c r="BS26" s="32"/>
+      <c r="BT26" s="31"/>
+      <c r="BU26" s="27"/>
+      <c r="BV26" s="27"/>
+      <c r="BW26" s="27"/>
+      <c r="BX26" s="27"/>
+      <c r="BY26" s="27"/>
+      <c r="BZ26" s="27"/>
+      <c r="CA26" s="27"/>
     </row>
     <row r="27" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
@@ -5453,18 +5460,18 @@
       <c r="BM27" s="11"/>
       <c r="BN27" s="11"/>
       <c r="BO27" s="11"/>
-      <c r="BP27" s="37"/>
-      <c r="BQ27" s="37"/>
-      <c r="BR27" s="37"/>
-      <c r="BS27" s="37"/>
-      <c r="BT27" s="36"/>
-      <c r="BU27" s="31"/>
-      <c r="BV27" s="31"/>
-      <c r="BW27" s="31"/>
-      <c r="BX27" s="31"/>
-      <c r="BY27" s="31"/>
-      <c r="BZ27" s="31"/>
-      <c r="CA27" s="31"/>
+      <c r="BP27" s="32"/>
+      <c r="BQ27" s="32"/>
+      <c r="BR27" s="32"/>
+      <c r="BS27" s="32"/>
+      <c r="BT27" s="31"/>
+      <c r="BU27" s="27"/>
+      <c r="BV27" s="27"/>
+      <c r="BW27" s="27"/>
+      <c r="BX27" s="27"/>
+      <c r="BY27" s="27"/>
+      <c r="BZ27" s="27"/>
+      <c r="CA27" s="27"/>
     </row>
     <row r="28" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B28" s="5">
@@ -5541,18 +5548,18 @@
       <c r="BM28" s="11"/>
       <c r="BN28" s="11"/>
       <c r="BO28" s="11"/>
-      <c r="BP28" s="37"/>
-      <c r="BQ28" s="37"/>
-      <c r="BR28" s="37"/>
-      <c r="BS28" s="37"/>
-      <c r="BT28" s="36"/>
-      <c r="BU28" s="31"/>
-      <c r="BV28" s="31"/>
-      <c r="BW28" s="31"/>
-      <c r="BX28" s="31"/>
-      <c r="BY28" s="31"/>
-      <c r="BZ28" s="31"/>
-      <c r="CA28" s="31"/>
+      <c r="BP28" s="32"/>
+      <c r="BQ28" s="32"/>
+      <c r="BR28" s="32"/>
+      <c r="BS28" s="32"/>
+      <c r="BT28" s="31"/>
+      <c r="BU28" s="27"/>
+      <c r="BV28" s="27"/>
+      <c r="BW28" s="27"/>
+      <c r="BX28" s="27"/>
+      <c r="BY28" s="27"/>
+      <c r="BZ28" s="27"/>
+      <c r="CA28" s="27"/>
     </row>
     <row r="29" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
@@ -5629,18 +5636,18 @@
       <c r="BM29" s="11"/>
       <c r="BN29" s="11"/>
       <c r="BO29" s="11"/>
-      <c r="BP29" s="37"/>
-      <c r="BQ29" s="37"/>
-      <c r="BR29" s="37"/>
-      <c r="BS29" s="37"/>
-      <c r="BT29" s="36"/>
-      <c r="BU29" s="31"/>
-      <c r="BV29" s="31"/>
-      <c r="BW29" s="31"/>
-      <c r="BX29" s="31"/>
-      <c r="BY29" s="31"/>
-      <c r="BZ29" s="31"/>
-      <c r="CA29" s="31"/>
+      <c r="BP29" s="32"/>
+      <c r="BQ29" s="32"/>
+      <c r="BR29" s="32"/>
+      <c r="BS29" s="32"/>
+      <c r="BT29" s="31"/>
+      <c r="BU29" s="27"/>
+      <c r="BV29" s="27"/>
+      <c r="BW29" s="27"/>
+      <c r="BX29" s="27"/>
+      <c r="BY29" s="27"/>
+      <c r="BZ29" s="27"/>
+      <c r="CA29" s="27"/>
     </row>
     <row r="30" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B30" s="5">
@@ -5717,18 +5724,18 @@
       <c r="BM30" s="11"/>
       <c r="BN30" s="11"/>
       <c r="BO30" s="11"/>
-      <c r="BP30" s="37"/>
-      <c r="BQ30" s="37"/>
-      <c r="BR30" s="37"/>
-      <c r="BS30" s="37"/>
-      <c r="BT30" s="36"/>
-      <c r="BU30" s="31"/>
-      <c r="BV30" s="31"/>
-      <c r="BW30" s="31"/>
-      <c r="BX30" s="31"/>
-      <c r="BY30" s="31"/>
-      <c r="BZ30" s="31"/>
-      <c r="CA30" s="31"/>
+      <c r="BP30" s="32"/>
+      <c r="BQ30" s="32"/>
+      <c r="BR30" s="32"/>
+      <c r="BS30" s="32"/>
+      <c r="BT30" s="31"/>
+      <c r="BU30" s="27"/>
+      <c r="BV30" s="27"/>
+      <c r="BW30" s="27"/>
+      <c r="BX30" s="27"/>
+      <c r="BY30" s="27"/>
+      <c r="BZ30" s="27"/>
+      <c r="CA30" s="27"/>
     </row>
     <row r="31" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
@@ -5805,18 +5812,18 @@
       <c r="BM31" s="11"/>
       <c r="BN31" s="11"/>
       <c r="BO31" s="11"/>
-      <c r="BP31" s="37"/>
-      <c r="BQ31" s="37"/>
-      <c r="BR31" s="37"/>
-      <c r="BS31" s="37"/>
-      <c r="BT31" s="36"/>
-      <c r="BU31" s="31"/>
-      <c r="BV31" s="31"/>
-      <c r="BW31" s="31"/>
-      <c r="BX31" s="31"/>
-      <c r="BY31" s="31"/>
-      <c r="BZ31" s="31"/>
-      <c r="CA31" s="31"/>
+      <c r="BP31" s="32"/>
+      <c r="BQ31" s="32"/>
+      <c r="BR31" s="32"/>
+      <c r="BS31" s="32"/>
+      <c r="BT31" s="31"/>
+      <c r="BU31" s="27"/>
+      <c r="BV31" s="27"/>
+      <c r="BW31" s="27"/>
+      <c r="BX31" s="27"/>
+      <c r="BY31" s="27"/>
+      <c r="BZ31" s="27"/>
+      <c r="CA31" s="27"/>
     </row>
     <row r="32" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B32" s="5">
@@ -5893,18 +5900,18 @@
       <c r="BM32" s="11"/>
       <c r="BN32" s="11"/>
       <c r="BO32" s="11"/>
-      <c r="BP32" s="37"/>
-      <c r="BQ32" s="37"/>
-      <c r="BR32" s="37"/>
-      <c r="BS32" s="37"/>
-      <c r="BT32" s="36"/>
-      <c r="BU32" s="31"/>
-      <c r="BV32" s="31"/>
-      <c r="BW32" s="31"/>
-      <c r="BX32" s="31"/>
-      <c r="BY32" s="31"/>
-      <c r="BZ32" s="31"/>
-      <c r="CA32" s="31"/>
+      <c r="BP32" s="32"/>
+      <c r="BQ32" s="32"/>
+      <c r="BR32" s="32"/>
+      <c r="BS32" s="32"/>
+      <c r="BT32" s="31"/>
+      <c r="BU32" s="27"/>
+      <c r="BV32" s="27"/>
+      <c r="BW32" s="27"/>
+      <c r="BX32" s="27"/>
+      <c r="BY32" s="27"/>
+      <c r="BZ32" s="27"/>
+      <c r="CA32" s="27"/>
     </row>
     <row r="33" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B33" s="5">
@@ -5989,18 +5996,18 @@
       <c r="BM33" s="11"/>
       <c r="BN33" s="11"/>
       <c r="BO33" s="11"/>
-      <c r="BP33" s="37"/>
-      <c r="BQ33" s="37"/>
-      <c r="BR33" s="37"/>
-      <c r="BS33" s="37"/>
-      <c r="BT33" s="36"/>
-      <c r="BU33" s="31"/>
-      <c r="BV33" s="31"/>
-      <c r="BW33" s="31"/>
-      <c r="BX33" s="31"/>
-      <c r="BY33" s="31"/>
-      <c r="BZ33" s="31"/>
-      <c r="CA33" s="31"/>
+      <c r="BP33" s="32"/>
+      <c r="BQ33" s="32"/>
+      <c r="BR33" s="32"/>
+      <c r="BS33" s="32"/>
+      <c r="BT33" s="31"/>
+      <c r="BU33" s="27"/>
+      <c r="BV33" s="27"/>
+      <c r="BW33" s="27"/>
+      <c r="BX33" s="27"/>
+      <c r="BY33" s="27"/>
+      <c r="BZ33" s="27"/>
+      <c r="CA33" s="27"/>
     </row>
     <row r="34" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B34" s="5">
@@ -6077,18 +6084,18 @@
       <c r="BM34" s="11"/>
       <c r="BN34" s="11"/>
       <c r="BO34" s="11"/>
-      <c r="BP34" s="37"/>
-      <c r="BQ34" s="37"/>
-      <c r="BR34" s="37"/>
-      <c r="BS34" s="37"/>
-      <c r="BT34" s="36"/>
-      <c r="BU34" s="31"/>
-      <c r="BV34" s="31"/>
-      <c r="BW34" s="31"/>
-      <c r="BX34" s="31"/>
-      <c r="BY34" s="31"/>
-      <c r="BZ34" s="31"/>
-      <c r="CA34" s="31"/>
+      <c r="BP34" s="32"/>
+      <c r="BQ34" s="32"/>
+      <c r="BR34" s="32"/>
+      <c r="BS34" s="32"/>
+      <c r="BT34" s="31"/>
+      <c r="BU34" s="27"/>
+      <c r="BV34" s="27"/>
+      <c r="BW34" s="27"/>
+      <c r="BX34" s="27"/>
+      <c r="BY34" s="27"/>
+      <c r="BZ34" s="27"/>
+      <c r="CA34" s="27"/>
     </row>
     <row r="35" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B35" s="5">
@@ -6165,18 +6172,18 @@
       <c r="BM35" s="11"/>
       <c r="BN35" s="11"/>
       <c r="BO35" s="11"/>
-      <c r="BP35" s="37"/>
-      <c r="BQ35" s="37"/>
-      <c r="BR35" s="37"/>
-      <c r="BS35" s="37"/>
-      <c r="BT35" s="36"/>
-      <c r="BU35" s="31"/>
-      <c r="BV35" s="31"/>
-      <c r="BW35" s="31"/>
-      <c r="BX35" s="31"/>
-      <c r="BY35" s="31"/>
-      <c r="BZ35" s="31"/>
-      <c r="CA35" s="31"/>
+      <c r="BP35" s="32"/>
+      <c r="BQ35" s="32"/>
+      <c r="BR35" s="32"/>
+      <c r="BS35" s="32"/>
+      <c r="BT35" s="31"/>
+      <c r="BU35" s="27"/>
+      <c r="BV35" s="27"/>
+      <c r="BW35" s="27"/>
+      <c r="BX35" s="27"/>
+      <c r="BY35" s="27"/>
+      <c r="BZ35" s="27"/>
+      <c r="CA35" s="27"/>
     </row>
     <row r="36" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B36" s="5">
@@ -6253,18 +6260,18 @@
       <c r="BM36" s="11"/>
       <c r="BN36" s="11"/>
       <c r="BO36" s="11"/>
-      <c r="BP36" s="37"/>
-      <c r="BQ36" s="37"/>
-      <c r="BR36" s="37"/>
-      <c r="BS36" s="37"/>
-      <c r="BT36" s="36"/>
-      <c r="BU36" s="31"/>
-      <c r="BV36" s="31"/>
-      <c r="BW36" s="31"/>
-      <c r="BX36" s="31"/>
-      <c r="BY36" s="31"/>
-      <c r="BZ36" s="31"/>
-      <c r="CA36" s="31"/>
+      <c r="BP36" s="32"/>
+      <c r="BQ36" s="32"/>
+      <c r="BR36" s="32"/>
+      <c r="BS36" s="32"/>
+      <c r="BT36" s="31"/>
+      <c r="BU36" s="27"/>
+      <c r="BV36" s="27"/>
+      <c r="BW36" s="27"/>
+      <c r="BX36" s="27"/>
+      <c r="BY36" s="27"/>
+      <c r="BZ36" s="27"/>
+      <c r="CA36" s="27"/>
     </row>
     <row r="37" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
@@ -6343,18 +6350,18 @@
       <c r="BM37" s="11"/>
       <c r="BN37" s="11"/>
       <c r="BO37" s="11"/>
-      <c r="BP37" s="37"/>
-      <c r="BQ37" s="37"/>
-      <c r="BR37" s="37"/>
-      <c r="BS37" s="37"/>
-      <c r="BT37" s="36"/>
-      <c r="BU37" s="31"/>
-      <c r="BV37" s="31"/>
-      <c r="BW37" s="31"/>
-      <c r="BX37" s="31"/>
-      <c r="BY37" s="31"/>
-      <c r="BZ37" s="31"/>
-      <c r="CA37" s="31"/>
+      <c r="BP37" s="32"/>
+      <c r="BQ37" s="32"/>
+      <c r="BR37" s="32"/>
+      <c r="BS37" s="32"/>
+      <c r="BT37" s="31"/>
+      <c r="BU37" s="27"/>
+      <c r="BV37" s="27"/>
+      <c r="BW37" s="27"/>
+      <c r="BX37" s="27"/>
+      <c r="BY37" s="27"/>
+      <c r="BZ37" s="27"/>
+      <c r="CA37" s="27"/>
     </row>
     <row r="38" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B38" s="5">
@@ -6438,17 +6445,17 @@
       <c r="BN38" s="16"/>
       <c r="BO38" s="16"/>
       <c r="BP38" s="16"/>
-      <c r="BQ38" s="37"/>
-      <c r="BR38" s="37"/>
-      <c r="BS38" s="37"/>
-      <c r="BT38" s="36"/>
-      <c r="BU38" s="31"/>
-      <c r="BV38" s="31"/>
-      <c r="BW38" s="31"/>
-      <c r="BX38" s="31"/>
-      <c r="BY38" s="31"/>
-      <c r="BZ38" s="31"/>
-      <c r="CA38" s="31"/>
+      <c r="BQ38" s="32"/>
+      <c r="BR38" s="32"/>
+      <c r="BS38" s="32"/>
+      <c r="BT38" s="31"/>
+      <c r="BU38" s="27"/>
+      <c r="BV38" s="27"/>
+      <c r="BW38" s="27"/>
+      <c r="BX38" s="27"/>
+      <c r="BY38" s="27"/>
+      <c r="BZ38" s="27"/>
+      <c r="CA38" s="27"/>
     </row>
     <row r="39" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B39" s="5">
@@ -6527,18 +6534,18 @@
       <c r="BM39" s="11"/>
       <c r="BN39" s="11"/>
       <c r="BO39" s="11"/>
-      <c r="BP39" s="37"/>
-      <c r="BQ39" s="37"/>
-      <c r="BR39" s="37"/>
-      <c r="BS39" s="37"/>
-      <c r="BT39" s="36"/>
-      <c r="BU39" s="31"/>
-      <c r="BV39" s="31"/>
-      <c r="BW39" s="31"/>
-      <c r="BX39" s="31"/>
-      <c r="BY39" s="31"/>
-      <c r="BZ39" s="31"/>
-      <c r="CA39" s="31"/>
+      <c r="BP39" s="32"/>
+      <c r="BQ39" s="32"/>
+      <c r="BR39" s="32"/>
+      <c r="BS39" s="32"/>
+      <c r="BT39" s="31"/>
+      <c r="BU39" s="27"/>
+      <c r="BV39" s="27"/>
+      <c r="BW39" s="27"/>
+      <c r="BX39" s="27"/>
+      <c r="BY39" s="27"/>
+      <c r="BZ39" s="27"/>
+      <c r="CA39" s="27"/>
     </row>
     <row r="40" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B40" s="5">
@@ -6615,18 +6622,18 @@
       <c r="BM40" s="11"/>
       <c r="BN40" s="11"/>
       <c r="BO40" s="11"/>
-      <c r="BP40" s="37"/>
-      <c r="BQ40" s="37"/>
-      <c r="BR40" s="37"/>
-      <c r="BS40" s="37"/>
-      <c r="BT40" s="36"/>
-      <c r="BU40" s="31"/>
-      <c r="BV40" s="31"/>
-      <c r="BW40" s="31"/>
-      <c r="BX40" s="31"/>
-      <c r="BY40" s="31"/>
-      <c r="BZ40" s="31"/>
-      <c r="CA40" s="31"/>
+      <c r="BP40" s="32"/>
+      <c r="BQ40" s="32"/>
+      <c r="BR40" s="32"/>
+      <c r="BS40" s="32"/>
+      <c r="BT40" s="31"/>
+      <c r="BU40" s="27"/>
+      <c r="BV40" s="27"/>
+      <c r="BW40" s="27"/>
+      <c r="BX40" s="27"/>
+      <c r="BY40" s="27"/>
+      <c r="BZ40" s="27"/>
+      <c r="CA40" s="27"/>
     </row>
     <row r="41" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B41" s="5">
@@ -6703,18 +6710,18 @@
       <c r="BM41" s="11"/>
       <c r="BN41" s="11"/>
       <c r="BO41" s="11"/>
-      <c r="BP41" s="37"/>
-      <c r="BQ41" s="37"/>
-      <c r="BR41" s="37"/>
-      <c r="BS41" s="37"/>
-      <c r="BT41" s="36"/>
-      <c r="BU41" s="31"/>
-      <c r="BV41" s="31"/>
-      <c r="BW41" s="31"/>
-      <c r="BX41" s="31"/>
-      <c r="BY41" s="31"/>
-      <c r="BZ41" s="31"/>
-      <c r="CA41" s="31"/>
+      <c r="BP41" s="32"/>
+      <c r="BQ41" s="32"/>
+      <c r="BR41" s="32"/>
+      <c r="BS41" s="32"/>
+      <c r="BT41" s="31"/>
+      <c r="BU41" s="27"/>
+      <c r="BV41" s="27"/>
+      <c r="BW41" s="27"/>
+      <c r="BX41" s="27"/>
+      <c r="BY41" s="27"/>
+      <c r="BZ41" s="27"/>
+      <c r="CA41" s="27"/>
     </row>
     <row r="42" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B42" s="5">
@@ -6791,18 +6798,18 @@
       <c r="BM42" s="11"/>
       <c r="BN42" s="11"/>
       <c r="BO42" s="11"/>
-      <c r="BP42" s="37"/>
-      <c r="BQ42" s="37"/>
-      <c r="BR42" s="37"/>
-      <c r="BS42" s="37"/>
-      <c r="BT42" s="36"/>
-      <c r="BU42" s="31"/>
-      <c r="BV42" s="31"/>
-      <c r="BW42" s="31"/>
-      <c r="BX42" s="31"/>
-      <c r="BY42" s="31"/>
-      <c r="BZ42" s="31"/>
-      <c r="CA42" s="31"/>
+      <c r="BP42" s="32"/>
+      <c r="BQ42" s="32"/>
+      <c r="BR42" s="32"/>
+      <c r="BS42" s="32"/>
+      <c r="BT42" s="31"/>
+      <c r="BU42" s="27"/>
+      <c r="BV42" s="27"/>
+      <c r="BW42" s="27"/>
+      <c r="BX42" s="27"/>
+      <c r="BY42" s="27"/>
+      <c r="BZ42" s="27"/>
+      <c r="CA42" s="27"/>
     </row>
     <row r="43" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
@@ -6873,18 +6880,18 @@
       <c r="BM43" s="11"/>
       <c r="BN43" s="11"/>
       <c r="BO43" s="11"/>
-      <c r="BP43" s="37"/>
-      <c r="BQ43" s="37"/>
-      <c r="BR43" s="37"/>
-      <c r="BS43" s="37"/>
-      <c r="BT43" s="36"/>
-      <c r="BU43" s="31"/>
-      <c r="BV43" s="31"/>
-      <c r="BW43" s="31"/>
-      <c r="BX43" s="31"/>
-      <c r="BY43" s="31"/>
-      <c r="BZ43" s="31"/>
-      <c r="CA43" s="31"/>
+      <c r="BP43" s="32"/>
+      <c r="BQ43" s="32"/>
+      <c r="BR43" s="32"/>
+      <c r="BS43" s="32"/>
+      <c r="BT43" s="31"/>
+      <c r="BU43" s="27"/>
+      <c r="BV43" s="27"/>
+      <c r="BW43" s="27"/>
+      <c r="BX43" s="27"/>
+      <c r="BY43" s="27"/>
+      <c r="BZ43" s="27"/>
+      <c r="CA43" s="27"/>
     </row>
     <row r="44" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B44" s="5">
@@ -6957,18 +6964,18 @@
       <c r="BM44" s="11"/>
       <c r="BN44" s="11"/>
       <c r="BO44" s="11"/>
-      <c r="BP44" s="37"/>
-      <c r="BQ44" s="37"/>
-      <c r="BR44" s="37"/>
-      <c r="BS44" s="37"/>
-      <c r="BT44" s="36"/>
-      <c r="BU44" s="31"/>
-      <c r="BV44" s="31"/>
-      <c r="BW44" s="31"/>
-      <c r="BX44" s="31"/>
-      <c r="BY44" s="31"/>
-      <c r="BZ44" s="31"/>
-      <c r="CA44" s="31"/>
+      <c r="BP44" s="32"/>
+      <c r="BQ44" s="32"/>
+      <c r="BR44" s="32"/>
+      <c r="BS44" s="32"/>
+      <c r="BT44" s="31"/>
+      <c r="BU44" s="27"/>
+      <c r="BV44" s="27"/>
+      <c r="BW44" s="27"/>
+      <c r="BX44" s="27"/>
+      <c r="BY44" s="27"/>
+      <c r="BZ44" s="27"/>
+      <c r="CA44" s="27"/>
     </row>
     <row r="45" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B45" s="5">
@@ -7041,18 +7048,18 @@
       <c r="BM45" s="11"/>
       <c r="BN45" s="11"/>
       <c r="BO45" s="11"/>
-      <c r="BP45" s="37"/>
-      <c r="BQ45" s="37"/>
-      <c r="BR45" s="37"/>
-      <c r="BS45" s="37"/>
-      <c r="BT45" s="36"/>
-      <c r="BU45" s="31"/>
-      <c r="BV45" s="31"/>
-      <c r="BW45" s="31"/>
-      <c r="BX45" s="31"/>
-      <c r="BY45" s="31"/>
-      <c r="BZ45" s="31"/>
-      <c r="CA45" s="31"/>
+      <c r="BP45" s="32"/>
+      <c r="BQ45" s="32"/>
+      <c r="BR45" s="32"/>
+      <c r="BS45" s="32"/>
+      <c r="BT45" s="31"/>
+      <c r="BU45" s="27"/>
+      <c r="BV45" s="27"/>
+      <c r="BW45" s="27"/>
+      <c r="BX45" s="27"/>
+      <c r="BY45" s="27"/>
+      <c r="BZ45" s="27"/>
+      <c r="CA45" s="27"/>
     </row>
     <row r="46" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B46" s="5">
@@ -7125,18 +7132,18 @@
       <c r="BM46" s="11"/>
       <c r="BN46" s="11"/>
       <c r="BO46" s="11"/>
-      <c r="BP46" s="37"/>
-      <c r="BQ46" s="37"/>
-      <c r="BR46" s="37"/>
-      <c r="BS46" s="37"/>
-      <c r="BT46" s="36"/>
-      <c r="BU46" s="31"/>
-      <c r="BV46" s="31"/>
-      <c r="BW46" s="31"/>
-      <c r="BX46" s="31"/>
-      <c r="BY46" s="31"/>
-      <c r="BZ46" s="31"/>
-      <c r="CA46" s="31"/>
+      <c r="BP46" s="32"/>
+      <c r="BQ46" s="32"/>
+      <c r="BR46" s="32"/>
+      <c r="BS46" s="32"/>
+      <c r="BT46" s="31"/>
+      <c r="BU46" s="27"/>
+      <c r="BV46" s="27"/>
+      <c r="BW46" s="27"/>
+      <c r="BX46" s="27"/>
+      <c r="BY46" s="27"/>
+      <c r="BZ46" s="27"/>
+      <c r="CA46" s="27"/>
     </row>
     <row r="47" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B47" s="5">
@@ -7207,18 +7214,18 @@
       <c r="BM47" s="11"/>
       <c r="BN47" s="11"/>
       <c r="BO47" s="11"/>
-      <c r="BP47" s="37"/>
-      <c r="BQ47" s="37"/>
-      <c r="BR47" s="37"/>
-      <c r="BS47" s="37"/>
-      <c r="BT47" s="36"/>
-      <c r="BU47" s="31"/>
-      <c r="BV47" s="31"/>
-      <c r="BW47" s="31"/>
-      <c r="BX47" s="31"/>
-      <c r="BY47" s="31"/>
-      <c r="BZ47" s="31"/>
-      <c r="CA47" s="31"/>
+      <c r="BP47" s="32"/>
+      <c r="BQ47" s="32"/>
+      <c r="BR47" s="32"/>
+      <c r="BS47" s="32"/>
+      <c r="BT47" s="31"/>
+      <c r="BU47" s="27"/>
+      <c r="BV47" s="27"/>
+      <c r="BW47" s="27"/>
+      <c r="BX47" s="27"/>
+      <c r="BY47" s="27"/>
+      <c r="BZ47" s="27"/>
+      <c r="CA47" s="27"/>
     </row>
     <row r="48" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B48" s="5">
@@ -7289,18 +7296,18 @@
       <c r="BM48" s="11"/>
       <c r="BN48" s="11"/>
       <c r="BO48" s="11"/>
-      <c r="BP48" s="37"/>
-      <c r="BQ48" s="37"/>
-      <c r="BR48" s="37"/>
-      <c r="BS48" s="37"/>
-      <c r="BT48" s="36"/>
-      <c r="BU48" s="31"/>
-      <c r="BV48" s="31"/>
-      <c r="BW48" s="31"/>
-      <c r="BX48" s="31"/>
-      <c r="BY48" s="31"/>
-      <c r="BZ48" s="31"/>
-      <c r="CA48" s="31"/>
+      <c r="BP48" s="32"/>
+      <c r="BQ48" s="32"/>
+      <c r="BR48" s="32"/>
+      <c r="BS48" s="32"/>
+      <c r="BT48" s="31"/>
+      <c r="BU48" s="27"/>
+      <c r="BV48" s="27"/>
+      <c r="BW48" s="27"/>
+      <c r="BX48" s="27"/>
+      <c r="BY48" s="27"/>
+      <c r="BZ48" s="27"/>
+      <c r="CA48" s="27"/>
     </row>
     <row r="49" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B49" s="5">
@@ -7371,18 +7378,18 @@
       <c r="BM49" s="11"/>
       <c r="BN49" s="11"/>
       <c r="BO49" s="11"/>
-      <c r="BP49" s="37"/>
-      <c r="BQ49" s="37"/>
-      <c r="BR49" s="37"/>
-      <c r="BS49" s="37"/>
-      <c r="BT49" s="36"/>
-      <c r="BU49" s="31"/>
-      <c r="BV49" s="31"/>
-      <c r="BW49" s="31"/>
-      <c r="BX49" s="31"/>
-      <c r="BY49" s="31"/>
-      <c r="BZ49" s="31"/>
-      <c r="CA49" s="31"/>
+      <c r="BP49" s="32"/>
+      <c r="BQ49" s="32"/>
+      <c r="BR49" s="32"/>
+      <c r="BS49" s="32"/>
+      <c r="BT49" s="31"/>
+      <c r="BU49" s="27"/>
+      <c r="BV49" s="27"/>
+      <c r="BW49" s="27"/>
+      <c r="BX49" s="27"/>
+      <c r="BY49" s="27"/>
+      <c r="BZ49" s="27"/>
+      <c r="CA49" s="27"/>
     </row>
     <row r="50" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B50" s="5">
@@ -7453,18 +7460,18 @@
       <c r="BM50" s="11"/>
       <c r="BN50" s="11"/>
       <c r="BO50" s="11"/>
-      <c r="BP50" s="37"/>
-      <c r="BQ50" s="37"/>
-      <c r="BR50" s="37"/>
-      <c r="BS50" s="37"/>
-      <c r="BT50" s="36"/>
-      <c r="BU50" s="31"/>
-      <c r="BV50" s="31"/>
-      <c r="BW50" s="31"/>
-      <c r="BX50" s="31"/>
-      <c r="BY50" s="31"/>
-      <c r="BZ50" s="31"/>
-      <c r="CA50" s="31"/>
+      <c r="BP50" s="32"/>
+      <c r="BQ50" s="32"/>
+      <c r="BR50" s="32"/>
+      <c r="BS50" s="32"/>
+      <c r="BT50" s="31"/>
+      <c r="BU50" s="27"/>
+      <c r="BV50" s="27"/>
+      <c r="BW50" s="27"/>
+      <c r="BX50" s="27"/>
+      <c r="BY50" s="27"/>
+      <c r="BZ50" s="27"/>
+      <c r="CA50" s="27"/>
     </row>
     <row r="51" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B51" s="5">
@@ -7535,18 +7542,18 @@
       <c r="BM51" s="11"/>
       <c r="BN51" s="11"/>
       <c r="BO51" s="11"/>
-      <c r="BP51" s="37"/>
-      <c r="BQ51" s="37"/>
-      <c r="BR51" s="37"/>
-      <c r="BS51" s="37"/>
-      <c r="BT51" s="36"/>
-      <c r="BU51" s="31"/>
-      <c r="BV51" s="31"/>
-      <c r="BW51" s="31"/>
-      <c r="BX51" s="31"/>
-      <c r="BY51" s="31"/>
-      <c r="BZ51" s="31"/>
-      <c r="CA51" s="31"/>
+      <c r="BP51" s="32"/>
+      <c r="BQ51" s="32"/>
+      <c r="BR51" s="32"/>
+      <c r="BS51" s="32"/>
+      <c r="BT51" s="31"/>
+      <c r="BU51" s="27"/>
+      <c r="BV51" s="27"/>
+      <c r="BW51" s="27"/>
+      <c r="BX51" s="27"/>
+      <c r="BY51" s="27"/>
+      <c r="BZ51" s="27"/>
+      <c r="CA51" s="27"/>
     </row>
     <row r="52" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B52" s="5">
@@ -7617,18 +7624,18 @@
       <c r="BM52" s="11"/>
       <c r="BN52" s="11"/>
       <c r="BO52" s="11"/>
-      <c r="BP52" s="37"/>
-      <c r="BQ52" s="37"/>
-      <c r="BR52" s="37"/>
-      <c r="BS52" s="37"/>
-      <c r="BT52" s="36"/>
-      <c r="BU52" s="31"/>
-      <c r="BV52" s="31"/>
-      <c r="BW52" s="31"/>
-      <c r="BX52" s="31"/>
-      <c r="BY52" s="31"/>
-      <c r="BZ52" s="31"/>
-      <c r="CA52" s="31"/>
+      <c r="BP52" s="32"/>
+      <c r="BQ52" s="32"/>
+      <c r="BR52" s="32"/>
+      <c r="BS52" s="32"/>
+      <c r="BT52" s="31"/>
+      <c r="BU52" s="27"/>
+      <c r="BV52" s="27"/>
+      <c r="BW52" s="27"/>
+      <c r="BX52" s="27"/>
+      <c r="BY52" s="27"/>
+      <c r="BZ52" s="27"/>
+      <c r="CA52" s="27"/>
     </row>
     <row r="53" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B53" s="5">
@@ -7699,18 +7706,18 @@
       <c r="BM53" s="11"/>
       <c r="BN53" s="11"/>
       <c r="BO53" s="11"/>
-      <c r="BP53" s="37"/>
-      <c r="BQ53" s="37"/>
-      <c r="BR53" s="37"/>
-      <c r="BS53" s="37"/>
-      <c r="BT53" s="36"/>
-      <c r="BU53" s="31"/>
-      <c r="BV53" s="31"/>
-      <c r="BW53" s="31"/>
-      <c r="BX53" s="31"/>
-      <c r="BY53" s="31"/>
-      <c r="BZ53" s="31"/>
-      <c r="CA53" s="31"/>
+      <c r="BP53" s="32"/>
+      <c r="BQ53" s="32"/>
+      <c r="BR53" s="32"/>
+      <c r="BS53" s="32"/>
+      <c r="BT53" s="31"/>
+      <c r="BU53" s="27"/>
+      <c r="BV53" s="27"/>
+      <c r="BW53" s="27"/>
+      <c r="BX53" s="27"/>
+      <c r="BY53" s="27"/>
+      <c r="BZ53" s="27"/>
+      <c r="CA53" s="27"/>
     </row>
     <row r="54" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B54" s="5">
@@ -7781,18 +7788,18 @@
       <c r="BM54" s="11"/>
       <c r="BN54" s="11"/>
       <c r="BO54" s="11"/>
-      <c r="BP54" s="37"/>
-      <c r="BQ54" s="37"/>
-      <c r="BR54" s="37"/>
-      <c r="BS54" s="37"/>
-      <c r="BT54" s="36"/>
-      <c r="BU54" s="31"/>
-      <c r="BV54" s="31"/>
-      <c r="BW54" s="31"/>
-      <c r="BX54" s="31"/>
-      <c r="BY54" s="31"/>
-      <c r="BZ54" s="31"/>
-      <c r="CA54" s="31"/>
+      <c r="BP54" s="32"/>
+      <c r="BQ54" s="32"/>
+      <c r="BR54" s="32"/>
+      <c r="BS54" s="32"/>
+      <c r="BT54" s="31"/>
+      <c r="BU54" s="27"/>
+      <c r="BV54" s="27"/>
+      <c r="BW54" s="27"/>
+      <c r="BX54" s="27"/>
+      <c r="BY54" s="27"/>
+      <c r="BZ54" s="27"/>
+      <c r="CA54" s="27"/>
     </row>
     <row r="55" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B55" s="5">
@@ -7863,18 +7870,18 @@
       <c r="BM55" s="11"/>
       <c r="BN55" s="11"/>
       <c r="BO55" s="11"/>
-      <c r="BP55" s="37"/>
-      <c r="BQ55" s="37"/>
-      <c r="BR55" s="37"/>
-      <c r="BS55" s="37"/>
-      <c r="BT55" s="36"/>
-      <c r="BU55" s="31"/>
-      <c r="BV55" s="31"/>
-      <c r="BW55" s="31"/>
-      <c r="BX55" s="31"/>
-      <c r="BY55" s="31"/>
-      <c r="BZ55" s="31"/>
-      <c r="CA55" s="31"/>
+      <c r="BP55" s="32"/>
+      <c r="BQ55" s="32"/>
+      <c r="BR55" s="32"/>
+      <c r="BS55" s="32"/>
+      <c r="BT55" s="31"/>
+      <c r="BU55" s="27"/>
+      <c r="BV55" s="27"/>
+      <c r="BW55" s="27"/>
+      <c r="BX55" s="27"/>
+      <c r="BY55" s="27"/>
+      <c r="BZ55" s="27"/>
+      <c r="CA55" s="27"/>
     </row>
     <row r="56" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B56" s="5">
@@ -7945,18 +7952,18 @@
       <c r="BM56" s="11"/>
       <c r="BN56" s="11"/>
       <c r="BO56" s="11"/>
-      <c r="BP56" s="37"/>
-      <c r="BQ56" s="37"/>
-      <c r="BR56" s="37"/>
-      <c r="BS56" s="37"/>
-      <c r="BT56" s="36"/>
-      <c r="BU56" s="31"/>
-      <c r="BV56" s="31"/>
-      <c r="BW56" s="31"/>
-      <c r="BX56" s="31"/>
-      <c r="BY56" s="31"/>
-      <c r="BZ56" s="31"/>
-      <c r="CA56" s="31"/>
+      <c r="BP56" s="32"/>
+      <c r="BQ56" s="32"/>
+      <c r="BR56" s="32"/>
+      <c r="BS56" s="32"/>
+      <c r="BT56" s="31"/>
+      <c r="BU56" s="27"/>
+      <c r="BV56" s="27"/>
+      <c r="BW56" s="27"/>
+      <c r="BX56" s="27"/>
+      <c r="BY56" s="27"/>
+      <c r="BZ56" s="27"/>
+      <c r="CA56" s="27"/>
     </row>
     <row r="57" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B57" s="5">
@@ -8027,18 +8034,18 @@
       <c r="BM57" s="11"/>
       <c r="BN57" s="11"/>
       <c r="BO57" s="11"/>
-      <c r="BP57" s="37"/>
-      <c r="BQ57" s="37"/>
-      <c r="BR57" s="37"/>
-      <c r="BS57" s="37"/>
-      <c r="BT57" s="36"/>
-      <c r="BU57" s="31"/>
-      <c r="BV57" s="31"/>
-      <c r="BW57" s="31"/>
-      <c r="BX57" s="31"/>
-      <c r="BY57" s="31"/>
-      <c r="BZ57" s="31"/>
-      <c r="CA57" s="31"/>
+      <c r="BP57" s="32"/>
+      <c r="BQ57" s="32"/>
+      <c r="BR57" s="32"/>
+      <c r="BS57" s="32"/>
+      <c r="BT57" s="31"/>
+      <c r="BU57" s="27"/>
+      <c r="BV57" s="27"/>
+      <c r="BW57" s="27"/>
+      <c r="BX57" s="27"/>
+      <c r="BY57" s="27"/>
+      <c r="BZ57" s="27"/>
+      <c r="CA57" s="27"/>
     </row>
     <row r="58" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B58" s="5">
@@ -8109,18 +8116,18 @@
       <c r="BM58" s="11"/>
       <c r="BN58" s="11"/>
       <c r="BO58" s="11"/>
-      <c r="BP58" s="37"/>
-      <c r="BQ58" s="37"/>
-      <c r="BR58" s="37"/>
-      <c r="BS58" s="37"/>
-      <c r="BT58" s="36"/>
-      <c r="BU58" s="31"/>
-      <c r="BV58" s="31"/>
-      <c r="BW58" s="31"/>
-      <c r="BX58" s="31"/>
-      <c r="BY58" s="31"/>
-      <c r="BZ58" s="31"/>
-      <c r="CA58" s="31"/>
+      <c r="BP58" s="32"/>
+      <c r="BQ58" s="32"/>
+      <c r="BR58" s="32"/>
+      <c r="BS58" s="32"/>
+      <c r="BT58" s="31"/>
+      <c r="BU58" s="27"/>
+      <c r="BV58" s="27"/>
+      <c r="BW58" s="27"/>
+      <c r="BX58" s="27"/>
+      <c r="BY58" s="27"/>
+      <c r="BZ58" s="27"/>
+      <c r="CA58" s="27"/>
     </row>
     <row r="59" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B59" s="5">
@@ -8191,18 +8198,18 @@
       <c r="BM59" s="11"/>
       <c r="BN59" s="11"/>
       <c r="BO59" s="11"/>
-      <c r="BP59" s="37"/>
-      <c r="BQ59" s="37"/>
-      <c r="BR59" s="37"/>
-      <c r="BS59" s="37"/>
-      <c r="BT59" s="36"/>
-      <c r="BU59" s="31"/>
-      <c r="BV59" s="31"/>
-      <c r="BW59" s="31"/>
-      <c r="BX59" s="31"/>
-      <c r="BY59" s="31"/>
-      <c r="BZ59" s="31"/>
-      <c r="CA59" s="31"/>
+      <c r="BP59" s="32"/>
+      <c r="BQ59" s="32"/>
+      <c r="BR59" s="32"/>
+      <c r="BS59" s="32"/>
+      <c r="BT59" s="31"/>
+      <c r="BU59" s="27"/>
+      <c r="BV59" s="27"/>
+      <c r="BW59" s="27"/>
+      <c r="BX59" s="27"/>
+      <c r="BY59" s="27"/>
+      <c r="BZ59" s="27"/>
+      <c r="CA59" s="27"/>
     </row>
     <row r="60" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B60" s="5">
@@ -8273,18 +8280,18 @@
       <c r="BM60" s="11"/>
       <c r="BN60" s="11"/>
       <c r="BO60" s="11"/>
-      <c r="BP60" s="37"/>
-      <c r="BQ60" s="37"/>
-      <c r="BR60" s="37"/>
-      <c r="BS60" s="37"/>
-      <c r="BT60" s="36"/>
-      <c r="BU60" s="31"/>
-      <c r="BV60" s="31"/>
-      <c r="BW60" s="31"/>
-      <c r="BX60" s="31"/>
-      <c r="BY60" s="31"/>
-      <c r="BZ60" s="31"/>
-      <c r="CA60" s="31"/>
+      <c r="BP60" s="32"/>
+      <c r="BQ60" s="32"/>
+      <c r="BR60" s="32"/>
+      <c r="BS60" s="32"/>
+      <c r="BT60" s="31"/>
+      <c r="BU60" s="27"/>
+      <c r="BV60" s="27"/>
+      <c r="BW60" s="27"/>
+      <c r="BX60" s="27"/>
+      <c r="BY60" s="27"/>
+      <c r="BZ60" s="27"/>
+      <c r="CA60" s="27"/>
     </row>
     <row r="61" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B61" s="5">
@@ -8355,18 +8362,18 @@
       <c r="BM61" s="11"/>
       <c r="BN61" s="11"/>
       <c r="BO61" s="11"/>
-      <c r="BP61" s="37"/>
-      <c r="BQ61" s="37"/>
-      <c r="BR61" s="37"/>
-      <c r="BS61" s="37"/>
-      <c r="BT61" s="36"/>
-      <c r="BU61" s="31"/>
-      <c r="BV61" s="31"/>
-      <c r="BW61" s="31"/>
-      <c r="BX61" s="31"/>
-      <c r="BY61" s="31"/>
-      <c r="BZ61" s="31"/>
-      <c r="CA61" s="31"/>
+      <c r="BP61" s="32"/>
+      <c r="BQ61" s="32"/>
+      <c r="BR61" s="32"/>
+      <c r="BS61" s="32"/>
+      <c r="BT61" s="31"/>
+      <c r="BU61" s="27"/>
+      <c r="BV61" s="27"/>
+      <c r="BW61" s="27"/>
+      <c r="BX61" s="27"/>
+      <c r="BY61" s="27"/>
+      <c r="BZ61" s="27"/>
+      <c r="CA61" s="27"/>
     </row>
     <row r="62" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B62" s="5">
@@ -8437,18 +8444,18 @@
       <c r="BM62" s="11"/>
       <c r="BN62" s="11"/>
       <c r="BO62" s="11"/>
-      <c r="BP62" s="37"/>
-      <c r="BQ62" s="37"/>
-      <c r="BR62" s="37"/>
-      <c r="BS62" s="37"/>
-      <c r="BT62" s="36"/>
-      <c r="BU62" s="31"/>
-      <c r="BV62" s="31"/>
-      <c r="BW62" s="31"/>
-      <c r="BX62" s="31"/>
-      <c r="BY62" s="31"/>
-      <c r="BZ62" s="31"/>
-      <c r="CA62" s="31"/>
+      <c r="BP62" s="32"/>
+      <c r="BQ62" s="32"/>
+      <c r="BR62" s="32"/>
+      <c r="BS62" s="32"/>
+      <c r="BT62" s="31"/>
+      <c r="BU62" s="27"/>
+      <c r="BV62" s="27"/>
+      <c r="BW62" s="27"/>
+      <c r="BX62" s="27"/>
+      <c r="BY62" s="27"/>
+      <c r="BZ62" s="27"/>
+      <c r="CA62" s="27"/>
     </row>
     <row r="63" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B63" s="5">
@@ -8519,18 +8526,18 @@
       <c r="BM63" s="11"/>
       <c r="BN63" s="11"/>
       <c r="BO63" s="11"/>
-      <c r="BP63" s="37"/>
-      <c r="BQ63" s="37"/>
-      <c r="BR63" s="37"/>
-      <c r="BS63" s="37"/>
-      <c r="BT63" s="36"/>
-      <c r="BU63" s="31"/>
-      <c r="BV63" s="31"/>
-      <c r="BW63" s="31"/>
-      <c r="BX63" s="31"/>
-      <c r="BY63" s="31"/>
-      <c r="BZ63" s="31"/>
-      <c r="CA63" s="31"/>
+      <c r="BP63" s="32"/>
+      <c r="BQ63" s="32"/>
+      <c r="BR63" s="32"/>
+      <c r="BS63" s="32"/>
+      <c r="BT63" s="31"/>
+      <c r="BU63" s="27"/>
+      <c r="BV63" s="27"/>
+      <c r="BW63" s="27"/>
+      <c r="BX63" s="27"/>
+      <c r="BY63" s="27"/>
+      <c r="BZ63" s="27"/>
+      <c r="CA63" s="27"/>
     </row>
     <row r="64" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B64" s="5">
@@ -8601,18 +8608,18 @@
       <c r="BM64" s="11"/>
       <c r="BN64" s="11"/>
       <c r="BO64" s="11"/>
-      <c r="BP64" s="37"/>
-      <c r="BQ64" s="37"/>
-      <c r="BR64" s="37"/>
-      <c r="BS64" s="37"/>
-      <c r="BT64" s="36"/>
-      <c r="BU64" s="31"/>
-      <c r="BV64" s="31"/>
-      <c r="BW64" s="31"/>
-      <c r="BX64" s="31"/>
-      <c r="BY64" s="31"/>
-      <c r="BZ64" s="31"/>
-      <c r="CA64" s="31"/>
+      <c r="BP64" s="32"/>
+      <c r="BQ64" s="32"/>
+      <c r="BR64" s="32"/>
+      <c r="BS64" s="32"/>
+      <c r="BT64" s="31"/>
+      <c r="BU64" s="27"/>
+      <c r="BV64" s="27"/>
+      <c r="BW64" s="27"/>
+      <c r="BX64" s="27"/>
+      <c r="BY64" s="27"/>
+      <c r="BZ64" s="27"/>
+      <c r="CA64" s="27"/>
     </row>
     <row r="65" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B65" s="5">
@@ -8683,18 +8690,18 @@
       <c r="BM65" s="11"/>
       <c r="BN65" s="11"/>
       <c r="BO65" s="11"/>
-      <c r="BP65" s="37"/>
-      <c r="BQ65" s="37"/>
-      <c r="BR65" s="37"/>
-      <c r="BS65" s="37"/>
-      <c r="BT65" s="36"/>
-      <c r="BU65" s="31"/>
-      <c r="BV65" s="31"/>
-      <c r="BW65" s="31"/>
-      <c r="BX65" s="31"/>
-      <c r="BY65" s="31"/>
-      <c r="BZ65" s="31"/>
-      <c r="CA65" s="31"/>
+      <c r="BP65" s="32"/>
+      <c r="BQ65" s="32"/>
+      <c r="BR65" s="32"/>
+      <c r="BS65" s="32"/>
+      <c r="BT65" s="31"/>
+      <c r="BU65" s="27"/>
+      <c r="BV65" s="27"/>
+      <c r="BW65" s="27"/>
+      <c r="BX65" s="27"/>
+      <c r="BY65" s="27"/>
+      <c r="BZ65" s="27"/>
+      <c r="CA65" s="27"/>
     </row>
     <row r="66" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B66" s="5">
@@ -8765,18 +8772,18 @@
       <c r="BM66" s="11"/>
       <c r="BN66" s="11"/>
       <c r="BO66" s="11"/>
-      <c r="BP66" s="37"/>
-      <c r="BQ66" s="37"/>
-      <c r="BR66" s="37"/>
-      <c r="BS66" s="37"/>
-      <c r="BT66" s="36"/>
-      <c r="BU66" s="31"/>
-      <c r="BV66" s="31"/>
-      <c r="BW66" s="31"/>
-      <c r="BX66" s="31"/>
-      <c r="BY66" s="31"/>
-      <c r="BZ66" s="31"/>
-      <c r="CA66" s="31"/>
+      <c r="BP66" s="32"/>
+      <c r="BQ66" s="32"/>
+      <c r="BR66" s="32"/>
+      <c r="BS66" s="32"/>
+      <c r="BT66" s="31"/>
+      <c r="BU66" s="27"/>
+      <c r="BV66" s="27"/>
+      <c r="BW66" s="27"/>
+      <c r="BX66" s="27"/>
+      <c r="BY66" s="27"/>
+      <c r="BZ66" s="27"/>
+      <c r="CA66" s="27"/>
     </row>
     <row r="67" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B67" s="5">
@@ -8847,18 +8854,18 @@
       <c r="BM67" s="11"/>
       <c r="BN67" s="11"/>
       <c r="BO67" s="11"/>
-      <c r="BP67" s="37"/>
-      <c r="BQ67" s="37"/>
-      <c r="BR67" s="37"/>
-      <c r="BS67" s="37"/>
-      <c r="BT67" s="36"/>
-      <c r="BU67" s="31"/>
-      <c r="BV67" s="31"/>
-      <c r="BW67" s="31"/>
-      <c r="BX67" s="31"/>
-      <c r="BY67" s="31"/>
-      <c r="BZ67" s="31"/>
-      <c r="CA67" s="31"/>
+      <c r="BP67" s="32"/>
+      <c r="BQ67" s="32"/>
+      <c r="BR67" s="32"/>
+      <c r="BS67" s="32"/>
+      <c r="BT67" s="31"/>
+      <c r="BU67" s="27"/>
+      <c r="BV67" s="27"/>
+      <c r="BW67" s="27"/>
+      <c r="BX67" s="27"/>
+      <c r="BY67" s="27"/>
+      <c r="BZ67" s="27"/>
+      <c r="CA67" s="27"/>
     </row>
     <row r="68" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B68" s="5">
@@ -8929,24 +8936,24 @@
       <c r="BM68" s="11"/>
       <c r="BN68" s="11"/>
       <c r="BO68" s="11"/>
-      <c r="BP68" s="37"/>
-      <c r="BQ68" s="37"/>
-      <c r="BR68" s="37"/>
-      <c r="BS68" s="37"/>
-      <c r="BT68" s="36"/>
-      <c r="BU68" s="31"/>
-      <c r="BV68" s="31"/>
-      <c r="BW68" s="31"/>
-      <c r="BX68" s="31"/>
-      <c r="BY68" s="31"/>
-      <c r="BZ68" s="31"/>
-      <c r="CA68" s="31"/>
+      <c r="BP68" s="32"/>
+      <c r="BQ68" s="32"/>
+      <c r="BR68" s="32"/>
+      <c r="BS68" s="32"/>
+      <c r="BT68" s="31"/>
+      <c r="BU68" s="27"/>
+      <c r="BV68" s="27"/>
+      <c r="BW68" s="27"/>
+      <c r="BX68" s="27"/>
+      <c r="BY68" s="27"/>
+      <c r="BZ68" s="27"/>
+      <c r="CA68" s="27"/>
     </row>
     <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C69" s="21"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="6">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -9128,7 +9135,7 @@
         <v>2</v>
       </c>
       <c r="AW69" s="7">
-        <f t="shared" ref="AW69:CA69" si="2">AV69-SUM(AW6:AW68)</f>
+        <f t="shared" ref="AW69:BT69" si="2">AV69-SUM(AW6:AW68)</f>
         <v>2</v>
       </c>
       <c r="AX69" s="7">
@@ -9219,23 +9226,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BT69" s="26">
+      <c r="BT69" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BU69" s="32"/>
-      <c r="BV69" s="32"/>
-      <c r="BW69" s="32"/>
-      <c r="BX69" s="32"/>
-      <c r="BY69" s="32"/>
-      <c r="BZ69" s="32"/>
-      <c r="CA69" s="32"/>
+      <c r="BU69" s="28"/>
+      <c r="BV69" s="28"/>
+      <c r="BW69" s="28"/>
+      <c r="BX69" s="28"/>
+      <c r="BY69" s="28"/>
+      <c r="BZ69" s="28"/>
+      <c r="CA69" s="28"/>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="20"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="3">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -9489,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="BO70" s="4">
-        <f t="shared" ref="BO70:CA70" si="3">$D$70-($D$70/63*63)</f>
+        <f t="shared" ref="BO70:BT70" si="3">$D$70-($D$70/63*63)</f>
         <v>0</v>
       </c>
       <c r="BP70" s="4">
@@ -9508,26 +9515,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BT70" s="27">
+      <c r="BT70" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BU70" s="33"/>
-      <c r="BV70" s="33"/>
-      <c r="BW70" s="33"/>
-      <c r="BX70" s="33"/>
-      <c r="BY70" s="33"/>
-      <c r="BZ70" s="33"/>
-      <c r="CA70" s="33"/>
-    </row>
-    <row r="71" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="BU71" s="34"/>
-      <c r="BV71" s="34"/>
-      <c r="BW71" s="34"/>
-      <c r="BX71" s="34"/>
-      <c r="BY71" s="34"/>
-      <c r="BZ71" s="34"/>
-      <c r="CA71" s="34"/>
+      <c r="BU70" s="29"/>
+      <c r="BV70" s="29"/>
+      <c r="BW70" s="29"/>
+      <c r="BX70" s="29"/>
+      <c r="BY70" s="29"/>
+      <c r="BZ70" s="29"/>
+      <c r="CA70" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/documentation/MC_Burndown.xlsx
+++ b/documentation/MC_Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8335B928-0325-437E-91D2-E492AE09A5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDD7547-0C34-490B-8625-50C1AB1C6596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DB255D5F-88DF-47E2-A1AF-778D108B7A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -347,9 +347,6 @@
     <t>Zoekfilters</t>
   </si>
   <si>
-    <t>Use Case Diagram</t>
-  </si>
-  <si>
     <t>ERD</t>
   </si>
   <si>
@@ -384,6 +381,12 @@
   </si>
   <si>
     <t>Allen Pieter</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>Use Case/Acceptatie</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -615,9 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -682,6 +682,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
       <color rgb="FFED5151"/>
       <color rgb="FFD86666"/>
       <color rgb="FFFF6600"/>
@@ -689,7 +690,6 @@
       <color rgb="FFFF9966"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFF9933"/>
-      <color rgb="FF99FF99"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF9999FF"/>
     </mruColors>
@@ -1119,7 +1119,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>11.5</c:v>
@@ -1209,10 +1209,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1</c:v>
@@ -1227,16 +1227,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2879,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61082E50-EE00-42D2-8B67-A2DA9B04A06D}">
   <dimension ref="B1:CA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="D39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BN38" sqref="BN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2894,176 +2894,176 @@
   <sheetData>
     <row r="1" spans="2:79" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="2:79" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="19"/>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="19"/>
-      <c r="BK2" s="19"/>
-      <c r="BL2" s="19"/>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="19"/>
-      <c r="BQ2" s="19"/>
-      <c r="BR2" s="19"/>
-      <c r="BS2" s="19"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="24"/>
-      <c r="BV2" s="24"/>
-      <c r="BW2" s="24"/>
-      <c r="BX2" s="24"/>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="24"/>
-      <c r="CA2" s="24"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="19"/>
+      <c r="BU2" s="23"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="23"/>
+      <c r="BX2" s="23"/>
+      <c r="BY2" s="23"/>
+      <c r="BZ2" s="23"/>
+      <c r="CA2" s="23"/>
     </row>
     <row r="3" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="19"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="19"/>
-      <c r="BH3" s="19"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="19"/>
-      <c r="BO3" s="19"/>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="20"/>
-      <c r="BU3" s="24"/>
-      <c r="BV3" s="24"/>
-      <c r="BW3" s="24"/>
-      <c r="BX3" s="24"/>
-      <c r="BY3" s="24"/>
-      <c r="BZ3" s="24"/>
-      <c r="CA3" s="24"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="18"/>
+      <c r="BJ3" s="18"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="18"/>
+      <c r="BM3" s="18"/>
+      <c r="BN3" s="18"/>
+      <c r="BO3" s="18"/>
+      <c r="BP3" s="18"/>
+      <c r="BQ3" s="18"/>
+      <c r="BR3" s="18"/>
+      <c r="BS3" s="18"/>
+      <c r="BT3" s="19"/>
+      <c r="BU3" s="23"/>
+      <c r="BV3" s="23"/>
+      <c r="BW3" s="23"/>
+      <c r="BX3" s="23"/>
+      <c r="BY3" s="23"/>
+      <c r="BZ3" s="23"/>
+      <c r="CA3" s="23"/>
     </row>
     <row r="4" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -3270,20 +3270,20 @@
       <c r="BS4" s="9">
         <v>45309</v>
       </c>
-      <c r="BT4" s="30">
+      <c r="BT4" s="29">
         <v>45310</v>
       </c>
-      <c r="BU4" s="25"/>
-      <c r="BV4" s="25"/>
-      <c r="BW4" s="25"/>
-      <c r="BX4" s="25"/>
-      <c r="BY4" s="25"/>
-      <c r="BZ4" s="25"/>
-      <c r="CA4" s="25"/>
+      <c r="BU4" s="24"/>
+      <c r="BV4" s="24"/>
+      <c r="BW4" s="24"/>
+      <c r="BX4" s="24"/>
+      <c r="BY4" s="24"/>
+      <c r="BZ4" s="24"/>
+      <c r="CA4" s="24"/>
     </row>
     <row r="5" spans="2:79" x14ac:dyDescent="0.35">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
@@ -3488,16 +3488,16 @@
       <c r="BS5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BT5" s="21" t="s">
+      <c r="BT5" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="BU5" s="26"/>
-      <c r="BV5" s="26"/>
-      <c r="BW5" s="26"/>
-      <c r="BX5" s="26"/>
-      <c r="BY5" s="26"/>
-      <c r="BZ5" s="26"/>
-      <c r="CA5" s="26"/>
+      <c r="BU5" s="25"/>
+      <c r="BV5" s="25"/>
+      <c r="BW5" s="25"/>
+      <c r="BX5" s="25"/>
+      <c r="BY5" s="25"/>
+      <c r="BZ5" s="25"/>
+      <c r="CA5" s="25"/>
     </row>
     <row r="6" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
@@ -3576,18 +3576,18 @@
       <c r="BM6" s="11"/>
       <c r="BN6" s="11"/>
       <c r="BO6" s="11"/>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="32"/>
-      <c r="BR6" s="32"/>
-      <c r="BS6" s="32"/>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="27"/>
-      <c r="BV6" s="27"/>
-      <c r="BW6" s="27"/>
-      <c r="BX6" s="27"/>
-      <c r="BY6" s="27"/>
-      <c r="BZ6" s="27"/>
-      <c r="CA6" s="27"/>
+      <c r="BP6" s="31"/>
+      <c r="BQ6" s="31"/>
+      <c r="BR6" s="31"/>
+      <c r="BS6" s="31"/>
+      <c r="BT6" s="30"/>
+      <c r="BU6" s="26"/>
+      <c r="BV6" s="26"/>
+      <c r="BW6" s="26"/>
+      <c r="BX6" s="26"/>
+      <c r="BY6" s="26"/>
+      <c r="BZ6" s="26"/>
+      <c r="CA6" s="26"/>
     </row>
     <row r="7" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
@@ -3620,64 +3620,68 @@
       <c r="W7" s="1">
         <v>1</v>
       </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
-      <c r="BL7" s="1"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="BL7" s="15"/>
       <c r="BM7" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BN7" s="11"/>
       <c r="BO7" s="11"/>
-      <c r="BP7" s="32"/>
-      <c r="BQ7" s="32"/>
-      <c r="BR7" s="32"/>
-      <c r="BS7" s="32"/>
-      <c r="BT7" s="31"/>
-      <c r="BU7" s="27"/>
-      <c r="BV7" s="27"/>
-      <c r="BW7" s="27"/>
-      <c r="BX7" s="27"/>
-      <c r="BY7" s="27"/>
-      <c r="BZ7" s="27"/>
-      <c r="CA7" s="27"/>
+      <c r="BP7" s="31"/>
+      <c r="BQ7" s="31"/>
+      <c r="BR7" s="31"/>
+      <c r="BS7" s="31"/>
+      <c r="BT7" s="30"/>
+      <c r="BU7" s="26"/>
+      <c r="BV7" s="26"/>
+      <c r="BW7" s="26"/>
+      <c r="BX7" s="26"/>
+      <c r="BY7" s="26"/>
+      <c r="BZ7" s="26"/>
+      <c r="CA7" s="26"/>
     </row>
     <row r="8" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
@@ -3754,18 +3758,18 @@
       <c r="BM8" s="11"/>
       <c r="BN8" s="11"/>
       <c r="BO8" s="11"/>
-      <c r="BP8" s="32"/>
-      <c r="BQ8" s="32"/>
-      <c r="BR8" s="32"/>
-      <c r="BS8" s="32"/>
-      <c r="BT8" s="31"/>
-      <c r="BU8" s="27"/>
-      <c r="BV8" s="27"/>
-      <c r="BW8" s="27"/>
-      <c r="BX8" s="27"/>
-      <c r="BY8" s="27"/>
-      <c r="BZ8" s="27"/>
-      <c r="CA8" s="27"/>
+      <c r="BP8" s="31"/>
+      <c r="BQ8" s="31"/>
+      <c r="BR8" s="31"/>
+      <c r="BS8" s="31"/>
+      <c r="BT8" s="30"/>
+      <c r="BU8" s="26"/>
+      <c r="BV8" s="26"/>
+      <c r="BW8" s="26"/>
+      <c r="BX8" s="26"/>
+      <c r="BY8" s="26"/>
+      <c r="BZ8" s="26"/>
+      <c r="CA8" s="26"/>
     </row>
     <row r="9" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
@@ -3842,18 +3846,18 @@
       <c r="BM9" s="11"/>
       <c r="BN9" s="11"/>
       <c r="BO9" s="11"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32"/>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="31"/>
-      <c r="BU9" s="27"/>
-      <c r="BV9" s="27"/>
-      <c r="BW9" s="27"/>
-      <c r="BX9" s="27"/>
-      <c r="BY9" s="27"/>
-      <c r="BZ9" s="27"/>
-      <c r="CA9" s="27"/>
+      <c r="BP9" s="31"/>
+      <c r="BQ9" s="31"/>
+      <c r="BR9" s="31"/>
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="26"/>
+      <c r="BV9" s="26"/>
+      <c r="BW9" s="26"/>
+      <c r="BX9" s="26"/>
+      <c r="BY9" s="26"/>
+      <c r="BZ9" s="26"/>
+      <c r="CA9" s="26"/>
     </row>
     <row r="10" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
@@ -3930,25 +3934,25 @@
       <c r="BM10" s="11"/>
       <c r="BN10" s="11"/>
       <c r="BO10" s="11"/>
-      <c r="BP10" s="32"/>
-      <c r="BQ10" s="32"/>
-      <c r="BR10" s="32"/>
-      <c r="BS10" s="32"/>
-      <c r="BT10" s="31"/>
-      <c r="BU10" s="27"/>
-      <c r="BV10" s="27"/>
-      <c r="BW10" s="27"/>
-      <c r="BX10" s="27"/>
-      <c r="BY10" s="27"/>
-      <c r="BZ10" s="27"/>
-      <c r="CA10" s="27"/>
+      <c r="BP10" s="31"/>
+      <c r="BQ10" s="31"/>
+      <c r="BR10" s="31"/>
+      <c r="BS10" s="31"/>
+      <c r="BT10" s="30"/>
+      <c r="BU10" s="26"/>
+      <c r="BV10" s="26"/>
+      <c r="BW10" s="26"/>
+      <c r="BX10" s="26"/>
+      <c r="BY10" s="26"/>
+      <c r="BZ10" s="26"/>
+      <c r="CA10" s="26"/>
     </row>
     <row r="11" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>6</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="13">
         <v>0.5</v>
@@ -4018,18 +4022,18 @@
       <c r="BM11" s="11"/>
       <c r="BN11" s="11"/>
       <c r="BO11" s="11"/>
-      <c r="BP11" s="32"/>
-      <c r="BQ11" s="32"/>
-      <c r="BR11" s="32"/>
-      <c r="BS11" s="32"/>
-      <c r="BT11" s="31"/>
-      <c r="BU11" s="27"/>
-      <c r="BV11" s="27"/>
-      <c r="BW11" s="27"/>
-      <c r="BX11" s="27"/>
-      <c r="BY11" s="27"/>
-      <c r="BZ11" s="27"/>
-      <c r="CA11" s="27"/>
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="31"/>
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="31"/>
+      <c r="BT11" s="30"/>
+      <c r="BU11" s="26"/>
+      <c r="BV11" s="26"/>
+      <c r="BW11" s="26"/>
+      <c r="BX11" s="26"/>
+      <c r="BY11" s="26"/>
+      <c r="BZ11" s="26"/>
+      <c r="CA11" s="26"/>
     </row>
     <row r="12" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
@@ -4114,25 +4118,25 @@
       <c r="BM12" s="11"/>
       <c r="BN12" s="11"/>
       <c r="BO12" s="11"/>
-      <c r="BP12" s="32"/>
-      <c r="BQ12" s="32"/>
-      <c r="BR12" s="32"/>
-      <c r="BS12" s="32"/>
-      <c r="BT12" s="31"/>
-      <c r="BU12" s="27"/>
-      <c r="BV12" s="27"/>
-      <c r="BW12" s="27"/>
-      <c r="BX12" s="27"/>
-      <c r="BY12" s="27"/>
-      <c r="BZ12" s="27"/>
-      <c r="CA12" s="27"/>
+      <c r="BP12" s="31"/>
+      <c r="BQ12" s="31"/>
+      <c r="BR12" s="31"/>
+      <c r="BS12" s="31"/>
+      <c r="BT12" s="30"/>
+      <c r="BU12" s="26"/>
+      <c r="BV12" s="26"/>
+      <c r="BW12" s="26"/>
+      <c r="BX12" s="26"/>
+      <c r="BY12" s="26"/>
+      <c r="BZ12" s="26"/>
+      <c r="CA12" s="26"/>
     </row>
     <row r="13" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>8</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="13">
         <v>2</v>
@@ -4202,18 +4206,18 @@
       <c r="BM13" s="11"/>
       <c r="BN13" s="11"/>
       <c r="BO13" s="11"/>
-      <c r="BP13" s="32"/>
-      <c r="BQ13" s="32"/>
-      <c r="BR13" s="32"/>
-      <c r="BS13" s="32"/>
-      <c r="BT13" s="31"/>
-      <c r="BU13" s="27"/>
-      <c r="BV13" s="27"/>
-      <c r="BW13" s="27"/>
-      <c r="BX13" s="27"/>
-      <c r="BY13" s="27"/>
-      <c r="BZ13" s="27"/>
-      <c r="CA13" s="27"/>
+      <c r="BP13" s="31"/>
+      <c r="BQ13" s="31"/>
+      <c r="BR13" s="31"/>
+      <c r="BS13" s="31"/>
+      <c r="BT13" s="30"/>
+      <c r="BU13" s="26"/>
+      <c r="BV13" s="26"/>
+      <c r="BW13" s="26"/>
+      <c r="BX13" s="26"/>
+      <c r="BY13" s="26"/>
+      <c r="BZ13" s="26"/>
+      <c r="CA13" s="26"/>
     </row>
     <row r="14" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
@@ -4290,18 +4294,18 @@
       <c r="BM14" s="11"/>
       <c r="BN14" s="11"/>
       <c r="BO14" s="11"/>
-      <c r="BP14" s="32"/>
-      <c r="BQ14" s="32"/>
-      <c r="BR14" s="32"/>
-      <c r="BS14" s="32"/>
-      <c r="BT14" s="31"/>
-      <c r="BU14" s="27"/>
-      <c r="BV14" s="27"/>
-      <c r="BW14" s="27"/>
-      <c r="BX14" s="27"/>
-      <c r="BY14" s="27"/>
-      <c r="BZ14" s="27"/>
-      <c r="CA14" s="27"/>
+      <c r="BP14" s="31"/>
+      <c r="BQ14" s="31"/>
+      <c r="BR14" s="31"/>
+      <c r="BS14" s="31"/>
+      <c r="BT14" s="30"/>
+      <c r="BU14" s="26"/>
+      <c r="BV14" s="26"/>
+      <c r="BW14" s="26"/>
+      <c r="BX14" s="26"/>
+      <c r="BY14" s="26"/>
+      <c r="BZ14" s="26"/>
+      <c r="CA14" s="26"/>
     </row>
     <row r="15" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
@@ -4378,18 +4382,18 @@
       <c r="BM15" s="11"/>
       <c r="BN15" s="11"/>
       <c r="BO15" s="11"/>
-      <c r="BP15" s="32"/>
-      <c r="BQ15" s="32"/>
-      <c r="BR15" s="32"/>
-      <c r="BS15" s="32"/>
-      <c r="BT15" s="31"/>
-      <c r="BU15" s="27"/>
-      <c r="BV15" s="27"/>
-      <c r="BW15" s="27"/>
-      <c r="BX15" s="27"/>
-      <c r="BY15" s="27"/>
-      <c r="BZ15" s="27"/>
-      <c r="CA15" s="27"/>
+      <c r="BP15" s="31"/>
+      <c r="BQ15" s="31"/>
+      <c r="BR15" s="31"/>
+      <c r="BS15" s="31"/>
+      <c r="BT15" s="30"/>
+      <c r="BU15" s="26"/>
+      <c r="BV15" s="26"/>
+      <c r="BW15" s="26"/>
+      <c r="BX15" s="26"/>
+      <c r="BY15" s="26"/>
+      <c r="BZ15" s="26"/>
+      <c r="CA15" s="26"/>
     </row>
     <row r="16" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B16" s="5">
@@ -4466,18 +4470,18 @@
       <c r="BM16" s="11"/>
       <c r="BN16" s="11"/>
       <c r="BO16" s="11"/>
-      <c r="BP16" s="32"/>
-      <c r="BQ16" s="32"/>
-      <c r="BR16" s="32"/>
-      <c r="BS16" s="32"/>
-      <c r="BT16" s="31"/>
-      <c r="BU16" s="27"/>
-      <c r="BV16" s="27"/>
-      <c r="BW16" s="27"/>
-      <c r="BX16" s="27"/>
-      <c r="BY16" s="27"/>
-      <c r="BZ16" s="27"/>
-      <c r="CA16" s="27"/>
+      <c r="BP16" s="31"/>
+      <c r="BQ16" s="31"/>
+      <c r="BR16" s="31"/>
+      <c r="BS16" s="31"/>
+      <c r="BT16" s="30"/>
+      <c r="BU16" s="26"/>
+      <c r="BV16" s="26"/>
+      <c r="BW16" s="26"/>
+      <c r="BX16" s="26"/>
+      <c r="BY16" s="26"/>
+      <c r="BZ16" s="26"/>
+      <c r="CA16" s="26"/>
     </row>
     <row r="17" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
@@ -4507,33 +4511,33 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="16">
+      <c r="W17" s="15">
         <v>1</v>
       </c>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
       <c r="AM17" s="11"/>
       <c r="AN17" s="1">
         <v>1</v>
       </c>
-      <c r="AO17" s="16">
+      <c r="AO17" s="15">
         <v>-2</v>
       </c>
-      <c r="AP17" s="16"/>
-      <c r="AQ17" s="16"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
       <c r="AR17" s="1">
         <v>2</v>
       </c>
@@ -4560,18 +4564,18 @@
       <c r="BM17" s="11"/>
       <c r="BN17" s="11"/>
       <c r="BO17" s="11"/>
-      <c r="BP17" s="32"/>
-      <c r="BQ17" s="32"/>
-      <c r="BR17" s="32"/>
-      <c r="BS17" s="32"/>
-      <c r="BT17" s="31"/>
-      <c r="BU17" s="27"/>
-      <c r="BV17" s="27"/>
-      <c r="BW17" s="27"/>
-      <c r="BX17" s="27"/>
-      <c r="BY17" s="27"/>
-      <c r="BZ17" s="27"/>
-      <c r="CA17" s="27"/>
+      <c r="BP17" s="31"/>
+      <c r="BQ17" s="31"/>
+      <c r="BR17" s="31"/>
+      <c r="BS17" s="31"/>
+      <c r="BT17" s="30"/>
+      <c r="BU17" s="26"/>
+      <c r="BV17" s="26"/>
+      <c r="BW17" s="26"/>
+      <c r="BX17" s="26"/>
+      <c r="BY17" s="26"/>
+      <c r="BZ17" s="26"/>
+      <c r="CA17" s="26"/>
     </row>
     <row r="18" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B18" s="5">
@@ -4601,33 +4605,33 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="16">
+      <c r="W18" s="15">
         <v>1</v>
       </c>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="1">
         <v>1</v>
       </c>
-      <c r="AO18" s="16">
+      <c r="AO18" s="15">
         <v>-2</v>
       </c>
-      <c r="AP18" s="16"/>
-      <c r="AQ18" s="16"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
       <c r="AR18" s="1">
         <v>2</v>
       </c>
@@ -4654,18 +4658,18 @@
       <c r="BM18" s="11"/>
       <c r="BN18" s="11"/>
       <c r="BO18" s="11"/>
-      <c r="BP18" s="32"/>
-      <c r="BQ18" s="32"/>
-      <c r="BR18" s="32"/>
-      <c r="BS18" s="32"/>
-      <c r="BT18" s="31"/>
-      <c r="BU18" s="27"/>
-      <c r="BV18" s="27"/>
-      <c r="BW18" s="27"/>
-      <c r="BX18" s="27"/>
-      <c r="BY18" s="27"/>
-      <c r="BZ18" s="27"/>
-      <c r="CA18" s="27"/>
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="31"/>
+      <c r="BR18" s="31"/>
+      <c r="BS18" s="31"/>
+      <c r="BT18" s="30"/>
+      <c r="BU18" s="26"/>
+      <c r="BV18" s="26"/>
+      <c r="BW18" s="26"/>
+      <c r="BX18" s="26"/>
+      <c r="BY18" s="26"/>
+      <c r="BZ18" s="26"/>
+      <c r="CA18" s="26"/>
     </row>
     <row r="19" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
@@ -4742,24 +4746,24 @@
       <c r="BM19" s="11"/>
       <c r="BN19" s="11"/>
       <c r="BO19" s="11"/>
-      <c r="BP19" s="32"/>
-      <c r="BQ19" s="32"/>
-      <c r="BR19" s="32"/>
-      <c r="BS19" s="32"/>
-      <c r="BT19" s="31"/>
-      <c r="BU19" s="27"/>
-      <c r="BV19" s="27"/>
-      <c r="BW19" s="27"/>
-      <c r="BX19" s="27"/>
-      <c r="BY19" s="27"/>
-      <c r="BZ19" s="27"/>
-      <c r="CA19" s="27"/>
+      <c r="BP19" s="31"/>
+      <c r="BQ19" s="31"/>
+      <c r="BR19" s="31"/>
+      <c r="BS19" s="31"/>
+      <c r="BT19" s="30"/>
+      <c r="BU19" s="26"/>
+      <c r="BV19" s="26"/>
+      <c r="BW19" s="26"/>
+      <c r="BX19" s="26"/>
+      <c r="BY19" s="26"/>
+      <c r="BZ19" s="26"/>
+      <c r="CA19" s="26"/>
     </row>
     <row r="20" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="13">
@@ -4830,18 +4834,18 @@
       <c r="BM20" s="11"/>
       <c r="BN20" s="11"/>
       <c r="BO20" s="11"/>
-      <c r="BP20" s="32"/>
-      <c r="BQ20" s="32"/>
-      <c r="BR20" s="32"/>
-      <c r="BS20" s="32"/>
-      <c r="BT20" s="31"/>
-      <c r="BU20" s="27"/>
-      <c r="BV20" s="27"/>
-      <c r="BW20" s="27"/>
-      <c r="BX20" s="27"/>
-      <c r="BY20" s="27"/>
-      <c r="BZ20" s="27"/>
-      <c r="CA20" s="27"/>
+      <c r="BP20" s="31"/>
+      <c r="BQ20" s="31"/>
+      <c r="BR20" s="31"/>
+      <c r="BS20" s="31"/>
+      <c r="BT20" s="30"/>
+      <c r="BU20" s="26"/>
+      <c r="BV20" s="26"/>
+      <c r="BW20" s="26"/>
+      <c r="BX20" s="26"/>
+      <c r="BY20" s="26"/>
+      <c r="BZ20" s="26"/>
+      <c r="CA20" s="26"/>
     </row>
     <row r="21" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
@@ -4870,7 +4874,7 @@
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
-      <c r="T21" s="16">
+      <c r="T21" s="15">
         <v>-1</v>
       </c>
       <c r="U21" s="1">
@@ -4922,18 +4926,18 @@
       <c r="BM21" s="11"/>
       <c r="BN21" s="11"/>
       <c r="BO21" s="11"/>
-      <c r="BP21" s="32"/>
-      <c r="BQ21" s="32"/>
-      <c r="BR21" s="32"/>
-      <c r="BS21" s="32"/>
-      <c r="BT21" s="31"/>
-      <c r="BU21" s="27"/>
-      <c r="BV21" s="27"/>
-      <c r="BW21" s="27"/>
-      <c r="BX21" s="27"/>
-      <c r="BY21" s="27"/>
-      <c r="BZ21" s="27"/>
-      <c r="CA21" s="27"/>
+      <c r="BP21" s="31"/>
+      <c r="BQ21" s="31"/>
+      <c r="BR21" s="31"/>
+      <c r="BS21" s="31"/>
+      <c r="BT21" s="30"/>
+      <c r="BU21" s="26"/>
+      <c r="BV21" s="26"/>
+      <c r="BW21" s="26"/>
+      <c r="BX21" s="26"/>
+      <c r="BY21" s="26"/>
+      <c r="BZ21" s="26"/>
+      <c r="CA21" s="26"/>
     </row>
     <row r="22" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
@@ -5010,18 +5014,18 @@
       <c r="BM22" s="11"/>
       <c r="BN22" s="11"/>
       <c r="BO22" s="11"/>
-      <c r="BP22" s="32"/>
-      <c r="BQ22" s="32"/>
-      <c r="BR22" s="32"/>
-      <c r="BS22" s="32"/>
-      <c r="BT22" s="31"/>
-      <c r="BU22" s="27"/>
-      <c r="BV22" s="27"/>
-      <c r="BW22" s="27"/>
-      <c r="BX22" s="27"/>
-      <c r="BY22" s="27"/>
-      <c r="BZ22" s="27"/>
-      <c r="CA22" s="27"/>
+      <c r="BP22" s="31"/>
+      <c r="BQ22" s="31"/>
+      <c r="BR22" s="31"/>
+      <c r="BS22" s="31"/>
+      <c r="BT22" s="30"/>
+      <c r="BU22" s="26"/>
+      <c r="BV22" s="26"/>
+      <c r="BW22" s="26"/>
+      <c r="BX22" s="26"/>
+      <c r="BY22" s="26"/>
+      <c r="BZ22" s="26"/>
+      <c r="CA22" s="26"/>
     </row>
     <row r="23" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
@@ -5050,7 +5054,7 @@
       </c>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
-      <c r="T23" s="16">
+      <c r="T23" s="15">
         <v>-1</v>
       </c>
       <c r="U23" s="1">
@@ -5102,18 +5106,18 @@
       <c r="BM23" s="11"/>
       <c r="BN23" s="11"/>
       <c r="BO23" s="11"/>
-      <c r="BP23" s="32"/>
-      <c r="BQ23" s="32"/>
-      <c r="BR23" s="32"/>
-      <c r="BS23" s="32"/>
-      <c r="BT23" s="31"/>
-      <c r="BU23" s="27"/>
-      <c r="BV23" s="27"/>
-      <c r="BW23" s="27"/>
-      <c r="BX23" s="27"/>
-      <c r="BY23" s="27"/>
-      <c r="BZ23" s="27"/>
-      <c r="CA23" s="27"/>
+      <c r="BP23" s="31"/>
+      <c r="BQ23" s="31"/>
+      <c r="BR23" s="31"/>
+      <c r="BS23" s="31"/>
+      <c r="BT23" s="30"/>
+      <c r="BU23" s="26"/>
+      <c r="BV23" s="26"/>
+      <c r="BW23" s="26"/>
+      <c r="BX23" s="26"/>
+      <c r="BY23" s="26"/>
+      <c r="BZ23" s="26"/>
+      <c r="CA23" s="26"/>
     </row>
     <row r="24" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
@@ -5190,18 +5194,18 @@
       <c r="BM24" s="11"/>
       <c r="BN24" s="11"/>
       <c r="BO24" s="11"/>
-      <c r="BP24" s="32"/>
-      <c r="BQ24" s="32"/>
-      <c r="BR24" s="32"/>
-      <c r="BS24" s="32"/>
-      <c r="BT24" s="31"/>
-      <c r="BU24" s="27"/>
-      <c r="BV24" s="27"/>
-      <c r="BW24" s="27"/>
-      <c r="BX24" s="27"/>
-      <c r="BY24" s="27"/>
-      <c r="BZ24" s="27"/>
-      <c r="CA24" s="27"/>
+      <c r="BP24" s="31"/>
+      <c r="BQ24" s="31"/>
+      <c r="BR24" s="31"/>
+      <c r="BS24" s="31"/>
+      <c r="BT24" s="30"/>
+      <c r="BU24" s="26"/>
+      <c r="BV24" s="26"/>
+      <c r="BW24" s="26"/>
+      <c r="BX24" s="26"/>
+      <c r="BY24" s="26"/>
+      <c r="BZ24" s="26"/>
+      <c r="CA24" s="26"/>
     </row>
     <row r="25" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
@@ -5280,18 +5284,18 @@
       <c r="BM25" s="11"/>
       <c r="BN25" s="11"/>
       <c r="BO25" s="11"/>
-      <c r="BP25" s="32"/>
-      <c r="BQ25" s="32"/>
-      <c r="BR25" s="32"/>
-      <c r="BS25" s="32"/>
-      <c r="BT25" s="31"/>
-      <c r="BU25" s="27"/>
-      <c r="BV25" s="27"/>
-      <c r="BW25" s="27"/>
-      <c r="BX25" s="27"/>
-      <c r="BY25" s="27"/>
-      <c r="BZ25" s="27"/>
-      <c r="CA25" s="27"/>
+      <c r="BP25" s="31"/>
+      <c r="BQ25" s="31"/>
+      <c r="BR25" s="31"/>
+      <c r="BS25" s="31"/>
+      <c r="BT25" s="30"/>
+      <c r="BU25" s="26"/>
+      <c r="BV25" s="26"/>
+      <c r="BW25" s="26"/>
+      <c r="BX25" s="26"/>
+      <c r="BY25" s="26"/>
+      <c r="BZ25" s="26"/>
+      <c r="CA25" s="26"/>
     </row>
     <row r="26" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B26" s="5">
@@ -5372,18 +5376,18 @@
       <c r="BM26" s="11"/>
       <c r="BN26" s="11"/>
       <c r="BO26" s="11"/>
-      <c r="BP26" s="32"/>
-      <c r="BQ26" s="32"/>
-      <c r="BR26" s="32"/>
-      <c r="BS26" s="32"/>
-      <c r="BT26" s="31"/>
-      <c r="BU26" s="27"/>
-      <c r="BV26" s="27"/>
-      <c r="BW26" s="27"/>
-      <c r="BX26" s="27"/>
-      <c r="BY26" s="27"/>
-      <c r="BZ26" s="27"/>
-      <c r="CA26" s="27"/>
+      <c r="BP26" s="31"/>
+      <c r="BQ26" s="31"/>
+      <c r="BR26" s="31"/>
+      <c r="BS26" s="31"/>
+      <c r="BT26" s="30"/>
+      <c r="BU26" s="26"/>
+      <c r="BV26" s="26"/>
+      <c r="BW26" s="26"/>
+      <c r="BX26" s="26"/>
+      <c r="BY26" s="26"/>
+      <c r="BZ26" s="26"/>
+      <c r="CA26" s="26"/>
     </row>
     <row r="27" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
@@ -5460,18 +5464,18 @@
       <c r="BM27" s="11"/>
       <c r="BN27" s="11"/>
       <c r="BO27" s="11"/>
-      <c r="BP27" s="32"/>
-      <c r="BQ27" s="32"/>
-      <c r="BR27" s="32"/>
-      <c r="BS27" s="32"/>
-      <c r="BT27" s="31"/>
-      <c r="BU27" s="27"/>
-      <c r="BV27" s="27"/>
-      <c r="BW27" s="27"/>
-      <c r="BX27" s="27"/>
-      <c r="BY27" s="27"/>
-      <c r="BZ27" s="27"/>
-      <c r="CA27" s="27"/>
+      <c r="BP27" s="31"/>
+      <c r="BQ27" s="31"/>
+      <c r="BR27" s="31"/>
+      <c r="BS27" s="31"/>
+      <c r="BT27" s="30"/>
+      <c r="BU27" s="26"/>
+      <c r="BV27" s="26"/>
+      <c r="BW27" s="26"/>
+      <c r="BX27" s="26"/>
+      <c r="BY27" s="26"/>
+      <c r="BZ27" s="26"/>
+      <c r="CA27" s="26"/>
     </row>
     <row r="28" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B28" s="5">
@@ -5548,18 +5552,18 @@
       <c r="BM28" s="11"/>
       <c r="BN28" s="11"/>
       <c r="BO28" s="11"/>
-      <c r="BP28" s="32"/>
-      <c r="BQ28" s="32"/>
-      <c r="BR28" s="32"/>
-      <c r="BS28" s="32"/>
-      <c r="BT28" s="31"/>
-      <c r="BU28" s="27"/>
-      <c r="BV28" s="27"/>
-      <c r="BW28" s="27"/>
-      <c r="BX28" s="27"/>
-      <c r="BY28" s="27"/>
-      <c r="BZ28" s="27"/>
-      <c r="CA28" s="27"/>
+      <c r="BP28" s="31"/>
+      <c r="BQ28" s="31"/>
+      <c r="BR28" s="31"/>
+      <c r="BS28" s="31"/>
+      <c r="BT28" s="30"/>
+      <c r="BU28" s="26"/>
+      <c r="BV28" s="26"/>
+      <c r="BW28" s="26"/>
+      <c r="BX28" s="26"/>
+      <c r="BY28" s="26"/>
+      <c r="BZ28" s="26"/>
+      <c r="CA28" s="26"/>
     </row>
     <row r="29" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
@@ -5636,18 +5640,18 @@
       <c r="BM29" s="11"/>
       <c r="BN29" s="11"/>
       <c r="BO29" s="11"/>
-      <c r="BP29" s="32"/>
-      <c r="BQ29" s="32"/>
-      <c r="BR29" s="32"/>
-      <c r="BS29" s="32"/>
-      <c r="BT29" s="31"/>
-      <c r="BU29" s="27"/>
-      <c r="BV29" s="27"/>
-      <c r="BW29" s="27"/>
-      <c r="BX29" s="27"/>
-      <c r="BY29" s="27"/>
-      <c r="BZ29" s="27"/>
-      <c r="CA29" s="27"/>
+      <c r="BP29" s="31"/>
+      <c r="BQ29" s="31"/>
+      <c r="BR29" s="31"/>
+      <c r="BS29" s="31"/>
+      <c r="BT29" s="30"/>
+      <c r="BU29" s="26"/>
+      <c r="BV29" s="26"/>
+      <c r="BW29" s="26"/>
+      <c r="BX29" s="26"/>
+      <c r="BY29" s="26"/>
+      <c r="BZ29" s="26"/>
+      <c r="CA29" s="26"/>
     </row>
     <row r="30" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B30" s="5">
@@ -5724,25 +5728,25 @@
       <c r="BM30" s="11"/>
       <c r="BN30" s="11"/>
       <c r="BO30" s="11"/>
-      <c r="BP30" s="32"/>
-      <c r="BQ30" s="32"/>
-      <c r="BR30" s="32"/>
-      <c r="BS30" s="32"/>
-      <c r="BT30" s="31"/>
-      <c r="BU30" s="27"/>
-      <c r="BV30" s="27"/>
-      <c r="BW30" s="27"/>
-      <c r="BX30" s="27"/>
-      <c r="BY30" s="27"/>
-      <c r="BZ30" s="27"/>
-      <c r="CA30" s="27"/>
+      <c r="BP30" s="31"/>
+      <c r="BQ30" s="31"/>
+      <c r="BR30" s="31"/>
+      <c r="BS30" s="31"/>
+      <c r="BT30" s="30"/>
+      <c r="BU30" s="26"/>
+      <c r="BV30" s="26"/>
+      <c r="BW30" s="26"/>
+      <c r="BX30" s="26"/>
+      <c r="BY30" s="26"/>
+      <c r="BZ30" s="26"/>
+      <c r="CA30" s="26"/>
     </row>
     <row r="31" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
         <v>26</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -5812,18 +5816,18 @@
       <c r="BM31" s="11"/>
       <c r="BN31" s="11"/>
       <c r="BO31" s="11"/>
-      <c r="BP31" s="32"/>
-      <c r="BQ31" s="32"/>
-      <c r="BR31" s="32"/>
-      <c r="BS31" s="32"/>
-      <c r="BT31" s="31"/>
-      <c r="BU31" s="27"/>
-      <c r="BV31" s="27"/>
-      <c r="BW31" s="27"/>
-      <c r="BX31" s="27"/>
-      <c r="BY31" s="27"/>
-      <c r="BZ31" s="27"/>
-      <c r="CA31" s="27"/>
+      <c r="BP31" s="31"/>
+      <c r="BQ31" s="31"/>
+      <c r="BR31" s="31"/>
+      <c r="BS31" s="31"/>
+      <c r="BT31" s="30"/>
+      <c r="BU31" s="26"/>
+      <c r="BV31" s="26"/>
+      <c r="BW31" s="26"/>
+      <c r="BX31" s="26"/>
+      <c r="BY31" s="26"/>
+      <c r="BZ31" s="26"/>
+      <c r="CA31" s="26"/>
     </row>
     <row r="32" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B32" s="5">
@@ -5900,18 +5904,18 @@
       <c r="BM32" s="11"/>
       <c r="BN32" s="11"/>
       <c r="BO32" s="11"/>
-      <c r="BP32" s="32"/>
-      <c r="BQ32" s="32"/>
-      <c r="BR32" s="32"/>
-      <c r="BS32" s="32"/>
-      <c r="BT32" s="31"/>
-      <c r="BU32" s="27"/>
-      <c r="BV32" s="27"/>
-      <c r="BW32" s="27"/>
-      <c r="BX32" s="27"/>
-      <c r="BY32" s="27"/>
-      <c r="BZ32" s="27"/>
-      <c r="CA32" s="27"/>
+      <c r="BP32" s="31"/>
+      <c r="BQ32" s="31"/>
+      <c r="BR32" s="31"/>
+      <c r="BS32" s="31"/>
+      <c r="BT32" s="30"/>
+      <c r="BU32" s="26"/>
+      <c r="BV32" s="26"/>
+      <c r="BW32" s="26"/>
+      <c r="BX32" s="26"/>
+      <c r="BY32" s="26"/>
+      <c r="BZ32" s="26"/>
+      <c r="CA32" s="26"/>
     </row>
     <row r="33" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B33" s="5">
@@ -5930,7 +5934,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="16">
+      <c r="L33" s="15">
         <v>1</v>
       </c>
       <c r="M33" s="1"/>
@@ -5939,12 +5943,12 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="16">
+      <c r="S33" s="15">
         <v>1</v>
       </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="16">
+      <c r="V33" s="15">
         <v>1</v>
       </c>
       <c r="W33" s="1"/>
@@ -5954,7 +5958,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-      <c r="AD33" s="16">
+      <c r="AD33" s="15">
         <v>1</v>
       </c>
       <c r="AE33" s="1"/>
@@ -5996,24 +6000,24 @@
       <c r="BM33" s="11"/>
       <c r="BN33" s="11"/>
       <c r="BO33" s="11"/>
-      <c r="BP33" s="32"/>
-      <c r="BQ33" s="32"/>
-      <c r="BR33" s="32"/>
-      <c r="BS33" s="32"/>
-      <c r="BT33" s="31"/>
-      <c r="BU33" s="27"/>
-      <c r="BV33" s="27"/>
-      <c r="BW33" s="27"/>
-      <c r="BX33" s="27"/>
-      <c r="BY33" s="27"/>
-      <c r="BZ33" s="27"/>
-      <c r="CA33" s="27"/>
+      <c r="BP33" s="31"/>
+      <c r="BQ33" s="31"/>
+      <c r="BR33" s="31"/>
+      <c r="BS33" s="31"/>
+      <c r="BT33" s="30"/>
+      <c r="BU33" s="26"/>
+      <c r="BV33" s="26"/>
+      <c r="BW33" s="26"/>
+      <c r="BX33" s="26"/>
+      <c r="BY33" s="26"/>
+      <c r="BZ33" s="26"/>
+      <c r="CA33" s="26"/>
     </row>
     <row r="34" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B34" s="5">
         <v>29</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>100</v>
       </c>
       <c r="D34" s="13">
@@ -6084,24 +6088,24 @@
       <c r="BM34" s="11"/>
       <c r="BN34" s="11"/>
       <c r="BO34" s="11"/>
-      <c r="BP34" s="32"/>
-      <c r="BQ34" s="32"/>
-      <c r="BR34" s="32"/>
-      <c r="BS34" s="32"/>
-      <c r="BT34" s="31"/>
-      <c r="BU34" s="27"/>
-      <c r="BV34" s="27"/>
-      <c r="BW34" s="27"/>
-      <c r="BX34" s="27"/>
-      <c r="BY34" s="27"/>
-      <c r="BZ34" s="27"/>
-      <c r="CA34" s="27"/>
+      <c r="BP34" s="31"/>
+      <c r="BQ34" s="31"/>
+      <c r="BR34" s="31"/>
+      <c r="BS34" s="31"/>
+      <c r="BT34" s="30"/>
+      <c r="BU34" s="26"/>
+      <c r="BV34" s="26"/>
+      <c r="BW34" s="26"/>
+      <c r="BX34" s="26"/>
+      <c r="BY34" s="26"/>
+      <c r="BZ34" s="26"/>
+      <c r="CA34" s="26"/>
     </row>
     <row r="35" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B35" s="5">
         <v>30</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="13">
@@ -6172,25 +6176,25 @@
       <c r="BM35" s="11"/>
       <c r="BN35" s="11"/>
       <c r="BO35" s="11"/>
-      <c r="BP35" s="32"/>
-      <c r="BQ35" s="32"/>
-      <c r="BR35" s="32"/>
-      <c r="BS35" s="32"/>
-      <c r="BT35" s="31"/>
-      <c r="BU35" s="27"/>
-      <c r="BV35" s="27"/>
-      <c r="BW35" s="27"/>
-      <c r="BX35" s="27"/>
-      <c r="BY35" s="27"/>
-      <c r="BZ35" s="27"/>
-      <c r="CA35" s="27"/>
+      <c r="BP35" s="31"/>
+      <c r="BQ35" s="31"/>
+      <c r="BR35" s="31"/>
+      <c r="BS35" s="31"/>
+      <c r="BT35" s="30"/>
+      <c r="BU35" s="26"/>
+      <c r="BV35" s="26"/>
+      <c r="BW35" s="26"/>
+      <c r="BX35" s="26"/>
+      <c r="BY35" s="26"/>
+      <c r="BZ35" s="26"/>
+      <c r="CA35" s="26"/>
     </row>
     <row r="36" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B36" s="5">
         <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="13">
         <v>1</v>
@@ -6260,18 +6264,18 @@
       <c r="BM36" s="11"/>
       <c r="BN36" s="11"/>
       <c r="BO36" s="11"/>
-      <c r="BP36" s="32"/>
-      <c r="BQ36" s="32"/>
-      <c r="BR36" s="32"/>
-      <c r="BS36" s="32"/>
-      <c r="BT36" s="31"/>
-      <c r="BU36" s="27"/>
-      <c r="BV36" s="27"/>
-      <c r="BW36" s="27"/>
-      <c r="BX36" s="27"/>
-      <c r="BY36" s="27"/>
-      <c r="BZ36" s="27"/>
-      <c r="CA36" s="27"/>
+      <c r="BP36" s="31"/>
+      <c r="BQ36" s="31"/>
+      <c r="BR36" s="31"/>
+      <c r="BS36" s="31"/>
+      <c r="BT36" s="30"/>
+      <c r="BU36" s="26"/>
+      <c r="BV36" s="26"/>
+      <c r="BW36" s="26"/>
+      <c r="BX36" s="26"/>
+      <c r="BY36" s="26"/>
+      <c r="BZ36" s="26"/>
+      <c r="CA36" s="26"/>
     </row>
     <row r="37" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
@@ -6350,27 +6354,27 @@
       <c r="BM37" s="11"/>
       <c r="BN37" s="11"/>
       <c r="BO37" s="11"/>
-      <c r="BP37" s="32"/>
-      <c r="BQ37" s="32"/>
-      <c r="BR37" s="32"/>
-      <c r="BS37" s="32"/>
-      <c r="BT37" s="31"/>
-      <c r="BU37" s="27"/>
-      <c r="BV37" s="27"/>
-      <c r="BW37" s="27"/>
-      <c r="BX37" s="27"/>
-      <c r="BY37" s="27"/>
-      <c r="BZ37" s="27"/>
-      <c r="CA37" s="27"/>
+      <c r="BP37" s="31"/>
+      <c r="BQ37" s="31"/>
+      <c r="BR37" s="31"/>
+      <c r="BS37" s="31"/>
+      <c r="BT37" s="30"/>
+      <c r="BU37" s="26"/>
+      <c r="BV37" s="26"/>
+      <c r="BW37" s="26"/>
+      <c r="BX37" s="26"/>
+      <c r="BY37" s="26"/>
+      <c r="BZ37" s="26"/>
+      <c r="CA37" s="26"/>
     </row>
     <row r="38" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B38" s="5">
         <v>33</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="15">
+      <c r="C38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="13">
         <v>1</v>
       </c>
       <c r="E38" s="11"/>
@@ -6392,7 +6396,7 @@
       </c>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
-      <c r="V38" s="16">
+      <c r="V38" s="15">
         <v>-1</v>
       </c>
       <c r="W38" s="1">
@@ -6407,62 +6411,66 @@
       <c r="AD38" s="11"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="11"/>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="16">
+      <c r="AG38" s="15">
         <v>-1</v>
       </c>
-      <c r="AI38" s="16"/>
-      <c r="AJ38" s="16"/>
-      <c r="AK38" s="16"/>
-      <c r="AL38" s="16"/>
-      <c r="AM38" s="16"/>
-      <c r="AN38" s="16"/>
-      <c r="AO38" s="16"/>
-      <c r="AP38" s="16"/>
-      <c r="AQ38" s="16"/>
-      <c r="AR38" s="16"/>
-      <c r="AS38" s="16"/>
-      <c r="AT38" s="16"/>
-      <c r="AU38" s="16"/>
-      <c r="AV38" s="16"/>
-      <c r="AW38" s="16"/>
-      <c r="AX38" s="16"/>
-      <c r="AY38" s="16"/>
-      <c r="AZ38" s="16"/>
-      <c r="BA38" s="16"/>
-      <c r="BB38" s="16"/>
-      <c r="BC38" s="16"/>
-      <c r="BD38" s="16"/>
-      <c r="BE38" s="16"/>
-      <c r="BF38" s="16"/>
-      <c r="BG38" s="16"/>
-      <c r="BH38" s="16"/>
-      <c r="BI38" s="16"/>
-      <c r="BJ38" s="16"/>
-      <c r="BK38" s="16"/>
-      <c r="BL38" s="16"/>
-      <c r="BM38" s="16"/>
-      <c r="BN38" s="16"/>
-      <c r="BO38" s="16"/>
-      <c r="BP38" s="16"/>
-      <c r="BQ38" s="32"/>
-      <c r="BR38" s="32"/>
-      <c r="BS38" s="32"/>
-      <c r="BT38" s="31"/>
-      <c r="BU38" s="27"/>
-      <c r="BV38" s="27"/>
-      <c r="BW38" s="27"/>
-      <c r="BX38" s="27"/>
-      <c r="BY38" s="27"/>
-      <c r="BZ38" s="27"/>
-      <c r="CA38" s="27"/>
+      <c r="AH38" s="15"/>
+      <c r="AI38" s="15"/>
+      <c r="AJ38" s="15"/>
+      <c r="AK38" s="15"/>
+      <c r="AL38" s="15"/>
+      <c r="AM38" s="15"/>
+      <c r="AN38" s="15"/>
+      <c r="AO38" s="15"/>
+      <c r="AP38" s="15"/>
+      <c r="AQ38" s="15"/>
+      <c r="AR38" s="15"/>
+      <c r="AS38" s="15"/>
+      <c r="AT38" s="15"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="15"/>
+      <c r="AW38" s="15"/>
+      <c r="AX38" s="15"/>
+      <c r="AY38" s="15"/>
+      <c r="AZ38" s="15"/>
+      <c r="BA38" s="15"/>
+      <c r="BB38" s="15"/>
+      <c r="BC38" s="15"/>
+      <c r="BD38" s="15"/>
+      <c r="BE38" s="15"/>
+      <c r="BF38" s="15"/>
+      <c r="BG38" s="15"/>
+      <c r="BH38" s="15"/>
+      <c r="BI38" s="15"/>
+      <c r="BJ38" s="15"/>
+      <c r="BK38" s="15"/>
+      <c r="BL38" s="15"/>
+      <c r="BM38" s="15"/>
+      <c r="BN38" s="15"/>
+      <c r="BO38" s="15"/>
+      <c r="BP38" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ38" s="13">
+        <v>1</v>
+      </c>
+      <c r="BR38" s="31"/>
+      <c r="BS38" s="31"/>
+      <c r="BT38" s="30"/>
+      <c r="BU38" s="26"/>
+      <c r="BV38" s="26"/>
+      <c r="BW38" s="26"/>
+      <c r="BX38" s="26"/>
+      <c r="BY38" s="26"/>
+      <c r="BZ38" s="26"/>
+      <c r="CA38" s="26"/>
     </row>
     <row r="39" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B39" s="5">
         <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
@@ -6495,7 +6503,7 @@
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
       <c r="AF39" s="11"/>
-      <c r="AG39" s="16">
+      <c r="AG39" s="15">
         <v>0.5</v>
       </c>
       <c r="AH39" s="1"/>
@@ -6534,25 +6542,25 @@
       <c r="BM39" s="11"/>
       <c r="BN39" s="11"/>
       <c r="BO39" s="11"/>
-      <c r="BP39" s="32"/>
-      <c r="BQ39" s="32"/>
-      <c r="BR39" s="32"/>
-      <c r="BS39" s="32"/>
-      <c r="BT39" s="31"/>
-      <c r="BU39" s="27"/>
-      <c r="BV39" s="27"/>
-      <c r="BW39" s="27"/>
-      <c r="BX39" s="27"/>
-      <c r="BY39" s="27"/>
-      <c r="BZ39" s="27"/>
-      <c r="CA39" s="27"/>
+      <c r="BP39" s="31"/>
+      <c r="BQ39" s="31"/>
+      <c r="BR39" s="31"/>
+      <c r="BS39" s="31"/>
+      <c r="BT39" s="30"/>
+      <c r="BU39" s="26"/>
+      <c r="BV39" s="26"/>
+      <c r="BW39" s="26"/>
+      <c r="BX39" s="26"/>
+      <c r="BY39" s="26"/>
+      <c r="BZ39" s="26"/>
+      <c r="CA39" s="26"/>
     </row>
     <row r="40" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B40" s="5">
         <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
@@ -6622,25 +6630,25 @@
       <c r="BM40" s="11"/>
       <c r="BN40" s="11"/>
       <c r="BO40" s="11"/>
-      <c r="BP40" s="32"/>
-      <c r="BQ40" s="32"/>
-      <c r="BR40" s="32"/>
-      <c r="BS40" s="32"/>
-      <c r="BT40" s="31"/>
-      <c r="BU40" s="27"/>
-      <c r="BV40" s="27"/>
-      <c r="BW40" s="27"/>
-      <c r="BX40" s="27"/>
-      <c r="BY40" s="27"/>
-      <c r="BZ40" s="27"/>
-      <c r="CA40" s="27"/>
+      <c r="BP40" s="31"/>
+      <c r="BQ40" s="31"/>
+      <c r="BR40" s="31"/>
+      <c r="BS40" s="31"/>
+      <c r="BT40" s="30"/>
+      <c r="BU40" s="26"/>
+      <c r="BV40" s="26"/>
+      <c r="BW40" s="26"/>
+      <c r="BX40" s="26"/>
+      <c r="BY40" s="26"/>
+      <c r="BZ40" s="26"/>
+      <c r="CA40" s="26"/>
     </row>
     <row r="41" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B41" s="5">
         <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
@@ -6710,25 +6718,25 @@
       <c r="BM41" s="11"/>
       <c r="BN41" s="11"/>
       <c r="BO41" s="11"/>
-      <c r="BP41" s="32"/>
-      <c r="BQ41" s="32"/>
-      <c r="BR41" s="32"/>
-      <c r="BS41" s="32"/>
-      <c r="BT41" s="31"/>
-      <c r="BU41" s="27"/>
-      <c r="BV41" s="27"/>
-      <c r="BW41" s="27"/>
-      <c r="BX41" s="27"/>
-      <c r="BY41" s="27"/>
-      <c r="BZ41" s="27"/>
-      <c r="CA41" s="27"/>
+      <c r="BP41" s="31"/>
+      <c r="BQ41" s="31"/>
+      <c r="BR41" s="31"/>
+      <c r="BS41" s="31"/>
+      <c r="BT41" s="30"/>
+      <c r="BU41" s="26"/>
+      <c r="BV41" s="26"/>
+      <c r="BW41" s="26"/>
+      <c r="BX41" s="26"/>
+      <c r="BY41" s="26"/>
+      <c r="BZ41" s="26"/>
+      <c r="CA41" s="26"/>
     </row>
     <row r="42" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B42" s="5">
         <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" s="13">
         <v>1</v>
@@ -6798,18 +6806,18 @@
       <c r="BM42" s="11"/>
       <c r="BN42" s="11"/>
       <c r="BO42" s="11"/>
-      <c r="BP42" s="32"/>
-      <c r="BQ42" s="32"/>
-      <c r="BR42" s="32"/>
-      <c r="BS42" s="32"/>
-      <c r="BT42" s="31"/>
-      <c r="BU42" s="27"/>
-      <c r="BV42" s="27"/>
-      <c r="BW42" s="27"/>
-      <c r="BX42" s="27"/>
-      <c r="BY42" s="27"/>
-      <c r="BZ42" s="27"/>
-      <c r="CA42" s="27"/>
+      <c r="BP42" s="31"/>
+      <c r="BQ42" s="31"/>
+      <c r="BR42" s="31"/>
+      <c r="BS42" s="31"/>
+      <c r="BT42" s="30"/>
+      <c r="BU42" s="26"/>
+      <c r="BV42" s="26"/>
+      <c r="BW42" s="26"/>
+      <c r="BX42" s="26"/>
+      <c r="BY42" s="26"/>
+      <c r="BZ42" s="26"/>
+      <c r="CA42" s="26"/>
     </row>
     <row r="43" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
@@ -6880,25 +6888,25 @@
       <c r="BM43" s="11"/>
       <c r="BN43" s="11"/>
       <c r="BO43" s="11"/>
-      <c r="BP43" s="32"/>
-      <c r="BQ43" s="32"/>
-      <c r="BR43" s="32"/>
-      <c r="BS43" s="32"/>
-      <c r="BT43" s="31"/>
-      <c r="BU43" s="27"/>
-      <c r="BV43" s="27"/>
-      <c r="BW43" s="27"/>
-      <c r="BX43" s="27"/>
-      <c r="BY43" s="27"/>
-      <c r="BZ43" s="27"/>
-      <c r="CA43" s="27"/>
+      <c r="BP43" s="31"/>
+      <c r="BQ43" s="31"/>
+      <c r="BR43" s="31"/>
+      <c r="BS43" s="31"/>
+      <c r="BT43" s="30"/>
+      <c r="BU43" s="26"/>
+      <c r="BV43" s="26"/>
+      <c r="BW43" s="26"/>
+      <c r="BX43" s="26"/>
+      <c r="BY43" s="26"/>
+      <c r="BZ43" s="26"/>
+      <c r="CA43" s="26"/>
     </row>
     <row r="44" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B44" s="5">
         <v>39</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="11"/>
@@ -6964,25 +6972,25 @@
       <c r="BM44" s="11"/>
       <c r="BN44" s="11"/>
       <c r="BO44" s="11"/>
-      <c r="BP44" s="32"/>
-      <c r="BQ44" s="32"/>
-      <c r="BR44" s="32"/>
-      <c r="BS44" s="32"/>
-      <c r="BT44" s="31"/>
-      <c r="BU44" s="27"/>
-      <c r="BV44" s="27"/>
-      <c r="BW44" s="27"/>
-      <c r="BX44" s="27"/>
-      <c r="BY44" s="27"/>
-      <c r="BZ44" s="27"/>
-      <c r="CA44" s="27"/>
+      <c r="BP44" s="31"/>
+      <c r="BQ44" s="31"/>
+      <c r="BR44" s="31"/>
+      <c r="BS44" s="31"/>
+      <c r="BT44" s="30"/>
+      <c r="BU44" s="26"/>
+      <c r="BV44" s="26"/>
+      <c r="BW44" s="26"/>
+      <c r="BX44" s="26"/>
+      <c r="BY44" s="26"/>
+      <c r="BZ44" s="26"/>
+      <c r="CA44" s="26"/>
     </row>
     <row r="45" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B45" s="5">
         <v>40</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>113</v>
+      <c r="C45" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="11"/>
@@ -7048,25 +7056,25 @@
       <c r="BM45" s="11"/>
       <c r="BN45" s="11"/>
       <c r="BO45" s="11"/>
-      <c r="BP45" s="32"/>
-      <c r="BQ45" s="32"/>
-      <c r="BR45" s="32"/>
-      <c r="BS45" s="32"/>
-      <c r="BT45" s="31"/>
-      <c r="BU45" s="27"/>
-      <c r="BV45" s="27"/>
-      <c r="BW45" s="27"/>
-      <c r="BX45" s="27"/>
-      <c r="BY45" s="27"/>
-      <c r="BZ45" s="27"/>
-      <c r="CA45" s="27"/>
+      <c r="BP45" s="31"/>
+      <c r="BQ45" s="31"/>
+      <c r="BR45" s="31"/>
+      <c r="BS45" s="31"/>
+      <c r="BT45" s="30"/>
+      <c r="BU45" s="26"/>
+      <c r="BV45" s="26"/>
+      <c r="BW45" s="26"/>
+      <c r="BX45" s="26"/>
+      <c r="BY45" s="26"/>
+      <c r="BZ45" s="26"/>
+      <c r="CA45" s="26"/>
     </row>
     <row r="46" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B46" s="5">
         <v>41</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>114</v>
+      <c r="C46" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="11"/>
@@ -7132,18 +7140,18 @@
       <c r="BM46" s="11"/>
       <c r="BN46" s="11"/>
       <c r="BO46" s="11"/>
-      <c r="BP46" s="32"/>
-      <c r="BQ46" s="32"/>
-      <c r="BR46" s="32"/>
-      <c r="BS46" s="32"/>
-      <c r="BT46" s="31"/>
-      <c r="BU46" s="27"/>
-      <c r="BV46" s="27"/>
-      <c r="BW46" s="27"/>
-      <c r="BX46" s="27"/>
-      <c r="BY46" s="27"/>
-      <c r="BZ46" s="27"/>
-      <c r="CA46" s="27"/>
+      <c r="BP46" s="31"/>
+      <c r="BQ46" s="31"/>
+      <c r="BR46" s="31"/>
+      <c r="BS46" s="31"/>
+      <c r="BT46" s="30"/>
+      <c r="BU46" s="26"/>
+      <c r="BV46" s="26"/>
+      <c r="BW46" s="26"/>
+      <c r="BX46" s="26"/>
+      <c r="BY46" s="26"/>
+      <c r="BZ46" s="26"/>
+      <c r="CA46" s="26"/>
     </row>
     <row r="47" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B47" s="5">
@@ -7214,18 +7222,18 @@
       <c r="BM47" s="11"/>
       <c r="BN47" s="11"/>
       <c r="BO47" s="11"/>
-      <c r="BP47" s="32"/>
-      <c r="BQ47" s="32"/>
-      <c r="BR47" s="32"/>
-      <c r="BS47" s="32"/>
-      <c r="BT47" s="31"/>
-      <c r="BU47" s="27"/>
-      <c r="BV47" s="27"/>
-      <c r="BW47" s="27"/>
-      <c r="BX47" s="27"/>
-      <c r="BY47" s="27"/>
-      <c r="BZ47" s="27"/>
-      <c r="CA47" s="27"/>
+      <c r="BP47" s="31"/>
+      <c r="BQ47" s="31"/>
+      <c r="BR47" s="31"/>
+      <c r="BS47" s="31"/>
+      <c r="BT47" s="30"/>
+      <c r="BU47" s="26"/>
+      <c r="BV47" s="26"/>
+      <c r="BW47" s="26"/>
+      <c r="BX47" s="26"/>
+      <c r="BY47" s="26"/>
+      <c r="BZ47" s="26"/>
+      <c r="CA47" s="26"/>
     </row>
     <row r="48" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B48" s="5">
@@ -7296,18 +7304,18 @@
       <c r="BM48" s="11"/>
       <c r="BN48" s="11"/>
       <c r="BO48" s="11"/>
-      <c r="BP48" s="32"/>
-      <c r="BQ48" s="32"/>
-      <c r="BR48" s="32"/>
-      <c r="BS48" s="32"/>
-      <c r="BT48" s="31"/>
-      <c r="BU48" s="27"/>
-      <c r="BV48" s="27"/>
-      <c r="BW48" s="27"/>
-      <c r="BX48" s="27"/>
-      <c r="BY48" s="27"/>
-      <c r="BZ48" s="27"/>
-      <c r="CA48" s="27"/>
+      <c r="BP48" s="31"/>
+      <c r="BQ48" s="31"/>
+      <c r="BR48" s="31"/>
+      <c r="BS48" s="31"/>
+      <c r="BT48" s="30"/>
+      <c r="BU48" s="26"/>
+      <c r="BV48" s="26"/>
+      <c r="BW48" s="26"/>
+      <c r="BX48" s="26"/>
+      <c r="BY48" s="26"/>
+      <c r="BZ48" s="26"/>
+      <c r="CA48" s="26"/>
     </row>
     <row r="49" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B49" s="5">
@@ -7378,18 +7386,18 @@
       <c r="BM49" s="11"/>
       <c r="BN49" s="11"/>
       <c r="BO49" s="11"/>
-      <c r="BP49" s="32"/>
-      <c r="BQ49" s="32"/>
-      <c r="BR49" s="32"/>
-      <c r="BS49" s="32"/>
-      <c r="BT49" s="31"/>
-      <c r="BU49" s="27"/>
-      <c r="BV49" s="27"/>
-      <c r="BW49" s="27"/>
-      <c r="BX49" s="27"/>
-      <c r="BY49" s="27"/>
-      <c r="BZ49" s="27"/>
-      <c r="CA49" s="27"/>
+      <c r="BP49" s="31"/>
+      <c r="BQ49" s="31"/>
+      <c r="BR49" s="31"/>
+      <c r="BS49" s="31"/>
+      <c r="BT49" s="30"/>
+      <c r="BU49" s="26"/>
+      <c r="BV49" s="26"/>
+      <c r="BW49" s="26"/>
+      <c r="BX49" s="26"/>
+      <c r="BY49" s="26"/>
+      <c r="BZ49" s="26"/>
+      <c r="CA49" s="26"/>
     </row>
     <row r="50" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B50" s="5">
@@ -7460,18 +7468,18 @@
       <c r="BM50" s="11"/>
       <c r="BN50" s="11"/>
       <c r="BO50" s="11"/>
-      <c r="BP50" s="32"/>
-      <c r="BQ50" s="32"/>
-      <c r="BR50" s="32"/>
-      <c r="BS50" s="32"/>
-      <c r="BT50" s="31"/>
-      <c r="BU50" s="27"/>
-      <c r="BV50" s="27"/>
-      <c r="BW50" s="27"/>
-      <c r="BX50" s="27"/>
-      <c r="BY50" s="27"/>
-      <c r="BZ50" s="27"/>
-      <c r="CA50" s="27"/>
+      <c r="BP50" s="31"/>
+      <c r="BQ50" s="31"/>
+      <c r="BR50" s="31"/>
+      <c r="BS50" s="31"/>
+      <c r="BT50" s="30"/>
+      <c r="BU50" s="26"/>
+      <c r="BV50" s="26"/>
+      <c r="BW50" s="26"/>
+      <c r="BX50" s="26"/>
+      <c r="BY50" s="26"/>
+      <c r="BZ50" s="26"/>
+      <c r="CA50" s="26"/>
     </row>
     <row r="51" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B51" s="5">
@@ -7542,18 +7550,18 @@
       <c r="BM51" s="11"/>
       <c r="BN51" s="11"/>
       <c r="BO51" s="11"/>
-      <c r="BP51" s="32"/>
-      <c r="BQ51" s="32"/>
-      <c r="BR51" s="32"/>
-      <c r="BS51" s="32"/>
-      <c r="BT51" s="31"/>
-      <c r="BU51" s="27"/>
-      <c r="BV51" s="27"/>
-      <c r="BW51" s="27"/>
-      <c r="BX51" s="27"/>
-      <c r="BY51" s="27"/>
-      <c r="BZ51" s="27"/>
-      <c r="CA51" s="27"/>
+      <c r="BP51" s="31"/>
+      <c r="BQ51" s="31"/>
+      <c r="BR51" s="31"/>
+      <c r="BS51" s="31"/>
+      <c r="BT51" s="30"/>
+      <c r="BU51" s="26"/>
+      <c r="BV51" s="26"/>
+      <c r="BW51" s="26"/>
+      <c r="BX51" s="26"/>
+      <c r="BY51" s="26"/>
+      <c r="BZ51" s="26"/>
+      <c r="CA51" s="26"/>
     </row>
     <row r="52" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B52" s="5">
@@ -7624,18 +7632,18 @@
       <c r="BM52" s="11"/>
       <c r="BN52" s="11"/>
       <c r="BO52" s="11"/>
-      <c r="BP52" s="32"/>
-      <c r="BQ52" s="32"/>
-      <c r="BR52" s="32"/>
-      <c r="BS52" s="32"/>
-      <c r="BT52" s="31"/>
-      <c r="BU52" s="27"/>
-      <c r="BV52" s="27"/>
-      <c r="BW52" s="27"/>
-      <c r="BX52" s="27"/>
-      <c r="BY52" s="27"/>
-      <c r="BZ52" s="27"/>
-      <c r="CA52" s="27"/>
+      <c r="BP52" s="31"/>
+      <c r="BQ52" s="31"/>
+      <c r="BR52" s="31"/>
+      <c r="BS52" s="31"/>
+      <c r="BT52" s="30"/>
+      <c r="BU52" s="26"/>
+      <c r="BV52" s="26"/>
+      <c r="BW52" s="26"/>
+      <c r="BX52" s="26"/>
+      <c r="BY52" s="26"/>
+      <c r="BZ52" s="26"/>
+      <c r="CA52" s="26"/>
     </row>
     <row r="53" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B53" s="5">
@@ -7706,18 +7714,18 @@
       <c r="BM53" s="11"/>
       <c r="BN53" s="11"/>
       <c r="BO53" s="11"/>
-      <c r="BP53" s="32"/>
-      <c r="BQ53" s="32"/>
-      <c r="BR53" s="32"/>
-      <c r="BS53" s="32"/>
-      <c r="BT53" s="31"/>
-      <c r="BU53" s="27"/>
-      <c r="BV53" s="27"/>
-      <c r="BW53" s="27"/>
-      <c r="BX53" s="27"/>
-      <c r="BY53" s="27"/>
-      <c r="BZ53" s="27"/>
-      <c r="CA53" s="27"/>
+      <c r="BP53" s="31"/>
+      <c r="BQ53" s="31"/>
+      <c r="BR53" s="31"/>
+      <c r="BS53" s="31"/>
+      <c r="BT53" s="30"/>
+      <c r="BU53" s="26"/>
+      <c r="BV53" s="26"/>
+      <c r="BW53" s="26"/>
+      <c r="BX53" s="26"/>
+      <c r="BY53" s="26"/>
+      <c r="BZ53" s="26"/>
+      <c r="CA53" s="26"/>
     </row>
     <row r="54" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B54" s="5">
@@ -7788,18 +7796,18 @@
       <c r="BM54" s="11"/>
       <c r="BN54" s="11"/>
       <c r="BO54" s="11"/>
-      <c r="BP54" s="32"/>
-      <c r="BQ54" s="32"/>
-      <c r="BR54" s="32"/>
-      <c r="BS54" s="32"/>
-      <c r="BT54" s="31"/>
-      <c r="BU54" s="27"/>
-      <c r="BV54" s="27"/>
-      <c r="BW54" s="27"/>
-      <c r="BX54" s="27"/>
-      <c r="BY54" s="27"/>
-      <c r="BZ54" s="27"/>
-      <c r="CA54" s="27"/>
+      <c r="BP54" s="31"/>
+      <c r="BQ54" s="31"/>
+      <c r="BR54" s="31"/>
+      <c r="BS54" s="31"/>
+      <c r="BT54" s="30"/>
+      <c r="BU54" s="26"/>
+      <c r="BV54" s="26"/>
+      <c r="BW54" s="26"/>
+      <c r="BX54" s="26"/>
+      <c r="BY54" s="26"/>
+      <c r="BZ54" s="26"/>
+      <c r="CA54" s="26"/>
     </row>
     <row r="55" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B55" s="5">
@@ -7870,18 +7878,18 @@
       <c r="BM55" s="11"/>
       <c r="BN55" s="11"/>
       <c r="BO55" s="11"/>
-      <c r="BP55" s="32"/>
-      <c r="BQ55" s="32"/>
-      <c r="BR55" s="32"/>
-      <c r="BS55" s="32"/>
-      <c r="BT55" s="31"/>
-      <c r="BU55" s="27"/>
-      <c r="BV55" s="27"/>
-      <c r="BW55" s="27"/>
-      <c r="BX55" s="27"/>
-      <c r="BY55" s="27"/>
-      <c r="BZ55" s="27"/>
-      <c r="CA55" s="27"/>
+      <c r="BP55" s="31"/>
+      <c r="BQ55" s="31"/>
+      <c r="BR55" s="31"/>
+      <c r="BS55" s="31"/>
+      <c r="BT55" s="30"/>
+      <c r="BU55" s="26"/>
+      <c r="BV55" s="26"/>
+      <c r="BW55" s="26"/>
+      <c r="BX55" s="26"/>
+      <c r="BY55" s="26"/>
+      <c r="BZ55" s="26"/>
+      <c r="CA55" s="26"/>
     </row>
     <row r="56" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B56" s="5">
@@ -7952,18 +7960,18 @@
       <c r="BM56" s="11"/>
       <c r="BN56" s="11"/>
       <c r="BO56" s="11"/>
-      <c r="BP56" s="32"/>
-      <c r="BQ56" s="32"/>
-      <c r="BR56" s="32"/>
-      <c r="BS56" s="32"/>
-      <c r="BT56" s="31"/>
-      <c r="BU56" s="27"/>
-      <c r="BV56" s="27"/>
-      <c r="BW56" s="27"/>
-      <c r="BX56" s="27"/>
-      <c r="BY56" s="27"/>
-      <c r="BZ56" s="27"/>
-      <c r="CA56" s="27"/>
+      <c r="BP56" s="31"/>
+      <c r="BQ56" s="31"/>
+      <c r="BR56" s="31"/>
+      <c r="BS56" s="31"/>
+      <c r="BT56" s="30"/>
+      <c r="BU56" s="26"/>
+      <c r="BV56" s="26"/>
+      <c r="BW56" s="26"/>
+      <c r="BX56" s="26"/>
+      <c r="BY56" s="26"/>
+      <c r="BZ56" s="26"/>
+      <c r="CA56" s="26"/>
     </row>
     <row r="57" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B57" s="5">
@@ -8034,18 +8042,18 @@
       <c r="BM57" s="11"/>
       <c r="BN57" s="11"/>
       <c r="BO57" s="11"/>
-      <c r="BP57" s="32"/>
-      <c r="BQ57" s="32"/>
-      <c r="BR57" s="32"/>
-      <c r="BS57" s="32"/>
-      <c r="BT57" s="31"/>
-      <c r="BU57" s="27"/>
-      <c r="BV57" s="27"/>
-      <c r="BW57" s="27"/>
-      <c r="BX57" s="27"/>
-      <c r="BY57" s="27"/>
-      <c r="BZ57" s="27"/>
-      <c r="CA57" s="27"/>
+      <c r="BP57" s="31"/>
+      <c r="BQ57" s="31"/>
+      <c r="BR57" s="31"/>
+      <c r="BS57" s="31"/>
+      <c r="BT57" s="30"/>
+      <c r="BU57" s="26"/>
+      <c r="BV57" s="26"/>
+      <c r="BW57" s="26"/>
+      <c r="BX57" s="26"/>
+      <c r="BY57" s="26"/>
+      <c r="BZ57" s="26"/>
+      <c r="CA57" s="26"/>
     </row>
     <row r="58" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B58" s="5">
@@ -8116,18 +8124,18 @@
       <c r="BM58" s="11"/>
       <c r="BN58" s="11"/>
       <c r="BO58" s="11"/>
-      <c r="BP58" s="32"/>
-      <c r="BQ58" s="32"/>
-      <c r="BR58" s="32"/>
-      <c r="BS58" s="32"/>
-      <c r="BT58" s="31"/>
-      <c r="BU58" s="27"/>
-      <c r="BV58" s="27"/>
-      <c r="BW58" s="27"/>
-      <c r="BX58" s="27"/>
-      <c r="BY58" s="27"/>
-      <c r="BZ58" s="27"/>
-      <c r="CA58" s="27"/>
+      <c r="BP58" s="31"/>
+      <c r="BQ58" s="31"/>
+      <c r="BR58" s="31"/>
+      <c r="BS58" s="31"/>
+      <c r="BT58" s="30"/>
+      <c r="BU58" s="26"/>
+      <c r="BV58" s="26"/>
+      <c r="BW58" s="26"/>
+      <c r="BX58" s="26"/>
+      <c r="BY58" s="26"/>
+      <c r="BZ58" s="26"/>
+      <c r="CA58" s="26"/>
     </row>
     <row r="59" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B59" s="5">
@@ -8198,18 +8206,18 @@
       <c r="BM59" s="11"/>
       <c r="BN59" s="11"/>
       <c r="BO59" s="11"/>
-      <c r="BP59" s="32"/>
-      <c r="BQ59" s="32"/>
-      <c r="BR59" s="32"/>
-      <c r="BS59" s="32"/>
-      <c r="BT59" s="31"/>
-      <c r="BU59" s="27"/>
-      <c r="BV59" s="27"/>
-      <c r="BW59" s="27"/>
-      <c r="BX59" s="27"/>
-      <c r="BY59" s="27"/>
-      <c r="BZ59" s="27"/>
-      <c r="CA59" s="27"/>
+      <c r="BP59" s="31"/>
+      <c r="BQ59" s="31"/>
+      <c r="BR59" s="31"/>
+      <c r="BS59" s="31"/>
+      <c r="BT59" s="30"/>
+      <c r="BU59" s="26"/>
+      <c r="BV59" s="26"/>
+      <c r="BW59" s="26"/>
+      <c r="BX59" s="26"/>
+      <c r="BY59" s="26"/>
+      <c r="BZ59" s="26"/>
+      <c r="CA59" s="26"/>
     </row>
     <row r="60" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B60" s="5">
@@ -8280,18 +8288,18 @@
       <c r="BM60" s="11"/>
       <c r="BN60" s="11"/>
       <c r="BO60" s="11"/>
-      <c r="BP60" s="32"/>
-      <c r="BQ60" s="32"/>
-      <c r="BR60" s="32"/>
-      <c r="BS60" s="32"/>
-      <c r="BT60" s="31"/>
-      <c r="BU60" s="27"/>
-      <c r="BV60" s="27"/>
-      <c r="BW60" s="27"/>
-      <c r="BX60" s="27"/>
-      <c r="BY60" s="27"/>
-      <c r="BZ60" s="27"/>
-      <c r="CA60" s="27"/>
+      <c r="BP60" s="31"/>
+      <c r="BQ60" s="31"/>
+      <c r="BR60" s="31"/>
+      <c r="BS60" s="31"/>
+      <c r="BT60" s="30"/>
+      <c r="BU60" s="26"/>
+      <c r="BV60" s="26"/>
+      <c r="BW60" s="26"/>
+      <c r="BX60" s="26"/>
+      <c r="BY60" s="26"/>
+      <c r="BZ60" s="26"/>
+      <c r="CA60" s="26"/>
     </row>
     <row r="61" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B61" s="5">
@@ -8362,18 +8370,18 @@
       <c r="BM61" s="11"/>
       <c r="BN61" s="11"/>
       <c r="BO61" s="11"/>
-      <c r="BP61" s="32"/>
-      <c r="BQ61" s="32"/>
-      <c r="BR61" s="32"/>
-      <c r="BS61" s="32"/>
-      <c r="BT61" s="31"/>
-      <c r="BU61" s="27"/>
-      <c r="BV61" s="27"/>
-      <c r="BW61" s="27"/>
-      <c r="BX61" s="27"/>
-      <c r="BY61" s="27"/>
-      <c r="BZ61" s="27"/>
-      <c r="CA61" s="27"/>
+      <c r="BP61" s="31"/>
+      <c r="BQ61" s="31"/>
+      <c r="BR61" s="31"/>
+      <c r="BS61" s="31"/>
+      <c r="BT61" s="30"/>
+      <c r="BU61" s="26"/>
+      <c r="BV61" s="26"/>
+      <c r="BW61" s="26"/>
+      <c r="BX61" s="26"/>
+      <c r="BY61" s="26"/>
+      <c r="BZ61" s="26"/>
+      <c r="CA61" s="26"/>
     </row>
     <row r="62" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B62" s="5">
@@ -8444,18 +8452,18 @@
       <c r="BM62" s="11"/>
       <c r="BN62" s="11"/>
       <c r="BO62" s="11"/>
-      <c r="BP62" s="32"/>
-      <c r="BQ62" s="32"/>
-      <c r="BR62" s="32"/>
-      <c r="BS62" s="32"/>
-      <c r="BT62" s="31"/>
-      <c r="BU62" s="27"/>
-      <c r="BV62" s="27"/>
-      <c r="BW62" s="27"/>
-      <c r="BX62" s="27"/>
-      <c r="BY62" s="27"/>
-      <c r="BZ62" s="27"/>
-      <c r="CA62" s="27"/>
+      <c r="BP62" s="31"/>
+      <c r="BQ62" s="31"/>
+      <c r="BR62" s="31"/>
+      <c r="BS62" s="31"/>
+      <c r="BT62" s="30"/>
+      <c r="BU62" s="26"/>
+      <c r="BV62" s="26"/>
+      <c r="BW62" s="26"/>
+      <c r="BX62" s="26"/>
+      <c r="BY62" s="26"/>
+      <c r="BZ62" s="26"/>
+      <c r="CA62" s="26"/>
     </row>
     <row r="63" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B63" s="5">
@@ -8526,18 +8534,18 @@
       <c r="BM63" s="11"/>
       <c r="BN63" s="11"/>
       <c r="BO63" s="11"/>
-      <c r="BP63" s="32"/>
-      <c r="BQ63" s="32"/>
-      <c r="BR63" s="32"/>
-      <c r="BS63" s="32"/>
-      <c r="BT63" s="31"/>
-      <c r="BU63" s="27"/>
-      <c r="BV63" s="27"/>
-      <c r="BW63" s="27"/>
-      <c r="BX63" s="27"/>
-      <c r="BY63" s="27"/>
-      <c r="BZ63" s="27"/>
-      <c r="CA63" s="27"/>
+      <c r="BP63" s="31"/>
+      <c r="BQ63" s="31"/>
+      <c r="BR63" s="31"/>
+      <c r="BS63" s="31"/>
+      <c r="BT63" s="30"/>
+      <c r="BU63" s="26"/>
+      <c r="BV63" s="26"/>
+      <c r="BW63" s="26"/>
+      <c r="BX63" s="26"/>
+      <c r="BY63" s="26"/>
+      <c r="BZ63" s="26"/>
+      <c r="CA63" s="26"/>
     </row>
     <row r="64" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B64" s="5">
@@ -8608,18 +8616,18 @@
       <c r="BM64" s="11"/>
       <c r="BN64" s="11"/>
       <c r="BO64" s="11"/>
-      <c r="BP64" s="32"/>
-      <c r="BQ64" s="32"/>
-      <c r="BR64" s="32"/>
-      <c r="BS64" s="32"/>
-      <c r="BT64" s="31"/>
-      <c r="BU64" s="27"/>
-      <c r="BV64" s="27"/>
-      <c r="BW64" s="27"/>
-      <c r="BX64" s="27"/>
-      <c r="BY64" s="27"/>
-      <c r="BZ64" s="27"/>
-      <c r="CA64" s="27"/>
+      <c r="BP64" s="31"/>
+      <c r="BQ64" s="31"/>
+      <c r="BR64" s="31"/>
+      <c r="BS64" s="31"/>
+      <c r="BT64" s="30"/>
+      <c r="BU64" s="26"/>
+      <c r="BV64" s="26"/>
+      <c r="BW64" s="26"/>
+      <c r="BX64" s="26"/>
+      <c r="BY64" s="26"/>
+      <c r="BZ64" s="26"/>
+      <c r="CA64" s="26"/>
     </row>
     <row r="65" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B65" s="5">
@@ -8690,18 +8698,18 @@
       <c r="BM65" s="11"/>
       <c r="BN65" s="11"/>
       <c r="BO65" s="11"/>
-      <c r="BP65" s="32"/>
-      <c r="BQ65" s="32"/>
-      <c r="BR65" s="32"/>
-      <c r="BS65" s="32"/>
-      <c r="BT65" s="31"/>
-      <c r="BU65" s="27"/>
-      <c r="BV65" s="27"/>
-      <c r="BW65" s="27"/>
-      <c r="BX65" s="27"/>
-      <c r="BY65" s="27"/>
-      <c r="BZ65" s="27"/>
-      <c r="CA65" s="27"/>
+      <c r="BP65" s="31"/>
+      <c r="BQ65" s="31"/>
+      <c r="BR65" s="31"/>
+      <c r="BS65" s="31"/>
+      <c r="BT65" s="30"/>
+      <c r="BU65" s="26"/>
+      <c r="BV65" s="26"/>
+      <c r="BW65" s="26"/>
+      <c r="BX65" s="26"/>
+      <c r="BY65" s="26"/>
+      <c r="BZ65" s="26"/>
+      <c r="CA65" s="26"/>
     </row>
     <row r="66" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B66" s="5">
@@ -8772,18 +8780,18 @@
       <c r="BM66" s="11"/>
       <c r="BN66" s="11"/>
       <c r="BO66" s="11"/>
-      <c r="BP66" s="32"/>
-      <c r="BQ66" s="32"/>
-      <c r="BR66" s="32"/>
-      <c r="BS66" s="32"/>
-      <c r="BT66" s="31"/>
-      <c r="BU66" s="27"/>
-      <c r="BV66" s="27"/>
-      <c r="BW66" s="27"/>
-      <c r="BX66" s="27"/>
-      <c r="BY66" s="27"/>
-      <c r="BZ66" s="27"/>
-      <c r="CA66" s="27"/>
+      <c r="BP66" s="31"/>
+      <c r="BQ66" s="31"/>
+      <c r="BR66" s="31"/>
+      <c r="BS66" s="31"/>
+      <c r="BT66" s="30"/>
+      <c r="BU66" s="26"/>
+      <c r="BV66" s="26"/>
+      <c r="BW66" s="26"/>
+      <c r="BX66" s="26"/>
+      <c r="BY66" s="26"/>
+      <c r="BZ66" s="26"/>
+      <c r="CA66" s="26"/>
     </row>
     <row r="67" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B67" s="5">
@@ -8854,18 +8862,18 @@
       <c r="BM67" s="11"/>
       <c r="BN67" s="11"/>
       <c r="BO67" s="11"/>
-      <c r="BP67" s="32"/>
-      <c r="BQ67" s="32"/>
-      <c r="BR67" s="32"/>
-      <c r="BS67" s="32"/>
-      <c r="BT67" s="31"/>
-      <c r="BU67" s="27"/>
-      <c r="BV67" s="27"/>
-      <c r="BW67" s="27"/>
-      <c r="BX67" s="27"/>
-      <c r="BY67" s="27"/>
-      <c r="BZ67" s="27"/>
-      <c r="CA67" s="27"/>
+      <c r="BP67" s="31"/>
+      <c r="BQ67" s="31"/>
+      <c r="BR67" s="31"/>
+      <c r="BS67" s="31"/>
+      <c r="BT67" s="30"/>
+      <c r="BU67" s="26"/>
+      <c r="BV67" s="26"/>
+      <c r="BW67" s="26"/>
+      <c r="BX67" s="26"/>
+      <c r="BY67" s="26"/>
+      <c r="BZ67" s="26"/>
+      <c r="CA67" s="26"/>
     </row>
     <row r="68" spans="2:79" x14ac:dyDescent="0.35">
       <c r="B68" s="5">
@@ -8936,24 +8944,24 @@
       <c r="BM68" s="11"/>
       <c r="BN68" s="11"/>
       <c r="BO68" s="11"/>
-      <c r="BP68" s="32"/>
-      <c r="BQ68" s="32"/>
-      <c r="BR68" s="32"/>
-      <c r="BS68" s="32"/>
-      <c r="BT68" s="31"/>
-      <c r="BU68" s="27"/>
-      <c r="BV68" s="27"/>
-      <c r="BW68" s="27"/>
-      <c r="BX68" s="27"/>
-      <c r="BY68" s="27"/>
-      <c r="BZ68" s="27"/>
-      <c r="CA68" s="27"/>
+      <c r="BP68" s="31"/>
+      <c r="BQ68" s="31"/>
+      <c r="BR68" s="31"/>
+      <c r="BS68" s="31"/>
+      <c r="BT68" s="30"/>
+      <c r="BU68" s="26"/>
+      <c r="BV68" s="26"/>
+      <c r="BW68" s="26"/>
+      <c r="BX68" s="26"/>
+      <c r="BY68" s="26"/>
+      <c r="BZ68" s="26"/>
+      <c r="CA68" s="26"/>
     </row>
     <row r="69" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C69" s="34"/>
+      <c r="C69" s="33"/>
       <c r="D69" s="6">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -9072,7 +9080,7 @@
       </c>
       <c r="AG69" s="7">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH69" s="7">
         <f t="shared" si="1"/>
@@ -9123,7 +9131,7 @@
         <v>2</v>
       </c>
       <c r="AT69" s="7">
-        <f t="shared" si="1"/>
+        <f>AS69-SUM(AT7:AT68)</f>
         <v>2</v>
       </c>
       <c r="AU69" s="7">
@@ -9192,11 +9200,11 @@
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BL69" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BM69" s="7">
         <f t="shared" si="2"/>
@@ -9216,33 +9224,33 @@
       </c>
       <c r="BQ69" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR69" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS69" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="BT69" s="22">
+        <v>0</v>
+      </c>
+      <c r="BT69" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="BU69" s="28"/>
-      <c r="BV69" s="28"/>
-      <c r="BW69" s="28"/>
-      <c r="BX69" s="28"/>
-      <c r="BY69" s="28"/>
-      <c r="BZ69" s="28"/>
-      <c r="CA69" s="28"/>
+        <v>0</v>
+      </c>
+      <c r="BU69" s="27"/>
+      <c r="BV69" s="27"/>
+      <c r="BW69" s="27"/>
+      <c r="BX69" s="27"/>
+      <c r="BY69" s="27"/>
+      <c r="BZ69" s="27"/>
+      <c r="CA69" s="27"/>
     </row>
     <row r="70" spans="2:79" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="33"/>
+      <c r="C70" s="32"/>
       <c r="D70" s="3">
         <f>SUM(D6:D68)</f>
         <v>63</v>
@@ -9515,17 +9523,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BT70" s="23">
+      <c r="BT70" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BU70" s="29"/>
-      <c r="BV70" s="29"/>
-      <c r="BW70" s="29"/>
-      <c r="BX70" s="29"/>
-      <c r="BY70" s="29"/>
-      <c r="BZ70" s="29"/>
-      <c r="CA70" s="29"/>
+      <c r="BU70" s="28"/>
+      <c r="BV70" s="28"/>
+      <c r="BW70" s="28"/>
+      <c r="BX70" s="28"/>
+      <c r="BY70" s="28"/>
+      <c r="BZ70" s="28"/>
+      <c r="CA70" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
